--- a/practice/ltcode.xlsx
+++ b/practice/ltcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visawant/gen-next/vagrant/shared/fft-py/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E0368D-AA0A-5D43-9E8D-F86CC4852BD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEAADD8-C6AA-094E-9614-3F3460BA4EFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
+    <workbookView xWindow="4320" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="38" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="1866">
   <si>
     <t>https://leetcode.com/problems/maximum-width-ramp</t>
   </si>
@@ -5613,6 +5613,102 @@
   </si>
   <si>
     <t>For simlliar input XOR returns 0</t>
+  </si>
+  <si>
+    <t>Collect/store element as you scan to avoid 2 pass</t>
+  </si>
+  <si>
+    <t>Single Pass</t>
+  </si>
+  <si>
+    <t>Two Pass</t>
+  </si>
+  <si>
+    <t>Use of map/tuple in python</t>
+  </si>
+  <si>
+    <t>How to break tie?</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>How to break the tie?
+Sorting with hash map</t>
+  </si>
+  <si>
+    <t>Use of  collections.Counter API + Sorting</t>
+  </si>
+  <si>
+    <t>Heap + Hash map sort</t>
+  </si>
+  <si>
+    <t>Unable to do it in one pass</t>
+  </si>
+  <si>
+    <t>What happens for empty/ right/ left skewed trees?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top down </t>
+  </si>
+  <si>
+    <t>k-closest-points-to-origin</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-119/problems/k-closest-points-to-origin/</t>
+  </si>
+  <si>
+    <t>Single pass</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Python always use the min heap so think of using -ve for max heap O(N log K)
+&gt; Think of divide and conquer to find the kth pivot O(N)
+&gt; O(N log N) -&gt; O(N log K) -&gt; O(N)
+</t>
+  </si>
+  <si>
+    <t>&gt; Explore n_smallest w/ functional programming
+&gt; Sorting w/ fucntional programming w/ tuple w/ double w/ student , GPA 
+&gt; Go over https://docs.python.org/2/library/heapq.html</t>
+  </si>
+  <si>
+    <t>Bottom-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Case analysis  
+1. both nodes in the same subtree (left/right)
+2. Both nodes lie on different substree
+&gt; How to collect all parent nodes?
+</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>&gt; Python substring [i:j] = [i:j)</t>
+  </si>
+  <si>
+    <t>Two pass</t>
+  </si>
+  <si>
+    <t>&gt; Intent is find whether it reaches to any decision or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Visualize recursion
+&gt; Iteration trick w/
+&gt; Adjust reference trick </t>
+  </si>
+  <si>
+    <t>Recursion + Update reference</t>
+  </si>
+  <si>
+    <t>&gt; With auxillary set</t>
   </si>
 </sst>
 </file>
@@ -5762,16 +5858,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="234">
+  <dxfs count="235">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6438,6 +6534,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7219,59 +7318,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F8DE438-ABC8-3B4C-A642-CCC2A79EEC84}" name="Table of contents_table" displayName="Table_of_contents_table" ref="A1:A37" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232" dataCellStyle="Hyperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F8DE438-ABC8-3B4C-A642-CCC2A79EEC84}" name="Table of contents_table" displayName="Table_of_contents_table" ref="A1:A37" totalsRowShown="0" headerRowDxfId="234" dataDxfId="233" dataCellStyle="Hyperlink">
   <autoFilter ref="A1:A37" xr:uid="{2664F299-CE1B-E84A-AC94-9ABC64FE3EC3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5A4CF982-EF5E-C44E-A5F6-881E91ECCF3E}" name="Table of contents" dataDxfId="231" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{5A4CF982-EF5E-C44E-A5F6-881E91ECCF3E}" name="Table of contents" dataDxfId="232" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8AA3D4F9-E747-9644-BC2D-DBD8407C9B41}" name="depth-first-search_table" displayName="depth_first_search_table" ref="A1:E92" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
-  <autoFilter ref="A1:E92" xr:uid="{43BF464C-F70D-8346-A99D-E64B753BABE9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8AA3D4F9-E747-9644-BC2D-DBD8407C9B41}" name="depth-first-search_table" displayName="depth_first_search_table" ref="A1:E89" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177">
+  <autoFilter ref="A1:E89" xr:uid="{43BF464C-F70D-8346-A99D-E64B753BABE9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3FA8A903-CCAF-CB4C-AE9D-12275360FC4C}" name="Problem statement" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{766C9BE9-1244-F34A-8C77-D51D284B7B14}" name=" Problem Link" dataDxfId="174" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{B2E0E599-5C99-0740-9C26-F4A04492FFAC}" name=" Hint" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{465319F6-3760-9F4A-91BD-5BDF79AD6BE3}" name=" Solution link" dataDxfId="172"/>
-    <tableColumn id="5" xr3:uid="{51870B89-9C60-B64E-BB39-4219B006E762}" name=" Priority" dataDxfId="171"/>
+    <tableColumn id="1" xr3:uid="{3FA8A903-CCAF-CB4C-AE9D-12275360FC4C}" name="Problem statement" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{766C9BE9-1244-F34A-8C77-D51D284B7B14}" name=" Problem Link" dataDxfId="175" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{B2E0E599-5C99-0740-9C26-F4A04492FFAC}" name=" Hint" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{465319F6-3760-9F4A-91BD-5BDF79AD6BE3}" name=" Solution link" dataDxfId="173"/>
+    <tableColumn id="5" xr3:uid="{51870B89-9C60-B64E-BB39-4219B006E762}" name=" Priority" dataDxfId="172"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B74D5ADA-B6EC-9141-AAD5-DB12C575664A}" name="design_table" displayName="design_table" ref="A1:E39" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B74D5ADA-B6EC-9141-AAD5-DB12C575664A}" name="design_table" displayName="design_table" ref="A1:E39" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
   <autoFilter ref="A1:E39" xr:uid="{B94E7B81-C8B0-B24B-9892-1BAF4EB2686F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3045345-4885-CB42-8800-FB4CAAFB6D9B}" name="Problem statement" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{D693EF55-F88F-DF42-87F5-5DAC5A9B7A38}" name=" Problem Link" dataDxfId="167" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{901AA4F1-BA91-8042-86FF-05FC12792B56}" name=" Hint" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{D653518F-1EB0-A74B-A6F7-B5730466F23D}" name=" Solution link" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{DACE9988-2941-BF4B-807B-9CA322E4B396}" name=" Priority" dataDxfId="164"/>
+    <tableColumn id="1" xr3:uid="{B3045345-4885-CB42-8800-FB4CAAFB6D9B}" name="Problem statement" dataDxfId="169"/>
+    <tableColumn id="2" xr3:uid="{D693EF55-F88F-DF42-87F5-5DAC5A9B7A38}" name=" Problem Link" dataDxfId="168" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{901AA4F1-BA91-8042-86FF-05FC12792B56}" name=" Hint" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{D653518F-1EB0-A74B-A6F7-B5730466F23D}" name=" Solution link" dataDxfId="166"/>
+    <tableColumn id="5" xr3:uid="{DACE9988-2941-BF4B-807B-9CA322E4B396}" name=" Priority" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{964C3BA2-1894-824C-B282-347CC6BCE70C}" name="divide-and-conquer_table" displayName="divide_and_conquer_table" ref="A1:E18" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{964C3BA2-1894-824C-B282-347CC6BCE70C}" name="divide-and-conquer_table" displayName="divide_and_conquer_table" ref="A1:E18" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A1:E18" xr:uid="{17118068-C9BC-B643-9929-E24584AA56CD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{770060C7-63E9-454B-8A90-E5696964D80A}" name="Problem statement" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{41521D52-547F-8E4F-81CF-C792B89DA96F}" name=" Problem Link" dataDxfId="160" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{CC97EBCE-C27D-654F-942F-01913FEA5C94}" name=" Hint" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{8D0F4B60-D860-6649-A925-9FC8D55FF95B}" name=" Solution link" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{2CCF64A5-8627-5146-9DBD-D82327DE2B5D}" name=" Priority" dataDxfId="157"/>
+    <tableColumn id="1" xr3:uid="{770060C7-63E9-454B-8A90-E5696964D80A}" name="Problem statement" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{41521D52-547F-8E4F-81CF-C792B89DA96F}" name=" Problem Link" dataDxfId="161" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{CC97EBCE-C27D-654F-942F-01913FEA5C94}" name=" Hint" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{8D0F4B60-D860-6649-A925-9FC8D55FF95B}" name=" Solution link" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{2CCF64A5-8627-5146-9DBD-D82327DE2B5D}" name=" Priority" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{BAC75408-3481-604A-BF0E-60C872DE68E2}" name="dynamic-programming_table" displayName="dynamic_programming_table" ref="A1:E128" totalsRowShown="0" headerRowDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{BAC75408-3481-604A-BF0E-60C872DE68E2}" name="dynamic-programming_table" displayName="dynamic_programming_table" ref="A1:E128" totalsRowShown="0" headerRowDxfId="157">
   <autoFilter ref="A1:E128" xr:uid="{86E5A372-1AF9-3C45-B0E5-A8157EBDA600}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5879BEB2-6B83-014F-A801-F165E50B2310}" name="Problem statement"/>
@@ -7285,73 +7384,74 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1874BB7E-D59B-A04D-B37F-9843D7287BD3}" name="geometry_table" displayName="geometry_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1874BB7E-D59B-A04D-B37F-9843D7287BD3}" name="geometry_table" displayName="geometry_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="A1:E4" xr:uid="{908E1AC5-2F13-6547-B435-4A7276483BB7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{455FC1FD-6805-FF49-BF2C-BF404E82BABA}" name="Problem statement" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{8CACC866-AE39-E549-9A97-B3C030E29AD9}" name=" Problem Link" dataDxfId="152" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{BB9516E7-F39B-544B-9D98-B3ADD24E776E}" name=" Hint" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{25120BF5-9EE0-1C44-A7DB-8B70AF047411}" name=" Solution link" dataDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{597B4FFB-C15C-424F-944A-2C71D195389E}" name=" Priority" dataDxfId="149"/>
+    <tableColumn id="1" xr3:uid="{455FC1FD-6805-FF49-BF2C-BF404E82BABA}" name="Problem statement" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{8CACC866-AE39-E549-9A97-B3C030E29AD9}" name=" Problem Link" dataDxfId="153" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{BB9516E7-F39B-544B-9D98-B3ADD24E776E}" name=" Hint" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{25120BF5-9EE0-1C44-A7DB-8B70AF047411}" name=" Solution link" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{597B4FFB-C15C-424F-944A-2C71D195389E}" name=" Priority" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{842A51C4-955F-1B40-92DF-FA0111688D69}" name="graph_table" displayName="graph_table" ref="A1:E22" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{842A51C4-955F-1B40-92DF-FA0111688D69}" name="graph_table" displayName="graph_table" ref="A1:E22" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:E22" xr:uid="{A96F1F3A-941B-1846-9915-4C3467A98AEC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5259188F-D12C-B345-A6CF-0C177D4DD080}" name="Problem statement" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{68FCDB40-CBCA-E743-B144-4983A3FD3A6D}" name=" Problem Link" dataDxfId="145" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{D75CC4EA-2B11-344B-9E2E-27CC9C063F91}" name=" Hint" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{840A0859-66DC-0144-8CD3-1711B3B05801}" name=" Solution link" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{C590D98C-470B-6843-A441-E88F4BC4E078}" name=" Priority" dataDxfId="142"/>
+    <tableColumn id="1" xr3:uid="{5259188F-D12C-B345-A6CF-0C177D4DD080}" name="Problem statement" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{68FCDB40-CBCA-E743-B144-4983A3FD3A6D}" name=" Problem Link" dataDxfId="146" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{D75CC4EA-2B11-344B-9E2E-27CC9C063F91}" name=" Hint" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{840A0859-66DC-0144-8CD3-1711B3B05801}" name=" Solution link" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{C590D98C-470B-6843-A441-E88F4BC4E078}" name=" Priority" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{EF48D2A2-A31C-1043-B146-78DF460A6F25}" name="greedy_table" displayName="greedy_table" ref="A1:E46" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{EF48D2A2-A31C-1043-B146-78DF460A6F25}" name="greedy_table" displayName="greedy_table" ref="A1:E46" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="A1:E46" xr:uid="{43340416-B516-3C4C-A01A-40CEC92F299B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{347984D2-19A7-D344-BF4B-F76E3893A622}" name="Problem statement" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{E9FB83B1-0D8C-A846-8A8C-0915F0E1427E}" name=" Problem Link" dataDxfId="138" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{F3D4A33A-39F4-F04D-B5B6-7EBAF3CAC7BD}" name=" Hint" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{86EA47A7-D8C0-7046-A0F4-EFE723BC972D}" name=" Solution link" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{8245C972-5286-0343-B24E-37E522C438E6}" name=" Priority" dataDxfId="135"/>
+    <tableColumn id="1" xr3:uid="{347984D2-19A7-D344-BF4B-F76E3893A622}" name="Problem statement" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{E9FB83B1-0D8C-A846-8A8C-0915F0E1427E}" name=" Problem Link" dataDxfId="139" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{F3D4A33A-39F4-F04D-B5B6-7EBAF3CAC7BD}" name=" Hint" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{86EA47A7-D8C0-7046-A0F4-EFE723BC972D}" name=" Solution link" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{8245C972-5286-0343-B24E-37E522C438E6}" name=" Priority" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{05A13C44-4AE2-AF4C-8422-8DE042D27391}" name="hash-table_table" displayName="hash_table_table" ref="A1:E96" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
-  <autoFilter ref="A1:E96" xr:uid="{0B615990-A03E-3E47-911B-88E684A3161B}"/>
-  <sortState ref="A2:E96">
-    <sortCondition ref="A1:A96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{05A13C44-4AE2-AF4C-8422-8DE042D27391}" name="hash-table_table" displayName="hash_table_table" ref="A1:E95" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+  <autoFilter ref="A1:E95" xr:uid="{0B615990-A03E-3E47-911B-88E684A3161B}"/>
+  <sortState ref="A2:E95">
+    <sortCondition ref="A1:A95"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{26CDA143-15AD-D34E-B1D7-993A973A521C}" name="Problem statement" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{8114E3DF-E130-3641-971F-E31610E946A9}" name=" Problem Link" dataDxfId="131" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{322B2F02-10B7-C741-BAE3-5B1C75295E03}" name=" Hint" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{CA4C58C0-F683-F14C-9EE5-E7E77B187424}" name=" Solution link" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{B79490C4-5502-6145-B79B-02FC19A78CAC}" name=" Priority" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{26CDA143-15AD-D34E-B1D7-993A973A521C}" name="Problem statement" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{8114E3DF-E130-3641-971F-E31610E946A9}" name=" Problem Link" dataDxfId="132" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{322B2F02-10B7-C741-BAE3-5B1C75295E03}" name=" Hint" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{CA4C58C0-F683-F14C-9EE5-E7E77B187424}" name=" Solution link" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{B79490C4-5502-6145-B79B-02FC19A78CAC}" name=" Priority" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{260192B8-2377-0F4A-8877-94828EFC5DF1}" name="heap_table" displayName="heap_table" ref="A1:E32" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
-  <autoFilter ref="A1:E32" xr:uid="{809F5217-79DF-D448-A4B5-0FB8E2B6CC14}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DABC9CC-B817-494E-99CA-D5FD04C58C2C}" name="Problem statement" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{9C1CBB69-DBC7-404B-86DF-C2353F3DFEF9}" name=" Problem Link" dataDxfId="124" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{D505FB0D-7DE1-AE43-9723-DD22C5BE97D0}" name=" Hint" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{A7C23067-7CED-4949-B712-E6B64D9518E8}" name=" Solution link" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{B7587719-B830-D442-BC2A-2F2975A0D979}" name=" Priority" dataDxfId="121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{260192B8-2377-0F4A-8877-94828EFC5DF1}" name="heap_table" displayName="heap_table" ref="A1:F33" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+  <autoFilter ref="A1:F33" xr:uid="{809F5217-79DF-D448-A4B5-0FB8E2B6CC14}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7DABC9CC-B817-494E-99CA-D5FD04C58C2C}" name="Problem statement" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{9C1CBB69-DBC7-404B-86DF-C2353F3DFEF9}" name=" Problem Link" dataDxfId="125" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{D505FB0D-7DE1-AE43-9723-DD22C5BE97D0}" name=" Hint" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{A7C23067-7CED-4949-B712-E6B64D9518E8}" name=" Solution link" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{B7587719-B830-D442-BC2A-2F2975A0D979}" name=" Priority" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{868D1A53-8205-644A-85EA-E4B078CE1C89}" name="Action" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7372,14 +7472,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FB0C4A6-78E1-AB4B-99B4-C30F903B4029}" name="array_table" displayName="array_table" ref="A1:E153" totalsRowShown="0" headerRowDxfId="230">
-  <autoFilter ref="A1:E153" xr:uid="{328971D1-A5DE-BE4D-8D0D-E6893AEFD892}"/>
-  <sortState ref="A2:E153">
-    <sortCondition ref="A1:A153"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FB0C4A6-78E1-AB4B-99B4-C30F903B4029}" name="array_table" displayName="array_table" ref="A1:E151" totalsRowShown="0" headerRowDxfId="231">
+  <autoFilter ref="A1:E151" xr:uid="{328971D1-A5DE-BE4D-8D0D-E6893AEFD892}"/>
+  <sortState ref="A2:E151">
+    <sortCondition ref="A1:A151"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2291C374-7F8E-3A4F-A84D-D1CF8927A7F4}" name="Problem statement" dataDxfId="229"/>
-    <tableColumn id="2" xr3:uid="{1E81B206-50A8-5949-A02B-DC563EE37EA8}" name=" Problem Link" dataDxfId="228" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{2291C374-7F8E-3A4F-A84D-D1CF8927A7F4}" name="Problem statement" dataDxfId="230"/>
+    <tableColumn id="2" xr3:uid="{1E81B206-50A8-5949-A02B-DC563EE37EA8}" name=" Problem Link" dataDxfId="229" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{6913C1FC-660C-5E4A-B1AC-F4D6372516DE}" name=" Hint"/>
     <tableColumn id="4" xr3:uid="{D5E7D5CD-50E9-724B-8D0F-B611CAE92F08}" name=" Solution link"/>
     <tableColumn id="5" xr3:uid="{8BD5D1BD-0B06-DF49-81B7-E1E4F9D1FB32}" name=" Priority"/>
@@ -7529,18 +7629,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FAAFA1A8-A474-3E40-AED6-A16B0F0DD9A8}" name="backtracking_table" displayName="backtracking_table" ref="A1:F40" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FAAFA1A8-A474-3E40-AED6-A16B0F0DD9A8}" name="backtracking_table" displayName="backtracking_table" ref="A1:F40" totalsRowShown="0" headerRowDxfId="228" dataDxfId="227">
   <autoFilter ref="A1:F40" xr:uid="{50A963EF-976A-6348-B3D9-1C457A8D56B4}"/>
   <sortState ref="A2:F40">
     <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF661D08-75E7-BE48-9BF2-ECE03910033B}" name="Problem statement" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{00AD8F6C-FB27-7B46-B9B7-1EBCA0D6983A}" name=" Problem Link" dataDxfId="224" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{B5AB7E31-9828-E947-A1FA-264FF98C51F3}" name=" Hint" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{F953FE01-5662-024F-B61F-F08A51E5B531}" name=" Solution link" dataDxfId="222"/>
-    <tableColumn id="5" xr3:uid="{9B8275D7-BCDC-2F47-9E8F-C31AA0AEDE86}" name=" Priority" dataDxfId="221"/>
-    <tableColumn id="6" xr3:uid="{04197398-6E04-9848-8F79-E18C0F07781A}" name="Column1" dataDxfId="220"/>
+    <tableColumn id="1" xr3:uid="{FF661D08-75E7-BE48-9BF2-ECE03910033B}" name="Problem statement" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{00AD8F6C-FB27-7B46-B9B7-1EBCA0D6983A}" name=" Problem Link" dataDxfId="225" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{B5AB7E31-9828-E947-A1FA-264FF98C51F3}" name=" Hint" dataDxfId="224"/>
+    <tableColumn id="4" xr3:uid="{F953FE01-5662-024F-B61F-F08A51E5B531}" name=" Solution link" dataDxfId="223"/>
+    <tableColumn id="5" xr3:uid="{9B8275D7-BCDC-2F47-9E8F-C31AA0AEDE86}" name=" Priority" dataDxfId="222"/>
+    <tableColumn id="6" xr3:uid="{04197398-6E04-9848-8F79-E18C0F07781A}" name="Column1" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7575,8 +7675,8 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{526DADC4-0331-8E46-8823-8CB20B1E6915}" name="string_table" displayName="string_table" ref="A1:E120" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="A1:E120" xr:uid="{09E79699-5B4E-4E4A-A230-833A7EB77300}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{526DADC4-0331-8E46-8823-8CB20B1E6915}" name="string_table" displayName="string_table" ref="A1:E118" totalsRowShown="0" headerRowDxfId="35">
+  <autoFilter ref="A1:E118" xr:uid="{09E79699-5B4E-4E4A-A230-833A7EB77300}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{75452879-3FAD-7541-B33F-A269B3CCA0EB}" name="Problem statement"/>
     <tableColumn id="2" xr3:uid="{C1C5FC0D-256B-A546-8E8C-B65D81030D97}" name=" Problem Link" dataCellStyle="Hyperlink"/>
@@ -7662,87 +7762,87 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2C5974E2-132B-EB42-998E-B954BB0C17BA}" name="binary-indexed-tree_table" displayName="binary_indexed_tree_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2C5974E2-132B-EB42-998E-B954BB0C17BA}" name="binary-indexed-tree_table" displayName="binary_indexed_tree_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219">
   <autoFilter ref="A1:E6" xr:uid="{8C4C4478-B2D2-A344-B0BD-6BF2AF529C5F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C9E0C009-4EB4-0944-9F21-65CEF56C6B3D}" name="Problem statement" dataDxfId="217"/>
-    <tableColumn id="2" xr3:uid="{E3826CE6-D6BB-8646-A2C8-92177C9BB031}" name=" Problem Link" dataDxfId="216" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{3453E097-24BF-6345-98C8-54DE5E0A0478}" name=" Hint" dataDxfId="215"/>
-    <tableColumn id="4" xr3:uid="{39BC8CB1-7E2F-F04F-AE3F-5D4EDA48A92A}" name=" Solution link" dataDxfId="214"/>
-    <tableColumn id="5" xr3:uid="{5AEBE957-74AC-0F4C-87A0-AC5D19A9949C}" name=" Priority" dataDxfId="213"/>
+    <tableColumn id="1" xr3:uid="{C9E0C009-4EB4-0944-9F21-65CEF56C6B3D}" name="Problem statement" dataDxfId="218"/>
+    <tableColumn id="2" xr3:uid="{E3826CE6-D6BB-8646-A2C8-92177C9BB031}" name=" Problem Link" dataDxfId="217" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{3453E097-24BF-6345-98C8-54DE5E0A0478}" name=" Hint" dataDxfId="216"/>
+    <tableColumn id="4" xr3:uid="{39BC8CB1-7E2F-F04F-AE3F-5D4EDA48A92A}" name=" Solution link" dataDxfId="215"/>
+    <tableColumn id="5" xr3:uid="{5AEBE957-74AC-0F4C-87A0-AC5D19A9949C}" name=" Priority" dataDxfId="214"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B196AA9C-C04E-394D-8C29-1A25126EE3FC}" name="binary-search-tree_table" displayName="binary_search_tree_table" ref="A1:E15" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B196AA9C-C04E-394D-8C29-1A25126EE3FC}" name="binary-search-tree_table" displayName="binary_search_tree_table" ref="A1:E15" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
   <autoFilter ref="A1:E15" xr:uid="{3D4A91CF-4634-9E4F-88DB-2F51E4EE97AD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{70C63C53-DE39-7F44-B761-6ECDBF546978}" name="Problem statement" dataDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{C03687CB-5519-5944-91C2-79C3696FD151}" name=" Problem Link" dataDxfId="209" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{52DE3700-E6A5-C243-BEC1-EA2D47561974}" name=" Hint" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{5F8F3299-852E-B840-ABD1-C000384C0AAB}" name=" Solution link" dataDxfId="207"/>
-    <tableColumn id="5" xr3:uid="{D67468B2-5CEB-A948-AD39-01706C253567}" name=" Priority" dataDxfId="206"/>
+    <tableColumn id="1" xr3:uid="{70C63C53-DE39-7F44-B761-6ECDBF546978}" name="Problem statement" dataDxfId="211"/>
+    <tableColumn id="2" xr3:uid="{C03687CB-5519-5944-91C2-79C3696FD151}" name=" Problem Link" dataDxfId="210" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{52DE3700-E6A5-C243-BEC1-EA2D47561974}" name=" Hint" dataDxfId="209"/>
+    <tableColumn id="4" xr3:uid="{5F8F3299-852E-B840-ABD1-C000384C0AAB}" name=" Solution link" dataDxfId="208"/>
+    <tableColumn id="5" xr3:uid="{D67468B2-5CEB-A948-AD39-01706C253567}" name=" Priority" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2080DDDC-0C8F-9C43-A2F0-6A6DEB6AB430}" name="binary-search_table" displayName="binary_search_table" ref="A1:E61" totalsRowShown="0" headerRowDxfId="205" dataDxfId="204">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2080DDDC-0C8F-9C43-A2F0-6A6DEB6AB430}" name="binary-search_table" displayName="binary_search_table" ref="A1:E61" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
   <autoFilter ref="A1:E61" xr:uid="{3F51F787-1523-1549-89F1-3A8D0055B244}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8EC6A310-9556-6D4F-B622-FC08A5CFD525}" name="Problem statement" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{0EF2C2A6-3E97-0649-960E-6F4BEB31B9EC}" name=" Problem Link" dataDxfId="202" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{7FFBE823-6619-8A49-B88D-C11A826DAC6A}" name=" Hint" dataDxfId="201"/>
-    <tableColumn id="4" xr3:uid="{C4EEFE21-CD57-704D-B8E2-64BF341785AE}" name=" Solution link" dataDxfId="200"/>
-    <tableColumn id="5" xr3:uid="{DC2A4C4B-8F9B-4941-A0A5-F03A01FED342}" name=" Priority" dataDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{8EC6A310-9556-6D4F-B622-FC08A5CFD525}" name="Problem statement" dataDxfId="204"/>
+    <tableColumn id="2" xr3:uid="{0EF2C2A6-3E97-0649-960E-6F4BEB31B9EC}" name=" Problem Link" dataDxfId="203" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{7FFBE823-6619-8A49-B88D-C11A826DAC6A}" name=" Hint" dataDxfId="202"/>
+    <tableColumn id="4" xr3:uid="{C4EEFE21-CD57-704D-B8E2-64BF341785AE}" name=" Solution link" dataDxfId="201"/>
+    <tableColumn id="5" xr3:uid="{DC2A4C4B-8F9B-4941-A0A5-F03A01FED342}" name=" Priority" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{86DFB335-CFE2-5448-B875-26C3F1CA935E}" name="bit-manipulation_table" displayName="bit_manipulation_table" ref="A1:E33" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{86DFB335-CFE2-5448-B875-26C3F1CA935E}" name="bit-manipulation_table" displayName="bit_manipulation_table" ref="A1:E33" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
   <autoFilter ref="A1:E33" xr:uid="{8EF31324-4A16-D14D-80E8-A857CF2EF99A}"/>
   <sortState ref="A2:E33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F28FCA6D-41E9-374E-B68C-678905383B1E}" name="Problem statement" dataDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{815166F4-8E13-DE4B-BCD9-F11245DFD402}" name=" Problem Link" dataDxfId="195" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{5E4ACE64-4281-6D46-9BA6-73D0E42024EB}" name=" Hint" dataDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{4B57796C-5062-ED49-8534-FC4A1520EF2F}" name=" Solution link" dataDxfId="193"/>
-    <tableColumn id="5" xr3:uid="{54A7E9A6-8166-1F4F-BCAE-020B2AE055B4}" name=" Priority" dataDxfId="192"/>
+    <tableColumn id="1" xr3:uid="{F28FCA6D-41E9-374E-B68C-678905383B1E}" name="Problem statement" dataDxfId="197"/>
+    <tableColumn id="2" xr3:uid="{815166F4-8E13-DE4B-BCD9-F11245DFD402}" name=" Problem Link" dataDxfId="196" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{5E4ACE64-4281-6D46-9BA6-73D0E42024EB}" name=" Hint" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{4B57796C-5062-ED49-8534-FC4A1520EF2F}" name=" Solution link" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{54A7E9A6-8166-1F4F-BCAE-020B2AE055B4}" name=" Priority" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{22F5365D-44D6-1D44-94F1-287793FF31DA}" name="brainteaser_table" displayName="brainteaser_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{22F5365D-44D6-1D44-94F1-287793FF31DA}" name="brainteaser_table" displayName="brainteaser_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
   <autoFilter ref="A1:E4" xr:uid="{FD4BDDC8-BFCC-D740-9238-9DB30D47B6C0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6E8AC02B-C39D-7148-B110-A2D1877B6C2D}" name="Problem statement" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{2FC1AAAC-9404-5847-BFAB-9B53134EDD19}" name=" Problem Link" dataDxfId="188" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{7B43242A-1DDE-E74E-AD7A-E29E00D6E39E}" name=" Hint" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{60EE1216-A8F7-1947-B0BB-6E2A36D538DD}" name=" Solution link" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{EE2221AF-3D23-6B49-B0A7-0F01B7DC5782}" name=" Priority" dataDxfId="185"/>
+    <tableColumn id="1" xr3:uid="{6E8AC02B-C39D-7148-B110-A2D1877B6C2D}" name="Problem statement" dataDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{2FC1AAAC-9404-5847-BFAB-9B53134EDD19}" name=" Problem Link" dataDxfId="189" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{7B43242A-1DDE-E74E-AD7A-E29E00D6E39E}" name=" Hint" dataDxfId="188"/>
+    <tableColumn id="4" xr3:uid="{60EE1216-A8F7-1947-B0BB-6E2A36D538DD}" name=" Solution link" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{EE2221AF-3D23-6B49-B0A7-0F01B7DC5782}" name=" Priority" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{063DAC99-61CD-D44E-9AC0-45784D4C4E8D}" name="breadth-first-search_table" displayName="breadth_first_search_table" ref="A1:E47" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
-  <autoFilter ref="A1:E47" xr:uid="{7A0B055D-CCB2-224C-9C59-356D40A2E7F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{063DAC99-61CD-D44E-9AC0-45784D4C4E8D}" name="breadth-first-search_table" displayName="breadth_first_search_table" ref="A1:E46" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
+  <autoFilter ref="A1:E46" xr:uid="{7A0B055D-CCB2-224C-9C59-356D40A2E7F0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F9C53122-5D48-6A4F-8E95-92ECF6E1EA90}" name="Problem statement" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{97CB2444-3DBD-FD43-9969-D9308AF07168}" name=" Problem Link" dataDxfId="181" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{2F3A81B9-B5DB-0C4C-9357-13F4D3DE6005}" name=" Hint" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{5AAA3BD6-71F1-BA45-B25A-37BB52639003}" name=" Solution link" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{2A10F67F-650D-E349-A627-D9B625A00624}" name=" Priority" dataDxfId="178"/>
+    <tableColumn id="1" xr3:uid="{F9C53122-5D48-6A4F-8E95-92ECF6E1EA90}" name="Problem statement" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{97CB2444-3DBD-FD43-9969-D9308AF07168}" name=" Problem Link" dataDxfId="182" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{2F3A81B9-B5DB-0C4C-9357-13F4D3DE6005}" name=" Hint" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{5AAA3BD6-71F1-BA45-B25A-37BB52639003}" name=" Solution link" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{2A10F67F-650D-E349-A627-D9B625A00624}" name=" Priority" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8064,15 +8164,15 @@
       <c r="A1" s="6" t="s">
         <v>1758</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1795</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="22">
       <c r="A2" s="7" t="s">
@@ -8082,7 +8182,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -8094,7 +8194,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>1797</v>
       </c>
     </row>
@@ -8898,10 +8998,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1C494A-1134-654A-AF7A-B8418CA2EFAC}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8946,8 +9046,12 @@
         <v>752</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="85">
       <c r="A4" s="2" t="s">
@@ -8982,12 +9086,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="51">
+    <row r="7" spans="1:5" ht="34">
       <c r="A7" s="2" t="s">
-        <v>633</v>
+        <v>749</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>632</v>
+        <v>748</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -8995,43 +9099,43 @@
     </row>
     <row r="8" spans="1:5" ht="34">
       <c r="A8" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="34">
+    <row r="9" spans="1:5" ht="51">
       <c r="A9" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="51">
+    <row r="10" spans="1:5" ht="68">
       <c r="A10" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="68">
+    <row r="11" spans="1:5" ht="51">
       <c r="A11" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9039,10 +9143,10 @@
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9050,10 +9154,10 @@
     </row>
     <row r="13" spans="1:5" ht="51">
       <c r="A13" s="2" t="s">
-        <v>739</v>
+        <v>629</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>738</v>
+        <v>628</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9061,10 +9165,10 @@
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9072,10 +9176,10 @@
     </row>
     <row r="15" spans="1:5" ht="51">
       <c r="A15" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9083,32 +9187,32 @@
     </row>
     <row r="16" spans="1:5" ht="51">
       <c r="A16" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="51">
+    <row r="17" spans="1:5" ht="68">
       <c r="A17" s="2" t="s">
-        <v>621</v>
+        <v>737</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>620</v>
+        <v>736</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="68">
+    <row r="18" spans="1:5" ht="51">
       <c r="A18" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -9116,10 +9220,10 @@
     </row>
     <row r="19" spans="1:5" ht="51">
       <c r="A19" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -9127,10 +9231,10 @@
     </row>
     <row r="20" spans="1:5" ht="51">
       <c r="A20" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -9138,10 +9242,10 @@
     </row>
     <row r="21" spans="1:5" ht="51">
       <c r="A21" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -9149,32 +9253,32 @@
     </row>
     <row r="22" spans="1:5" ht="51">
       <c r="A22" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="51">
+    <row r="23" spans="1:5" ht="68">
       <c r="A23" s="2" t="s">
-        <v>613</v>
+        <v>725</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>612</v>
+        <v>724</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="51">
+    <row r="24" spans="1:5" ht="68">
       <c r="A24" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -9182,32 +9286,32 @@
     </row>
     <row r="25" spans="1:5" ht="68">
       <c r="A25" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="68">
+    <row r="26" spans="1:5" ht="51">
       <c r="A26" s="2" t="s">
-        <v>723</v>
+        <v>609</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>722</v>
+        <v>608</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="68">
+    <row r="27" spans="1:5" ht="34">
       <c r="A27" s="2" t="s">
-        <v>721</v>
+        <v>607</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>720</v>
+        <v>606</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9215,10 +9319,10 @@
     </row>
     <row r="28" spans="1:5" ht="51">
       <c r="A28" s="2" t="s">
-        <v>719</v>
+        <v>605</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>718</v>
+        <v>604</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -9226,43 +9330,43 @@
     </row>
     <row r="29" spans="1:5" ht="51">
       <c r="A29" s="2" t="s">
-        <v>609</v>
+        <v>717</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>608</v>
+        <v>716</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="34">
+    <row r="30" spans="1:5" ht="51">
       <c r="A30" s="2" t="s">
-        <v>607</v>
+        <v>715</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>606</v>
+        <v>714</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="51">
+    <row r="31" spans="1:5" ht="68">
       <c r="A31" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="51">
+    <row r="32" spans="1:5" ht="34">
       <c r="A32" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -9270,32 +9374,32 @@
     </row>
     <row r="33" spans="1:5" ht="51">
       <c r="A33" s="2" t="s">
-        <v>715</v>
+        <v>599</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>714</v>
+        <v>598</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="68">
+    <row r="34" spans="1:5" ht="51">
       <c r="A34" s="2" t="s">
-        <v>603</v>
+        <v>711</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>602</v>
+        <v>710</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="34">
+    <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -9303,32 +9407,32 @@
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>599</v>
+        <v>707</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>598</v>
+        <v>706</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="51">
+    <row r="37" spans="1:5" ht="34">
       <c r="A37" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="51">
+    <row r="38" spans="1:5" ht="34">
       <c r="A38" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -9336,10 +9440,10 @@
     </row>
     <row r="39" spans="1:5" ht="51">
       <c r="A39" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -9347,10 +9451,10 @@
     </row>
     <row r="40" spans="1:5" ht="34">
       <c r="A40" s="2" t="s">
-        <v>705</v>
+        <v>597</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>704</v>
+        <v>596</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -9358,43 +9462,43 @@
     </row>
     <row r="41" spans="1:5" ht="34">
       <c r="A41" s="2" t="s">
-        <v>703</v>
+        <v>595</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>702</v>
+        <v>594</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="51">
+    <row r="42" spans="1:5" ht="34">
       <c r="A42" s="2" t="s">
-        <v>701</v>
+        <v>593</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>700</v>
+        <v>592</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="34">
+    <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="34">
+    <row r="44" spans="1:5" ht="51">
       <c r="A44" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -9402,32 +9506,32 @@
     </row>
     <row r="45" spans="1:5" ht="34">
       <c r="A45" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="51">
+    <row r="46" spans="1:5" ht="34">
       <c r="A46" s="2" t="s">
-        <v>591</v>
+        <v>141</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>590</v>
+        <v>140</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="51">
+    <row r="47" spans="1:5" ht="34">
       <c r="A47" s="2" t="s">
-        <v>589</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>588</v>
+        <v>138</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -9435,10 +9539,10 @@
     </row>
     <row r="48" spans="1:5" ht="34">
       <c r="A48" s="2" t="s">
-        <v>587</v>
+        <v>699</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>586</v>
+        <v>698</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -9446,10 +9550,10 @@
     </row>
     <row r="49" spans="1:5" ht="34">
       <c r="A49" s="2" t="s">
-        <v>141</v>
+        <v>585</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>584</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -9457,10 +9561,10 @@
     </row>
     <row r="50" spans="1:5" ht="34">
       <c r="A50" s="2" t="s">
-        <v>139</v>
+        <v>697</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>138</v>
+        <v>696</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -9468,54 +9572,54 @@
     </row>
     <row r="51" spans="1:5" ht="34">
       <c r="A51" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" ht="34">
+    <row r="52" spans="1:5" ht="51">
       <c r="A52" s="2" t="s">
-        <v>585</v>
+        <v>693</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>584</v>
+        <v>692</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="34">
+    <row r="53" spans="1:5" ht="51">
       <c r="A53" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" ht="34">
+    <row r="54" spans="1:5" ht="51">
       <c r="A54" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="51">
+    <row r="55" spans="1:5" ht="34">
       <c r="A55" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -9523,10 +9627,10 @@
     </row>
     <row r="56" spans="1:5" ht="51">
       <c r="A56" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -9534,21 +9638,21 @@
     </row>
     <row r="57" spans="1:5" ht="51">
       <c r="A57" s="2" t="s">
-        <v>689</v>
+        <v>581</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>688</v>
+        <v>580</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="34">
+    <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -9556,10 +9660,10 @@
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>685</v>
+        <v>93</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>684</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -9567,10 +9671,10 @@
     </row>
     <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>581</v>
+        <v>681</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -9578,21 +9682,21 @@
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="51">
+    <row r="62" spans="1:5" ht="34">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>677</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>92</v>
+        <v>676</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -9600,10 +9704,10 @@
     </row>
     <row r="63" spans="1:5" ht="51">
       <c r="A63" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -9611,32 +9715,32 @@
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" ht="34">
+    <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>677</v>
+        <v>577</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>676</v>
+        <v>576</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="51">
+    <row r="66" spans="1:5" ht="34">
       <c r="A66" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -9644,10 +9748,10 @@
     </row>
     <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -9655,21 +9759,21 @@
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>576</v>
+        <v>496</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" ht="34">
+    <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>673</v>
+        <v>430</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>672</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -9677,10 +9781,10 @@
     </row>
     <row r="70" spans="1:5" ht="51">
       <c r="A70" s="2" t="s">
-        <v>671</v>
+        <v>569</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>670</v>
+        <v>568</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -9688,10 +9792,10 @@
     </row>
     <row r="71" spans="1:5" ht="51">
       <c r="A71" s="2" t="s">
-        <v>497</v>
+        <v>669</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>496</v>
+        <v>668</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -9699,10 +9803,10 @@
     </row>
     <row r="72" spans="1:5" ht="51">
       <c r="A72" s="2" t="s">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>429</v>
+        <v>666</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -9710,10 +9814,10 @@
     </row>
     <row r="73" spans="1:5" ht="51">
       <c r="A73" s="2" t="s">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -9721,10 +9825,10 @@
     </row>
     <row r="74" spans="1:5" ht="51">
       <c r="A74" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -9732,32 +9836,32 @@
     </row>
     <row r="75" spans="1:5" ht="51">
       <c r="A75" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="51">
+    <row r="76" spans="1:5" ht="34">
       <c r="A76" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="51">
+    <row r="77" spans="1:5" ht="68">
       <c r="A77" s="2" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -9765,21 +9869,21 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" ht="34">
+    <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>659</v>
+        <v>555</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>658</v>
+        <v>554</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -9787,10 +9891,10 @@
     </row>
     <row r="80" spans="1:5" ht="68">
       <c r="A80" s="2" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -9798,10 +9902,10 @@
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -9809,21 +9913,21 @@
     </row>
     <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>555</v>
+        <v>651</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>554</v>
+        <v>650</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="68">
+    <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -9831,10 +9935,10 @@
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>653</v>
+        <v>551</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>652</v>
+        <v>550</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -9842,10 +9946,10 @@
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -9853,21 +9957,21 @@
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="51">
+    <row r="87" spans="1:5" ht="68">
       <c r="A87" s="2" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -9875,10 +9979,10 @@
     </row>
     <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -9886,44 +9990,32 @@
     </row>
     <row r="89" spans="1:5" ht="51">
       <c r="A89" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" ht="68">
-      <c r="A90" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>642</v>
-      </c>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" ht="51">
-      <c r="A91" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>640</v>
-      </c>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="51">
-      <c r="A92" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>638</v>
-      </c>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -9962,27 +10054,6 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9991,96 +10062,93 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{6B4ED9E6-311A-FC43-B57B-474B9841EF3E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{171FF70D-AE19-5044-BED5-36FFA023F6C0}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{4E64F953-4858-5946-B4FD-9A24A3F536F1}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{2E7DB2EE-905F-4149-91F2-39A26B95832D}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{639456C9-480E-7846-A6BF-D5FBBAB1392D}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{393E6045-0CA4-6748-952E-8B0A642FCFF4}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{CFFF41B4-23F0-A341-B823-3089808AD0EC}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{B0972110-615A-BE48-B1E1-C2EF2B042E07}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{2EAD7248-F73C-FC46-BD27-8A52FAA07573}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{DE6EEB80-413C-2F4A-8681-E5C192BC4292}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{CA2C7EE0-3B78-DA4A-8951-C3565F5EE33C}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{E140327B-63AC-AB40-A092-6DD7E9264846}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{FDB9C5E9-68C5-2842-B0E4-A92D8D95DAB5}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{0911C232-77E5-D248-8954-A519280F3961}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{878430C5-5169-DC47-B2F8-EF2355C3B615}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{34B41B75-9444-FF4B-9050-71B98788D0E1}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{E372D620-7BC9-AE46-8F68-EBA3D7DFEE26}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{3A3B91BE-73CD-9740-8F46-C406F795A9C5}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{A3AD6BDF-F11B-3543-9727-DC4499DB24BB}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{67519B31-D3AF-714E-9B4A-57596D04F10B}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{35F4BC1D-7EC7-014F-B1B2-C217A63FEFA1}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{76E83943-EC6E-314B-97F9-AB90DF92ACF0}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{D87E99B4-AB55-0E4E-BDD3-E309BCA80398}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{07EA5A38-2210-5D4B-9509-D68136C8753E}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{0E6F614B-84ED-1545-8C47-DC1641E5D3F3}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{AFBC40FF-B608-AF4D-B322-4DF0E4A13008}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{C365F331-4A31-8B4E-80BF-C966BBB463AA}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{3AF341E4-974A-A74B-ADB0-34D96E2E1724}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{4DD62C4D-6647-FC45-B8EA-A63406280E56}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{AB2E57FF-834E-5F44-9140-F114B10BCA36}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{E468FA85-4C6A-594B-9B30-5C897B7E9D45}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{391AE344-DF03-8D48-8854-34FCD3C9F70B}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{4BE8F088-F99D-1841-A194-4A3BACD3E0F5}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{5CEACB73-F209-A24C-8EFD-6CBB34D5381F}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{FB91AC82-D3B5-EA48-9392-8DC355C67A2F}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{51BF2D54-EC24-8F46-A68D-2B28C86480DD}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{5CF14CC9-92E3-D24F-98D1-91EFF8896140}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{51A73454-6A39-D34A-A6B5-F3CB4678CE0B}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{6F2656AC-79AF-8F49-BF82-FB18BE327E9C}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{F09B340D-ED3B-4F4F-8AFD-2A6BBBA98332}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{A0A0BD76-EC97-E14E-85B7-7221C4A23435}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{16070D77-701F-7C46-A73F-1275CBDA266A}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{8E5C0E81-6842-4B44-A898-4B18476E6203}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{42FA4A88-97D0-4542-8815-1B5C69B2648C}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{2C5F7D80-B0CA-F64C-9874-2809CDAC4CE7}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{947A6A8B-0DBD-284F-AE14-2F00AAA011A6}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{C25D10A8-EFD7-4B47-9D7C-4B77E0130FBD}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{DC568CBC-DF2B-5546-B443-C77F07C6BD77}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{CA688C7A-4592-9C43-AC03-0C0B129C1880}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{89BF7C41-EBF7-734B-82F2-49F76C3AFFAD}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{DDC943B1-D5CC-C84B-85C1-6B87F6A68804}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{54009F67-E5D4-A84A-BCBA-7B7C515A720F}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{AD66F867-E45B-7C45-9ACB-C339A817630A}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{8F3226A7-3010-1543-ADC8-A883C0E0EF05}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{E7B366CF-E5E5-A547-A8C0-0384CDA243A5}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{9891D70D-18DD-6048-A774-3E15A7C9AD30}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{0E933442-5235-4E47-AB4B-B760595BD4AE}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{67382E3C-01D7-424C-A615-73F04416E60F}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{34CE19E3-9FD5-BF4D-9A93-F9AFDDC53587}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{3A2C3056-B2DF-BD4B-93DF-67036551693A}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{E3BC7317-F245-B24B-8B3B-1C23F22B6C7D}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{CC39006C-608C-874F-ACA9-70B1F8E99AED}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{AFEEC127-B2DA-304A-B7CE-D994F25338BA}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{2DEE7D8B-A9DC-0F4D-BB83-00719135BF6A}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{15E96708-3025-DF45-BD8E-D1F239253CB5}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{5A96A6AD-515E-2E41-B912-A9C80929A386}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{776DE7A4-4594-294B-953F-C17EC7DAA100}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{84DB5B85-6B94-164A-ADAF-F8103667D868}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{872AEA94-79F3-804A-AF49-1D9CE0601B29}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{03E45BBB-BD79-A94D-9B36-DEE2279570D5}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{2A0CDD46-F2CD-6F48-9AF2-04DFA2B5D27C}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{552F6BDD-1030-2A42-941F-B06F574F4943}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{1C07CDD4-83F5-AF4D-B214-D750884C8C28}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{1BE3DDAC-08D2-2A4E-B2E2-E1818CA76E67}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{BB6BA113-7B79-F940-B609-6401D6E56E97}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{51B7A4EF-31D5-5046-BF50-79C5566A93FC}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{5265ACF1-1934-A146-B1FD-7F43C0F6C184}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{19703A49-6C61-254C-B51A-ACD1356CA876}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{8D5F37AD-4819-B44B-A1EE-02EB964DFC6A}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{BEAE852C-CDDE-F643-98F1-4BE0B56FC2A0}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{59E73939-EBB9-9847-8091-3E5D5EC124D2}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{7353536E-553A-964A-9560-993F52D90FE2}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{24B9F3DA-EEBF-A643-BF16-E5A686F72027}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{25690252-C307-B548-B101-0DD573A57C39}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{F6CAF44B-E718-B84E-B7B4-69CEB4540524}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{9564AC73-D701-3149-A63C-EA92C87161E4}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{C7343099-C6F8-0740-BB8F-5E4F6D1EF075}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{EAC78E0F-F08A-C841-ADA9-31A8D52808BA}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{E6CFCD7A-8C98-E840-A6EC-FA328EAAD590}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{639456C9-480E-7846-A6BF-D5FBBAB1392D}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{393E6045-0CA4-6748-952E-8B0A642FCFF4}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{CFFF41B4-23F0-A341-B823-3089808AD0EC}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{B0972110-615A-BE48-B1E1-C2EF2B042E07}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{2EAD7248-F73C-FC46-BD27-8A52FAA07573}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{DE6EEB80-413C-2F4A-8681-E5C192BC4292}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{CA2C7EE0-3B78-DA4A-8951-C3565F5EE33C}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{E140327B-63AC-AB40-A092-6DD7E9264846}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{FDB9C5E9-68C5-2842-B0E4-A92D8D95DAB5}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{0911C232-77E5-D248-8954-A519280F3961}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{878430C5-5169-DC47-B2F8-EF2355C3B615}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{34B41B75-9444-FF4B-9050-71B98788D0E1}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{E372D620-7BC9-AE46-8F68-EBA3D7DFEE26}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{3A3B91BE-73CD-9740-8F46-C406F795A9C5}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{A3AD6BDF-F11B-3543-9727-DC4499DB24BB}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{35F4BC1D-7EC7-014F-B1B2-C217A63FEFA1}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{76E83943-EC6E-314B-97F9-AB90DF92ACF0}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{D87E99B4-AB55-0E4E-BDD3-E309BCA80398}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{07EA5A38-2210-5D4B-9509-D68136C8753E}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{AFBC40FF-B608-AF4D-B322-4DF0E4A13008}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{C365F331-4A31-8B4E-80BF-C966BBB463AA}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{3AF341E4-974A-A74B-ADB0-34D96E2E1724}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{4DD62C4D-6647-FC45-B8EA-A63406280E56}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{AB2E57FF-834E-5F44-9140-F114B10BCA36}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{E468FA85-4C6A-594B-9B30-5C897B7E9D45}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{391AE344-DF03-8D48-8854-34FCD3C9F70B}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{4BE8F088-F99D-1841-A194-4A3BACD3E0F5}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{5CEACB73-F209-A24C-8EFD-6CBB34D5381F}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{FB91AC82-D3B5-EA48-9392-8DC355C67A2F}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{51BF2D54-EC24-8F46-A68D-2B28C86480DD}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{5CF14CC9-92E3-D24F-98D1-91EFF8896140}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{51A73454-6A39-D34A-A6B5-F3CB4678CE0B}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{6F2656AC-79AF-8F49-BF82-FB18BE327E9C}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{F09B340D-ED3B-4F4F-8AFD-2A6BBBA98332}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{A0A0BD76-EC97-E14E-85B7-7221C4A23435}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{16070D77-701F-7C46-A73F-1275CBDA266A}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{8E5C0E81-6842-4B44-A898-4B18476E6203}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{42FA4A88-97D0-4542-8815-1B5C69B2648C}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{2C5F7D80-B0CA-F64C-9874-2809CDAC4CE7}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{947A6A8B-0DBD-284F-AE14-2F00AAA011A6}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{C25D10A8-EFD7-4B47-9D7C-4B77E0130FBD}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{DC568CBC-DF2B-5546-B443-C77F07C6BD77}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{CA688C7A-4592-9C43-AC03-0C0B129C1880}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{89BF7C41-EBF7-734B-82F2-49F76C3AFFAD}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{DDC943B1-D5CC-C84B-85C1-6B87F6A68804}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{54009F67-E5D4-A84A-BCBA-7B7C515A720F}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{AD66F867-E45B-7C45-9ACB-C339A817630A}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{8F3226A7-3010-1543-ADC8-A883C0E0EF05}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{E7B366CF-E5E5-A547-A8C0-0384CDA243A5}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{9891D70D-18DD-6048-A774-3E15A7C9AD30}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{0E933442-5235-4E47-AB4B-B760595BD4AE}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{67382E3C-01D7-424C-A615-73F04416E60F}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{34CE19E3-9FD5-BF4D-9A93-F9AFDDC53587}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{3A2C3056-B2DF-BD4B-93DF-67036551693A}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{E3BC7317-F245-B24B-8B3B-1C23F22B6C7D}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{CC39006C-608C-874F-ACA9-70B1F8E99AED}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{AFEEC127-B2DA-304A-B7CE-D994F25338BA}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{2DEE7D8B-A9DC-0F4D-BB83-00719135BF6A}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{15E96708-3025-DF45-BD8E-D1F239253CB5}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{5A96A6AD-515E-2E41-B912-A9C80929A386}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{776DE7A4-4594-294B-953F-C17EC7DAA100}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{84DB5B85-6B94-164A-ADAF-F8103667D868}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{872AEA94-79F3-804A-AF49-1D9CE0601B29}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{03E45BBB-BD79-A94D-9B36-DEE2279570D5}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{2A0CDD46-F2CD-6F48-9AF2-04DFA2B5D27C}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{552F6BDD-1030-2A42-941F-B06F574F4943}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{1C07CDD4-83F5-AF4D-B214-D750884C8C28}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{1BE3DDAC-08D2-2A4E-B2E2-E1818CA76E67}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{BB6BA113-7B79-F940-B609-6401D6E56E97}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{51B7A4EF-31D5-5046-BF50-79C5566A93FC}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{5265ACF1-1934-A146-B1FD-7F43C0F6C184}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{19703A49-6C61-254C-B51A-ACD1356CA876}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{8D5F37AD-4819-B44B-A1EE-02EB964DFC6A}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{BEAE852C-CDDE-F643-98F1-4BE0B56FC2A0}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{59E73939-EBB9-9847-8091-3E5D5EC124D2}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{7353536E-553A-964A-9560-993F52D90FE2}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{24B9F3DA-EEBF-A643-BF16-E5A686F72027}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{25690252-C307-B548-B101-0DD573A57C39}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{F6CAF44B-E718-B84E-B7B4-69CEB4540524}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{9564AC73-D701-3149-A63C-EA92C87161E4}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{C7343099-C6F8-0740-BB8F-5E4F6D1EF075}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{EAC78E0F-F08A-C841-ADA9-31A8D52808BA}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{E6CFCD7A-8C98-E840-A6EC-FA328EAAD590}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId92"/>
+    <tablePart r:id="rId89"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10091,7 +10159,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15859,10 +15927,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535FF035-F12B-B748-BED0-1904403C7C7E}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15994,9 +16062,15 @@
       <c r="B11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="2" t="s">
@@ -16170,9 +16244,15 @@
       <c r="B27" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="51">
       <c r="A28" s="2" t="s">
@@ -16192,9 +16272,15 @@
       <c r="B29" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="51">
       <c r="A30" s="2" t="s">
@@ -16658,9 +16744,15 @@
       <c r="B71" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="34">
       <c r="A72" s="2" t="s">
@@ -16745,12 +16837,12 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" ht="68">
+    <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>1159</v>
+        <v>1193</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -16758,10 +16850,10 @@
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -16769,10 +16861,10 @@
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>1209</v>
+        <v>127</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1208</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -16780,43 +16872,43 @@
     </row>
     <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>1107</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>126</v>
+        <v>1106</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="51">
+    <row r="83" spans="1:5" ht="68">
       <c r="A83" s="2" t="s">
-        <v>1107</v>
+        <v>1219</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1106</v>
+        <v>1218</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="68">
+    <row r="84" spans="1:5" ht="34">
       <c r="A84" s="2" t="s">
-        <v>1219</v>
+        <v>328</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1218</v>
+        <v>327</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="34">
+    <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>328</v>
+        <v>1171</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>327</v>
+        <v>1170</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -16824,54 +16916,66 @@
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>1171</v>
+        <v>1129</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+        <v>1128</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="51">
       <c r="A87" s="2" t="s">
-        <v>1129</v>
+        <v>167</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="34">
+        <v>166</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>825</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>166</v>
+        <v>824</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="51">
+    <row r="89" spans="1:5" ht="68">
       <c r="A89" s="2" t="s">
-        <v>825</v>
+        <v>1105</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>824</v>
+        <v>1104</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" ht="68">
+    <row r="90" spans="1:5" ht="51">
       <c r="A90" s="2" t="s">
-        <v>1105</v>
+        <v>813</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1104</v>
+        <v>812</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -16879,36 +16983,36 @@
     </row>
     <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>813</v>
+        <v>1175</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>1174</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1836</v>
+      </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="51">
+      <c r="E91" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="34">
       <c r="A92" s="2" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>1836</v>
-      </c>
+        <v>1184</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="34">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="51">
       <c r="A93" s="2" t="s">
-        <v>1185</v>
+        <v>1097</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1184</v>
+        <v>1096</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -16916,33 +17020,29 @@
     </row>
     <row r="94" spans="1:5" ht="51">
       <c r="A94" s="2" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" ht="51">
+    <row r="95" spans="1:5" ht="34">
       <c r="A95" s="2" t="s">
-        <v>1091</v>
+        <v>1181</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1090</v>
+        <v>1180</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="34">
-      <c r="A96" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>1180</v>
-      </c>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -16968,114 +17068,106 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E84A5F5F-0028-3045-A533-5E645F116769}"/>
-    <hyperlink ref="B84" r:id="rId2" xr:uid="{B66D2F96-F027-DB47-8D2F-4DD0CE76AB41}"/>
+    <hyperlink ref="B83" r:id="rId2" xr:uid="{B66D2F96-F027-DB47-8D2F-4DD0CE76AB41}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{A272FF23-3972-D845-9C1E-2A587CCD3848}"/>
     <hyperlink ref="B47" r:id="rId4" xr:uid="{490718A0-B293-F94C-9043-D1A833C3D796}"/>
     <hyperlink ref="B28" r:id="rId5" xr:uid="{4449E83B-C313-C949-9926-4B6AF833C22B}"/>
-    <hyperlink ref="B89" r:id="rId6" xr:uid="{DA7A7227-1A3A-3044-A917-7E71E6B79401}"/>
-    <hyperlink ref="B71" r:id="rId7" xr:uid="{467B1587-3FD5-D942-BD3A-D7E753E7B4C1}"/>
-    <hyperlink ref="B39" r:id="rId8" xr:uid="{1AC4EC8C-49C9-BE45-8A12-972D0DA3CD3D}"/>
-    <hyperlink ref="B76" r:id="rId9" xr:uid="{E9E9E097-E1DF-E14D-9DF2-F07B86E0D3BE}"/>
-    <hyperlink ref="B81" r:id="rId10" xr:uid="{F3FCAE50-AB96-084E-ACA8-61C061199CA3}"/>
-    <hyperlink ref="B30" r:id="rId11" xr:uid="{9DA9980A-564D-4E4B-8028-C6099B2998E1}"/>
-    <hyperlink ref="B66" r:id="rId12" xr:uid="{F3F2947B-0EE7-CF42-A413-A650D4877FF2}"/>
-    <hyperlink ref="B31" r:id="rId13" xr:uid="{9EA7DA55-7EB1-4C4B-8F50-8EEE6D08B2AE}"/>
-    <hyperlink ref="B91" r:id="rId14" xr:uid="{0DB3BE1B-5FF5-9642-8E25-EDF25CCD7B6A}"/>
-    <hyperlink ref="B10" r:id="rId15" xr:uid="{D057BFD4-4DE3-9E44-B532-D946E1247EAF}"/>
-    <hyperlink ref="B46" r:id="rId16" xr:uid="{3335065B-7A00-9E46-9B8B-7E288FAA814F}"/>
-    <hyperlink ref="B65" r:id="rId17" xr:uid="{21FB827B-7124-D74C-A802-34CA23F62162}"/>
-    <hyperlink ref="B29" r:id="rId18" xr:uid="{762A62E3-86DA-6A4F-AE24-E73E217986AB}"/>
-    <hyperlink ref="B51" r:id="rId19" xr:uid="{99664847-B282-1B48-A1E4-9E2DA59D6C0F}"/>
-    <hyperlink ref="B80" r:id="rId20" xr:uid="{97D7BAC9-B6B7-5643-8F69-707CD956F333}"/>
-    <hyperlink ref="B55" r:id="rId21" xr:uid="{7AAEA996-D9A9-B544-A6CD-1D2717E50154}"/>
-    <hyperlink ref="B15" r:id="rId22" xr:uid="{82A49863-F073-C84A-A1EB-9896899EF78E}"/>
-    <hyperlink ref="B50" r:id="rId23" xr:uid="{714A8508-AAD5-7444-9257-1E74A5A59E7C}"/>
-    <hyperlink ref="B93" r:id="rId24" xr:uid="{738A3A9B-A787-AD47-80BF-CE9D55DDD2B0}"/>
-    <hyperlink ref="B8" r:id="rId25" xr:uid="{4F59B9DE-7FD5-DC4D-ACE7-35D69A825F4E}"/>
-    <hyperlink ref="B96" r:id="rId26" xr:uid="{CBE2BCD9-E4AC-D249-9690-18FDE1E95E6E}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{5E012491-2DE2-1940-86A0-C27094CAA40A}"/>
-    <hyperlink ref="B14" r:id="rId28" xr:uid="{35DDD992-CBF7-624F-B5FF-C359A1F27AFD}"/>
-    <hyperlink ref="B92" r:id="rId29" xr:uid="{BB785BE5-06C5-0647-825B-94F527E4BAA9}"/>
-    <hyperlink ref="B48" r:id="rId30" xr:uid="{E3B6E16D-DAF8-1D4E-A914-539774768B5E}"/>
-    <hyperlink ref="B77" r:id="rId31" xr:uid="{767A6AFF-9FBB-1042-8171-51E10931EF7A}"/>
-    <hyperlink ref="B12" r:id="rId32" xr:uid="{5B476CFD-2066-F14A-AEF3-79A08846C2C7}"/>
-    <hyperlink ref="B11" r:id="rId33" xr:uid="{9E5E89C7-6487-0547-814B-8BC1E0C9FC8A}"/>
-    <hyperlink ref="B88" r:id="rId34" xr:uid="{15558B97-C4C3-E24F-B14D-5368E869B406}"/>
-    <hyperlink ref="B86" r:id="rId35" xr:uid="{767E2392-CB88-3847-8D7C-3109378AA0EF}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{14C2F4CE-DC2E-E84F-9736-581832920796}"/>
-    <hyperlink ref="B19" r:id="rId37" xr:uid="{B380F834-F80D-CC40-8617-331D4A03108F}"/>
-    <hyperlink ref="B42" r:id="rId38" xr:uid="{BE3B534E-4B7F-5D41-9384-9D248CE292C8}"/>
-    <hyperlink ref="B70" r:id="rId39" xr:uid="{6667C8DE-3A0C-5B43-AC48-8093AC1CF382}"/>
-    <hyperlink ref="B43" r:id="rId40" xr:uid="{EEB6C91B-EFA6-484D-8953-38EF7E8299E4}"/>
-    <hyperlink ref="B34" r:id="rId41" xr:uid="{56F22103-F662-C14B-A99F-878980211EB4}"/>
-    <hyperlink ref="B35" r:id="rId42" xr:uid="{8656E25C-9961-CE41-88E4-2A1DE4B2AF19}"/>
-    <hyperlink ref="B26" r:id="rId43" xr:uid="{BC24434D-A0D7-7243-913C-304F516982A4}"/>
-    <hyperlink ref="B85" r:id="rId44" xr:uid="{89CB7333-322A-B646-8117-FDD40A914A34}"/>
-    <hyperlink ref="B45" r:id="rId45" xr:uid="{AA37C072-3775-3341-B041-A40E39E873EC}"/>
-    <hyperlink ref="B36" r:id="rId46" xr:uid="{FC40913F-05BA-C746-8D2B-FDAA9F7ECE86}"/>
-    <hyperlink ref="B58" r:id="rId47" xr:uid="{4181D682-73C9-FF42-A742-40EC7ED41F04}"/>
-    <hyperlink ref="B23" r:id="rId48" xr:uid="{24EF38CC-01BE-5946-97BF-B79B4B7EA69E}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{E0C89FF2-B3BE-4042-99F0-46E3A99556D3}"/>
-    <hyperlink ref="B79" r:id="rId50" xr:uid="{0CEED327-7BA3-F04A-BB0E-CBB5313BB4B7}"/>
-    <hyperlink ref="B3" r:id="rId51" xr:uid="{6F44CFDF-4143-8A4F-9B72-F6C14335D692}"/>
-    <hyperlink ref="B38" r:id="rId52" xr:uid="{4BD4AA4A-829A-4C4F-81FE-80D96084FAD7}"/>
-    <hyperlink ref="B41" r:id="rId53" xr:uid="{D1906D8D-1F41-2E4E-B876-446FAD33C7BA}"/>
-    <hyperlink ref="B59" r:id="rId54" xr:uid="{56D84650-3D61-E84D-847F-72D7C187C1CA}"/>
-    <hyperlink ref="B13" r:id="rId55" xr:uid="{FEC4F73C-FC94-004A-BD96-55B9F233FD7E}"/>
-    <hyperlink ref="B22" r:id="rId56" xr:uid="{EB1B7A63-22DE-B448-8BBD-9248D04A6451}"/>
-    <hyperlink ref="B9" r:id="rId57" xr:uid="{D1C087EA-598D-174A-BDF2-C7F2A557C997}"/>
-    <hyperlink ref="B20" r:id="rId58" xr:uid="{05D3BA87-68C6-8E40-A370-98E213035D71}"/>
-    <hyperlink ref="B44" r:id="rId59" xr:uid="{FC37779A-5008-F24E-BFB7-8DEF76FA76DA}"/>
-    <hyperlink ref="B57" r:id="rId60" xr:uid="{E6DB67AA-DFD1-3942-A9C9-446E061B3746}"/>
-    <hyperlink ref="B25" r:id="rId61" xr:uid="{9B005717-5C0B-8649-9596-DE3A47F7423E}"/>
-    <hyperlink ref="B52" r:id="rId62" xr:uid="{B3B5275E-E4DF-EB43-AC80-36E113E65DC4}"/>
-    <hyperlink ref="B78" r:id="rId63" xr:uid="{3179C41C-C303-D945-B3DE-FD29898A727C}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{9F0962B3-139E-F141-907E-56C433290757}"/>
-    <hyperlink ref="B72" r:id="rId65" xr:uid="{48E606A9-38E7-6740-9B92-5B36659BB226}"/>
-    <hyperlink ref="B33" r:id="rId66" xr:uid="{3AF75B7E-3CD7-9047-BA53-4A8BF9373564}"/>
-    <hyperlink ref="B21" r:id="rId67" xr:uid="{838DB0A1-5D64-2040-914F-3CE800D0054A}"/>
-    <hyperlink ref="B63" r:id="rId68" xr:uid="{56A18411-BE20-9446-8938-B842DE6B52AD}"/>
-    <hyperlink ref="B87" r:id="rId69" xr:uid="{561DA6DB-9B76-AE45-8ABD-11A7BC457197}"/>
-    <hyperlink ref="B64" r:id="rId70" xr:uid="{11D7933F-8DE4-CA4F-ADF5-C2F739D6086B}"/>
-    <hyperlink ref="B54" r:id="rId71" xr:uid="{409EE10D-8072-FF46-80FF-9CB3FA4EFE4D}"/>
-    <hyperlink ref="B49" r:id="rId72" xr:uid="{FF804F66-652C-E643-BEB9-AD28A5C03837}"/>
-    <hyperlink ref="B61" r:id="rId73" xr:uid="{44DC8E6A-2A5F-2C49-9CE5-F15AA347D662}"/>
-    <hyperlink ref="B73" r:id="rId74" xr:uid="{B823159A-95C6-1E40-8FC2-AE28E9FB9C09}"/>
-    <hyperlink ref="B16" r:id="rId75" xr:uid="{6FEE86CB-2C81-ED47-A69F-0926ECBFF48E}"/>
-    <hyperlink ref="B27" r:id="rId76" xr:uid="{1EE8EBE7-C944-B74F-8369-5FCC86017A67}"/>
-    <hyperlink ref="B75" r:id="rId77" xr:uid="{ED4D3A1E-FD9F-FA4A-99D5-59C979F8DA33}"/>
-    <hyperlink ref="B24" r:id="rId78" xr:uid="{5C853949-EBBA-4F44-8B62-F22C1167F750}"/>
-    <hyperlink ref="B5" r:id="rId79" xr:uid="{02E31A09-F837-2549-A551-680626AAE48D}"/>
-    <hyperlink ref="B40" r:id="rId80" xr:uid="{865E4DCF-CFFE-0E44-B2ED-DE2F8FB2BD75}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{057246F8-DC5B-8D40-A338-0B1A526095B7}"/>
-    <hyperlink ref="B68" r:id="rId82" xr:uid="{8AAF4266-27D4-1948-98F8-997BE7459A66}"/>
-    <hyperlink ref="B83" r:id="rId83" xr:uid="{F8341839-E748-984C-ACFF-F2F152D2F5D3}"/>
-    <hyperlink ref="B69" r:id="rId84" xr:uid="{59DFBAE7-7E1B-7D47-8212-F7979D90C2D1}"/>
-    <hyperlink ref="B18" r:id="rId85" xr:uid="{D4AC630C-820D-054F-8302-049AD2F28384}"/>
-    <hyperlink ref="B17" r:id="rId86" xr:uid="{BD68AFA7-367C-8F40-A4A5-D4BF8D2BFB11}"/>
-    <hyperlink ref="B90" r:id="rId87" xr:uid="{78464788-FA5D-0342-8C8C-7E1A46702F4C}"/>
-    <hyperlink ref="B53" r:id="rId88" xr:uid="{18B7977D-F971-7C49-BD94-4C69C610617C}"/>
-    <hyperlink ref="B6" r:id="rId89" xr:uid="{63BF238A-B263-734A-A2BD-D51E0418C710}"/>
-    <hyperlink ref="B56" r:id="rId90" xr:uid="{247D98F6-8130-8446-AF1B-56737B35B288}"/>
-    <hyperlink ref="B94" r:id="rId91" xr:uid="{71915A69-0AFE-3A45-AB4C-AE73BA856BB5}"/>
-    <hyperlink ref="B4" r:id="rId92" xr:uid="{C76427D4-C9D7-C447-A535-13291021F1E9}"/>
-    <hyperlink ref="B67" r:id="rId93" xr:uid="{7CCC268D-6261-1A4B-B883-5B3D19F50BB5}"/>
-    <hyperlink ref="B60" r:id="rId94" xr:uid="{2B71A2E7-43BC-0243-970A-B854B76A88EE}"/>
-    <hyperlink ref="B95" r:id="rId95" xr:uid="{CD2CF7EE-7106-2A40-BA2B-7CC6012CED6B}"/>
+    <hyperlink ref="B88" r:id="rId6" xr:uid="{DA7A7227-1A3A-3044-A917-7E71E6B79401}"/>
+    <hyperlink ref="B39" r:id="rId7" xr:uid="{1AC4EC8C-49C9-BE45-8A12-972D0DA3CD3D}"/>
+    <hyperlink ref="B76" r:id="rId8" xr:uid="{E9E9E097-E1DF-E14D-9DF2-F07B86E0D3BE}"/>
+    <hyperlink ref="B80" r:id="rId9" xr:uid="{F3FCAE50-AB96-084E-ACA8-61C061199CA3}"/>
+    <hyperlink ref="B30" r:id="rId10" xr:uid="{9DA9980A-564D-4E4B-8028-C6099B2998E1}"/>
+    <hyperlink ref="B66" r:id="rId11" xr:uid="{F3F2947B-0EE7-CF42-A413-A650D4877FF2}"/>
+    <hyperlink ref="B31" r:id="rId12" xr:uid="{9EA7DA55-7EB1-4C4B-8F50-8EEE6D08B2AE}"/>
+    <hyperlink ref="B90" r:id="rId13" xr:uid="{0DB3BE1B-5FF5-9642-8E25-EDF25CCD7B6A}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{D057BFD4-4DE3-9E44-B532-D946E1247EAF}"/>
+    <hyperlink ref="B46" r:id="rId15" xr:uid="{3335065B-7A00-9E46-9B8B-7E288FAA814F}"/>
+    <hyperlink ref="B65" r:id="rId16" xr:uid="{21FB827B-7124-D74C-A802-34CA23F62162}"/>
+    <hyperlink ref="B29" r:id="rId17" xr:uid="{762A62E3-86DA-6A4F-AE24-E73E217986AB}"/>
+    <hyperlink ref="B51" r:id="rId18" xr:uid="{99664847-B282-1B48-A1E4-9E2DA59D6C0F}"/>
+    <hyperlink ref="B79" r:id="rId19" xr:uid="{97D7BAC9-B6B7-5643-8F69-707CD956F333}"/>
+    <hyperlink ref="B55" r:id="rId20" xr:uid="{7AAEA996-D9A9-B544-A6CD-1D2717E50154}"/>
+    <hyperlink ref="B15" r:id="rId21" xr:uid="{82A49863-F073-C84A-A1EB-9896899EF78E}"/>
+    <hyperlink ref="B50" r:id="rId22" xr:uid="{714A8508-AAD5-7444-9257-1E74A5A59E7C}"/>
+    <hyperlink ref="B92" r:id="rId23" xr:uid="{738A3A9B-A787-AD47-80BF-CE9D55DDD2B0}"/>
+    <hyperlink ref="B8" r:id="rId24" xr:uid="{4F59B9DE-7FD5-DC4D-ACE7-35D69A825F4E}"/>
+    <hyperlink ref="B95" r:id="rId25" xr:uid="{CBE2BCD9-E4AC-D249-9690-18FDE1E95E6E}"/>
+    <hyperlink ref="B32" r:id="rId26" xr:uid="{5E012491-2DE2-1940-86A0-C27094CAA40A}"/>
+    <hyperlink ref="B14" r:id="rId27" xr:uid="{35DDD992-CBF7-624F-B5FF-C359A1F27AFD}"/>
+    <hyperlink ref="B91" r:id="rId28" xr:uid="{BB785BE5-06C5-0647-825B-94F527E4BAA9}"/>
+    <hyperlink ref="B48" r:id="rId29" xr:uid="{E3B6E16D-DAF8-1D4E-A914-539774768B5E}"/>
+    <hyperlink ref="B77" r:id="rId30" xr:uid="{767A6AFF-9FBB-1042-8171-51E10931EF7A}"/>
+    <hyperlink ref="B12" r:id="rId31" xr:uid="{5B476CFD-2066-F14A-AEF3-79A08846C2C7}"/>
+    <hyperlink ref="B11" r:id="rId32" xr:uid="{9E5E89C7-6487-0547-814B-8BC1E0C9FC8A}"/>
+    <hyperlink ref="B87" r:id="rId33" xr:uid="{15558B97-C4C3-E24F-B14D-5368E869B406}"/>
+    <hyperlink ref="B85" r:id="rId34" xr:uid="{767E2392-CB88-3847-8D7C-3109378AA0EF}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{14C2F4CE-DC2E-E84F-9736-581832920796}"/>
+    <hyperlink ref="B19" r:id="rId36" xr:uid="{B380F834-F80D-CC40-8617-331D4A03108F}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{BE3B534E-4B7F-5D41-9384-9D248CE292C8}"/>
+    <hyperlink ref="B70" r:id="rId38" xr:uid="{6667C8DE-3A0C-5B43-AC48-8093AC1CF382}"/>
+    <hyperlink ref="B43" r:id="rId39" xr:uid="{EEB6C91B-EFA6-484D-8953-38EF7E8299E4}"/>
+    <hyperlink ref="B34" r:id="rId40" xr:uid="{56F22103-F662-C14B-A99F-878980211EB4}"/>
+    <hyperlink ref="B35" r:id="rId41" xr:uid="{8656E25C-9961-CE41-88E4-2A1DE4B2AF19}"/>
+    <hyperlink ref="B26" r:id="rId42" xr:uid="{BC24434D-A0D7-7243-913C-304F516982A4}"/>
+    <hyperlink ref="B84" r:id="rId43" xr:uid="{89CB7333-322A-B646-8117-FDD40A914A34}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{AA37C072-3775-3341-B041-A40E39E873EC}"/>
+    <hyperlink ref="B36" r:id="rId45" xr:uid="{FC40913F-05BA-C746-8D2B-FDAA9F7ECE86}"/>
+    <hyperlink ref="B58" r:id="rId46" xr:uid="{4181D682-73C9-FF42-A742-40EC7ED41F04}"/>
+    <hyperlink ref="B23" r:id="rId47" xr:uid="{24EF38CC-01BE-5946-97BF-B79B4B7EA69E}"/>
+    <hyperlink ref="B62" r:id="rId48" xr:uid="{E0C89FF2-B3BE-4042-99F0-46E3A99556D3}"/>
+    <hyperlink ref="B3" r:id="rId49" xr:uid="{6F44CFDF-4143-8A4F-9B72-F6C14335D692}"/>
+    <hyperlink ref="B38" r:id="rId50" xr:uid="{4BD4AA4A-829A-4C4F-81FE-80D96084FAD7}"/>
+    <hyperlink ref="B41" r:id="rId51" xr:uid="{D1906D8D-1F41-2E4E-B876-446FAD33C7BA}"/>
+    <hyperlink ref="B59" r:id="rId52" xr:uid="{56D84650-3D61-E84D-847F-72D7C187C1CA}"/>
+    <hyperlink ref="B13" r:id="rId53" xr:uid="{FEC4F73C-FC94-004A-BD96-55B9F233FD7E}"/>
+    <hyperlink ref="B22" r:id="rId54" xr:uid="{EB1B7A63-22DE-B448-8BBD-9248D04A6451}"/>
+    <hyperlink ref="B9" r:id="rId55" xr:uid="{D1C087EA-598D-174A-BDF2-C7F2A557C997}"/>
+    <hyperlink ref="B20" r:id="rId56" xr:uid="{05D3BA87-68C6-8E40-A370-98E213035D71}"/>
+    <hyperlink ref="B44" r:id="rId57" xr:uid="{FC37779A-5008-F24E-BFB7-8DEF76FA76DA}"/>
+    <hyperlink ref="B57" r:id="rId58" xr:uid="{E6DB67AA-DFD1-3942-A9C9-446E061B3746}"/>
+    <hyperlink ref="B25" r:id="rId59" xr:uid="{9B005717-5C0B-8649-9596-DE3A47F7423E}"/>
+    <hyperlink ref="B52" r:id="rId60" xr:uid="{B3B5275E-E4DF-EB43-AC80-36E113E65DC4}"/>
+    <hyperlink ref="B78" r:id="rId61" xr:uid="{3179C41C-C303-D945-B3DE-FD29898A727C}"/>
+    <hyperlink ref="B74" r:id="rId62" xr:uid="{9F0962B3-139E-F141-907E-56C433290757}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{48E606A9-38E7-6740-9B92-5B36659BB226}"/>
+    <hyperlink ref="B33" r:id="rId64" xr:uid="{3AF75B7E-3CD7-9047-BA53-4A8BF9373564}"/>
+    <hyperlink ref="B21" r:id="rId65" xr:uid="{838DB0A1-5D64-2040-914F-3CE800D0054A}"/>
+    <hyperlink ref="B63" r:id="rId66" xr:uid="{56A18411-BE20-9446-8938-B842DE6B52AD}"/>
+    <hyperlink ref="B86" r:id="rId67" xr:uid="{561DA6DB-9B76-AE45-8ABD-11A7BC457197}"/>
+    <hyperlink ref="B64" r:id="rId68" xr:uid="{11D7933F-8DE4-CA4F-ADF5-C2F739D6086B}"/>
+    <hyperlink ref="B54" r:id="rId69" xr:uid="{409EE10D-8072-FF46-80FF-9CB3FA4EFE4D}"/>
+    <hyperlink ref="B49" r:id="rId70" xr:uid="{FF804F66-652C-E643-BEB9-AD28A5C03837}"/>
+    <hyperlink ref="B61" r:id="rId71" xr:uid="{44DC8E6A-2A5F-2C49-9CE5-F15AA347D662}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{B823159A-95C6-1E40-8FC2-AE28E9FB9C09}"/>
+    <hyperlink ref="B16" r:id="rId73" xr:uid="{6FEE86CB-2C81-ED47-A69F-0926ECBFF48E}"/>
+    <hyperlink ref="B27" r:id="rId74" xr:uid="{1EE8EBE7-C944-B74F-8369-5FCC86017A67}"/>
+    <hyperlink ref="B75" r:id="rId75" xr:uid="{ED4D3A1E-FD9F-FA4A-99D5-59C979F8DA33}"/>
+    <hyperlink ref="B24" r:id="rId76" xr:uid="{5C853949-EBBA-4F44-8B62-F22C1167F750}"/>
+    <hyperlink ref="B5" r:id="rId77" xr:uid="{02E31A09-F837-2549-A551-680626AAE48D}"/>
+    <hyperlink ref="B40" r:id="rId78" xr:uid="{865E4DCF-CFFE-0E44-B2ED-DE2F8FB2BD75}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{057246F8-DC5B-8D40-A338-0B1A526095B7}"/>
+    <hyperlink ref="B68" r:id="rId80" xr:uid="{8AAF4266-27D4-1948-98F8-997BE7459A66}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{F8341839-E748-984C-ACFF-F2F152D2F5D3}"/>
+    <hyperlink ref="B69" r:id="rId82" xr:uid="{59DFBAE7-7E1B-7D47-8212-F7979D90C2D1}"/>
+    <hyperlink ref="B18" r:id="rId83" xr:uid="{D4AC630C-820D-054F-8302-049AD2F28384}"/>
+    <hyperlink ref="B17" r:id="rId84" xr:uid="{BD68AFA7-367C-8F40-A4A5-D4BF8D2BFB11}"/>
+    <hyperlink ref="B89" r:id="rId85" xr:uid="{78464788-FA5D-0342-8C8C-7E1A46702F4C}"/>
+    <hyperlink ref="B53" r:id="rId86" xr:uid="{18B7977D-F971-7C49-BD94-4C69C610617C}"/>
+    <hyperlink ref="B6" r:id="rId87" xr:uid="{63BF238A-B263-734A-A2BD-D51E0418C710}"/>
+    <hyperlink ref="B56" r:id="rId88" xr:uid="{247D98F6-8130-8446-AF1B-56737B35B288}"/>
+    <hyperlink ref="B93" r:id="rId89" xr:uid="{71915A69-0AFE-3A45-AB4C-AE73BA856BB5}"/>
+    <hyperlink ref="B4" r:id="rId90" xr:uid="{C76427D4-C9D7-C447-A535-13291021F1E9}"/>
+    <hyperlink ref="B67" r:id="rId91" xr:uid="{7CCC268D-6261-1A4B-B883-5B3D19F50BB5}"/>
+    <hyperlink ref="B60" r:id="rId92" xr:uid="{2B71A2E7-43BC-0243-970A-B854B76A88EE}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{CD2CF7EE-7106-2A40-BA2B-7CC6012CED6B}"/>
+    <hyperlink ref="B71" r:id="rId94" xr:uid="{774D855B-3C54-6F46-8F89-F65BAC600D3E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId96"/>
+    <tablePart r:id="rId95"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17083,9 +17175,11 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972F36A9-9CE5-9548-AEE1-57F44432786C}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -17093,7 +17187,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="17">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>308</v>
       </c>
@@ -17109,8 +17203,11 @@
       <c r="E1" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51">
+      <c r="F1" s="4" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51">
       <c r="A2" s="2" t="s">
         <v>841</v>
       </c>
@@ -17120,8 +17217,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="34">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="34">
       <c r="A3" s="2" t="s">
         <v>989</v>
       </c>
@@ -17131,8 +17229,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="51">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="51">
       <c r="A4" s="2" t="s">
         <v>811</v>
       </c>
@@ -17142,8 +17241,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="51">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="2" t="s">
         <v>1231</v>
       </c>
@@ -17153,8 +17253,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="51">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="51">
       <c r="A6" s="2" t="s">
         <v>1229</v>
       </c>
@@ -17164,8 +17265,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="51">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="2" t="s">
         <v>376</v>
       </c>
@@ -17175,8 +17277,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="51">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="51">
       <c r="A8" s="2" t="s">
         <v>839</v>
       </c>
@@ -17186,8 +17289,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="51">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="2" t="s">
         <v>1171</v>
       </c>
@@ -17197,8 +17301,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="34">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="2" t="s">
         <v>791</v>
       </c>
@@ -17208,8 +17313,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="51">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="51">
       <c r="A11" s="2" t="s">
         <v>1081</v>
       </c>
@@ -17219,8 +17325,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="51">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="51">
       <c r="A12" s="2" t="s">
         <v>1227</v>
       </c>
@@ -17230,8 +17337,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="68">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="68">
       <c r="A13" s="2" t="s">
         <v>456</v>
       </c>
@@ -17241,8 +17349,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="51">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" s="2" t="s">
         <v>601</v>
       </c>
@@ -17252,8 +17361,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="51">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="51">
       <c r="A15" s="2" t="s">
         <v>1075</v>
       </c>
@@ -17263,19 +17373,27 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="68">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="68">
       <c r="A16" s="2" t="s">
         <v>1159</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="34">
+      <c r="C16" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="34">
       <c r="A17" s="2" t="s">
         <v>1065</v>
       </c>
@@ -17285,8 +17403,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="68">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="68">
       <c r="A18" s="2" t="s">
         <v>1059</v>
       </c>
@@ -17296,19 +17415,27 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="51">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="51">
+      <c r="C19" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="51">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -17318,8 +17445,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="51">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="2" t="s">
         <v>577</v>
       </c>
@@ -17329,8 +17457,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="51">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="51">
       <c r="A22" s="2" t="s">
         <v>1053</v>
       </c>
@@ -17340,8 +17469,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="51">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="51">
       <c r="A23" s="2" t="s">
         <v>1049</v>
       </c>
@@ -17351,8 +17481,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="51">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="51">
       <c r="A24" s="2" t="s">
         <v>430</v>
       </c>
@@ -17362,8 +17493,9 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="51">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="2" t="s">
         <v>428</v>
       </c>
@@ -17373,8 +17505,9 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="51">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="51">
       <c r="A26" s="2" t="s">
         <v>571</v>
       </c>
@@ -17384,8 +17517,9 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="34">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="34">
       <c r="A27" s="2" t="s">
         <v>873</v>
       </c>
@@ -17395,8 +17529,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="51">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="51">
       <c r="A28" s="2" t="s">
         <v>1225</v>
       </c>
@@ -17406,8 +17541,9 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="51">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="2" t="s">
         <v>559</v>
       </c>
@@ -17417,8 +17553,9 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="51">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="51">
       <c r="A30" s="2" t="s">
         <v>1223</v>
       </c>
@@ -17428,8 +17565,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="68">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="68">
       <c r="A31" s="2" t="s">
         <v>867</v>
       </c>
@@ -17439,8 +17577,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="68">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="68">
       <c r="A32" s="2" t="s">
         <v>1221</v>
       </c>
@@ -17450,113 +17589,127 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="323">
+      <c r="A33" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -17946,20 +18099,20 @@
     <hyperlink ref="B16" r:id="rId15" xr:uid="{57D91F60-D8FD-5C47-ABB8-750E46C9D5A0}"/>
     <hyperlink ref="B17" r:id="rId16" xr:uid="{BF14702C-47BE-D64F-BD30-F735BA72B5C9}"/>
     <hyperlink ref="B18" r:id="rId17" xr:uid="{4AD86034-3740-1E4A-BA18-10DD0452936E}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{7295CBC9-0574-D242-95CD-7A715D0E5361}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{A4FD3C2D-5133-CE4B-B51F-28CD1BC3472D}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{6458A795-E2F1-C946-92E7-2D957065A51C}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{6CC87E82-AD0B-794C-8E94-49E2AAED9B4D}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{9C34A1B2-B113-D14A-A4BE-AA4EAC99B206}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{09A38E49-053F-1B41-A214-302EA476248C}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{7D563493-388B-7544-ABFA-803DFAEA92C6}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{13A18AE1-C1CA-6146-9FA2-434ADD512D66}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{16AD60C0-A191-0045-9EFD-AE7C1E3D95DD}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{91B43585-E5C9-A545-AD15-0EFAF3DE654A}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{D6BA5155-2869-5845-BDAD-647BA9D9E9FE}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{5DF765A8-20E0-B045-9BC3-84465165C419}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{CF79A96B-6568-5E4C-92F8-B8092D452666}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{226318C5-3B02-9B4C-8EA8-FE19DD2E9ED6}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{A4FD3C2D-5133-CE4B-B51F-28CD1BC3472D}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{6458A795-E2F1-C946-92E7-2D957065A51C}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{6CC87E82-AD0B-794C-8E94-49E2AAED9B4D}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{9C34A1B2-B113-D14A-A4BE-AA4EAC99B206}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{09A38E49-053F-1B41-A214-302EA476248C}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{7D563493-388B-7544-ABFA-803DFAEA92C6}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{13A18AE1-C1CA-6146-9FA2-434ADD512D66}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{16AD60C0-A191-0045-9EFD-AE7C1E3D95DD}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{91B43585-E5C9-A545-AD15-0EFAF3DE654A}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{D6BA5155-2869-5845-BDAD-647BA9D9E9FE}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{5DF765A8-20E0-B045-9BC3-84465165C419}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{CF79A96B-6568-5E4C-92F8-B8092D452666}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{226318C5-3B02-9B4C-8EA8-FE19DD2E9ED6}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{5196CE57-16E1-7947-8446-A15328EE330C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -17973,7 +18126,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -18225,9 +18380,15 @@
       <c r="B22" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="51">
       <c r="A23" s="2" t="s">
@@ -18874,10 +19035,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0623B-E62E-3B42-B379-97562A831E49}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19129,111 +19290,108 @@
     </row>
     <row r="24" spans="1:5" ht="51">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="51">
       <c r="A25" s="2" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="51">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="51">
+        <v>146</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="68">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51">
+        <v>148</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="85">
       <c r="A28" s="2" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="68">
+    <row r="29" spans="1:5" ht="51">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="85">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="51">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="51">
+    <row r="31" spans="1:5" ht="68">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="51">
       <c r="A32" s="2" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="68">
+    <row r="33" spans="1:5" ht="51">
       <c r="A33" s="2" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="51">
       <c r="A34" s="2" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -19241,18 +19399,21 @@
     </row>
     <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -19260,111 +19421,111 @@
     </row>
     <row r="37" spans="1:5" ht="51">
       <c r="A37" s="2" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="51">
       <c r="A38" s="2" t="s">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="51">
       <c r="A39" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1798</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="51">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="34">
       <c r="A42" s="2" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="34">
+        <v>106</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="51">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="51">
+        <v>158</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="68">
       <c r="A45" s="2" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="51">
+    <row r="46" spans="1:5" ht="34">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="68">
+    <row r="47" spans="1:5" ht="34">
       <c r="A47" s="2" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -19372,10 +19533,10 @@
     </row>
     <row r="48" spans="1:5" ht="34">
       <c r="A48" s="2" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -19383,40 +19544,37 @@
     </row>
     <row r="49" spans="1:5" ht="34">
       <c r="A49" s="2" t="s">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="51">
       <c r="A50" s="2" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="34">
+    <row r="51" spans="1:5" ht="68">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="51">
       <c r="A52" s="2" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -19424,78 +19582,78 @@
     </row>
     <row r="53" spans="1:5" ht="68">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="34">
       <c r="A54" s="2" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="68">
+    <row r="55" spans="1:5" ht="34">
       <c r="A55" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="34">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="51">
       <c r="A56" s="2" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="34">
+    <row r="57" spans="1:5" ht="68">
       <c r="A57" s="2" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="51">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="68">
       <c r="A58" s="2" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="68">
+    <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -19503,135 +19661,138 @@
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="51">
       <c r="A62" s="2" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="51">
       <c r="A63" s="2" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="51">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="51">
+        <v>224</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="68">
       <c r="A67" s="2" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" ht="68">
+    <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="51">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="51">
+    <row r="71" spans="1:5" ht="68">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="68">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="68">
+    <row r="73" spans="1:5" ht="51">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="68">
+        <v>256</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="51">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -19639,64 +19800,64 @@
     </row>
     <row r="75" spans="1:5" ht="51">
       <c r="A75" s="2" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="68">
       <c r="A76" s="2" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -19704,48 +19865,48 @@
     </row>
     <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="68">
       <c r="A83" s="2" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="68">
+        <v>284</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -19753,10 +19914,10 @@
     </row>
     <row r="87" spans="1:5" ht="51">
       <c r="A87" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -19764,110 +19925,110 @@
     </row>
     <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="34">
       <c r="A89" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" ht="51">
+    <row r="90" spans="1:5" ht="34">
       <c r="A90" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="34">
       <c r="A91" s="2" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="51">
       <c r="A92" s="2" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="34">
+        <v>222</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="51">
       <c r="A93" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="68">
       <c r="A94" s="2" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="68">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="51">
       <c r="A96" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="51">
       <c r="A97" s="2" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" ht="51">
       <c r="A98" s="2" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="51">
+        <v>262</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="34">
       <c r="A99" s="2" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -19875,89 +20036,89 @@
     </row>
     <row r="100" spans="1:5" ht="51">
       <c r="A100" s="2" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="34">
       <c r="A101" s="2" t="s">
-        <v>283</v>
+        <v>65</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="51">
       <c r="A102" s="2" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="34">
       <c r="A103" s="2" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="51">
+        <v>160</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="34">
       <c r="A104" s="2" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" ht="34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="68">
       <c r="A105" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" ht="34">
+    <row r="106" spans="1:5" ht="68">
       <c r="A106" s="2" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="68">
+        <v>272</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="51">
       <c r="A107" s="2" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5" ht="68">
+    <row r="108" spans="1:5" ht="51">
       <c r="A108" s="2" t="s">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -19965,59 +20126,59 @@
     </row>
     <row r="109" spans="1:5" ht="51">
       <c r="A109" s="2" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" ht="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="34">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="34">
       <c r="A111" s="2" t="s">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" ht="34">
       <c r="A112" s="2" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="34">
+        <v>208</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="51">
       <c r="A113" s="2" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5" ht="34">
+    <row r="114" spans="1:5" ht="51">
       <c r="A114" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -20025,10 +20186,10 @@
     </row>
     <row r="115" spans="1:5" ht="51">
       <c r="A115" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -20036,10 +20197,10 @@
     </row>
     <row r="116" spans="1:5" ht="51">
       <c r="A116" s="2" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -20047,21 +20208,21 @@
     </row>
     <row r="117" spans="1:5" ht="51">
       <c r="A117" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" ht="51">
+    <row r="118" spans="1:5" ht="68">
       <c r="A118" s="2" t="s">
-        <v>297</v>
+        <v>125</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -20069,91 +20230,91 @@
     </row>
     <row r="119" spans="1:5" ht="51">
       <c r="A119" s="2" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" ht="68">
+      <c r="D119" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="85">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="121" spans="1:5" ht="51">
       <c r="A121" s="2" t="s">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="51">
       <c r="A122" s="2" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="34">
       <c r="A123" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="51">
+        <v>178</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" ht="34">
       <c r="A124" s="2" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="34">
+        <v>210</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" ht="51">
       <c r="A125" s="2" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5" ht="34">
+    <row r="126" spans="1:5" ht="51">
       <c r="A126" s="2" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -20161,100 +20322,100 @@
     </row>
     <row r="127" spans="1:5" ht="51">
       <c r="A127" s="2" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="128" spans="1:5" ht="51">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" ht="51">
+    <row r="129" spans="1:5" ht="34">
       <c r="A129" s="2" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="51">
+        <v>276</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" ht="34">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" ht="34">
+    <row r="131" spans="1:5" ht="51">
       <c r="A131" s="2" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" ht="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="51">
       <c r="A132" s="2" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="51">
       <c r="A133" s="2" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="51">
+        <v>240</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="34">
       <c r="A134" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" ht="51">
       <c r="A135" s="2" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" ht="34">
+    <row r="136" spans="1:5" ht="51">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -20262,67 +20423,67 @@
     </row>
     <row r="137" spans="1:5" ht="51">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="138" spans="1:5" ht="51">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="51">
       <c r="A139" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="51">
       <c r="A140" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="51">
+        <v>186</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" ht="34">
       <c r="A141" s="2" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="51">
+        <v>260</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="34">
       <c r="A142" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" ht="34">
+    <row r="143" spans="1:5" ht="51">
       <c r="A143" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -20330,10 +20491,10 @@
     </row>
     <row r="144" spans="1:5" ht="34">
       <c r="A144" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -20341,51 +20502,51 @@
     </row>
     <row r="145" spans="1:5" ht="51">
       <c r="A145" s="2" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" ht="34">
+    <row r="146" spans="1:5" ht="51">
       <c r="A146" s="2" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="147" spans="1:5" ht="51">
       <c r="A147" s="2" t="s">
-        <v>287</v>
+        <v>119</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" ht="51">
+    <row r="148" spans="1:5" ht="34">
       <c r="A148" s="2" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="51">
+        <v>230</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" ht="34">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -20393,42 +20554,20 @@
     </row>
     <row r="150" spans="1:5" ht="34">
       <c r="A150" s="2" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" ht="34">
+    <row r="151" spans="1:5" ht="51">
       <c r="A151" s="2" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" ht="34">
-      <c r="A152" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" ht="51">
-      <c r="A153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -20437,159 +20576,157 @@
     <hyperlink ref="B23" r:id="rId1" xr:uid="{C2AAC02D-DC19-6E4F-971B-93E7F37EA900}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{8337563B-4B3E-3E49-B132-EAD139832647}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{905CA439-9B6B-D34B-838F-ECEB2C3862C3}"/>
-    <hyperlink ref="B118" r:id="rId4" xr:uid="{00810A04-6CB6-C145-B455-1AEF84431738}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{3F927600-5D49-DE44-9327-B5EFBAA4939E}"/>
-    <hyperlink ref="B50" r:id="rId6" xr:uid="{E975448C-2F50-AB48-835C-ABC21A7C1A2D}"/>
-    <hyperlink ref="B49" r:id="rId7" xr:uid="{217D1D9D-9CF6-7D4B-967D-AAC215B34EC8}"/>
-    <hyperlink ref="B127" r:id="rId8" xr:uid="{EBDD7172-49FE-C447-BF1A-E50BD9BD9E11}"/>
-    <hyperlink ref="B147" r:id="rId9" xr:uid="{DB902742-0834-A34B-829E-9949935C7817}"/>
-    <hyperlink ref="B86" r:id="rId10" xr:uid="{E465A72D-9B7D-5740-8522-8F2F3B9FF7B3}"/>
-    <hyperlink ref="B101" r:id="rId11" xr:uid="{40FD8F35-4BF7-2048-80F6-EE17F1EFB2D7}"/>
-    <hyperlink ref="B119" r:id="rId12" xr:uid="{589D8352-3CD0-6946-B286-716476626E3D}"/>
-    <hyperlink ref="B115" r:id="rId13" xr:uid="{D085B727-C3E3-AA4B-BBC6-8B23BA055B7F}"/>
-    <hyperlink ref="B131" r:id="rId14" xr:uid="{55051BD2-12AC-994F-BCAA-B1E96006C5F2}"/>
-    <hyperlink ref="B152" r:id="rId15" xr:uid="{8DE15EDE-C57F-5D4F-9269-E73157FD4F4C}"/>
-    <hyperlink ref="B108" r:id="rId16" xr:uid="{41FB5783-315A-234F-B343-38C4DA675281}"/>
-    <hyperlink ref="B117" r:id="rId17" xr:uid="{C6387FBE-AF13-3146-903E-FC081833902C}"/>
-    <hyperlink ref="B54" r:id="rId18" xr:uid="{EA90135C-E13E-784F-A89A-1E4F397A0C09}"/>
+    <hyperlink ref="B116" r:id="rId4" xr:uid="{00810A04-6CB6-C145-B455-1AEF84431738}"/>
+    <hyperlink ref="B36" r:id="rId5" xr:uid="{3F927600-5D49-DE44-9327-B5EFBAA4939E}"/>
+    <hyperlink ref="B48" r:id="rId6" xr:uid="{E975448C-2F50-AB48-835C-ABC21A7C1A2D}"/>
+    <hyperlink ref="B47" r:id="rId7" xr:uid="{217D1D9D-9CF6-7D4B-967D-AAC215B34EC8}"/>
+    <hyperlink ref="B125" r:id="rId8" xr:uid="{EBDD7172-49FE-C447-BF1A-E50BD9BD9E11}"/>
+    <hyperlink ref="B145" r:id="rId9" xr:uid="{DB902742-0834-A34B-829E-9949935C7817}"/>
+    <hyperlink ref="B84" r:id="rId10" xr:uid="{E465A72D-9B7D-5740-8522-8F2F3B9FF7B3}"/>
+    <hyperlink ref="B99" r:id="rId11" xr:uid="{40FD8F35-4BF7-2048-80F6-EE17F1EFB2D7}"/>
+    <hyperlink ref="B117" r:id="rId12" xr:uid="{589D8352-3CD0-6946-B286-716476626E3D}"/>
+    <hyperlink ref="B113" r:id="rId13" xr:uid="{D085B727-C3E3-AA4B-BBC6-8B23BA055B7F}"/>
+    <hyperlink ref="B129" r:id="rId14" xr:uid="{55051BD2-12AC-994F-BCAA-B1E96006C5F2}"/>
+    <hyperlink ref="B150" r:id="rId15" xr:uid="{8DE15EDE-C57F-5D4F-9269-E73157FD4F4C}"/>
+    <hyperlink ref="B106" r:id="rId16" xr:uid="{41FB5783-315A-234F-B343-38C4DA675281}"/>
+    <hyperlink ref="B115" r:id="rId17" xr:uid="{C6387FBE-AF13-3146-903E-FC081833902C}"/>
+    <hyperlink ref="B52" r:id="rId18" xr:uid="{EA90135C-E13E-784F-A89A-1E4F397A0C09}"/>
     <hyperlink ref="B22" r:id="rId19" xr:uid="{FBCE4B19-59F1-C64C-806A-21178990185C}"/>
     <hyperlink ref="B21" r:id="rId20" xr:uid="{60374BD5-C8F7-8043-9A92-64BDB5447A39}"/>
-    <hyperlink ref="B100" r:id="rId21" xr:uid="{FF45E500-8F31-5740-84F2-AA5D801BFD94}"/>
-    <hyperlink ref="B143" r:id="rId22" xr:uid="{9F1126AC-DAEC-9243-B2C4-6F1C8E540CC2}"/>
+    <hyperlink ref="B98" r:id="rId21" xr:uid="{FF45E500-8F31-5740-84F2-AA5D801BFD94}"/>
+    <hyperlink ref="B141" r:id="rId22" xr:uid="{9F1126AC-DAEC-9243-B2C4-6F1C8E540CC2}"/>
     <hyperlink ref="B14" r:id="rId23" xr:uid="{2F01770E-D20A-A44A-8D7A-0FBA3D2E72F2}"/>
-    <hyperlink ref="B75" r:id="rId24" xr:uid="{C3C13EF7-C413-F947-9521-868AC93A2666}"/>
-    <hyperlink ref="B32" r:id="rId25" xr:uid="{F6A856AD-BB02-F345-920A-A589A828849E}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{DC7AC8AD-1E48-4947-B2F4-D315229571FC}"/>
-    <hyperlink ref="B89" r:id="rId27" xr:uid="{6FD15A6A-DAD0-CB46-A64C-B322DB72B988}"/>
-    <hyperlink ref="B145" r:id="rId28" xr:uid="{6FD09F40-E945-9641-B670-E1AA462AE32A}"/>
-    <hyperlink ref="B113" r:id="rId29" xr:uid="{553CCD79-7D27-6149-8DFC-261EE63BBB3A}"/>
-    <hyperlink ref="B87" r:id="rId30" xr:uid="{1F1CDC37-9304-264F-B39E-A78E947118EE}"/>
+    <hyperlink ref="B73" r:id="rId24" xr:uid="{C3C13EF7-C413-F947-9521-868AC93A2666}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{F6A856AD-BB02-F345-920A-A589A828849E}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{DC7AC8AD-1E48-4947-B2F4-D315229571FC}"/>
+    <hyperlink ref="B87" r:id="rId27" xr:uid="{6FD15A6A-DAD0-CB46-A64C-B322DB72B988}"/>
+    <hyperlink ref="B143" r:id="rId28" xr:uid="{6FD09F40-E945-9641-B670-E1AA462AE32A}"/>
+    <hyperlink ref="B111" r:id="rId29" xr:uid="{553CCD79-7D27-6149-8DFC-261EE63BBB3A}"/>
+    <hyperlink ref="B85" r:id="rId30" xr:uid="{1F1CDC37-9304-264F-B39E-A78E947118EE}"/>
     <hyperlink ref="B20" r:id="rId31" xr:uid="{BD0FBAFA-16EA-FE47-B2D5-E9D68F65F64D}"/>
-    <hyperlink ref="B135" r:id="rId32" xr:uid="{5804B982-242B-DA4E-A1C6-FCABCB031DC0}"/>
-    <hyperlink ref="B63" r:id="rId33" xr:uid="{37C678D3-A4D6-DE48-BB3C-453D10E3ED12}"/>
-    <hyperlink ref="B121" r:id="rId34" xr:uid="{B4C07438-DF92-1042-9B55-3EEEA989407F}"/>
-    <hyperlink ref="B122" r:id="rId35" xr:uid="{AF894543-1886-1E44-A4A6-94647420E9A9}"/>
+    <hyperlink ref="B133" r:id="rId32" xr:uid="{5804B982-242B-DA4E-A1C6-FCABCB031DC0}"/>
+    <hyperlink ref="B61" r:id="rId33" xr:uid="{37C678D3-A4D6-DE48-BB3C-453D10E3ED12}"/>
+    <hyperlink ref="B119" r:id="rId34" xr:uid="{B4C07438-DF92-1042-9B55-3EEEA989407F}"/>
+    <hyperlink ref="B120" r:id="rId35" xr:uid="{AF894543-1886-1E44-A4A6-94647420E9A9}"/>
     <hyperlink ref="B5" r:id="rId36" xr:uid="{1E514237-0231-584F-B01D-799460C4C062}"/>
-    <hyperlink ref="B150" r:id="rId37" xr:uid="{02DA0516-2C13-D548-B47B-8530C6BD91C9}"/>
-    <hyperlink ref="B91" r:id="rId38" xr:uid="{8829DB7C-C193-6A4A-980C-6A593E562DE2}"/>
-    <hyperlink ref="B109" r:id="rId39" xr:uid="{2D8903F1-04FF-FA4E-8FD4-467DC3512B75}"/>
-    <hyperlink ref="B68" r:id="rId40" xr:uid="{39BE4BF4-C14F-F14C-A5BD-DB15143986DB}"/>
-    <hyperlink ref="B94" r:id="rId41" xr:uid="{5B226B39-E383-B34E-BD47-D28AFB432DEE}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{26296D71-768D-104A-84BF-DF528EB9832E}"/>
-    <hyperlink ref="B36" r:id="rId43" xr:uid="{B6114F36-FE15-8E4E-967E-221FE4142B2D}"/>
-    <hyperlink ref="B132" r:id="rId44" xr:uid="{6452CF47-2D85-B64C-9033-264C61B3405D}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{26789BEC-00CA-6447-AEB3-09ACB2166723}"/>
-    <hyperlink ref="B30" r:id="rId46" xr:uid="{FA8465E8-1CE1-F349-975E-510EFB788D08}"/>
-    <hyperlink ref="B126" r:id="rId47" xr:uid="{6B53878E-617B-5D44-9F8A-E8A267B89296}"/>
-    <hyperlink ref="B114" r:id="rId48" xr:uid="{9407E7D0-539C-7346-BF1B-F1511B809F1D}"/>
+    <hyperlink ref="B148" r:id="rId37" xr:uid="{02DA0516-2C13-D548-B47B-8530C6BD91C9}"/>
+    <hyperlink ref="B89" r:id="rId38" xr:uid="{8829DB7C-C193-6A4A-980C-6A593E562DE2}"/>
+    <hyperlink ref="B107" r:id="rId39" xr:uid="{2D8903F1-04FF-FA4E-8FD4-467DC3512B75}"/>
+    <hyperlink ref="B66" r:id="rId40" xr:uid="{39BE4BF4-C14F-F14C-A5BD-DB15143986DB}"/>
+    <hyperlink ref="B92" r:id="rId41" xr:uid="{5B226B39-E383-B34E-BD47-D28AFB432DEE}"/>
+    <hyperlink ref="B46" r:id="rId42" xr:uid="{26296D71-768D-104A-84BF-DF528EB9832E}"/>
+    <hyperlink ref="B34" r:id="rId43" xr:uid="{B6114F36-FE15-8E4E-967E-221FE4142B2D}"/>
+    <hyperlink ref="B130" r:id="rId44" xr:uid="{6452CF47-2D85-B64C-9033-264C61B3405D}"/>
+    <hyperlink ref="B56" r:id="rId45" xr:uid="{26789BEC-00CA-6447-AEB3-09ACB2166723}"/>
+    <hyperlink ref="B28" r:id="rId46" xr:uid="{FA8465E8-1CE1-F349-975E-510EFB788D08}"/>
+    <hyperlink ref="B124" r:id="rId47" xr:uid="{6B53878E-617B-5D44-9F8A-E8A267B89296}"/>
+    <hyperlink ref="B112" r:id="rId48" xr:uid="{9407E7D0-539C-7346-BF1B-F1511B809F1D}"/>
     <hyperlink ref="B12" r:id="rId49" xr:uid="{96AAE011-1921-5540-B172-86B2029E9E98}"/>
-    <hyperlink ref="B107" r:id="rId50" xr:uid="{B0255F0F-C681-CC45-9670-C1B19218B527}"/>
-    <hyperlink ref="B83" r:id="rId51" xr:uid="{70AC56C5-D137-D04D-BBB0-F53470CBBD2B}"/>
-    <hyperlink ref="B88" r:id="rId52" xr:uid="{8BD69276-A63B-FA47-906A-11D2E750828A}"/>
-    <hyperlink ref="B104" r:id="rId53" xr:uid="{23B9CC41-F218-1642-A655-0BBFC00A1B6C}"/>
-    <hyperlink ref="B116" r:id="rId54" xr:uid="{34002492-FF7A-2F44-BEC0-73424414ECFA}"/>
-    <hyperlink ref="B99" r:id="rId55" xr:uid="{F0D91D20-E413-C04D-BF4E-7806E934B437}"/>
+    <hyperlink ref="B105" r:id="rId50" xr:uid="{B0255F0F-C681-CC45-9670-C1B19218B527}"/>
+    <hyperlink ref="B81" r:id="rId51" xr:uid="{70AC56C5-D137-D04D-BBB0-F53470CBBD2B}"/>
+    <hyperlink ref="B86" r:id="rId52" xr:uid="{8BD69276-A63B-FA47-906A-11D2E750828A}"/>
+    <hyperlink ref="B102" r:id="rId53" xr:uid="{23B9CC41-F218-1642-A655-0BBFC00A1B6C}"/>
+    <hyperlink ref="B114" r:id="rId54" xr:uid="{34002492-FF7A-2F44-BEC0-73424414ECFA}"/>
+    <hyperlink ref="B97" r:id="rId55" xr:uid="{F0D91D20-E413-C04D-BF4E-7806E934B437}"/>
     <hyperlink ref="B18" r:id="rId56" xr:uid="{022992BF-8D6C-384B-BDEC-1EEB165D395B}"/>
-    <hyperlink ref="B146" r:id="rId57" xr:uid="{567F6CE7-596B-7748-AC55-5D37C1C520CA}"/>
-    <hyperlink ref="B76" r:id="rId58" xr:uid="{32EC7377-367E-AA49-843C-6803EB939A67}"/>
-    <hyperlink ref="B142" r:id="rId59" xr:uid="{2C0EB88C-08A9-7E41-82C5-4169F857796A}"/>
+    <hyperlink ref="B144" r:id="rId57" xr:uid="{567F6CE7-596B-7748-AC55-5D37C1C520CA}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{32EC7377-367E-AA49-843C-6803EB939A67}"/>
+    <hyperlink ref="B140" r:id="rId59" xr:uid="{2C0EB88C-08A9-7E41-82C5-4169F857796A}"/>
     <hyperlink ref="B13" r:id="rId60" xr:uid="{CC15577F-1A57-3A4F-AFCB-65EA07D1F632}"/>
-    <hyperlink ref="B82" r:id="rId61" xr:uid="{4E3D0DF7-7D26-8042-8D02-6203954E09C5}"/>
-    <hyperlink ref="B151" r:id="rId62" xr:uid="{B86A6D21-A559-F248-ADA8-ED4A3763EF38}"/>
-    <hyperlink ref="B125" r:id="rId63" xr:uid="{1C150FBA-A9C6-2C43-83B6-27F006E4A184}"/>
+    <hyperlink ref="B80" r:id="rId61" xr:uid="{4E3D0DF7-7D26-8042-8D02-6203954E09C5}"/>
+    <hyperlink ref="B149" r:id="rId62" xr:uid="{B86A6D21-A559-F248-ADA8-ED4A3763EF38}"/>
+    <hyperlink ref="B123" r:id="rId63" xr:uid="{1C150FBA-A9C6-2C43-83B6-27F006E4A184}"/>
     <hyperlink ref="B3" r:id="rId64" xr:uid="{40585DEC-A140-9649-87E9-784154D9B0F8}"/>
-    <hyperlink ref="B62" r:id="rId65" xr:uid="{5EA3A6A5-680E-8F42-9BD0-4A1AFF186A5B}"/>
-    <hyperlink ref="B25" r:id="rId66" xr:uid="{5F15CB02-0A56-CD40-B033-D93D50A9EF9D}"/>
-    <hyperlink ref="B24" r:id="rId67" xr:uid="{231BB373-491D-BD43-A074-415FAC068280}"/>
-    <hyperlink ref="B37" r:id="rId68" xr:uid="{66A4996E-25C6-0548-AEA6-44980E555E7C}"/>
-    <hyperlink ref="B144" r:id="rId69" xr:uid="{1493932F-2990-0941-8F91-BD584AF77826}"/>
-    <hyperlink ref="B81" r:id="rId70" xr:uid="{D3164D01-BCC5-5D45-A728-77B2128A1C44}"/>
-    <hyperlink ref="B34" r:id="rId71" xr:uid="{F182D8C2-069E-B645-AA30-AA20C4BB46F6}"/>
-    <hyperlink ref="B105" r:id="rId72" xr:uid="{683708C2-008E-F548-93E2-07E253006914}"/>
-    <hyperlink ref="B46" r:id="rId73" xr:uid="{C6985457-1B53-2449-8464-F764FE8AD216}"/>
-    <hyperlink ref="B47" r:id="rId74" xr:uid="{8917DB16-F574-C742-9D4E-715061C27AFE}"/>
-    <hyperlink ref="B19" r:id="rId75" xr:uid="{DE4A69AF-2F18-F646-9434-5E07EEB36C62}"/>
-    <hyperlink ref="B42" r:id="rId76" xr:uid="{1954E2C6-7988-DA47-BF32-7C8A96F3D0DC}"/>
-    <hyperlink ref="B138" r:id="rId77" xr:uid="{470B9032-BCAB-244E-8C41-415D2FF7E4DB}"/>
-    <hyperlink ref="B29" r:id="rId78" xr:uid="{7E939423-CB8E-F44C-99E6-441DA331D5E0}"/>
-    <hyperlink ref="B28" r:id="rId79" xr:uid="{B620B53C-39C9-CF4D-8FBF-1C26B7A79E8D}"/>
-    <hyperlink ref="B67" r:id="rId80" xr:uid="{0112B004-64BB-C942-B638-C074434553C6}"/>
-    <hyperlink ref="B137" r:id="rId81" xr:uid="{4422172F-4C9E-3C41-B3F7-4750F48828AC}"/>
-    <hyperlink ref="B56" r:id="rId82" xr:uid="{194EFB3F-9659-BF44-A924-EC8FBA72A089}"/>
-    <hyperlink ref="B57" r:id="rId83" xr:uid="{9561B947-9389-714C-8ACE-D0F3A37D9555}"/>
-    <hyperlink ref="B52" r:id="rId84" xr:uid="{A51FD758-8698-3D4F-85EB-4DB8A243DD31}"/>
-    <hyperlink ref="B128" r:id="rId85" xr:uid="{F2982806-6FDB-EE4F-B9C2-F411A3C5322E}"/>
-    <hyperlink ref="B10" r:id="rId86" xr:uid="{4D46A99F-60EC-B84D-8F1A-4EE6DF44B9DA}"/>
-    <hyperlink ref="B60" r:id="rId87" xr:uid="{B5D17F78-3EB7-B744-9E19-C49259E74A1A}"/>
-    <hyperlink ref="B110" r:id="rId88" xr:uid="{03A6DFCB-D758-C04C-B7E5-2F5ACDFD7467}"/>
-    <hyperlink ref="B130" r:id="rId89" xr:uid="{3C315ED3-874C-FB46-866F-4713CB4DD9B1}"/>
-    <hyperlink ref="B120" r:id="rId90" xr:uid="{8CB17C4D-1B4F-BC4C-BBAA-5D947797CF59}"/>
-    <hyperlink ref="B8" r:id="rId91" xr:uid="{CA00C2EB-6E37-A647-AAF0-E253B5A59837}"/>
-    <hyperlink ref="B16" r:id="rId92" xr:uid="{98AB462B-DCBC-4F42-942A-46402E960030}"/>
-    <hyperlink ref="B149" r:id="rId93" xr:uid="{B1734414-BD98-5A4D-BC5B-02166D206157}"/>
-    <hyperlink ref="B72" r:id="rId94" xr:uid="{34BEBC5F-DA57-BF49-9327-44F90F5D2156}"/>
-    <hyperlink ref="B136" r:id="rId95" xr:uid="{9BE3E0E7-6480-2846-88DA-B0DA386C783E}"/>
-    <hyperlink ref="B74" r:id="rId96" xr:uid="{FE16A253-1001-A44A-A1EB-7191DAACA0D5}"/>
-    <hyperlink ref="B70" r:id="rId97" xr:uid="{82CA1914-3E4E-674E-9F60-B4760AD9AABD}"/>
-    <hyperlink ref="B71" r:id="rId98" xr:uid="{2375434C-0CFF-FD4A-944A-9DFA6B84F4B3}"/>
-    <hyperlink ref="B45" r:id="rId99" xr:uid="{F26B8D9C-81AF-7E40-8F27-7A6AA596A286}"/>
-    <hyperlink ref="B95" r:id="rId100" xr:uid="{6556E378-851A-9946-B9B0-B5440B0A5D33}"/>
-    <hyperlink ref="B11" r:id="rId101" xr:uid="{224002D3-60F3-3A4C-A0A9-580ED696AB21}"/>
-    <hyperlink ref="B79" r:id="rId102" xr:uid="{188F9D56-5C80-DC40-B981-C8D30FD4C1FE}"/>
-    <hyperlink ref="B59" r:id="rId103" xr:uid="{7160BBC9-7F5F-C444-AE36-FDCC9707B1DD}"/>
-    <hyperlink ref="B51" r:id="rId104" xr:uid="{C54F30F6-DAAF-4343-A46D-4948FD4B3273}"/>
-    <hyperlink ref="B78" r:id="rId105" xr:uid="{71274984-8993-484F-BE48-473C365566ED}"/>
-    <hyperlink ref="B64" r:id="rId106" xr:uid="{F40D981A-9713-1C42-A683-3439E3E2B5C2}"/>
-    <hyperlink ref="B26" r:id="rId107" xr:uid="{4222299C-5DDF-B044-8D4D-5FFDBDA1984F}"/>
-    <hyperlink ref="B15" r:id="rId108" xr:uid="{775F90E5-4BC4-CC41-BDDC-545579DD5AA1}"/>
-    <hyperlink ref="B129" r:id="rId109" xr:uid="{3F0014F1-69CF-AE4B-B16A-2DC170F19DFE}"/>
-    <hyperlink ref="B106" r:id="rId110" xr:uid="{16B24011-226E-EC4D-B7E4-037E49DCD973}"/>
-    <hyperlink ref="B2" r:id="rId111" xr:uid="{32D74EF5-25F3-654A-8F6E-97AF14EE1A84}"/>
-    <hyperlink ref="B73" r:id="rId112" xr:uid="{F461A805-B489-2841-AD2A-ECEC55BDBA4F}"/>
-    <hyperlink ref="B31" r:id="rId113" xr:uid="{B4AAD3B3-7576-1948-9681-9DCDE5122B03}"/>
-    <hyperlink ref="B17" r:id="rId114" xr:uid="{1DB527F0-3D16-3044-9E54-603F963D2B8C}"/>
-    <hyperlink ref="B35" r:id="rId115" xr:uid="{AC52BD4B-0E91-C349-833C-8016ACCB5346}"/>
-    <hyperlink ref="B93" r:id="rId116" xr:uid="{C2C42E66-157E-6E47-A084-AEF89116EBC1}"/>
-    <hyperlink ref="B92" r:id="rId117" xr:uid="{04D2CAD0-10EC-474F-AB41-B84A876B906F}"/>
-    <hyperlink ref="B84" r:id="rId118" xr:uid="{51282052-410A-4148-AB92-E38F392F7CB0}"/>
-    <hyperlink ref="B53" r:id="rId119" xr:uid="{26F85C1E-6B4D-2B4F-85A5-EDEBDBBB358C}"/>
-    <hyperlink ref="B103" r:id="rId120" xr:uid="{A1E1A0DC-5260-3C47-9D19-6E1086166D4D}"/>
-    <hyperlink ref="B139" r:id="rId121" xr:uid="{D7A4F151-D122-CA45-ADAE-D1F2C9338821}"/>
-    <hyperlink ref="B65" r:id="rId122" xr:uid="{274F4C0B-433A-E24A-A277-C12505DDB005}"/>
-    <hyperlink ref="B66" r:id="rId123" xr:uid="{3CDA0B6C-F2A8-1240-AEC8-134931154584}"/>
-    <hyperlink ref="B43" r:id="rId124" xr:uid="{C6C5109A-3940-A548-BA58-E920AAD304FA}"/>
-    <hyperlink ref="B140" r:id="rId125" xr:uid="{3EA93E09-36A9-264D-B9B5-6D62B63F7BAA}"/>
-    <hyperlink ref="B96" r:id="rId126" xr:uid="{71E54464-9137-4D49-A9AC-4F4ABC112467}"/>
-    <hyperlink ref="B97" r:id="rId127" xr:uid="{E408C9F4-9EFC-3545-9D14-361E0C8F2092}"/>
-    <hyperlink ref="B41" r:id="rId128" xr:uid="{D6D6DCD7-B624-2F49-A0B6-574F98FB4AF9}"/>
-    <hyperlink ref="B102" r:id="rId129" xr:uid="{296EE09B-AE33-C14D-BCE7-2C5A52313396}"/>
-    <hyperlink ref="B40" r:id="rId130" xr:uid="{CE26DB80-B98B-7647-B924-672B6D853470}"/>
-    <hyperlink ref="B44" r:id="rId131" xr:uid="{9233C241-02EB-6E48-8758-A9D6C0127438}"/>
-    <hyperlink ref="B61" r:id="rId132" xr:uid="{587A7437-A894-7C40-B3AC-B80688C920C4}"/>
-    <hyperlink ref="B69" r:id="rId133" xr:uid="{D54D4AA4-E715-2243-9068-B3F8C903CE21}"/>
-    <hyperlink ref="B141" r:id="rId134" xr:uid="{0EB58137-441E-8B4C-978B-78186060B3A5}"/>
-    <hyperlink ref="B7" r:id="rId135" xr:uid="{4FD906C9-F682-4248-9D4A-1F247EF40E07}"/>
-    <hyperlink ref="B55" r:id="rId136" xr:uid="{9081822A-626E-DC45-B0DF-900E6F0707B2}"/>
-    <hyperlink ref="B27" r:id="rId137" xr:uid="{576B5CA8-2EB0-6744-B903-B4AAB5DF4A31}"/>
-    <hyperlink ref="B134" r:id="rId138" xr:uid="{6DE1D2DD-06EE-7B42-B379-3D5385BAF68F}"/>
-    <hyperlink ref="B90" r:id="rId139" xr:uid="{DC6F2EA3-BE2E-304C-BC18-032C330CADDB}"/>
-    <hyperlink ref="B112" r:id="rId140" xr:uid="{518BD4D5-E830-6944-BCC0-D5F09F18E021}"/>
-    <hyperlink ref="B123" r:id="rId141" xr:uid="{821D620C-10A4-DB41-8F30-5B46BB3E256D}"/>
-    <hyperlink ref="B133" r:id="rId142" xr:uid="{FADFADC4-837D-8A4F-BDEC-B0EA8C258EA0}"/>
-    <hyperlink ref="B153" r:id="rId143" xr:uid="{95648F4E-78F9-3C4E-AB5A-129EA44BAFF8}"/>
-    <hyperlink ref="B98" r:id="rId144" xr:uid="{2307C642-97EF-C545-8EA6-634834DA124C}"/>
-    <hyperlink ref="B148" r:id="rId145" xr:uid="{109B19A8-2C91-8E45-847B-C2F208D75FAB}"/>
-    <hyperlink ref="B77" r:id="rId146" xr:uid="{D484A0A5-8DE0-954E-9B1A-A4CA30CACAC8}"/>
-    <hyperlink ref="B124" r:id="rId147" xr:uid="{09CEBAA8-C839-254A-AE41-1FC2DCAF4690}"/>
-    <hyperlink ref="B39" r:id="rId148" xr:uid="{84049D22-82E0-1F48-A77C-98E0C1BCBBFA}"/>
-    <hyperlink ref="B85" r:id="rId149" xr:uid="{AC946D5D-560C-6640-9500-723394B900E4}"/>
-    <hyperlink ref="B111" r:id="rId150" xr:uid="{43EBE9A0-490E-8640-86B7-4B25B7B18CB6}"/>
-    <hyperlink ref="B9" r:id="rId151" xr:uid="{15A8FBA4-60D9-D341-87B3-7BDEA9C12447}"/>
-    <hyperlink ref="B80" r:id="rId152" xr:uid="{1EEBAEF7-0957-AA42-AD23-9610CBAABD6E}"/>
+    <hyperlink ref="B60" r:id="rId65" xr:uid="{5EA3A6A5-680E-8F42-9BD0-4A1AFF186A5B}"/>
+    <hyperlink ref="B35" r:id="rId66" xr:uid="{66A4996E-25C6-0548-AEA6-44980E555E7C}"/>
+    <hyperlink ref="B142" r:id="rId67" xr:uid="{1493932F-2990-0941-8F91-BD584AF77826}"/>
+    <hyperlink ref="B79" r:id="rId68" xr:uid="{D3164D01-BCC5-5D45-A728-77B2128A1C44}"/>
+    <hyperlink ref="B32" r:id="rId69" xr:uid="{F182D8C2-069E-B645-AA30-AA20C4BB46F6}"/>
+    <hyperlink ref="B103" r:id="rId70" xr:uid="{683708C2-008E-F548-93E2-07E253006914}"/>
+    <hyperlink ref="B44" r:id="rId71" xr:uid="{C6985457-1B53-2449-8464-F764FE8AD216}"/>
+    <hyperlink ref="B45" r:id="rId72" xr:uid="{8917DB16-F574-C742-9D4E-715061C27AFE}"/>
+    <hyperlink ref="B19" r:id="rId73" xr:uid="{DE4A69AF-2F18-F646-9434-5E07EEB36C62}"/>
+    <hyperlink ref="B40" r:id="rId74" xr:uid="{1954E2C6-7988-DA47-BF32-7C8A96F3D0DC}"/>
+    <hyperlink ref="B136" r:id="rId75" xr:uid="{470B9032-BCAB-244E-8C41-415D2FF7E4DB}"/>
+    <hyperlink ref="B27" r:id="rId76" xr:uid="{7E939423-CB8E-F44C-99E6-441DA331D5E0}"/>
+    <hyperlink ref="B26" r:id="rId77" xr:uid="{B620B53C-39C9-CF4D-8FBF-1C26B7A79E8D}"/>
+    <hyperlink ref="B65" r:id="rId78" xr:uid="{0112B004-64BB-C942-B638-C074434553C6}"/>
+    <hyperlink ref="B135" r:id="rId79" xr:uid="{4422172F-4C9E-3C41-B3F7-4750F48828AC}"/>
+    <hyperlink ref="B54" r:id="rId80" xr:uid="{194EFB3F-9659-BF44-A924-EC8FBA72A089}"/>
+    <hyperlink ref="B55" r:id="rId81" xr:uid="{9561B947-9389-714C-8ACE-D0F3A37D9555}"/>
+    <hyperlink ref="B50" r:id="rId82" xr:uid="{A51FD758-8698-3D4F-85EB-4DB8A243DD31}"/>
+    <hyperlink ref="B126" r:id="rId83" xr:uid="{F2982806-6FDB-EE4F-B9C2-F411A3C5322E}"/>
+    <hyperlink ref="B10" r:id="rId84" xr:uid="{4D46A99F-60EC-B84D-8F1A-4EE6DF44B9DA}"/>
+    <hyperlink ref="B58" r:id="rId85" xr:uid="{B5D17F78-3EB7-B744-9E19-C49259E74A1A}"/>
+    <hyperlink ref="B108" r:id="rId86" xr:uid="{03A6DFCB-D758-C04C-B7E5-2F5ACDFD7467}"/>
+    <hyperlink ref="B128" r:id="rId87" xr:uid="{3C315ED3-874C-FB46-866F-4713CB4DD9B1}"/>
+    <hyperlink ref="B118" r:id="rId88" xr:uid="{8CB17C4D-1B4F-BC4C-BBAA-5D947797CF59}"/>
+    <hyperlink ref="B8" r:id="rId89" xr:uid="{CA00C2EB-6E37-A647-AAF0-E253B5A59837}"/>
+    <hyperlink ref="B16" r:id="rId90" xr:uid="{98AB462B-DCBC-4F42-942A-46402E960030}"/>
+    <hyperlink ref="B147" r:id="rId91" xr:uid="{B1734414-BD98-5A4D-BC5B-02166D206157}"/>
+    <hyperlink ref="B70" r:id="rId92" xr:uid="{34BEBC5F-DA57-BF49-9327-44F90F5D2156}"/>
+    <hyperlink ref="B134" r:id="rId93" xr:uid="{9BE3E0E7-6480-2846-88DA-B0DA386C783E}"/>
+    <hyperlink ref="B72" r:id="rId94" xr:uid="{FE16A253-1001-A44A-A1EB-7191DAACA0D5}"/>
+    <hyperlink ref="B68" r:id="rId95" xr:uid="{82CA1914-3E4E-674E-9F60-B4760AD9AABD}"/>
+    <hyperlink ref="B69" r:id="rId96" xr:uid="{2375434C-0CFF-FD4A-944A-9DFA6B84F4B3}"/>
+    <hyperlink ref="B43" r:id="rId97" xr:uid="{F26B8D9C-81AF-7E40-8F27-7A6AA596A286}"/>
+    <hyperlink ref="B93" r:id="rId98" xr:uid="{6556E378-851A-9946-B9B0-B5440B0A5D33}"/>
+    <hyperlink ref="B11" r:id="rId99" xr:uid="{224002D3-60F3-3A4C-A0A9-580ED696AB21}"/>
+    <hyperlink ref="B77" r:id="rId100" xr:uid="{188F9D56-5C80-DC40-B981-C8D30FD4C1FE}"/>
+    <hyperlink ref="B57" r:id="rId101" xr:uid="{7160BBC9-7F5F-C444-AE36-FDCC9707B1DD}"/>
+    <hyperlink ref="B49" r:id="rId102" xr:uid="{C54F30F6-DAAF-4343-A46D-4948FD4B3273}"/>
+    <hyperlink ref="B76" r:id="rId103" xr:uid="{71274984-8993-484F-BE48-473C365566ED}"/>
+    <hyperlink ref="B62" r:id="rId104" xr:uid="{F40D981A-9713-1C42-A683-3439E3E2B5C2}"/>
+    <hyperlink ref="B24" r:id="rId105" xr:uid="{4222299C-5DDF-B044-8D4D-5FFDBDA1984F}"/>
+    <hyperlink ref="B15" r:id="rId106" xr:uid="{775F90E5-4BC4-CC41-BDDC-545579DD5AA1}"/>
+    <hyperlink ref="B127" r:id="rId107" xr:uid="{3F0014F1-69CF-AE4B-B16A-2DC170F19DFE}"/>
+    <hyperlink ref="B104" r:id="rId108" xr:uid="{16B24011-226E-EC4D-B7E4-037E49DCD973}"/>
+    <hyperlink ref="B2" r:id="rId109" xr:uid="{32D74EF5-25F3-654A-8F6E-97AF14EE1A84}"/>
+    <hyperlink ref="B71" r:id="rId110" xr:uid="{F461A805-B489-2841-AD2A-ECEC55BDBA4F}"/>
+    <hyperlink ref="B29" r:id="rId111" xr:uid="{B4AAD3B3-7576-1948-9681-9DCDE5122B03}"/>
+    <hyperlink ref="B17" r:id="rId112" xr:uid="{1DB527F0-3D16-3044-9E54-603F963D2B8C}"/>
+    <hyperlink ref="B33" r:id="rId113" xr:uid="{AC52BD4B-0E91-C349-833C-8016ACCB5346}"/>
+    <hyperlink ref="B91" r:id="rId114" xr:uid="{C2C42E66-157E-6E47-A084-AEF89116EBC1}"/>
+    <hyperlink ref="B90" r:id="rId115" xr:uid="{04D2CAD0-10EC-474F-AB41-B84A876B906F}"/>
+    <hyperlink ref="B82" r:id="rId116" xr:uid="{51282052-410A-4148-AB92-E38F392F7CB0}"/>
+    <hyperlink ref="B51" r:id="rId117" xr:uid="{26F85C1E-6B4D-2B4F-85A5-EDEBDBBB358C}"/>
+    <hyperlink ref="B101" r:id="rId118" xr:uid="{A1E1A0DC-5260-3C47-9D19-6E1086166D4D}"/>
+    <hyperlink ref="B137" r:id="rId119" xr:uid="{D7A4F151-D122-CA45-ADAE-D1F2C9338821}"/>
+    <hyperlink ref="B63" r:id="rId120" xr:uid="{274F4C0B-433A-E24A-A277-C12505DDB005}"/>
+    <hyperlink ref="B64" r:id="rId121" xr:uid="{3CDA0B6C-F2A8-1240-AEC8-134931154584}"/>
+    <hyperlink ref="B41" r:id="rId122" xr:uid="{C6C5109A-3940-A548-BA58-E920AAD304FA}"/>
+    <hyperlink ref="B138" r:id="rId123" xr:uid="{3EA93E09-36A9-264D-B9B5-6D62B63F7BAA}"/>
+    <hyperlink ref="B94" r:id="rId124" xr:uid="{71E54464-9137-4D49-A9AC-4F4ABC112467}"/>
+    <hyperlink ref="B95" r:id="rId125" xr:uid="{E408C9F4-9EFC-3545-9D14-361E0C8F2092}"/>
+    <hyperlink ref="B39" r:id="rId126" xr:uid="{D6D6DCD7-B624-2F49-A0B6-574F98FB4AF9}"/>
+    <hyperlink ref="B100" r:id="rId127" xr:uid="{296EE09B-AE33-C14D-BCE7-2C5A52313396}"/>
+    <hyperlink ref="B38" r:id="rId128" xr:uid="{CE26DB80-B98B-7647-B924-672B6D853470}"/>
+    <hyperlink ref="B42" r:id="rId129" xr:uid="{9233C241-02EB-6E48-8758-A9D6C0127438}"/>
+    <hyperlink ref="B59" r:id="rId130" xr:uid="{587A7437-A894-7C40-B3AC-B80688C920C4}"/>
+    <hyperlink ref="B67" r:id="rId131" xr:uid="{D54D4AA4-E715-2243-9068-B3F8C903CE21}"/>
+    <hyperlink ref="B139" r:id="rId132" xr:uid="{0EB58137-441E-8B4C-978B-78186060B3A5}"/>
+    <hyperlink ref="B7" r:id="rId133" xr:uid="{4FD906C9-F682-4248-9D4A-1F247EF40E07}"/>
+    <hyperlink ref="B53" r:id="rId134" xr:uid="{9081822A-626E-DC45-B0DF-900E6F0707B2}"/>
+    <hyperlink ref="B25" r:id="rId135" xr:uid="{576B5CA8-2EB0-6744-B903-B4AAB5DF4A31}"/>
+    <hyperlink ref="B132" r:id="rId136" xr:uid="{6DE1D2DD-06EE-7B42-B379-3D5385BAF68F}"/>
+    <hyperlink ref="B88" r:id="rId137" xr:uid="{DC6F2EA3-BE2E-304C-BC18-032C330CADDB}"/>
+    <hyperlink ref="B110" r:id="rId138" xr:uid="{518BD4D5-E830-6944-BCC0-D5F09F18E021}"/>
+    <hyperlink ref="B121" r:id="rId139" xr:uid="{821D620C-10A4-DB41-8F30-5B46BB3E256D}"/>
+    <hyperlink ref="B131" r:id="rId140" xr:uid="{FADFADC4-837D-8A4F-BDEC-B0EA8C258EA0}"/>
+    <hyperlink ref="B151" r:id="rId141" xr:uid="{95648F4E-78F9-3C4E-AB5A-129EA44BAFF8}"/>
+    <hyperlink ref="B96" r:id="rId142" xr:uid="{2307C642-97EF-C545-8EA6-634834DA124C}"/>
+    <hyperlink ref="B146" r:id="rId143" xr:uid="{109B19A8-2C91-8E45-847B-C2F208D75FAB}"/>
+    <hyperlink ref="B75" r:id="rId144" xr:uid="{D484A0A5-8DE0-954E-9B1A-A4CA30CACAC8}"/>
+    <hyperlink ref="B122" r:id="rId145" xr:uid="{09CEBAA8-C839-254A-AE41-1FC2DCAF4690}"/>
+    <hyperlink ref="B37" r:id="rId146" xr:uid="{84049D22-82E0-1F48-A77C-98E0C1BCBBFA}"/>
+    <hyperlink ref="B83" r:id="rId147" xr:uid="{AC946D5D-560C-6640-9500-723394B900E4}"/>
+    <hyperlink ref="B109" r:id="rId148" xr:uid="{43EBE9A0-490E-8640-86B7-4B25B7B18CB6}"/>
+    <hyperlink ref="B9" r:id="rId149" xr:uid="{15A8FBA4-60D9-D341-87B3-7BDEA9C12447}"/>
+    <hyperlink ref="B78" r:id="rId150" xr:uid="{1EEBAEF7-0957-AA42-AD23-9610CBAABD6E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId153"/>
+    <tablePart r:id="rId151"/>
   </tableParts>
 </worksheet>
 </file>
@@ -21342,7 +21479,9 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -25777,7 +25916,9 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -25908,9 +26049,15 @@
       <c r="B11" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="2" t="s">
@@ -31638,10 +31785,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7E816-065E-4C4D-9128-39CDCBC16733}">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31911,32 +32058,32 @@
     </row>
     <row r="24" spans="1:5" ht="51">
       <c r="A24" s="2" t="s">
-        <v>1195</v>
+        <v>1631</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1194</v>
+        <v>1630</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="51">
+    <row r="25" spans="1:5" ht="34">
       <c r="A25" s="2" t="s">
-        <v>1631</v>
+        <v>1499</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1630</v>
+        <v>1498</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="34">
+    <row r="26" spans="1:5" ht="51">
       <c r="A26" s="2" t="s">
-        <v>1499</v>
+        <v>1629</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1498</v>
+        <v>1628</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -31944,10 +32091,10 @@
     </row>
     <row r="27" spans="1:5" ht="51">
       <c r="A27" s="2" t="s">
-        <v>1629</v>
+        <v>1395</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1628</v>
+        <v>1394</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -31955,10 +32102,10 @@
     </row>
     <row r="28" spans="1:5" ht="51">
       <c r="A28" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -31966,10 +32113,10 @@
     </row>
     <row r="29" spans="1:5" ht="51">
       <c r="A29" s="2" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -31977,49 +32124,49 @@
     </row>
     <row r="30" spans="1:5" ht="51">
       <c r="A30" s="2" t="s">
-        <v>1389</v>
+        <v>1627</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>1626</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="51">
       <c r="A31" s="2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="51">
+        <v>1624</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="34">
       <c r="A32" s="2" t="s">
-        <v>1625</v>
+        <v>967</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1624</v>
+        <v>966</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="34">
+    <row r="33" spans="1:5" ht="51">
       <c r="A33" s="2" t="s">
-        <v>967</v>
+        <v>344</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>966</v>
+        <v>343</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -32027,10 +32174,10 @@
     </row>
     <row r="34" spans="1:5" ht="51">
       <c r="A34" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -32038,10 +32185,10 @@
     </row>
     <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>342</v>
+        <v>1497</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>341</v>
+        <v>1496</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -32049,10 +32196,10 @@
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>1497</v>
+        <v>1387</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1496</v>
+        <v>1386</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -32060,32 +32207,32 @@
     </row>
     <row r="37" spans="1:5" ht="51">
       <c r="A37" s="2" t="s">
-        <v>1387</v>
+        <v>1623</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1386</v>
+        <v>1622</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="51">
+    <row r="38" spans="1:5" ht="34">
       <c r="A38" s="2" t="s">
-        <v>1623</v>
+        <v>181</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1622</v>
+        <v>180</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="34">
+    <row r="39" spans="1:5" ht="51">
       <c r="A39" s="2" t="s">
-        <v>181</v>
+        <v>1621</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -32093,10 +32240,10 @@
     </row>
     <row r="40" spans="1:5" ht="51">
       <c r="A40" s="2" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -32104,21 +32251,21 @@
     </row>
     <row r="41" spans="1:5" ht="51">
       <c r="A41" s="2" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="51">
+    <row r="42" spans="1:5" ht="68">
       <c r="A42" s="2" t="s">
-        <v>1617</v>
+        <v>1173</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1616</v>
+        <v>1172</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -32126,58 +32273,58 @@
     </row>
     <row r="43" spans="1:5" ht="68">
       <c r="A43" s="2" t="s">
-        <v>1173</v>
+        <v>340</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1172</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="68">
+    <row r="44" spans="1:5" ht="34">
       <c r="A44" s="2" t="s">
-        <v>340</v>
+        <v>1615</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>1614</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1799</v>
+      </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="34">
+      <c r="E44" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="51">
       <c r="A45" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1799</v>
-      </c>
+        <v>1612</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>1798</v>
-      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="51">
       <c r="A46" s="2" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="51">
+    <row r="47" spans="1:5" ht="34">
       <c r="A47" s="2" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -32185,21 +32332,21 @@
     </row>
     <row r="48" spans="1:5" ht="34">
       <c r="A48" s="2" t="s">
-        <v>1609</v>
+        <v>1495</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1608</v>
+        <v>1494</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="34">
+    <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>1495</v>
+        <v>1607</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1494</v>
+        <v>1606</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -32207,10 +32354,10 @@
     </row>
     <row r="50" spans="1:5" ht="51">
       <c r="A50" s="2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -32218,10 +32365,10 @@
     </row>
     <row r="51" spans="1:5" ht="51">
       <c r="A51" s="2" t="s">
-        <v>1605</v>
+        <v>322</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1604</v>
+        <v>321</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -32229,10 +32376,10 @@
     </row>
     <row r="52" spans="1:5" ht="51">
       <c r="A52" s="2" t="s">
-        <v>322</v>
+        <v>1165</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>321</v>
+        <v>1164</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -32240,10 +32387,10 @@
     </row>
     <row r="53" spans="1:5" ht="51">
       <c r="A53" s="2" t="s">
-        <v>1165</v>
+        <v>1603</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1164</v>
+        <v>1602</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -32251,10 +32398,10 @@
     </row>
     <row r="54" spans="1:5" ht="51">
       <c r="A54" s="2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -32262,32 +32409,32 @@
     </row>
     <row r="55" spans="1:5" ht="51">
       <c r="A55" s="2" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="51">
+    <row r="56" spans="1:5" ht="34">
       <c r="A56" s="2" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="34">
+    <row r="57" spans="1:5" ht="51">
       <c r="A57" s="2" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -32295,10 +32442,10 @@
     </row>
     <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -32306,10 +32453,10 @@
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -32317,10 +32464,10 @@
     </row>
     <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>1591</v>
+        <v>1455</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1590</v>
+        <v>1454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -32328,10 +32475,10 @@
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -32339,21 +32486,21 @@
     </row>
     <row r="62" spans="1:5" ht="51">
       <c r="A62" s="2" t="s">
-        <v>1447</v>
+        <v>1361</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1446</v>
+        <v>1360</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="51">
+    <row r="63" spans="1:5" ht="68">
       <c r="A63" s="2" t="s">
-        <v>1361</v>
+        <v>1589</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1360</v>
+        <v>1588</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -32361,21 +32508,21 @@
     </row>
     <row r="64" spans="1:5" ht="68">
       <c r="A64" s="2" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" ht="68">
+    <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -32383,10 +32530,10 @@
     </row>
     <row r="66" spans="1:5" ht="51">
       <c r="A66" s="2" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -32394,10 +32541,10 @@
     </row>
     <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -32405,10 +32552,10 @@
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>1581</v>
+        <v>1359</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1580</v>
+        <v>1358</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -32416,10 +32563,10 @@
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>1359</v>
+        <v>1579</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1358</v>
+        <v>1578</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -32427,32 +32574,32 @@
     </row>
     <row r="70" spans="1:5" ht="51">
       <c r="A70" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="51">
+    <row r="71" spans="1:5" ht="68">
       <c r="A71" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="68">
+    <row r="72" spans="1:5" ht="51">
       <c r="A72" s="2" t="s">
-        <v>1575</v>
+        <v>1139</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1574</v>
+        <v>1138</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -32460,32 +32607,32 @@
     </row>
     <row r="73" spans="1:5" ht="51">
       <c r="A73" s="2" t="s">
-        <v>1139</v>
+        <v>1573</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1138</v>
+        <v>1572</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="51">
+    <row r="74" spans="1:5" ht="34">
       <c r="A74" s="2" t="s">
-        <v>1573</v>
+        <v>1487</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1572</v>
+        <v>1486</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="34">
+    <row r="75" spans="1:5" ht="51">
       <c r="A75" s="2" t="s">
-        <v>1487</v>
+        <v>1571</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1486</v>
+        <v>1570</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -32493,10 +32640,10 @@
     </row>
     <row r="76" spans="1:5" ht="51">
       <c r="A76" s="2" t="s">
-        <v>1571</v>
+        <v>771</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1570</v>
+        <v>770</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -32504,10 +32651,10 @@
     </row>
     <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>771</v>
+        <v>1137</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>770</v>
+        <v>1136</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -32515,10 +32662,10 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>1137</v>
+        <v>911</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1136</v>
+        <v>910</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -32526,10 +32673,10 @@
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>911</v>
+        <v>1569</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>910</v>
+        <v>1568</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -32537,10 +32684,10 @@
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -32548,10 +32695,10 @@
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -32559,10 +32706,10 @@
     </row>
     <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -32570,10 +32717,10 @@
     </row>
     <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -32581,10 +32728,10 @@
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -32592,10 +32739,10 @@
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -32603,32 +32750,32 @@
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="51">
+    <row r="87" spans="1:5" ht="68">
       <c r="A87" s="2" t="s">
-        <v>1555</v>
+        <v>893</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1554</v>
+        <v>892</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="68">
+    <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>893</v>
+        <v>1553</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>892</v>
+        <v>1552</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -32636,10 +32783,10 @@
     </row>
     <row r="89" spans="1:5" ht="51">
       <c r="A89" s="2" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -32647,10 +32794,10 @@
     </row>
     <row r="90" spans="1:5" ht="51">
       <c r="A90" s="2" t="s">
-        <v>1119</v>
+        <v>1443</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1118</v>
+        <v>1442</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -32658,10 +32805,10 @@
     </row>
     <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>1551</v>
+        <v>1049</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1550</v>
+        <v>1048</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -32669,10 +32816,10 @@
     </row>
     <row r="92" spans="1:5" ht="51">
       <c r="A92" s="2" t="s">
-        <v>1443</v>
+        <v>1113</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1442</v>
+        <v>1112</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -32680,21 +32827,21 @@
     </row>
     <row r="93" spans="1:5" ht="51">
       <c r="A93" s="2" t="s">
-        <v>1049</v>
+        <v>1479</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1048</v>
+        <v>1478</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" ht="51">
+    <row r="94" spans="1:5" ht="34">
       <c r="A94" s="2" t="s">
-        <v>1113</v>
+        <v>1549</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1112</v>
+        <v>1548</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -32702,21 +32849,21 @@
     </row>
     <row r="95" spans="1:5" ht="51">
       <c r="A95" s="2" t="s">
-        <v>1479</v>
+        <v>1547</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1478</v>
+        <v>1546</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="34">
+    <row r="96" spans="1:5" ht="51">
       <c r="A96" s="2" t="s">
-        <v>1549</v>
+        <v>1327</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1548</v>
+        <v>1326</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -32724,10 +32871,10 @@
     </row>
     <row r="97" spans="1:5" ht="51">
       <c r="A97" s="2" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -32735,194 +32882,172 @@
     </row>
     <row r="98" spans="1:5" ht="51">
       <c r="A98" s="2" t="s">
-        <v>1327</v>
+        <v>1543</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1326</v>
+        <v>1542</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" ht="51">
-      <c r="A99" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" ht="51">
-      <c r="A100" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1538</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>1537</v>
+        <v>310</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1536</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>1531</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>309</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>1533</v>
+        <v>1473</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1532</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>1473</v>
+        <v>1527</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1472</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>1525</v>
+        <v>1301</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1524</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1301</v>
+        <v>1039</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1300</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1039</v>
+        <v>1517</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1038</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1515</v>
+        <v>1091</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B120" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -32950,107 +33075,105 @@
     <hyperlink ref="B21" r:id="rId20" xr:uid="{B9E90FA2-154D-724C-9325-A91A49DEA780}"/>
     <hyperlink ref="B22" r:id="rId21" xr:uid="{D9B650BD-72E2-434A-A458-2E69B08FD58B}"/>
     <hyperlink ref="B23" r:id="rId22" xr:uid="{C27E3B08-1B6B-D244-81B0-399756C081CB}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{F36ED885-9879-844B-9D45-F8389102CB39}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{E1FAAEBB-925A-084A-9326-EA9A1190D9CC}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{E40D1DC6-BB83-F940-BDB9-35E17FBE78F8}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{69E141B6-950A-6845-BEFB-CE0A1A95EA73}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{A943FD75-69BF-4F49-BE1E-19125F1AD449}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{C3451B17-A4FE-984F-A0CD-84737FFD5425}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{025A56AC-E1B0-6441-BB41-7A07D8A70A1B}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{2C204674-B197-1340-993A-B875F2C48964}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{1F197DE6-DF64-6F44-8801-AE6CAA18B1BC}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{2A9D24F1-BA92-604E-8C99-7A01A654F2C5}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{843E1E64-2805-D049-9B1D-82310B344759}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{F2F42744-187B-7E41-A915-FBF45AC0D0DA}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{D779BB25-4B79-464E-ABBA-B66090DADED1}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{51E1E568-4F70-7F4E-91DC-A94E83DE3485}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{7CB511D6-C29F-A94E-B1BE-62D7EB2A6356}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{A013D4CA-81D7-D447-8FD7-7DBBAC6BF16A}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{F8FD8BA1-8953-8342-8A25-B31259873C09}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{C57F0C3B-D608-B443-A175-29A3090472E1}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{22F82D80-1587-9E44-A516-CA4CEE06D72B}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{9F9D8142-14B6-DE4A-BC27-0DF51D0B9FF9}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{1CDACB0D-C7E5-194E-8815-6B8EB2CF03D4}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{47771C96-2797-7146-AE1A-BA4F0B9716CD}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{DB147B68-6B39-BF43-AD09-A8CA05A8B20A}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{B5ADF055-98D6-6945-AC8F-E4936186C165}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{685FAAD6-8570-014A-AD2F-E426460B6CB2}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{DC24621F-697B-FA4F-824C-4B75B3756AD7}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{75ABDDAA-3771-074E-A551-099E8C31DA5D}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{1417FD4E-040E-5340-9569-CF38BD3D3460}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{82EBB7C0-5F67-8244-90B2-5FE006BE525B}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{1D9377F2-8D24-FB45-9485-7DF163710BAD}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{85DF165A-34AE-A644-93B0-563078525E9F}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{81FE6136-ACA2-DC48-9433-BA8240378FB4}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{464ABD9F-260D-D545-AD32-E5B0948073E7}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{757503B8-C71B-FB46-B9E2-049A967D07B3}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{49CCDD90-26FD-154A-A65B-003DC9369AB7}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{B0061805-9F07-D042-AB80-598AEABD5CF4}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{0AD8A65B-5B15-8447-A2C2-6008094092A4}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{EFF23AB4-5A40-0D4D-99C1-CFE5F72613ED}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{9BF11A80-34FF-894D-9EFA-5F680F4923F6}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{48EE8446-7886-4540-A1F9-D6A823628FF2}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{A99D3BD4-C4BD-DD41-84D5-E5773439858D}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{81BE7B0C-46E1-BA4D-8948-320CE9FD296A}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{DE9AD2EE-1E40-CF4A-A150-B536660E8D9D}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{85E6C868-6505-144E-A523-7CA685B416B6}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{38F6C3BF-C8C6-A24E-9A65-A38A29882224}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{E8010183-7787-D543-BA75-905C1DC8EF8A}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{34F3679F-F9D1-484F-8B9D-E70BD9E75488}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{93179FB3-7A23-CA4A-A8E5-F692A7BF0109}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{883099CE-DC20-3E4A-9202-BC7C9ADED04D}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{F88663E6-7F49-0949-A407-08B13D7C1AD2}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{FEDC3C91-3EAC-3745-AB5E-53178A93346F}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{C423DFB2-21ED-C645-9114-C610E9C9F9EA}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{05806685-A311-AE44-9D79-BEE84875A16B}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{219A557E-94AC-5C4B-A940-70DA84658974}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{211DB40C-2271-8749-AA4D-31B627659B2A}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{9BEF70A2-F9E6-304A-8435-38125713F72C}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{E8FDA2E8-8255-AC48-B7F9-25BED58F863E}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{759D813B-F8A6-CF47-B4D4-D264232BFFE8}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{5592AF32-135C-DA43-ADAA-85FCC675DDBA}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{BC58B021-D1AD-4A4E-AE89-20177722AC96}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{B481BDC2-49B9-DE4A-9530-4D836AB24645}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{630B8794-6E81-4C49-98FE-41857B80E2B9}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{8C9E43AC-891C-1343-8D15-81F83ADED0DC}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{1345AA76-EE80-1646-9732-FE72FC862FC2}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{3C7C4A14-7F42-3448-810A-C721F5093529}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{87DE6987-CBEE-5046-9129-C957B4B2AC55}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{70F06738-12B4-7F46-B81D-4DD7A2C4BAD4}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{0C54CDC1-CF3A-3849-9E58-7D1D4C89AC68}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{6314CB0A-1FB6-0D4F-B7F9-0B2D10F286A2}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{AF81E897-5284-004A-B938-5DA1EF393405}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{4371EF25-A360-EF44-8A8A-267F52E21604}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{74AC74A4-E098-9644-99F6-47787C8178A7}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{18390DA4-9007-ED4C-8E89-FABA2F66E8A7}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{C19228EB-CDAF-EC40-96DC-C273C4BC9C74}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{44AD29FC-A81C-A44E-AB55-87EC344A876C}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{5780EA0A-F1A1-2046-AF0F-50AE09E60B6C}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{9FF6D712-E085-2844-94C6-8B3DFCF77A6B}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{2F255511-DB54-F043-A3CE-814F80CAB0D4}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{0F57E7FB-169F-904E-92FB-6C45637AC0BC}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{82581EC6-5B48-0D4F-BAB0-6C793D63366A}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{900C5943-26A4-DE41-A17D-B6B8EBE3C3DD}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{F5C6A5D4-6AE7-384B-86A4-BD05247D0782}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{1074B740-9D48-D648-9D34-DCC504F51ECC}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{4803CD7C-C2CB-C84F-91DA-FF4A25D137A1}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{2C4AB432-1C53-7942-8CC3-635FB7D3CE80}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{4399FAAB-C614-EC4E-B6FB-3BBB0B393592}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{CBB65767-2860-5D44-A539-6248D0BDB1A0}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{66A53365-5ED9-E44B-AF2D-222FE883569D}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{CD2BEDFD-CCEC-EB4E-8B77-0CAF5C983626}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{8737174B-EA50-654D-BC3A-B50CEEF5D7D8}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{D25BB4BF-0330-EC43-AF4D-D789C7605254}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{5F8C4D91-369A-9D48-8ACA-05415375C653}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{7037DB62-ABCA-BE45-B1AF-B7FE5F5A5FA4}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{4DBF3B5C-3FBD-8843-9405-7458FA5D31A4}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{B7B9AB32-5578-1342-AAB8-8A6BFF7D8BCB}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{467574DC-092D-384A-A84A-DE410891C641}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{7A448D38-8237-CC49-AEDB-1B6C2B40A2CE}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{E1FAAEBB-925A-084A-9326-EA9A1190D9CC}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{E40D1DC6-BB83-F940-BDB9-35E17FBE78F8}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{69E141B6-950A-6845-BEFB-CE0A1A95EA73}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{A943FD75-69BF-4F49-BE1E-19125F1AD449}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{C3451B17-A4FE-984F-A0CD-84737FFD5425}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{025A56AC-E1B0-6441-BB41-7A07D8A70A1B}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{2C204674-B197-1340-993A-B875F2C48964}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{1F197DE6-DF64-6F44-8801-AE6CAA18B1BC}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{2A9D24F1-BA92-604E-8C99-7A01A654F2C5}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{843E1E64-2805-D049-9B1D-82310B344759}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{F2F42744-187B-7E41-A915-FBF45AC0D0DA}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{D779BB25-4B79-464E-ABBA-B66090DADED1}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{51E1E568-4F70-7F4E-91DC-A94E83DE3485}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{7CB511D6-C29F-A94E-B1BE-62D7EB2A6356}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{A013D4CA-81D7-D447-8FD7-7DBBAC6BF16A}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{F8FD8BA1-8953-8342-8A25-B31259873C09}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{C57F0C3B-D608-B443-A175-29A3090472E1}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{22F82D80-1587-9E44-A516-CA4CEE06D72B}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{9F9D8142-14B6-DE4A-BC27-0DF51D0B9FF9}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{1CDACB0D-C7E5-194E-8815-6B8EB2CF03D4}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{47771C96-2797-7146-AE1A-BA4F0B9716CD}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{DB147B68-6B39-BF43-AD09-A8CA05A8B20A}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{B5ADF055-98D6-6945-AC8F-E4936186C165}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{685FAAD6-8570-014A-AD2F-E426460B6CB2}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{DC24621F-697B-FA4F-824C-4B75B3756AD7}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{75ABDDAA-3771-074E-A551-099E8C31DA5D}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{1417FD4E-040E-5340-9569-CF38BD3D3460}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{82EBB7C0-5F67-8244-90B2-5FE006BE525B}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{1D9377F2-8D24-FB45-9485-7DF163710BAD}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{85DF165A-34AE-A644-93B0-563078525E9F}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{81FE6136-ACA2-DC48-9433-BA8240378FB4}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{464ABD9F-260D-D545-AD32-E5B0948073E7}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{757503B8-C71B-FB46-B9E2-049A967D07B3}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{49CCDD90-26FD-154A-A65B-003DC9369AB7}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{B0061805-9F07-D042-AB80-598AEABD5CF4}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{0AD8A65B-5B15-8447-A2C2-6008094092A4}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{EFF23AB4-5A40-0D4D-99C1-CFE5F72613ED}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{9BF11A80-34FF-894D-9EFA-5F680F4923F6}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{48EE8446-7886-4540-A1F9-D6A823628FF2}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{A99D3BD4-C4BD-DD41-84D5-E5773439858D}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{81BE7B0C-46E1-BA4D-8948-320CE9FD296A}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{DE9AD2EE-1E40-CF4A-A150-B536660E8D9D}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{85E6C868-6505-144E-A523-7CA685B416B6}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{38F6C3BF-C8C6-A24E-9A65-A38A29882224}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{E8010183-7787-D543-BA75-905C1DC8EF8A}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{34F3679F-F9D1-484F-8B9D-E70BD9E75488}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{93179FB3-7A23-CA4A-A8E5-F692A7BF0109}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{883099CE-DC20-3E4A-9202-BC7C9ADED04D}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{F88663E6-7F49-0949-A407-08B13D7C1AD2}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{FEDC3C91-3EAC-3745-AB5E-53178A93346F}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{C423DFB2-21ED-C645-9114-C610E9C9F9EA}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{05806685-A311-AE44-9D79-BEE84875A16B}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{219A557E-94AC-5C4B-A940-70DA84658974}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{211DB40C-2271-8749-AA4D-31B627659B2A}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{9BEF70A2-F9E6-304A-8435-38125713F72C}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{E8FDA2E8-8255-AC48-B7F9-25BED58F863E}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{759D813B-F8A6-CF47-B4D4-D264232BFFE8}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{5592AF32-135C-DA43-ADAA-85FCC675DDBA}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{BC58B021-D1AD-4A4E-AE89-20177722AC96}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{B481BDC2-49B9-DE4A-9530-4D836AB24645}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{630B8794-6E81-4C49-98FE-41857B80E2B9}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{8C9E43AC-891C-1343-8D15-81F83ADED0DC}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{1345AA76-EE80-1646-9732-FE72FC862FC2}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{3C7C4A14-7F42-3448-810A-C721F5093529}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{87DE6987-CBEE-5046-9129-C957B4B2AC55}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{0C54CDC1-CF3A-3849-9E58-7D1D4C89AC68}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{6314CB0A-1FB6-0D4F-B7F9-0B2D10F286A2}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{AF81E897-5284-004A-B938-5DA1EF393405}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{4371EF25-A360-EF44-8A8A-267F52E21604}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{74AC74A4-E098-9644-99F6-47787C8178A7}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{18390DA4-9007-ED4C-8E89-FABA2F66E8A7}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{C19228EB-CDAF-EC40-96DC-C273C4BC9C74}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{44AD29FC-A81C-A44E-AB55-87EC344A876C}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{5780EA0A-F1A1-2046-AF0F-50AE09E60B6C}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{9FF6D712-E085-2844-94C6-8B3DFCF77A6B}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{2F255511-DB54-F043-A3CE-814F80CAB0D4}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{0F57E7FB-169F-904E-92FB-6C45637AC0BC}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{82581EC6-5B48-0D4F-BAB0-6C793D63366A}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{900C5943-26A4-DE41-A17D-B6B8EBE3C3DD}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{F5C6A5D4-6AE7-384B-86A4-BD05247D0782}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{1074B740-9D48-D648-9D34-DCC504F51ECC}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{4803CD7C-C2CB-C84F-91DA-FF4A25D137A1}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{2C4AB432-1C53-7942-8CC3-635FB7D3CE80}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{4399FAAB-C614-EC4E-B6FB-3BBB0B393592}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{CBB65767-2860-5D44-A539-6248D0BDB1A0}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{66A53365-5ED9-E44B-AF2D-222FE883569D}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{CD2BEDFD-CCEC-EB4E-8B77-0CAF5C983626}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{8737174B-EA50-654D-BC3A-B50CEEF5D7D8}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{D25BB4BF-0330-EC43-AF4D-D789C7605254}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{5F8C4D91-369A-9D48-8ACA-05415375C653}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{7037DB62-ABCA-BE45-B1AF-B7FE5F5A5FA4}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{4DBF3B5C-3FBD-8843-9405-7458FA5D31A4}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{B7B9AB32-5578-1342-AAB8-8A6BFF7D8BCB}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{467574DC-092D-384A-A84A-DE410891C641}"/>
+    <hyperlink ref="B118" r:id="rId117" xr:uid="{7A448D38-8237-CC49-AEDB-1B6C2B40A2CE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId120"/>
+    <tablePart r:id="rId118"/>
   </tableParts>
 </worksheet>
 </file>
@@ -33818,8 +33941,8 @@
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34221,8 +34344,12 @@
         <v>610</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
@@ -34235,16 +34362,22 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="68">
+    <row r="36" spans="1:5" ht="153">
       <c r="A36" s="2" t="s">
         <v>1725</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1724</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="68">
       <c r="A37" s="2" t="s">
@@ -35068,7 +35201,9 @@
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -38481,7 +38616,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -40321,8 +40458,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40605,17 +40742,6 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="51">
-      <c r="A25" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
     <row r="26" spans="1:5" ht="34">
       <c r="A26" s="2" t="s">
         <v>523</v>
@@ -41183,40 +41309,39 @@
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{B0FF824F-1BF2-DF47-A60C-4CB448E54FA0}"/>
     <hyperlink ref="B28" r:id="rId2" xr:uid="{8BDF0930-E22B-074C-935C-975E5629DB4C}"/>
-    <hyperlink ref="B25" r:id="rId3" xr:uid="{774D855B-3C54-6F46-8F89-F65BAC600D3E}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{A7C5DD2D-CD3F-5D45-9049-EFE993A460F2}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{B8CEDFB1-4EBB-0444-A56A-9607255F454D}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{838A719A-D2DE-2544-BAE3-DB1B1AD581D1}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{F37473E9-569E-EB4E-A018-66E20F5C89BD}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{37F5796F-F5E0-9E42-AC86-8B9325AED127}"/>
-    <hyperlink ref="B21" r:id="rId9" xr:uid="{B93D4D48-234F-6549-A84D-709EA124CACE}"/>
-    <hyperlink ref="B22" r:id="rId10" xr:uid="{B356948F-8720-0F4D-810C-351C5E540109}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{BBE584FB-EAA3-BC41-B8BE-20BCAF818561}"/>
-    <hyperlink ref="B20" r:id="rId12" xr:uid="{4019EB64-F6C2-5A45-98FF-933355703E60}"/>
-    <hyperlink ref="B26" r:id="rId13" xr:uid="{1F131D08-5E90-7C48-8C05-B570DE442407}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{6CE0B3D4-DA6E-F04A-B53F-C76DC81AD73E}"/>
-    <hyperlink ref="B27" r:id="rId15" xr:uid="{D0D3B853-8F3E-1F4A-8EE7-DC87F8F2532A}"/>
-    <hyperlink ref="B31" r:id="rId16" xr:uid="{DCEBE03C-58E5-294D-BB79-3DCB3962543E}"/>
-    <hyperlink ref="B8" r:id="rId17" xr:uid="{0048F109-62A0-9D46-91B1-4A4F9BC5B7DC}"/>
-    <hyperlink ref="B33" r:id="rId18" xr:uid="{B994F5D1-E7FC-3F49-BEE5-5B5A041D534C}"/>
-    <hyperlink ref="B3" r:id="rId19" xr:uid="{DED6D220-7B15-DE48-ABCD-9290D56B08AA}"/>
-    <hyperlink ref="B6" r:id="rId20" xr:uid="{7CA975D2-13D4-7749-BD4D-835EFCA5F28B}"/>
-    <hyperlink ref="B17" r:id="rId21" xr:uid="{E62B94C8-9889-E947-BD2E-7D8571BD2B4D}"/>
-    <hyperlink ref="B11" r:id="rId22" xr:uid="{06449CE4-61E6-4646-8236-A02594F2BAA6}"/>
-    <hyperlink ref="B16" r:id="rId23" xr:uid="{BDE76662-E473-EE41-A77B-153ACA58DFD4}"/>
-    <hyperlink ref="B32" r:id="rId24" xr:uid="{C5C0C9BA-C819-D543-BD52-CF81775B03C0}"/>
-    <hyperlink ref="B10" r:id="rId25" xr:uid="{E22BDF8C-32A7-FC41-BEE3-0493467B9CC9}"/>
-    <hyperlink ref="B19" r:id="rId26" xr:uid="{F6C4C8E4-9254-2A4F-AD05-C43E8AD7334A}"/>
-    <hyperlink ref="B2" r:id="rId27" xr:uid="{0AFADEA9-86AE-D444-A10F-FAC2D199B991}"/>
-    <hyperlink ref="B12" r:id="rId28" xr:uid="{26F76174-9414-834B-8125-B631DD6737FE}"/>
-    <hyperlink ref="B24" r:id="rId29" xr:uid="{CAB1691A-C9FC-C14C-83DD-41DEA0EA4B07}"/>
-    <hyperlink ref="B23" r:id="rId30" xr:uid="{EF6C06FE-7AD4-7948-9B67-F110D36B239E}"/>
-    <hyperlink ref="B13" r:id="rId31" xr:uid="{39219F30-31A6-B140-8FD3-E6F241FD9452}"/>
-    <hyperlink ref="B5" r:id="rId32" xr:uid="{909B67F1-5A59-DC46-A36B-98216F61A6F2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A7C5DD2D-CD3F-5D45-9049-EFE993A460F2}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{B8CEDFB1-4EBB-0444-A56A-9607255F454D}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{838A719A-D2DE-2544-BAE3-DB1B1AD581D1}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{F37473E9-569E-EB4E-A018-66E20F5C89BD}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{37F5796F-F5E0-9E42-AC86-8B9325AED127}"/>
+    <hyperlink ref="B21" r:id="rId8" xr:uid="{B93D4D48-234F-6549-A84D-709EA124CACE}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{B356948F-8720-0F4D-810C-351C5E540109}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{BBE584FB-EAA3-BC41-B8BE-20BCAF818561}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{4019EB64-F6C2-5A45-98FF-933355703E60}"/>
+    <hyperlink ref="B26" r:id="rId12" xr:uid="{1F131D08-5E90-7C48-8C05-B570DE442407}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{6CE0B3D4-DA6E-F04A-B53F-C76DC81AD73E}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{D0D3B853-8F3E-1F4A-8EE7-DC87F8F2532A}"/>
+    <hyperlink ref="B31" r:id="rId15" xr:uid="{DCEBE03C-58E5-294D-BB79-3DCB3962543E}"/>
+    <hyperlink ref="B8" r:id="rId16" xr:uid="{0048F109-62A0-9D46-91B1-4A4F9BC5B7DC}"/>
+    <hyperlink ref="B33" r:id="rId17" xr:uid="{B994F5D1-E7FC-3F49-BEE5-5B5A041D534C}"/>
+    <hyperlink ref="B3" r:id="rId18" xr:uid="{DED6D220-7B15-DE48-ABCD-9290D56B08AA}"/>
+    <hyperlink ref="B6" r:id="rId19" xr:uid="{7CA975D2-13D4-7749-BD4D-835EFCA5F28B}"/>
+    <hyperlink ref="B17" r:id="rId20" xr:uid="{E62B94C8-9889-E947-BD2E-7D8571BD2B4D}"/>
+    <hyperlink ref="B11" r:id="rId21" xr:uid="{06449CE4-61E6-4646-8236-A02594F2BAA6}"/>
+    <hyperlink ref="B16" r:id="rId22" xr:uid="{BDE76662-E473-EE41-A77B-153ACA58DFD4}"/>
+    <hyperlink ref="B32" r:id="rId23" xr:uid="{C5C0C9BA-C819-D543-BD52-CF81775B03C0}"/>
+    <hyperlink ref="B10" r:id="rId24" xr:uid="{E22BDF8C-32A7-FC41-BEE3-0493467B9CC9}"/>
+    <hyperlink ref="B19" r:id="rId25" xr:uid="{F6C4C8E4-9254-2A4F-AD05-C43E8AD7334A}"/>
+    <hyperlink ref="B2" r:id="rId26" xr:uid="{0AFADEA9-86AE-D444-A10F-FAC2D199B991}"/>
+    <hyperlink ref="B12" r:id="rId27" xr:uid="{26F76174-9414-834B-8125-B631DD6737FE}"/>
+    <hyperlink ref="B24" r:id="rId28" xr:uid="{CAB1691A-C9FC-C14C-83DD-41DEA0EA4B07}"/>
+    <hyperlink ref="B23" r:id="rId29" xr:uid="{EF6C06FE-7AD4-7948-9B67-F110D36B239E}"/>
+    <hyperlink ref="B13" r:id="rId30" xr:uid="{39219F30-31A6-B140-8FD3-E6F241FD9452}"/>
+    <hyperlink ref="B5" r:id="rId31" xr:uid="{909B67F1-5A59-DC46-A36B-98216F61A6F2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -41972,10 +42097,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7E5A2A-21F9-5643-80C4-AD277614177D}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42030,8 +42155,12 @@
       <c r="B4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1830</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>1805</v>
       </c>
@@ -42137,10 +42266,10 @@
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -42148,21 +42277,21 @@
     </row>
     <row r="15" spans="1:5" ht="51">
       <c r="A15" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="51">
+    <row r="16" spans="1:5" ht="34">
       <c r="A16" s="2" t="s">
-        <v>609</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>608</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -42170,43 +42299,43 @@
     </row>
     <row r="17" spans="1:5" ht="34">
       <c r="A17" s="2" t="s">
-        <v>181</v>
+        <v>607</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>180</v>
+        <v>606</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="34">
+    <row r="18" spans="1:5" ht="51">
       <c r="A18" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="51">
+    <row r="19" spans="1:5" ht="68">
       <c r="A19" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="68">
+    <row r="20" spans="1:5" ht="51">
       <c r="A20" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -42214,21 +42343,21 @@
     </row>
     <row r="21" spans="1:5" ht="51">
       <c r="A21" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="51">
+    <row r="22" spans="1:5" ht="34">
       <c r="A22" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -42236,10 +42365,10 @@
     </row>
     <row r="23" spans="1:5" ht="34">
       <c r="A23" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -42247,21 +42376,21 @@
     </row>
     <row r="24" spans="1:5" ht="34">
       <c r="A24" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="34">
+    <row r="25" spans="1:5" ht="51">
       <c r="A25" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -42269,21 +42398,21 @@
     </row>
     <row r="26" spans="1:5" ht="51">
       <c r="A26" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="51">
+    <row r="27" spans="1:5" ht="34">
       <c r="A27" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -42291,21 +42420,21 @@
     </row>
     <row r="28" spans="1:5" ht="34">
       <c r="A28" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="34">
+    <row r="29" spans="1:5" ht="51">
       <c r="A29" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -42313,43 +42442,43 @@
     </row>
     <row r="30" spans="1:5" ht="51">
       <c r="A30" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="51">
+    <row r="31" spans="1:5" ht="34">
       <c r="A31" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="34">
+    <row r="32" spans="1:5" ht="51">
       <c r="A32" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="51">
+    <row r="33" spans="1:5" ht="34">
       <c r="A33" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -42357,21 +42486,21 @@
     </row>
     <row r="34" spans="1:5" ht="34">
       <c r="A34" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="34">
+    <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -42379,32 +42508,32 @@
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="51">
+    <row r="37" spans="1:5" ht="34">
       <c r="A37" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="34">
+    <row r="38" spans="1:5" ht="51">
       <c r="A38" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -42412,32 +42541,32 @@
     </row>
     <row r="39" spans="1:5" ht="51">
       <c r="A39" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="51">
+    <row r="40" spans="1:5" ht="68">
       <c r="A40" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="68">
+    <row r="41" spans="1:5" ht="51">
       <c r="A41" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -42445,10 +42574,10 @@
     </row>
     <row r="42" spans="1:5" ht="51">
       <c r="A42" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -42456,10 +42585,10 @@
     </row>
     <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -42467,10 +42596,10 @@
     </row>
     <row r="44" spans="1:5" ht="51">
       <c r="A44" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -42478,10 +42607,10 @@
     </row>
     <row r="45" spans="1:5" ht="51">
       <c r="A45" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -42489,22 +42618,18 @@
     </row>
     <row r="46" spans="1:5" ht="51">
       <c r="A46" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="51">
-      <c r="A47" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>548</v>
-      </c>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -42872,13 +42997,6 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -42894,44 +43012,43 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{3F6A5493-C8CB-204B-B13F-EB9F3E1BEDD6}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{B81B3D69-4B5C-8E4A-8333-24E22D1C8115}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{B888E639-E8C8-E34C-8749-8FA597B6BBF2}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{EF73FF65-C8B8-094B-9551-9B0EE7BE1296}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{D8688337-DF03-D54F-B6DE-BB4A5363C6B4}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{75A754E1-8CD8-FA4C-8583-36297BC3853C}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{2002ADDB-F4E8-7D46-ADB3-7F4BE83D8DED}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{290AD12A-F679-1A46-87FB-7116932CE04F}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{4F62CD42-B54A-3B4A-ABE0-5605571356F8}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{55552DA9-4352-634C-93C6-44F720410629}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{07FA0225-148D-784A-A2AC-275F91557037}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{B77CDB10-740C-1B46-898D-09D21AB8194B}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{583E9688-3284-1D40-9136-53D29B210E13}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{0866C98A-CE9B-094E-9D89-B90FB1F4A5F7}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{6AE6C392-D917-724E-8AC4-2B1B224501BA}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{C551E9A5-5359-DB43-B47E-328C3445C14A}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{67F3F41D-3BFF-4B4A-A4F6-96EAC2364C5E}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{0312F283-0B23-104D-A499-A97176EB2E97}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{735B2CE0-0F6E-4F45-9592-EE8E3C21BF2D}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{CC9DBBC9-55F6-D540-93E2-E1E48D567A0A}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{EDCE1769-C240-5A49-9C5D-D788D30BD076}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{B21CC16C-7381-CE4C-ADFE-4D8B2B6DF2E1}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{72C94DEB-3790-A44D-AEDA-D4CC78247ACD}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{399EAD0B-C13C-5A47-B56F-4A18827606D6}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{EE42D2ED-52BD-D043-AE46-0BA01EFA4B74}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{61C5B632-56E5-FC4F-81C0-4F00B66D5631}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{18B81691-3AF0-414B-A1DC-D5BE757EA05A}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{96FD0988-D048-0348-AC9E-F5A205481079}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{A9EBA2CE-544A-2F47-A27C-3198B2F6A1D5}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{117FBEB2-F49C-6843-A776-0AAF625ED6B0}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{A4500746-8918-F147-A311-F51A5ADEF9EB}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{41B71453-0C2D-E042-8AC1-EF5ED0F09AFA}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{ABBCB29B-1306-014F-B086-CA85846429A4}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{97A2400D-585E-104A-BE67-07AD2BD0EF67}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{60898536-6056-6245-A290-5E95DE9F1DBF}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{ADF0FD46-3D2B-F748-B7BF-665A75BECEBC}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{F8DB8A91-8C7E-2F45-B5F3-459FFDBA99C8}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{D8688337-DF03-D54F-B6DE-BB4A5363C6B4}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{75A754E1-8CD8-FA4C-8583-36297BC3853C}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{2002ADDB-F4E8-7D46-ADB3-7F4BE83D8DED}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{290AD12A-F679-1A46-87FB-7116932CE04F}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{4F62CD42-B54A-3B4A-ABE0-5605571356F8}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{55552DA9-4352-634C-93C6-44F720410629}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{07FA0225-148D-784A-A2AC-275F91557037}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{B77CDB10-740C-1B46-898D-09D21AB8194B}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{583E9688-3284-1D40-9136-53D29B210E13}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{0866C98A-CE9B-094E-9D89-B90FB1F4A5F7}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{6AE6C392-D917-724E-8AC4-2B1B224501BA}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{C551E9A5-5359-DB43-B47E-328C3445C14A}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{67F3F41D-3BFF-4B4A-A4F6-96EAC2364C5E}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{0312F283-0B23-104D-A499-A97176EB2E97}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{735B2CE0-0F6E-4F45-9592-EE8E3C21BF2D}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{CC9DBBC9-55F6-D540-93E2-E1E48D567A0A}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{EDCE1769-C240-5A49-9C5D-D788D30BD076}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{B21CC16C-7381-CE4C-ADFE-4D8B2B6DF2E1}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{72C94DEB-3790-A44D-AEDA-D4CC78247ACD}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{399EAD0B-C13C-5A47-B56F-4A18827606D6}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{EE42D2ED-52BD-D043-AE46-0BA01EFA4B74}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{61C5B632-56E5-FC4F-81C0-4F00B66D5631}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{18B81691-3AF0-414B-A1DC-D5BE757EA05A}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{96FD0988-D048-0348-AC9E-F5A205481079}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{A9EBA2CE-544A-2F47-A27C-3198B2F6A1D5}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{117FBEB2-F49C-6843-A776-0AAF625ED6B0}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{A4500746-8918-F147-A311-F51A5ADEF9EB}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{41B71453-0C2D-E042-8AC1-EF5ED0F09AFA}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{ABBCB29B-1306-014F-B086-CA85846429A4}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{97A2400D-585E-104A-BE67-07AD2BD0EF67}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{60898536-6056-6245-A290-5E95DE9F1DBF}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{ADF0FD46-3D2B-F748-B7BF-665A75BECEBC}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{F8DB8A91-8C7E-2F45-B5F3-459FFDBA99C8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
 </file>
--- a/practice/ltcode.xlsx
+++ b/practice/ltcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visawant/gen-next/vagrant/shared/fft-py/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEAADD8-C6AA-094E-9614-3F3460BA4EFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EE44D6-71ED-9845-ACC4-8050E46B6D95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
+    <workbookView xWindow="4320" yWindow="1380" windowWidth="28040" windowHeight="17440" firstSheet="21" activeTab="33" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="38" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1873">
   <si>
     <t>https://leetcode.com/problems/maximum-width-ramp</t>
   </si>
@@ -5709,6 +5709,53 @@
   </si>
   <si>
     <t>&gt; With auxillary set</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
+  </si>
+  <si>
+    <t>&gt; Sliding window + Auxlillary storage</t>
+  </si>
+  <si>
+    <t>Choose,Explore, Unchoose</t>
+  </si>
+  <si>
+    <t>&gt; Base condition do nothing
+&gt; Explore the level , each level provides list of options
+&gt; Remember minmize the variables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&gt; How to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Short circuit (or || )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operator to reduce the complexity
+&gt; Can you think of pruning</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt; How to determin the leaf is from left/right subtree</t>
+  </si>
+  <si>
+    <t>&gt; Given leaf node and sum if both are equal what you do? (Recursion)</t>
   </si>
 </sst>
 </file>
@@ -7330,6 +7377,9 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8AA3D4F9-E747-9644-BC2D-DBD8407C9B41}" name="depth-first-search_table" displayName="depth_first_search_table" ref="A1:E89" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177">
   <autoFilter ref="A1:E89" xr:uid="{43BF464C-F70D-8346-A99D-E64B753BABE9}"/>
+  <sortState ref="A2:E89">
+    <sortCondition ref="A1:A89"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3FA8A903-CCAF-CB4C-AE9D-12275360FC4C}" name="Problem statement" dataDxfId="176"/>
     <tableColumn id="2" xr3:uid="{766C9BE9-1244-F34A-8C77-D51D284B7B14}" name=" Problem Link" dataDxfId="175" dataCellStyle="Hyperlink"/>
@@ -7705,6 +7755,9 @@
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{58FD54E4-ABF3-5D4F-A522-55A897D5767E}" name="tree_table" displayName="tree_table" ref="A1:E100" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:E100" xr:uid="{FF036447-33D7-AA47-90B0-261E003BDB55}"/>
+  <sortState ref="A2:E100">
+    <sortCondition ref="A1:A100"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0F8DD3EE-CD90-7640-B1BC-D99487A0749C}" name="Problem statement" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{5CB45B0C-6DCE-844F-B64C-EF03B38C7785}" name=" Problem Link" dataDxfId="24" dataCellStyle="Hyperlink"/>
@@ -9000,8 +9053,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9027,12 +9080,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51">
+    <row r="2" spans="1:5" ht="34">
       <c r="A2" s="2" t="s">
-        <v>755</v>
+        <v>585</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>754</v>
+        <v>584</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9040,36 +9093,32 @@
     </row>
     <row r="3" spans="1:5" ht="34">
       <c r="A3" s="2" t="s">
-        <v>753</v>
+        <v>687</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>752</v>
+        <v>686</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="51">
       <c r="A4" s="2" t="s">
-        <v>267</v>
+        <v>679</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>678</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="85">
+    <row r="5" spans="1:5" ht="68">
       <c r="A5" s="2" t="s">
-        <v>265</v>
+        <v>561</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>560</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9086,23 +9135,23 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="34">
+    <row r="7" spans="1:5" ht="51">
       <c r="A7" s="2" t="s">
-        <v>749</v>
+        <v>639</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>748</v>
+        <v>638</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="34">
+    <row r="8" spans="1:5" ht="51">
       <c r="A8" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -9110,32 +9159,32 @@
     </row>
     <row r="9" spans="1:5" ht="51">
       <c r="A9" s="2" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="68">
+    <row r="10" spans="1:5" ht="51">
       <c r="A10" s="2" t="s">
-        <v>743</v>
+        <v>629</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="51">
+    <row r="11" spans="1:5" ht="34">
       <c r="A11" s="2" t="s">
-        <v>741</v>
+        <v>607</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>740</v>
+        <v>606</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9143,54 +9192,54 @@
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="2" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="51">
+    <row r="13" spans="1:5" ht="85">
       <c r="A13" s="2" t="s">
-        <v>629</v>
+        <v>265</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>628</v>
+        <v>264</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="51">
+    <row r="14" spans="1:5" ht="85">
       <c r="A14" s="2" t="s">
-        <v>627</v>
+        <v>267</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>626</v>
+        <v>266</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="51">
+    <row r="15" spans="1:5" ht="34">
       <c r="A15" s="2" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="51">
+    <row r="16" spans="1:5" ht="68">
       <c r="A16" s="2" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -9198,10 +9247,10 @@
     </row>
     <row r="17" spans="1:5" ht="68">
       <c r="A17" s="2" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -9209,10 +9258,10 @@
     </row>
     <row r="18" spans="1:5" ht="51">
       <c r="A18" s="2" t="s">
-        <v>735</v>
+        <v>609</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>734</v>
+        <v>608</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -9220,10 +9269,10 @@
     </row>
     <row r="19" spans="1:5" ht="51">
       <c r="A19" s="2" t="s">
-        <v>733</v>
+        <v>605</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>732</v>
+        <v>604</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -9231,21 +9280,21 @@
     </row>
     <row r="20" spans="1:5" ht="51">
       <c r="A20" s="2" t="s">
-        <v>731</v>
+        <v>671</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>730</v>
+        <v>670</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="51">
+    <row r="21" spans="1:5" ht="34">
       <c r="A21" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -9253,43 +9302,43 @@
     </row>
     <row r="22" spans="1:5" ht="51">
       <c r="A22" s="2" t="s">
-        <v>727</v>
+        <v>581</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>726</v>
+        <v>580</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="68">
+    <row r="23" spans="1:5" ht="51">
       <c r="A23" s="2" t="s">
-        <v>725</v>
+        <v>589</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>724</v>
+        <v>588</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="68">
+    <row r="24" spans="1:5" ht="51">
       <c r="A24" s="2" t="s">
-        <v>723</v>
+        <v>669</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>722</v>
+        <v>668</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="68">
+    <row r="25" spans="1:5" ht="51">
       <c r="A25" s="2" t="s">
-        <v>721</v>
+        <v>591</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>720</v>
+        <v>590</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9297,21 +9346,21 @@
     </row>
     <row r="26" spans="1:5" ht="51">
       <c r="A26" s="2" t="s">
-        <v>609</v>
+        <v>715</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="34">
+    <row r="27" spans="1:5" ht="68">
       <c r="A27" s="2" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9319,54 +9368,54 @@
     </row>
     <row r="28" spans="1:5" ht="51">
       <c r="A28" s="2" t="s">
-        <v>605</v>
+        <v>745</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>604</v>
+        <v>744</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="51">
+    <row r="29" spans="1:5" ht="34">
       <c r="A29" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="51">
+    <row r="30" spans="1:5" ht="34">
       <c r="A30" s="2" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="68">
+    <row r="31" spans="1:5" ht="34">
       <c r="A31" s="2" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="34">
+    <row r="32" spans="1:5" ht="51">
       <c r="A32" s="2" t="s">
-        <v>713</v>
+        <v>625</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>712</v>
+        <v>624</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -9374,10 +9423,10 @@
     </row>
     <row r="33" spans="1:5" ht="51">
       <c r="A33" s="2" t="s">
-        <v>599</v>
+        <v>733</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>598</v>
+        <v>732</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -9385,10 +9434,10 @@
     </row>
     <row r="34" spans="1:5" ht="51">
       <c r="A34" s="2" t="s">
-        <v>711</v>
+        <v>649</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>710</v>
+        <v>648</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -9396,10 +9445,10 @@
     </row>
     <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -9407,43 +9456,43 @@
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>707</v>
+        <v>569</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>706</v>
+        <v>568</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="34">
+    <row r="37" spans="1:5" ht="51">
       <c r="A37" s="2" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="34">
+    <row r="38" spans="1:5" ht="51">
       <c r="A38" s="2" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="51">
+    <row r="39" spans="1:5" ht="34">
       <c r="A39" s="2" t="s">
-        <v>701</v>
+        <v>141</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -9451,21 +9500,21 @@
     </row>
     <row r="40" spans="1:5" ht="34">
       <c r="A40" s="2" t="s">
-        <v>597</v>
+        <v>139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>596</v>
+        <v>138</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="34">
+    <row r="41" spans="1:5" ht="68">
       <c r="A41" s="2" t="s">
-        <v>595</v>
+        <v>737</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>594</v>
+        <v>736</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -9473,10 +9522,10 @@
     </row>
     <row r="42" spans="1:5" ht="34">
       <c r="A42" s="2" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -9484,10 +9533,10 @@
     </row>
     <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -9495,32 +9544,32 @@
     </row>
     <row r="44" spans="1:5" ht="51">
       <c r="A44" s="2" t="s">
-        <v>589</v>
+        <v>707</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>588</v>
+        <v>706</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="34">
+    <row r="45" spans="1:5" ht="51">
       <c r="A45" s="2" t="s">
-        <v>587</v>
+        <v>93</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>586</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="34">
+    <row r="46" spans="1:5" ht="51">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>555</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>140</v>
+        <v>554</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -9528,54 +9577,54 @@
     </row>
     <row r="47" spans="1:5" ht="34">
       <c r="A47" s="2" t="s">
-        <v>139</v>
+        <v>587</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>586</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="34">
+    <row r="48" spans="1:5" ht="51">
       <c r="A48" s="2" t="s">
-        <v>699</v>
+        <v>645</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>698</v>
+        <v>644</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="34">
+    <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" ht="34">
+    <row r="50" spans="1:5" ht="68">
       <c r="A50" s="2" t="s">
-        <v>697</v>
+        <v>643</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>696</v>
+        <v>642</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="34">
+    <row r="51" spans="1:5" ht="51">
       <c r="A51" s="2" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -9583,10 +9632,10 @@
     </row>
     <row r="52" spans="1:5" ht="51">
       <c r="A52" s="2" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -9594,32 +9643,32 @@
     </row>
     <row r="53" spans="1:5" ht="51">
       <c r="A53" s="2" t="s">
-        <v>691</v>
+        <v>577</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>690</v>
+        <v>576</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" ht="51">
+    <row r="54" spans="1:5" ht="68">
       <c r="A54" s="2" t="s">
-        <v>689</v>
+        <v>603</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>688</v>
+        <v>602</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="34">
+    <row r="55" spans="1:5" ht="51">
       <c r="A55" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -9627,10 +9676,10 @@
     </row>
     <row r="56" spans="1:5" ht="51">
       <c r="A56" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -9638,10 +9687,10 @@
     </row>
     <row r="57" spans="1:5" ht="51">
       <c r="A57" s="2" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -9649,10 +9698,10 @@
     </row>
     <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -9660,54 +9709,60 @@
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>599</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>92</v>
+        <v>598</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="51">
+    <row r="60" spans="1:5" ht="102">
       <c r="A60" s="2" t="s">
-        <v>681</v>
+        <v>749</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="51">
+        <v>748</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="34">
       <c r="A61" s="2" t="s">
-        <v>679</v>
+        <v>747</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>678</v>
+        <v>746</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="34">
+    <row r="62" spans="1:5" ht="68">
       <c r="A62" s="2" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="51">
+    <row r="63" spans="1:5" ht="68">
       <c r="A63" s="2" t="s">
-        <v>675</v>
+        <v>743</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>674</v>
+        <v>742</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -9715,10 +9770,10 @@
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -9726,21 +9781,21 @@
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>576</v>
+        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="34">
+    <row r="66" spans="1:5" ht="51">
       <c r="A66" s="2" t="s">
-        <v>673</v>
+        <v>735</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>672</v>
+        <v>734</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -9748,10 +9803,10 @@
     </row>
     <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -9759,10 +9814,10 @@
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>497</v>
+        <v>685</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>496</v>
+        <v>684</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -9770,21 +9825,21 @@
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>430</v>
+        <v>641</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>429</v>
+        <v>640</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51">
+    <row r="70" spans="1:5" ht="34">
       <c r="A70" s="2" t="s">
-        <v>569</v>
+        <v>697</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>568</v>
+        <v>696</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -9792,10 +9847,10 @@
     </row>
     <row r="71" spans="1:5" ht="51">
       <c r="A71" s="2" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>668</v>
+        <v>620</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -9803,32 +9858,36 @@
     </row>
     <row r="72" spans="1:5" ht="51">
       <c r="A72" s="2" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="51">
+    <row r="73" spans="1:5" ht="34">
       <c r="A73" s="2" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="51">
       <c r="A74" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -9836,32 +9895,32 @@
     </row>
     <row r="75" spans="1:5" ht="51">
       <c r="A75" s="2" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="34">
+    <row r="76" spans="1:5" ht="51">
       <c r="A76" s="2" t="s">
-        <v>659</v>
+        <v>551</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>658</v>
+        <v>550</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="68">
+    <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>561</v>
+        <v>663</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>560</v>
+        <v>662</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -9869,10 +9928,10 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -9880,21 +9939,21 @@
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>554</v>
+        <v>664</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" ht="68">
+    <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -9902,10 +9961,10 @@
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -9913,21 +9972,21 @@
     </row>
     <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>651</v>
+        <v>430</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>650</v>
+        <v>429</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="51">
+    <row r="83" spans="1:5" ht="34">
       <c r="A83" s="2" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -9935,43 +9994,43 @@
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>551</v>
+        <v>711</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>550</v>
+        <v>710</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="51">
+    <row r="85" spans="1:5" ht="34">
       <c r="A85" s="2" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="51">
+    <row r="86" spans="1:5" ht="34">
       <c r="A86" s="2" t="s">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="68">
+    <row r="87" spans="1:5" ht="34">
       <c r="A87" s="2" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -9979,21 +10038,21 @@
     </row>
     <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>641</v>
+        <v>729</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>640</v>
+        <v>728</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="51">
+    <row r="89" spans="1:5" ht="34">
       <c r="A89" s="2" t="s">
-        <v>639</v>
+        <v>705</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>638</v>
+        <v>704</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -10057,94 +10116,94 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F247718B-1CE5-BB47-BE0E-DEF2F65BA6D5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7ED1625B-16FC-1143-9B6B-DB4188D1A9DF}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6B4ED9E6-311A-FC43-B57B-474B9841EF3E}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{171FF70D-AE19-5044-BED5-36FFA023F6C0}"/>
+    <hyperlink ref="B67" r:id="rId1" xr:uid="{F247718B-1CE5-BB47-BE0E-DEF2F65BA6D5}"/>
+    <hyperlink ref="B73" r:id="rId2" xr:uid="{7ED1625B-16FC-1143-9B6B-DB4188D1A9DF}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{6B4ED9E6-311A-FC43-B57B-474B9841EF3E}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{171FF70D-AE19-5044-BED5-36FFA023F6C0}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{4E64F953-4858-5946-B4FD-9A24A3F536F1}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{639456C9-480E-7846-A6BF-D5FBBAB1392D}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{393E6045-0CA4-6748-952E-8B0A642FCFF4}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{CFFF41B4-23F0-A341-B823-3089808AD0EC}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{B0972110-615A-BE48-B1E1-C2EF2B042E07}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{2EAD7248-F73C-FC46-BD27-8A52FAA07573}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{DE6EEB80-413C-2F4A-8681-E5C192BC4292}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{CA2C7EE0-3B78-DA4A-8951-C3565F5EE33C}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{E140327B-63AC-AB40-A092-6DD7E9264846}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{FDB9C5E9-68C5-2842-B0E4-A92D8D95DAB5}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{0911C232-77E5-D248-8954-A519280F3961}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{878430C5-5169-DC47-B2F8-EF2355C3B615}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{34B41B75-9444-FF4B-9050-71B98788D0E1}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{E372D620-7BC9-AE46-8F68-EBA3D7DFEE26}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{3A3B91BE-73CD-9740-8F46-C406F795A9C5}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{A3AD6BDF-F11B-3543-9727-DC4499DB24BB}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{35F4BC1D-7EC7-014F-B1B2-C217A63FEFA1}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{76E83943-EC6E-314B-97F9-AB90DF92ACF0}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{D87E99B4-AB55-0E4E-BDD3-E309BCA80398}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{07EA5A38-2210-5D4B-9509-D68136C8753E}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{AFBC40FF-B608-AF4D-B322-4DF0E4A13008}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{C365F331-4A31-8B4E-80BF-C966BBB463AA}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{3AF341E4-974A-A74B-ADB0-34D96E2E1724}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{4DD62C4D-6647-FC45-B8EA-A63406280E56}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{AB2E57FF-834E-5F44-9140-F114B10BCA36}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{E468FA85-4C6A-594B-9B30-5C897B7E9D45}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{391AE344-DF03-8D48-8854-34FCD3C9F70B}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{4BE8F088-F99D-1841-A194-4A3BACD3E0F5}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{5CEACB73-F209-A24C-8EFD-6CBB34D5381F}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{FB91AC82-D3B5-EA48-9392-8DC355C67A2F}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{51BF2D54-EC24-8F46-A68D-2B28C86480DD}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{5CF14CC9-92E3-D24F-98D1-91EFF8896140}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{51A73454-6A39-D34A-A6B5-F3CB4678CE0B}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{6F2656AC-79AF-8F49-BF82-FB18BE327E9C}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{F09B340D-ED3B-4F4F-8AFD-2A6BBBA98332}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{A0A0BD76-EC97-E14E-85B7-7221C4A23435}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{16070D77-701F-7C46-A73F-1275CBDA266A}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{8E5C0E81-6842-4B44-A898-4B18476E6203}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{42FA4A88-97D0-4542-8815-1B5C69B2648C}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{2C5F7D80-B0CA-F64C-9874-2809CDAC4CE7}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{947A6A8B-0DBD-284F-AE14-2F00AAA011A6}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{C25D10A8-EFD7-4B47-9D7C-4B77E0130FBD}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{DC568CBC-DF2B-5546-B443-C77F07C6BD77}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{CA688C7A-4592-9C43-AC03-0C0B129C1880}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{89BF7C41-EBF7-734B-82F2-49F76C3AFFAD}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{DDC943B1-D5CC-C84B-85C1-6B87F6A68804}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{54009F67-E5D4-A84A-BCBA-7B7C515A720F}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{AD66F867-E45B-7C45-9ACB-C339A817630A}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{8F3226A7-3010-1543-ADC8-A883C0E0EF05}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{E7B366CF-E5E5-A547-A8C0-0384CDA243A5}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{9891D70D-18DD-6048-A774-3E15A7C9AD30}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{0E933442-5235-4E47-AB4B-B760595BD4AE}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{67382E3C-01D7-424C-A615-73F04416E60F}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{34CE19E3-9FD5-BF4D-9A93-F9AFDDC53587}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{3A2C3056-B2DF-BD4B-93DF-67036551693A}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{E3BC7317-F245-B24B-8B3B-1C23F22B6C7D}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{CC39006C-608C-874F-ACA9-70B1F8E99AED}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{AFEEC127-B2DA-304A-B7CE-D994F25338BA}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{2DEE7D8B-A9DC-0F4D-BB83-00719135BF6A}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{15E96708-3025-DF45-BD8E-D1F239253CB5}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{5A96A6AD-515E-2E41-B912-A9C80929A386}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{776DE7A4-4594-294B-953F-C17EC7DAA100}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{84DB5B85-6B94-164A-ADAF-F8103667D868}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{872AEA94-79F3-804A-AF49-1D9CE0601B29}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{03E45BBB-BD79-A94D-9B36-DEE2279570D5}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{2A0CDD46-F2CD-6F48-9AF2-04DFA2B5D27C}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{552F6BDD-1030-2A42-941F-B06F574F4943}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{1C07CDD4-83F5-AF4D-B214-D750884C8C28}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{1BE3DDAC-08D2-2A4E-B2E2-E1818CA76E67}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{BB6BA113-7B79-F940-B609-6401D6E56E97}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{51B7A4EF-31D5-5046-BF50-79C5566A93FC}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{5265ACF1-1934-A146-B1FD-7F43C0F6C184}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{19703A49-6C61-254C-B51A-ACD1356CA876}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{8D5F37AD-4819-B44B-A1EE-02EB964DFC6A}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{BEAE852C-CDDE-F643-98F1-4BE0B56FC2A0}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{59E73939-EBB9-9847-8091-3E5D5EC124D2}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{7353536E-553A-964A-9560-993F52D90FE2}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{24B9F3DA-EEBF-A643-BF16-E5A686F72027}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{25690252-C307-B548-B101-0DD573A57C39}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{F6CAF44B-E718-B84E-B7B4-69CEB4540524}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{9564AC73-D701-3149-A63C-EA92C87161E4}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{C7343099-C6F8-0740-BB8F-5E4F6D1EF075}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{EAC78E0F-F08A-C841-ADA9-31A8D52808BA}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{E6CFCD7A-8C98-E840-A6EC-FA328EAAD590}"/>
+    <hyperlink ref="B60" r:id="rId6" xr:uid="{639456C9-480E-7846-A6BF-D5FBBAB1392D}"/>
+    <hyperlink ref="B61" r:id="rId7" xr:uid="{393E6045-0CA4-6748-952E-8B0A642FCFF4}"/>
+    <hyperlink ref="B28" r:id="rId8" xr:uid="{CFFF41B4-23F0-A341-B823-3089808AD0EC}"/>
+    <hyperlink ref="B63" r:id="rId9" xr:uid="{B0972110-615A-BE48-B1E1-C2EF2B042E07}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{2EAD7248-F73C-FC46-BD27-8A52FAA07573}"/>
+    <hyperlink ref="B80" r:id="rId11" xr:uid="{DE6EEB80-413C-2F4A-8681-E5C192BC4292}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{CA2C7EE0-3B78-DA4A-8951-C3565F5EE33C}"/>
+    <hyperlink ref="B57" r:id="rId13" xr:uid="{E140327B-63AC-AB40-A092-6DD7E9264846}"/>
+    <hyperlink ref="B32" r:id="rId14" xr:uid="{FDB9C5E9-68C5-2842-B0E4-A92D8D95DAB5}"/>
+    <hyperlink ref="B71" r:id="rId15" xr:uid="{0911C232-77E5-D248-8954-A519280F3961}"/>
+    <hyperlink ref="B41" r:id="rId16" xr:uid="{878430C5-5169-DC47-B2F8-EF2355C3B615}"/>
+    <hyperlink ref="B66" r:id="rId17" xr:uid="{34B41B75-9444-FF4B-9050-71B98788D0E1}"/>
+    <hyperlink ref="B33" r:id="rId18" xr:uid="{E372D620-7BC9-AE46-8F68-EBA3D7DFEE26}"/>
+    <hyperlink ref="B51" r:id="rId19" xr:uid="{3A3B91BE-73CD-9740-8F46-C406F795A9C5}"/>
+    <hyperlink ref="B88" r:id="rId20" xr:uid="{A3AD6BDF-F11B-3543-9727-DC4499DB24BB}"/>
+    <hyperlink ref="B9" r:id="rId21" xr:uid="{35F4BC1D-7EC7-014F-B1B2-C217A63FEFA1}"/>
+    <hyperlink ref="B62" r:id="rId22" xr:uid="{76E83943-EC6E-314B-97F9-AB90DF92ACF0}"/>
+    <hyperlink ref="B17" r:id="rId23" xr:uid="{D87E99B4-AB55-0E4E-BDD3-E309BCA80398}"/>
+    <hyperlink ref="B16" r:id="rId24" xr:uid="{07EA5A38-2210-5D4B-9509-D68136C8753E}"/>
+    <hyperlink ref="B18" r:id="rId25" xr:uid="{AFBC40FF-B608-AF4D-B322-4DF0E4A13008}"/>
+    <hyperlink ref="B11" r:id="rId26" xr:uid="{C365F331-4A31-8B4E-80BF-C966BBB463AA}"/>
+    <hyperlink ref="B19" r:id="rId27" xr:uid="{3AF341E4-974A-A74B-ADB0-34D96E2E1724}"/>
+    <hyperlink ref="B52" r:id="rId28" xr:uid="{4DD62C4D-6647-FC45-B8EA-A63406280E56}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{AB2E57FF-834E-5F44-9140-F114B10BCA36}"/>
+    <hyperlink ref="B54" r:id="rId30" xr:uid="{E468FA85-4C6A-594B-9B30-5C897B7E9D45}"/>
+    <hyperlink ref="B21" r:id="rId31" xr:uid="{391AE344-DF03-8D48-8854-34FCD3C9F70B}"/>
+    <hyperlink ref="B59" r:id="rId32" xr:uid="{4BE8F088-F99D-1841-A194-4A3BACD3E0F5}"/>
+    <hyperlink ref="B84" r:id="rId33" xr:uid="{5CEACB73-F209-A24C-8EFD-6CBB34D5381F}"/>
+    <hyperlink ref="B12" r:id="rId34" xr:uid="{FB91AC82-D3B5-EA48-9392-8DC355C67A2F}"/>
+    <hyperlink ref="B44" r:id="rId35" xr:uid="{51BF2D54-EC24-8F46-A68D-2B28C86480DD}"/>
+    <hyperlink ref="B89" r:id="rId36" xr:uid="{5CF14CC9-92E3-D24F-98D1-91EFF8896140}"/>
+    <hyperlink ref="B83" r:id="rId37" xr:uid="{51A73454-6A39-D34A-A6B5-F3CB4678CE0B}"/>
+    <hyperlink ref="B35" r:id="rId38" xr:uid="{6F2656AC-79AF-8F49-BF82-FB18BE327E9C}"/>
+    <hyperlink ref="B85" r:id="rId39" xr:uid="{F09B340D-ED3B-4F4F-8AFD-2A6BBBA98332}"/>
+    <hyperlink ref="B86" r:id="rId40" xr:uid="{A0A0BD76-EC97-E14E-85B7-7221C4A23435}"/>
+    <hyperlink ref="B87" r:id="rId41" xr:uid="{16070D77-701F-7C46-A73F-1275CBDA266A}"/>
+    <hyperlink ref="B25" r:id="rId42" xr:uid="{8E5C0E81-6842-4B44-A898-4B18476E6203}"/>
+    <hyperlink ref="B23" r:id="rId43" xr:uid="{42FA4A88-97D0-4542-8815-1B5C69B2648C}"/>
+    <hyperlink ref="B47" r:id="rId44" xr:uid="{2C5F7D80-B0CA-F64C-9874-2809CDAC4CE7}"/>
+    <hyperlink ref="B39" r:id="rId45" xr:uid="{947A6A8B-0DBD-284F-AE14-2F00AAA011A6}"/>
+    <hyperlink ref="B40" r:id="rId46" xr:uid="{C25D10A8-EFD7-4B47-9D7C-4B77E0130FBD}"/>
+    <hyperlink ref="B30" r:id="rId47" xr:uid="{DC568CBC-DF2B-5546-B443-C77F07C6BD77}"/>
+    <hyperlink ref="B2" r:id="rId48" xr:uid="{CA688C7A-4592-9C43-AC03-0C0B129C1880}"/>
+    <hyperlink ref="B70" r:id="rId49" xr:uid="{89BF7C41-EBF7-734B-82F2-49F76C3AFFAD}"/>
+    <hyperlink ref="B31" r:id="rId50" xr:uid="{DDC943B1-D5CC-C84B-85C1-6B87F6A68804}"/>
+    <hyperlink ref="B58" r:id="rId51" xr:uid="{54009F67-E5D4-A84A-BCBA-7B7C515A720F}"/>
+    <hyperlink ref="B75" r:id="rId52" xr:uid="{AD66F867-E45B-7C45-9ACB-C339A817630A}"/>
+    <hyperlink ref="B78" r:id="rId53" xr:uid="{8F3226A7-3010-1543-ADC8-A883C0E0EF05}"/>
+    <hyperlink ref="B3" r:id="rId54" xr:uid="{E7B366CF-E5E5-A547-A8C0-0384CDA243A5}"/>
+    <hyperlink ref="B68" r:id="rId55" xr:uid="{9891D70D-18DD-6048-A774-3E15A7C9AD30}"/>
+    <hyperlink ref="B22" r:id="rId56" xr:uid="{0E933442-5235-4E47-AB4B-B760595BD4AE}"/>
+    <hyperlink ref="B55" r:id="rId57" xr:uid="{67382E3C-01D7-424C-A615-73F04416E60F}"/>
+    <hyperlink ref="B45" r:id="rId58" xr:uid="{34CE19E3-9FD5-BF4D-9A93-F9AFDDC53587}"/>
+    <hyperlink ref="B56" r:id="rId59" xr:uid="{3A2C3056-B2DF-BD4B-93DF-67036551693A}"/>
+    <hyperlink ref="B4" r:id="rId60" xr:uid="{E3BC7317-F245-B24B-8B3B-1C23F22B6C7D}"/>
+    <hyperlink ref="B29" r:id="rId61" xr:uid="{CC39006C-608C-874F-ACA9-70B1F8E99AED}"/>
+    <hyperlink ref="B74" r:id="rId62" xr:uid="{AFEEC127-B2DA-304A-B7CE-D994F25338BA}"/>
+    <hyperlink ref="B81" r:id="rId63" xr:uid="{2DEE7D8B-A9DC-0F4D-BB83-00719135BF6A}"/>
+    <hyperlink ref="B53" r:id="rId64" xr:uid="{15E96708-3025-DF45-BD8E-D1F239253CB5}"/>
+    <hyperlink ref="B15" r:id="rId65" xr:uid="{5A96A6AD-515E-2E41-B912-A9C80929A386}"/>
+    <hyperlink ref="B20" r:id="rId66" xr:uid="{776DE7A4-4594-294B-953F-C17EC7DAA100}"/>
+    <hyperlink ref="B65" r:id="rId67" xr:uid="{84DB5B85-6B94-164A-ADAF-F8103667D868}"/>
+    <hyperlink ref="B82" r:id="rId68" xr:uid="{872AEA94-79F3-804A-AF49-1D9CE0601B29}"/>
+    <hyperlink ref="B36" r:id="rId69" xr:uid="{03E45BBB-BD79-A94D-9B36-DEE2279570D5}"/>
+    <hyperlink ref="B24" r:id="rId70" xr:uid="{2A0CDD46-F2CD-6F48-9AF2-04DFA2B5D27C}"/>
+    <hyperlink ref="B43" r:id="rId71" xr:uid="{552F6BDD-1030-2A42-941F-B06F574F4943}"/>
+    <hyperlink ref="B79" r:id="rId72" xr:uid="{1C07CDD4-83F5-AF4D-B214-D750884C8C28}"/>
+    <hyperlink ref="B77" r:id="rId73" xr:uid="{1BE3DDAC-08D2-2A4E-B2E2-E1818CA76E67}"/>
+    <hyperlink ref="B37" r:id="rId74" xr:uid="{BB6BA113-7B79-F940-B609-6401D6E56E97}"/>
+    <hyperlink ref="B42" r:id="rId75" xr:uid="{51B7A4EF-31D5-5046-BF50-79C5566A93FC}"/>
+    <hyperlink ref="B5" r:id="rId76" xr:uid="{5265ACF1-1934-A146-B1FD-7F43C0F6C184}"/>
+    <hyperlink ref="B72" r:id="rId77" xr:uid="{19703A49-6C61-254C-B51A-ACD1356CA876}"/>
+    <hyperlink ref="B46" r:id="rId78" xr:uid="{8D5F37AD-4819-B44B-A1EE-02EB964DFC6A}"/>
+    <hyperlink ref="B27" r:id="rId79" xr:uid="{BEAE852C-CDDE-F643-98F1-4BE0B56FC2A0}"/>
+    <hyperlink ref="B38" r:id="rId80" xr:uid="{59E73939-EBB9-9847-8091-3E5D5EC124D2}"/>
+    <hyperlink ref="B64" r:id="rId81" xr:uid="{7353536E-553A-964A-9560-993F52D90FE2}"/>
+    <hyperlink ref="B34" r:id="rId82" xr:uid="{24B9F3DA-EEBF-A643-BF16-E5A686F72027}"/>
+    <hyperlink ref="B76" r:id="rId83" xr:uid="{25690252-C307-B548-B101-0DD573A57C39}"/>
+    <hyperlink ref="B49" r:id="rId84" xr:uid="{F6CAF44B-E718-B84E-B7B4-69CEB4540524}"/>
+    <hyperlink ref="B48" r:id="rId85" xr:uid="{9564AC73-D701-3149-A63C-EA92C87161E4}"/>
+    <hyperlink ref="B50" r:id="rId86" xr:uid="{C7343099-C6F8-0740-BB8F-5E4F6D1EF075}"/>
+    <hyperlink ref="B69" r:id="rId87" xr:uid="{EAC78E0F-F08A-C841-ADA9-31A8D52808BA}"/>
+    <hyperlink ref="B7" r:id="rId88" xr:uid="{E6CFCD7A-8C98-E840-A6EC-FA328EAAD590}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -19037,7 +19096,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -28976,8 +29035,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29212,16 +29271,22 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="80">
+    <row r="18" spans="1:6" ht="160">
       <c r="A18" s="11" t="s">
         <v>340</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1807</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="80">
@@ -33941,8 +34006,8 @@
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33970,21 +34035,21 @@
     </row>
     <row r="2" spans="1:5" ht="51">
       <c r="A2" s="2" t="s">
-        <v>1217</v>
+        <v>1695</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1216</v>
+        <v>1694</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="68">
       <c r="A3" s="2" t="s">
-        <v>1005</v>
+        <v>561</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1004</v>
+        <v>560</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -33992,58 +34057,54 @@
     </row>
     <row r="4" spans="1:5" ht="51">
       <c r="A4" s="2" t="s">
-        <v>755</v>
+        <v>1439</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>754</v>
+        <v>1438</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="34">
+    <row r="5" spans="1:5" ht="51">
       <c r="A5" s="2" t="s">
-        <v>753</v>
+        <v>1693</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>752</v>
+        <v>1692</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="68">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="51">
       <c r="A6" s="2" t="s">
-        <v>637</v>
+        <v>751</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>636</v>
+        <v>750</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="85">
+    <row r="7" spans="1:5" ht="51">
       <c r="A7" s="2" t="s">
-        <v>267</v>
+        <v>823</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>266</v>
+        <v>822</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="85">
+    <row r="8" spans="1:5" ht="51">
       <c r="A8" s="2" t="s">
-        <v>265</v>
+        <v>639</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>264</v>
+        <v>638</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -34051,10 +34112,10 @@
     </row>
     <row r="9" spans="1:5" ht="51">
       <c r="A9" s="2" t="s">
-        <v>635</v>
+        <v>1217</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>634</v>
+        <v>1216</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -34062,49 +34123,47 @@
     </row>
     <row r="10" spans="1:5" ht="51">
       <c r="A10" s="2" t="s">
-        <v>751</v>
+        <v>611</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>750</v>
+        <v>610</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="51">
       <c r="A11" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34">
+        <v>634</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="68">
       <c r="A12" s="2" t="s">
-        <v>749</v>
+        <v>1731</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>748</v>
+        <v>1730</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="34">
+    <row r="13" spans="1:5" ht="68">
       <c r="A13" s="2" t="s">
-        <v>747</v>
+        <v>1703</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>746</v>
+        <v>1702</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -34112,21 +34171,21 @@
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="68">
+    <row r="15" spans="1:5" ht="51">
       <c r="A15" s="2" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -34134,10 +34193,10 @@
     </row>
     <row r="16" spans="1:5" ht="51">
       <c r="A16" s="2" t="s">
-        <v>741</v>
+        <v>1509</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>740</v>
+        <v>1508</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -34145,10 +34204,10 @@
     </row>
     <row r="17" spans="1:5" ht="51">
       <c r="A17" s="2" t="s">
-        <v>739</v>
+        <v>1511</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>738</v>
+        <v>1510</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -34156,10 +34215,10 @@
     </row>
     <row r="18" spans="1:5" ht="51">
       <c r="A18" s="2" t="s">
-        <v>1511</v>
+        <v>1671</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1510</v>
+        <v>1670</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -34167,21 +34226,21 @@
     </row>
     <row r="19" spans="1:5" ht="51">
       <c r="A19" s="2" t="s">
-        <v>1509</v>
+        <v>629</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1508</v>
+        <v>628</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="51">
+    <row r="20" spans="1:5" ht="34">
       <c r="A20" s="2" t="s">
-        <v>823</v>
+        <v>1701</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>822</v>
+        <v>1700</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -34189,21 +34248,21 @@
     </row>
     <row r="21" spans="1:5" ht="51">
       <c r="A21" s="2" t="s">
-        <v>629</v>
+        <v>1727</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>628</v>
+        <v>1726</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="51">
+    <row r="22" spans="1:5" ht="68">
       <c r="A22" s="2" t="s">
-        <v>489</v>
+        <v>637</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>488</v>
+        <v>636</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -34211,32 +34270,32 @@
     </row>
     <row r="23" spans="1:5" ht="51">
       <c r="A23" s="2" t="s">
-        <v>1735</v>
+        <v>1705</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1734</v>
+        <v>1704</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="51">
+    <row r="24" spans="1:5" ht="68">
       <c r="A24" s="2" t="s">
-        <v>1733</v>
+        <v>1649</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1732</v>
+        <v>1648</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="68">
+    <row r="25" spans="1:5" ht="51">
       <c r="A25" s="2" t="s">
-        <v>1505</v>
+        <v>487</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1504</v>
+        <v>486</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -34244,10 +34303,10 @@
     </row>
     <row r="26" spans="1:5" ht="51">
       <c r="A26" s="2" t="s">
-        <v>487</v>
+        <v>1503</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>486</v>
+        <v>1502</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -34255,54 +34314,54 @@
     </row>
     <row r="27" spans="1:5" ht="51">
       <c r="A27" s="2" t="s">
-        <v>1503</v>
+        <v>1673</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1502</v>
+        <v>1672</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="68">
+    <row r="28" spans="1:5" ht="51">
       <c r="A28" s="2" t="s">
-        <v>1731</v>
+        <v>1653</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1730</v>
+        <v>1652</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="51">
+    <row r="29" spans="1:5" ht="85">
       <c r="A29" s="2" t="s">
-        <v>1729</v>
+        <v>265</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1728</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="51">
+    <row r="30" spans="1:5" ht="85">
       <c r="A30" s="2" t="s">
-        <v>733</v>
+        <v>267</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>732</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="51">
+    <row r="31" spans="1:5" ht="85">
       <c r="A31" s="2" t="s">
-        <v>729</v>
+        <v>1655</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>728</v>
+        <v>1654</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -34310,10 +34369,10 @@
     </row>
     <row r="32" spans="1:5" ht="51">
       <c r="A32" s="2" t="s">
-        <v>1727</v>
+        <v>1591</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1726</v>
+        <v>1590</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -34321,81 +34380,65 @@
     </row>
     <row r="33" spans="1:5" ht="51">
       <c r="A33" s="2" t="s">
-        <v>613</v>
+        <v>1573</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="51">
+        <v>1572</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="68">
       <c r="A34" s="2" t="s">
-        <v>611</v>
+        <v>831</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>610</v>
+        <v>830</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>1798</v>
-      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>727</v>
+        <v>1707</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>726</v>
+        <v>1706</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="153">
+    <row r="36" spans="1:5" ht="68">
       <c r="A36" s="2" t="s">
-        <v>1725</v>
+        <v>721</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="68">
+        <v>720</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="51">
       <c r="A37" s="2" t="s">
-        <v>725</v>
+        <v>489</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>724</v>
+        <v>488</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="68">
+    <row r="38" spans="1:5" ht="51">
       <c r="A38" s="2" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -34403,10 +34446,10 @@
     </row>
     <row r="39" spans="1:5" ht="51">
       <c r="A39" s="2" t="s">
-        <v>969</v>
+        <v>1713</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>968</v>
+        <v>1712</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -34414,10 +34457,10 @@
     </row>
     <row r="40" spans="1:5" ht="51">
       <c r="A40" s="2" t="s">
-        <v>805</v>
+        <v>1709</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>804</v>
+        <v>1708</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -34425,21 +34468,21 @@
     </row>
     <row r="41" spans="1:5" ht="51">
       <c r="A41" s="2" t="s">
-        <v>468</v>
+        <v>1659</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>467</v>
+        <v>1658</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="68">
+    <row r="42" spans="1:5" ht="51">
       <c r="A42" s="2" t="s">
-        <v>721</v>
+        <v>1681</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>720</v>
+        <v>1680</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -34447,25 +34490,21 @@
     </row>
     <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>719</v>
+        <v>589</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>718</v>
+        <v>588</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1798</v>
-      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="51">
       <c r="A44" s="2" t="s">
-        <v>1721</v>
+        <v>1691</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1720</v>
+        <v>1690</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -34473,10 +34512,10 @@
     </row>
     <row r="45" spans="1:5" ht="51">
       <c r="A45" s="2" t="s">
-        <v>715</v>
+        <v>591</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>714</v>
+        <v>590</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -34484,21 +34523,21 @@
     </row>
     <row r="46" spans="1:5" ht="51">
       <c r="A46" s="2" t="s">
-        <v>1719</v>
+        <v>715</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1718</v>
+        <v>714</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="34">
+    <row r="47" spans="1:5" ht="51">
       <c r="A47" s="2" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -34506,10 +34545,10 @@
     </row>
     <row r="48" spans="1:5" ht="51">
       <c r="A48" s="2" t="s">
-        <v>1715</v>
+        <v>745</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1714</v>
+        <v>744</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -34517,10 +34556,10 @@
     </row>
     <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>1713</v>
+        <v>1651</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1712</v>
+        <v>1650</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -34528,10 +34567,10 @@
     </row>
     <row r="50" spans="1:5" ht="51">
       <c r="A50" s="2" t="s">
-        <v>1711</v>
+        <v>733</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1710</v>
+        <v>732</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -34539,10 +34578,10 @@
     </row>
     <row r="51" spans="1:5" ht="51">
       <c r="A51" s="2" t="s">
-        <v>1153</v>
+        <v>649</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1152</v>
+        <v>648</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -34550,10 +34589,10 @@
     </row>
     <row r="52" spans="1:5" ht="51">
       <c r="A52" s="2" t="s">
-        <v>589</v>
+        <v>1721</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>588</v>
+        <v>1720</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -34561,10 +34600,10 @@
     </row>
     <row r="53" spans="1:5" ht="51">
       <c r="A53" s="2" t="s">
-        <v>591</v>
+        <v>1667</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>590</v>
+        <v>1666</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -34572,21 +34611,21 @@
     </row>
     <row r="54" spans="1:5" ht="51">
       <c r="A54" s="2" t="s">
-        <v>1591</v>
+        <v>1735</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1590</v>
+        <v>1734</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="51">
+    <row r="55" spans="1:5" ht="34">
       <c r="A55" s="2" t="s">
-        <v>1709</v>
+        <v>1433</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1708</v>
+        <v>1432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -34594,10 +34633,10 @@
     </row>
     <row r="56" spans="1:5" ht="51">
       <c r="A56" s="2" t="s">
-        <v>1707</v>
+        <v>468</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1706</v>
+        <v>467</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -34605,65 +34644,71 @@
     </row>
     <row r="57" spans="1:5" ht="51">
       <c r="A57" s="2" t="s">
-        <v>1705</v>
+        <v>1729</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1704</v>
+        <v>1728</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="68">
+    <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>1703</v>
+        <v>653</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1702</v>
+        <v>652</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="34">
+    <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>1701</v>
+        <v>1445</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1700</v>
+        <v>1444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="51">
+    <row r="60" spans="1:5" ht="68">
       <c r="A60" s="2" t="s">
-        <v>1699</v>
+        <v>1723</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1698</v>
+        <v>1722</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="34">
+    <row r="61" spans="1:5" ht="153">
       <c r="A61" s="2" t="s">
-        <v>1433</v>
+        <v>1725</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+        <v>1724</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="51">
       <c r="A62" s="2" t="s">
-        <v>1573</v>
+        <v>1687</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1572</v>
+        <v>1686</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -34671,21 +34716,25 @@
     </row>
     <row r="63" spans="1:5" ht="51">
       <c r="A63" s="2" t="s">
-        <v>1697</v>
+        <v>719</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1696</v>
+        <v>718</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>1695</v>
+        <v>555</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1694</v>
+        <v>554</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -34693,10 +34742,10 @@
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -34704,10 +34753,10 @@
     </row>
     <row r="66" spans="1:5" ht="51">
       <c r="A66" s="2" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -34715,21 +34764,27 @@
     </row>
     <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>1689</v>
+        <v>633</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>1687</v>
+        <v>1153</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1686</v>
+        <v>1152</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -34737,10 +34792,10 @@
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>1685</v>
+        <v>557</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1684</v>
+        <v>556</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -34748,10 +34803,10 @@
     </row>
     <row r="70" spans="1:5" ht="51">
       <c r="A70" s="2" t="s">
-        <v>1683</v>
+        <v>1663</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1682</v>
+        <v>1662</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -34759,10 +34814,10 @@
     </row>
     <row r="71" spans="1:5" ht="51">
       <c r="A71" s="2" t="s">
-        <v>1681</v>
+        <v>1661</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -34770,65 +34825,73 @@
     </row>
     <row r="72" spans="1:5" ht="34">
       <c r="A72" s="2" t="s">
-        <v>1679</v>
+        <v>749</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1678</v>
+        <v>748</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="51">
+    <row r="73" spans="1:5" ht="68">
       <c r="A73" s="2" t="s">
-        <v>1677</v>
+        <v>747</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+        <v>746</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1820</v>
+      </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="68">
+    <row r="74" spans="1:5" ht="34">
       <c r="A74" s="2" t="s">
-        <v>1675</v>
+        <v>1717</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1674</v>
+        <v>1716</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="51">
+      <c r="D74" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="34">
       <c r="A75" s="2" t="s">
-        <v>1021</v>
+        <v>1679</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1020</v>
+        <v>1678</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="51">
+    <row r="76" spans="1:5" ht="68">
       <c r="A76" s="2" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="51">
+    <row r="77" spans="1:5" ht="68">
       <c r="A77" s="2" t="s">
-        <v>1445</v>
+        <v>743</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1444</v>
+        <v>742</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -34836,10 +34899,10 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>1673</v>
+        <v>1685</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1672</v>
+        <v>1684</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -34847,10 +34910,10 @@
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>1671</v>
+        <v>755</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1670</v>
+        <v>754</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -34858,54 +34921,58 @@
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>665</v>
+        <v>1021</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>664</v>
+        <v>1020</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="68">
+    <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>561</v>
+        <v>685</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>560</v>
+        <v>684</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="68">
+    <row r="82" spans="1:5" ht="34">
       <c r="A82" s="2" t="s">
-        <v>1669</v>
+        <v>753</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1668</v>
+        <v>752</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="68">
+      <c r="D82" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>831</v>
+        <v>1665</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>830</v>
+        <v>1664</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="51">
+    <row r="84" spans="1:5" ht="68">
       <c r="A84" s="2" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -34913,10 +34980,10 @@
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>1665</v>
+        <v>805</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1664</v>
+        <v>804</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -34924,10 +34991,10 @@
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>1663</v>
+        <v>1715</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1662</v>
+        <v>1714</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -34935,21 +35002,21 @@
     </row>
     <row r="87" spans="1:5" ht="51">
       <c r="A87" s="2" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="51">
+    <row r="88" spans="1:5" ht="68">
       <c r="A88" s="2" t="s">
-        <v>557</v>
+        <v>1669</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>556</v>
+        <v>1668</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -34957,10 +35024,10 @@
     </row>
     <row r="89" spans="1:5" ht="51">
       <c r="A89" s="2" t="s">
-        <v>555</v>
+        <v>1699</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>554</v>
+        <v>1698</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -34968,10 +35035,10 @@
     </row>
     <row r="90" spans="1:5" ht="51">
       <c r="A90" s="2" t="s">
-        <v>1659</v>
+        <v>665</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1658</v>
+        <v>664</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -34979,43 +35046,55 @@
     </row>
     <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>1657</v>
+        <v>1719</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+        <v>1718</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="51">
       <c r="A92" s="2" t="s">
-        <v>653</v>
+        <v>739</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>652</v>
+        <v>738</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="85">
+    <row r="93" spans="1:5" ht="51">
       <c r="A93" s="2" t="s">
-        <v>1655</v>
+        <v>613</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="51">
       <c r="A94" s="2" t="s">
-        <v>1439</v>
+        <v>1677</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1438</v>
+        <v>1676</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -35023,10 +35102,10 @@
     </row>
     <row r="95" spans="1:5" ht="51">
       <c r="A95" s="2" t="s">
-        <v>649</v>
+        <v>1689</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>648</v>
+        <v>1688</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -35034,10 +35113,10 @@
     </row>
     <row r="96" spans="1:5" ht="51">
       <c r="A96" s="2" t="s">
-        <v>1653</v>
+        <v>969</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1652</v>
+        <v>968</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -35045,21 +35124,21 @@
     </row>
     <row r="97" spans="1:5" ht="51">
       <c r="A97" s="2" t="s">
-        <v>1651</v>
+        <v>1005</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1650</v>
+        <v>1004</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" ht="68">
+    <row r="98" spans="1:5" ht="51">
       <c r="A98" s="2" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -35067,21 +35146,21 @@
     </row>
     <row r="99" spans="1:5" ht="51">
       <c r="A99" s="2" t="s">
-        <v>1647</v>
+        <v>729</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1646</v>
+        <v>728</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" ht="51">
+    <row r="100" spans="1:5" ht="68">
       <c r="A100" s="2" t="s">
-        <v>639</v>
+        <v>1505</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>638</v>
+        <v>1504</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -35089,105 +35168,105 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{687E5885-7416-E948-B8E1-E96B384F5329}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5CAAE79B-F5D5-B945-BE58-B2A1D97180DE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{36E9DC7F-6B87-904E-A6D3-21E5DF27552B}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{0E26F645-87C0-F24A-84B6-ED2BB6E4328B}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{6B60B99C-9D00-A549-AEEE-8C7D75377745}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{860CE106-2656-7C4E-963F-B4C9B1559175}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{72803761-DA8F-EB4C-9D16-AC8513B9E94F}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{E477AB8E-18E8-284F-B702-EAD30C6AC9C9}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{E362AF9A-90C2-8C42-ABCB-93552A4AFB8B}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{B619AC07-F739-B74A-B745-D848D50483AA}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{DD44CD7B-212A-8642-9C43-2A90BFDD1E5A}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{BD491B1F-548A-784D-B6BD-736E96BEF666}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{E3FDC661-F3F5-764A-A731-66CA0B9345C4}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{079DC295-1CD2-0B43-A8D4-E97F80598B59}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{05BAFC2A-FC61-6A47-9A28-A7ADFDE11073}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{92CE9ABD-DD8E-3E48-B07D-03F64BD9DBFC}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{2157741B-6255-ED4B-A496-84C99C5EAE0E}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{8DD32C34-419B-FE48-A75D-12E8126CABBE}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{9012C70E-97D1-1A43-9324-8C3268FB0FA6}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{3335E1C4-7AE6-7743-A9AC-0A55A7D7404E}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{845B3CE5-04C9-D045-9235-3C7252B78EAC}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{F3001660-69E8-EA4B-80E6-10B838243396}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{0D65A2E2-5703-EC4E-B72C-47C5E19B48A5}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{FB6DC025-3165-E946-AF85-BC67FFDB0EB0}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{52D11146-AA12-744D-999A-43312CB11068}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{155092D4-6A90-6749-A22A-029371F3A5B9}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{AB6215E4-1172-8A44-B9E8-9E8E1184F063}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{EA75C483-FF75-EA4F-8243-0288046C5DA4}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{876AD1ED-D444-724E-82A7-4D805F1A9E84}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{95FC4C68-148B-2742-A156-6B9A73B28794}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{688C1A60-E949-1C45-BF26-CF04DC2DAD50}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{AAF45055-6CF6-AB4F-BAD0-D58D4CCC1743}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{AB2A015E-0173-144D-A088-7967C154F313}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{6C0C8CDA-EC18-224F-A1BD-DB50395D2B5C}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{7AB6AF5A-95D5-BC4E-8894-CD6922542CF6}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{D50AF4BF-08DA-D642-A6C0-4E0D6FCFC1AF}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{2797FA0A-6F07-8540-9C36-5A1F843E1BCB}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{E3673F15-498D-F44C-A444-C60070EA9A27}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{2004E38F-F157-4D4B-A3E3-37A87DCA2CD3}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{648AAE48-6E12-7947-8FDB-55F38F24AE9A}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{D4B2CA85-9881-DB4E-AF7A-745E7387DD61}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{15472CC9-7B3C-BC42-B609-0EC9A6F74510}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{282E3415-139D-5242-A0E3-4C0E54E5B38C}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{475AF062-08AE-FF4F-9679-5C3EF869BF86}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{8AB9C89B-1598-D849-8312-1DC5AE8C9C04}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{F12E06B0-A3D4-0246-8272-4127190F86C1}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{25A60E27-341F-B245-B623-B2AF6104177D}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{524918CF-13B6-3943-8F44-5A4E7C5C0500}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{F2AA8D94-8481-8641-AD72-2AB89016F3A6}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{30393A92-040E-BF4F-889B-AFC795F99EFA}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{52EE8BAC-ACD1-B546-AFF0-AA3165DB9327}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{C13ED5FC-6517-1E42-9F44-1F166EF0A84F}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{0A9F0955-B505-6F4C-A78E-FE1D9234A5B0}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{B5BA52F2-1523-3B47-88AB-937E7AD271E3}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{6FE41EFF-EB5E-684B-B9B1-B687651564B7}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{82DDC66B-A076-D044-A3DD-215DA9E2F618}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{F72D821B-E783-D046-8C8A-39B5F3A59337}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{775D34EA-BE9B-4748-A3C3-31DEEEFA0D5A}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{A84C16C7-91ED-4F4E-BCED-97FCA96B6441}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{11C9356F-6193-314E-95A5-8C03757DD05B}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{68601C84-238E-E44E-9A53-4CF167DAF60B}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{9D8176CF-34A3-354C-ADE8-37ECF740FD56}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{65F27C6C-B7EE-3B43-A841-C23F46E5059D}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{59CBA5B6-864A-7C49-8654-1DDE20D8844B}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{8E7E968E-7C1D-A941-9EC8-963CD8D380CA}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{A3B424A0-6D87-374B-AEE0-FED6892D647C}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{A4235A27-5698-6E49-A24B-3A4854700BDA}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{5152C922-AD81-474B-8452-35A3443258B2}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{8664EE69-FE38-0049-9E6F-1E979A99A24E}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{A58B9F16-4782-3C47-BC53-C1F4A56D3174}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{3D8506DD-D20A-DD42-A1F6-2E54547706A9}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{445954A0-0A1B-3040-9DB3-3E50445B9CDC}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{65813F6E-AFC1-B143-BF5A-4F2019A943EA}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{78D81622-1F2D-F74F-8593-C50396F80D3D}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{D3A20318-A872-F642-B007-2D38931B5EF2}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{BE3E2BC5-4332-5545-B819-D66D2636735B}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{0A7AB70F-8137-C846-A00C-FEE91CFF3F19}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{3CA48EB5-70B8-8C4C-8A5D-2F263676AB04}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{ECDF54B0-96BC-724A-AA4A-BDEF97102F4C}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{1B2463D6-94C0-1A48-AB14-C22E4324E840}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{3396670C-0FDB-6E4D-A612-77425F4F81AB}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{05DC7A61-821E-9C40-95E7-041A1503613A}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{6703BCF6-62A0-3443-AD4D-4B6D566CB40D}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{BDD3F7C1-E00A-9144-910F-F338FD181682}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{B9DD7D63-C1CC-0E4A-82EE-E9829CD7B2D5}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{CEC4AC73-24AC-E54F-ACDD-E251B224B6F8}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{615D1CB1-F786-5849-AAFC-DC675F28704E}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{6576BEAA-570D-6648-9BB4-36BE8E478C7A}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{5F80F3E8-9EE3-3D40-B809-1A57DBD1D765}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{C4B3462B-561C-6440-BAAE-57B7C0BB98D4}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{62CD32ED-B320-C141-B259-9A62BCDEE124}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{6297F951-7873-AC4F-8EAA-32445EBC721A}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{E6F6F35C-6C63-9848-ADB3-2E23CE218909}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{6021AA1D-2C02-B94C-9DE3-54B4EC448EDB}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{F9340BA3-5EE5-BA4C-9F04-9E739B252CCE}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{EB426440-32C3-E940-99DC-5ECFFA133A72}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{F330420B-5FAE-7C46-BE62-E9D4EA104E52}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{F208BF8A-9316-9F49-AD57-208D790CB7A8}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{5277232F-856D-AD4A-8EBB-E2D219498ED9}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{687E5885-7416-E948-B8E1-E96B384F5329}"/>
+    <hyperlink ref="B97" r:id="rId2" xr:uid="{5CAAE79B-F5D5-B945-BE58-B2A1D97180DE}"/>
+    <hyperlink ref="B79" r:id="rId3" xr:uid="{36E9DC7F-6B87-904E-A6D3-21E5DF27552B}"/>
+    <hyperlink ref="B82" r:id="rId4" xr:uid="{0E26F645-87C0-F24A-84B6-ED2BB6E4328B}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{6B60B99C-9D00-A549-AEEE-8C7D75377745}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{860CE106-2656-7C4E-963F-B4C9B1559175}"/>
+    <hyperlink ref="B29" r:id="rId7" xr:uid="{72803761-DA8F-EB4C-9D16-AC8513B9E94F}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{E477AB8E-18E8-284F-B702-EAD30C6AC9C9}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{E362AF9A-90C2-8C42-ABCB-93552A4AFB8B}"/>
+    <hyperlink ref="B67" r:id="rId10" xr:uid="{B619AC07-F739-B74A-B745-D848D50483AA}"/>
+    <hyperlink ref="B72" r:id="rId11" xr:uid="{DD44CD7B-212A-8642-9C43-2A90BFDD1E5A}"/>
+    <hyperlink ref="B73" r:id="rId12" xr:uid="{BD491B1F-548A-784D-B6BD-736E96BEF666}"/>
+    <hyperlink ref="B48" r:id="rId13" xr:uid="{E3FDC661-F3F5-764A-A731-66CA0B9345C4}"/>
+    <hyperlink ref="B77" r:id="rId14" xr:uid="{079DC295-1CD2-0B43-A8D4-E97F80598B59}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{05BAFC2A-FC61-6A47-9A28-A7ADFDE11073}"/>
+    <hyperlink ref="B92" r:id="rId16" xr:uid="{92CE9ABD-DD8E-3E48-B07D-03F64BD9DBFC}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{2157741B-6255-ED4B-A496-84C99C5EAE0E}"/>
+    <hyperlink ref="B16" r:id="rId18" xr:uid="{8DD32C34-419B-FE48-A75D-12E8126CABBE}"/>
+    <hyperlink ref="B7" r:id="rId19" xr:uid="{9012C70E-97D1-1A43-9324-8C3268FB0FA6}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{3335E1C4-7AE6-7743-A9AC-0A55A7D7404E}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{845B3CE5-04C9-D045-9235-3C7252B78EAC}"/>
+    <hyperlink ref="B54" r:id="rId22" xr:uid="{F3001660-69E8-EA4B-80E6-10B838243396}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{0D65A2E2-5703-EC4E-B72C-47C5E19B48A5}"/>
+    <hyperlink ref="B100" r:id="rId24" xr:uid="{FB6DC025-3165-E946-AF85-BC67FFDB0EB0}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{52D11146-AA12-744D-999A-43312CB11068}"/>
+    <hyperlink ref="B26" r:id="rId26" xr:uid="{155092D4-6A90-6749-A22A-029371F3A5B9}"/>
+    <hyperlink ref="B12" r:id="rId27" xr:uid="{AB6215E4-1172-8A44-B9E8-9E8E1184F063}"/>
+    <hyperlink ref="B57" r:id="rId28" xr:uid="{EA75C483-FF75-EA4F-8243-0288046C5DA4}"/>
+    <hyperlink ref="B50" r:id="rId29" xr:uid="{876AD1ED-D444-724E-82A7-4D805F1A9E84}"/>
+    <hyperlink ref="B99" r:id="rId30" xr:uid="{95FC4C68-148B-2742-A156-6B9A73B28794}"/>
+    <hyperlink ref="B21" r:id="rId31" xr:uid="{688C1A60-E949-1C45-BF26-CF04DC2DAD50}"/>
+    <hyperlink ref="B93" r:id="rId32" xr:uid="{AAF45055-6CF6-AB4F-BAD0-D58D4CCC1743}"/>
+    <hyperlink ref="B10" r:id="rId33" xr:uid="{AB2A015E-0173-144D-A088-7967C154F313}"/>
+    <hyperlink ref="B15" r:id="rId34" xr:uid="{6C0C8CDA-EC18-224F-A1BD-DB50395D2B5C}"/>
+    <hyperlink ref="B61" r:id="rId35" xr:uid="{7AB6AF5A-95D5-BC4E-8894-CD6922542CF6}"/>
+    <hyperlink ref="B76" r:id="rId36" xr:uid="{D50AF4BF-08DA-D642-A6C0-4E0D6FCFC1AF}"/>
+    <hyperlink ref="B60" r:id="rId37" xr:uid="{2797FA0A-6F07-8540-9C36-5A1F843E1BCB}"/>
+    <hyperlink ref="B96" r:id="rId38" xr:uid="{E3673F15-498D-F44C-A444-C60070EA9A27}"/>
+    <hyperlink ref="B85" r:id="rId39" xr:uid="{2004E38F-F157-4D4B-A3E3-37A87DCA2CD3}"/>
+    <hyperlink ref="B56" r:id="rId40" xr:uid="{648AAE48-6E12-7947-8FDB-55F38F24AE9A}"/>
+    <hyperlink ref="B36" r:id="rId41" xr:uid="{D4B2CA85-9881-DB4E-AF7A-745E7387DD61}"/>
+    <hyperlink ref="B63" r:id="rId42" xr:uid="{15472CC9-7B3C-BC42-B609-0EC9A6F74510}"/>
+    <hyperlink ref="B52" r:id="rId43" xr:uid="{282E3415-139D-5242-A0E3-4C0E54E5B38C}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{475AF062-08AE-FF4F-9679-5C3EF869BF86}"/>
+    <hyperlink ref="B91" r:id="rId45" xr:uid="{8AB9C89B-1598-D849-8312-1DC5AE8C9C04}"/>
+    <hyperlink ref="B74" r:id="rId46" xr:uid="{F12E06B0-A3D4-0246-8272-4127190F86C1}"/>
+    <hyperlink ref="B86" r:id="rId47" xr:uid="{25A60E27-341F-B245-B623-B2AF6104177D}"/>
+    <hyperlink ref="B39" r:id="rId48" xr:uid="{524918CF-13B6-3943-8F44-5A4E7C5C0500}"/>
+    <hyperlink ref="B47" r:id="rId49" xr:uid="{F2AA8D94-8481-8641-AD72-2AB89016F3A6}"/>
+    <hyperlink ref="B68" r:id="rId50" xr:uid="{30393A92-040E-BF4F-889B-AFC795F99EFA}"/>
+    <hyperlink ref="B43" r:id="rId51" xr:uid="{52EE8BAC-ACD1-B546-AFF0-AA3165DB9327}"/>
+    <hyperlink ref="B45" r:id="rId52" xr:uid="{C13ED5FC-6517-1E42-9F44-1F166EF0A84F}"/>
+    <hyperlink ref="B32" r:id="rId53" xr:uid="{0A9F0955-B505-6F4C-A78E-FE1D9234A5B0}"/>
+    <hyperlink ref="B40" r:id="rId54" xr:uid="{B5BA52F2-1523-3B47-88AB-937E7AD271E3}"/>
+    <hyperlink ref="B35" r:id="rId55" xr:uid="{6FE41EFF-EB5E-684B-B9B1-B687651564B7}"/>
+    <hyperlink ref="B23" r:id="rId56" xr:uid="{82DDC66B-A076-D044-A3DD-215DA9E2F618}"/>
+    <hyperlink ref="B13" r:id="rId57" xr:uid="{F72D821B-E783-D046-8C8A-39B5F3A59337}"/>
+    <hyperlink ref="B20" r:id="rId58" xr:uid="{775D34EA-BE9B-4748-A3C3-31DEEEFA0D5A}"/>
+    <hyperlink ref="B89" r:id="rId59" xr:uid="{A84C16C7-91ED-4F4E-BCED-97FCA96B6441}"/>
+    <hyperlink ref="B55" r:id="rId60" xr:uid="{11C9356F-6193-314E-95A5-8C03757DD05B}"/>
+    <hyperlink ref="B33" r:id="rId61" xr:uid="{68601C84-238E-E44E-9A53-4CF167DAF60B}"/>
+    <hyperlink ref="B66" r:id="rId62" xr:uid="{9D8176CF-34A3-354C-ADE8-37ECF740FD56}"/>
+    <hyperlink ref="B2" r:id="rId63" xr:uid="{65F27C6C-B7EE-3B43-A841-C23F46E5059D}"/>
+    <hyperlink ref="B5" r:id="rId64" xr:uid="{59CBA5B6-864A-7C49-8654-1DDE20D8844B}"/>
+    <hyperlink ref="B44" r:id="rId65" xr:uid="{8E7E968E-7C1D-A941-9EC8-963CD8D380CA}"/>
+    <hyperlink ref="B95" r:id="rId66" xr:uid="{A3B424A0-6D87-374B-AEE0-FED6892D647C}"/>
+    <hyperlink ref="B62" r:id="rId67" xr:uid="{A4235A27-5698-6E49-A24B-3A4854700BDA}"/>
+    <hyperlink ref="B78" r:id="rId68" xr:uid="{5152C922-AD81-474B-8452-35A3443258B2}"/>
+    <hyperlink ref="B65" r:id="rId69" xr:uid="{8664EE69-FE38-0049-9E6F-1E979A99A24E}"/>
+    <hyperlink ref="B42" r:id="rId70" xr:uid="{A58B9F16-4782-3C47-BC53-C1F4A56D3174}"/>
+    <hyperlink ref="B75" r:id="rId71" xr:uid="{3D8506DD-D20A-DD42-A1F6-2E54547706A9}"/>
+    <hyperlink ref="B94" r:id="rId72" xr:uid="{445954A0-0A1B-3040-9DB3-3E50445B9CDC}"/>
+    <hyperlink ref="B84" r:id="rId73" xr:uid="{65813F6E-AFC1-B143-BF5A-4F2019A943EA}"/>
+    <hyperlink ref="B80" r:id="rId74" xr:uid="{78D81622-1F2D-F74F-8593-C50396F80D3D}"/>
+    <hyperlink ref="B81" r:id="rId75" xr:uid="{D3A20318-A872-F642-B007-2D38931B5EF2}"/>
+    <hyperlink ref="B59" r:id="rId76" xr:uid="{BE3E2BC5-4332-5545-B819-D66D2636735B}"/>
+    <hyperlink ref="B27" r:id="rId77" xr:uid="{0A7AB70F-8137-C846-A00C-FEE91CFF3F19}"/>
+    <hyperlink ref="B18" r:id="rId78" xr:uid="{3CA48EB5-70B8-8C4C-8A5D-2F263676AB04}"/>
+    <hyperlink ref="B90" r:id="rId79" xr:uid="{ECDF54B0-96BC-724A-AA4A-BDEF97102F4C}"/>
+    <hyperlink ref="B3" r:id="rId80" xr:uid="{1B2463D6-94C0-1A48-AB14-C22E4324E840}"/>
+    <hyperlink ref="B88" r:id="rId81" xr:uid="{3396670C-0FDB-6E4D-A612-77425F4F81AB}"/>
+    <hyperlink ref="B34" r:id="rId82" xr:uid="{05DC7A61-821E-9C40-95E7-041A1503613A}"/>
+    <hyperlink ref="B53" r:id="rId83" xr:uid="{6703BCF6-62A0-3443-AD4D-4B6D566CB40D}"/>
+    <hyperlink ref="B83" r:id="rId84" xr:uid="{BDD3F7C1-E00A-9144-910F-F338FD181682}"/>
+    <hyperlink ref="B70" r:id="rId85" xr:uid="{B9DD7D63-C1CC-0E4A-82EE-E9829CD7B2D5}"/>
+    <hyperlink ref="B71" r:id="rId86" xr:uid="{CEC4AC73-24AC-E54F-ACDD-E251B224B6F8}"/>
+    <hyperlink ref="B69" r:id="rId87" xr:uid="{615D1CB1-F786-5849-AAFC-DC675F28704E}"/>
+    <hyperlink ref="B64" r:id="rId88" xr:uid="{6576BEAA-570D-6648-9BB4-36BE8E478C7A}"/>
+    <hyperlink ref="B41" r:id="rId89" xr:uid="{5F80F3E8-9EE3-3D40-B809-1A57DBD1D765}"/>
+    <hyperlink ref="B87" r:id="rId90" xr:uid="{C4B3462B-561C-6440-BAAE-57B7C0BB98D4}"/>
+    <hyperlink ref="B58" r:id="rId91" xr:uid="{62CD32ED-B320-C141-B259-9A62BCDEE124}"/>
+    <hyperlink ref="B31" r:id="rId92" xr:uid="{6297F951-7873-AC4F-8EAA-32445EBC721A}"/>
+    <hyperlink ref="B4" r:id="rId93" xr:uid="{E6F6F35C-6C63-9848-ADB3-2E23CE218909}"/>
+    <hyperlink ref="B51" r:id="rId94" xr:uid="{6021AA1D-2C02-B94C-9DE3-54B4EC448EDB}"/>
+    <hyperlink ref="B28" r:id="rId95" xr:uid="{F9340BA3-5EE5-BA4C-9F04-9E739B252CCE}"/>
+    <hyperlink ref="B49" r:id="rId96" xr:uid="{EB426440-32C3-E940-99DC-5ECFFA133A72}"/>
+    <hyperlink ref="B24" r:id="rId97" xr:uid="{F330420B-5FAE-7C46-BE62-E9D4EA104E52}"/>
+    <hyperlink ref="B98" r:id="rId98" xr:uid="{F208BF8A-9316-9F49-AD57-208D790CB7A8}"/>
+    <hyperlink ref="B8" r:id="rId99" xr:uid="{5277232F-856D-AD4A-8EBB-E2D219498ED9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -38617,7 +38696,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38672,9 +38751,15 @@
       <c r="B4" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="51">
       <c r="A5" s="2" t="s">

--- a/practice/ltcode.xlsx
+++ b/practice/ltcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visawant/gen-next/vagrant/shared/fft-py/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EE44D6-71ED-9845-ACC4-8050E46B6D95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B424133A-F8AD-4546-BFE4-4A6E8475D885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1380" windowWidth="28040" windowHeight="17440" firstSheet="21" activeTab="33" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
+    <workbookView xWindow="4320" yWindow="1380" windowWidth="28040" windowHeight="17440" firstSheet="17" activeTab="29" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="38" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1887">
   <si>
     <t>https://leetcode.com/problems/maximum-width-ramp</t>
   </si>
@@ -5579,14 +5579,6 @@
   </si>
   <si>
     <t>String manipulation</t>
-  </si>
-  <si>
-    <t>Go backwards (How to write clean code w/ while)
-# Test case to think
-# [2,0]
-# 1
-# [1]
-# 1</t>
   </si>
   <si>
     <t>Case analysis</t>
@@ -5756,6 +5748,71 @@
   </si>
   <si>
     <t>&gt; Given leaf node and sum if both are equal what you do? (Recursion)</t>
+  </si>
+  <si>
+    <t>&gt; How python handles float</t>
+  </si>
+  <si>
+    <t>&gt; w/ deque</t>
+  </si>
+  <si>
+    <t>Clear last set bit trick</t>
+  </si>
+  <si>
+    <t>&gt; n &amp; (n-1)</t>
+  </si>
+  <si>
+    <t>&gt; Python bin api eg. bin(x).count("1")</t>
+  </si>
+  <si>
+    <t>&gt; w deque</t>
+  </si>
+  <si>
+    <t>Go backwards (How to write clean code w/ while)
+# Test case to think
+# [2,0]
+# 1
+# [1]
+# 1
+#Case analysis
+#w-f 1. [7,8,9,0,0,0], [2,5,6] 2. w-f [1,2,3,0,0,0], [4,5,6] 3. w-f [4,5,6,0,0,0], [5,6,7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w-f needle at mid  "hello" "ll" 2. at start "hello" "he" 3. at end "hello" "lo" </t>
+  </si>
+  <si>
+    <t>&gt; http://jakeboxer.com/blog/2009/12/13/the-knuth-morris-pratt-algorithm-in-my-own-words/
+&gt; https://leetcode.com/problems/implement-strstr/discuss/13311/KMP-solution-in-Java
+&gt; https://www.topcoder.com/community/competitive-programming/tutorials/introduction-to-string-searching-algorithms/</t>
+  </si>
+  <si>
+    <t>Single Pass + Aux storage</t>
+  </si>
+  <si>
+    <t>&gt; Think bottom-up reursion w/ explicit stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Use the property of inversion </t>
+  </si>
+  <si>
+    <t>&gt; 3 Cases 
+#1.
+#---
+#  ----
+#2.
+#-----
+#  --
+#3.
+#-
+#  --</t>
+  </si>
+  <si>
+    <t>&gt; 1. w/ set
+&gt;2. w/ sort + compare w/ 2-pointer trick</t>
+  </si>
+  <si>
+    <t>&gt; Sort
+&gt; W/ hash map/dict</t>
   </si>
 </sst>
 </file>
@@ -5914,7 +5971,47 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="235">
+  <dxfs count="239">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5991,40 +6088,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6919,6 +6982,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -6973,6 +7039,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7365,62 +7434,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F8DE438-ABC8-3B4C-A642-CCC2A79EEC84}" name="Table of contents_table" displayName="Table_of_contents_table" ref="A1:A37" totalsRowShown="0" headerRowDxfId="234" dataDxfId="233" dataCellStyle="Hyperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F8DE438-ABC8-3B4C-A642-CCC2A79EEC84}" name="Table of contents_table" displayName="Table_of_contents_table" ref="A1:A37" totalsRowShown="0" headerRowDxfId="238" dataDxfId="237" dataCellStyle="Hyperlink">
   <autoFilter ref="A1:A37" xr:uid="{2664F299-CE1B-E84A-AC94-9ABC64FE3EC3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5A4CF982-EF5E-C44E-A5F6-881E91ECCF3E}" name="Table of contents" dataDxfId="232" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{5A4CF982-EF5E-C44E-A5F6-881E91ECCF3E}" name="Table of contents" dataDxfId="236" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8AA3D4F9-E747-9644-BC2D-DBD8407C9B41}" name="depth-first-search_table" displayName="depth_first_search_table" ref="A1:E89" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8AA3D4F9-E747-9644-BC2D-DBD8407C9B41}" name="depth-first-search_table" displayName="depth_first_search_table" ref="A1:E89" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
   <autoFilter ref="A1:E89" xr:uid="{43BF464C-F70D-8346-A99D-E64B753BABE9}"/>
   <sortState ref="A2:E89">
     <sortCondition ref="A1:A89"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3FA8A903-CCAF-CB4C-AE9D-12275360FC4C}" name="Problem statement" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{766C9BE9-1244-F34A-8C77-D51D284B7B14}" name=" Problem Link" dataDxfId="175" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{B2E0E599-5C99-0740-9C26-F4A04492FFAC}" name=" Hint" dataDxfId="174"/>
-    <tableColumn id="4" xr3:uid="{465319F6-3760-9F4A-91BD-5BDF79AD6BE3}" name=" Solution link" dataDxfId="173"/>
-    <tableColumn id="5" xr3:uid="{51870B89-9C60-B64E-BB39-4219B006E762}" name=" Priority" dataDxfId="172"/>
+    <tableColumn id="1" xr3:uid="{3FA8A903-CCAF-CB4C-AE9D-12275360FC4C}" name="Problem statement" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{766C9BE9-1244-F34A-8C77-D51D284B7B14}" name=" Problem Link" dataDxfId="177" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{B2E0E599-5C99-0740-9C26-F4A04492FFAC}" name=" Hint" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{465319F6-3760-9F4A-91BD-5BDF79AD6BE3}" name=" Solution link" dataDxfId="175"/>
+    <tableColumn id="5" xr3:uid="{51870B89-9C60-B64E-BB39-4219B006E762}" name=" Priority" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B74D5ADA-B6EC-9141-AAD5-DB12C575664A}" name="design_table" displayName="design_table" ref="A1:E39" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B74D5ADA-B6EC-9141-AAD5-DB12C575664A}" name="design_table" displayName="design_table" ref="A1:E39" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:E39" xr:uid="{B94E7B81-C8B0-B24B-9892-1BAF4EB2686F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3045345-4885-CB42-8800-FB4CAAFB6D9B}" name="Problem statement" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{D693EF55-F88F-DF42-87F5-5DAC5A9B7A38}" name=" Problem Link" dataDxfId="168" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{901AA4F1-BA91-8042-86FF-05FC12792B56}" name=" Hint" dataDxfId="167"/>
-    <tableColumn id="4" xr3:uid="{D653518F-1EB0-A74B-A6F7-B5730466F23D}" name=" Solution link" dataDxfId="166"/>
-    <tableColumn id="5" xr3:uid="{DACE9988-2941-BF4B-807B-9CA322E4B396}" name=" Priority" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{B3045345-4885-CB42-8800-FB4CAAFB6D9B}" name="Problem statement" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{D693EF55-F88F-DF42-87F5-5DAC5A9B7A38}" name=" Problem Link" dataDxfId="170" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{901AA4F1-BA91-8042-86FF-05FC12792B56}" name=" Hint" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{D653518F-1EB0-A74B-A6F7-B5730466F23D}" name=" Solution link" dataDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{DACE9988-2941-BF4B-807B-9CA322E4B396}" name=" Priority" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{964C3BA2-1894-824C-B282-347CC6BCE70C}" name="divide-and-conquer_table" displayName="divide_and_conquer_table" ref="A1:E18" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{964C3BA2-1894-824C-B282-347CC6BCE70C}" name="divide-and-conquer_table" displayName="divide_and_conquer_table" ref="A1:E18" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165">
   <autoFilter ref="A1:E18" xr:uid="{17118068-C9BC-B643-9929-E24584AA56CD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{770060C7-63E9-454B-8A90-E5696964D80A}" name="Problem statement" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{41521D52-547F-8E4F-81CF-C792B89DA96F}" name=" Problem Link" dataDxfId="161" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{CC97EBCE-C27D-654F-942F-01913FEA5C94}" name=" Hint" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{8D0F4B60-D860-6649-A925-9FC8D55FF95B}" name=" Solution link" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{2CCF64A5-8627-5146-9DBD-D82327DE2B5D}" name=" Priority" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{770060C7-63E9-454B-8A90-E5696964D80A}" name="Problem statement" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{41521D52-547F-8E4F-81CF-C792B89DA96F}" name=" Problem Link" dataDxfId="163" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{CC97EBCE-C27D-654F-942F-01913FEA5C94}" name=" Hint" dataDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{8D0F4B60-D860-6649-A925-9FC8D55FF95B}" name=" Solution link" dataDxfId="161"/>
+    <tableColumn id="5" xr3:uid="{2CCF64A5-8627-5146-9DBD-D82327DE2B5D}" name=" Priority" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{BAC75408-3481-604A-BF0E-60C872DE68E2}" name="dynamic-programming_table" displayName="dynamic_programming_table" ref="A1:E128" totalsRowShown="0" headerRowDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{BAC75408-3481-604A-BF0E-60C872DE68E2}" name="dynamic-programming_table" displayName="dynamic_programming_table" ref="A1:E128" totalsRowShown="0" headerRowDxfId="159">
   <autoFilter ref="A1:E128" xr:uid="{86E5A372-1AF9-3C45-B0E5-A8157EBDA600}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5879BEB2-6B83-014F-A801-F165E50B2310}" name="Problem statement"/>
@@ -7434,102 +7503,102 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1874BB7E-D59B-A04D-B37F-9843D7287BD3}" name="geometry_table" displayName="geometry_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1874BB7E-D59B-A04D-B37F-9843D7287BD3}" name="geometry_table" displayName="geometry_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="158" dataDxfId="157">
   <autoFilter ref="A1:E4" xr:uid="{908E1AC5-2F13-6547-B435-4A7276483BB7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{455FC1FD-6805-FF49-BF2C-BF404E82BABA}" name="Problem statement" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{8CACC866-AE39-E549-9A97-B3C030E29AD9}" name=" Problem Link" dataDxfId="153" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{BB9516E7-F39B-544B-9D98-B3ADD24E776E}" name=" Hint" dataDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{25120BF5-9EE0-1C44-A7DB-8B70AF047411}" name=" Solution link" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{597B4FFB-C15C-424F-944A-2C71D195389E}" name=" Priority" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{455FC1FD-6805-FF49-BF2C-BF404E82BABA}" name="Problem statement" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{8CACC866-AE39-E549-9A97-B3C030E29AD9}" name=" Problem Link" dataDxfId="155" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{BB9516E7-F39B-544B-9D98-B3ADD24E776E}" name=" Hint" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{25120BF5-9EE0-1C44-A7DB-8B70AF047411}" name=" Solution link" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{597B4FFB-C15C-424F-944A-2C71D195389E}" name=" Priority" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{842A51C4-955F-1B40-92DF-FA0111688D69}" name="graph_table" displayName="graph_table" ref="A1:E22" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{842A51C4-955F-1B40-92DF-FA0111688D69}" name="graph_table" displayName="graph_table" ref="A1:E22" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="A1:E22" xr:uid="{A96F1F3A-941B-1846-9915-4C3467A98AEC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5259188F-D12C-B345-A6CF-0C177D4DD080}" name="Problem statement" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{68FCDB40-CBCA-E743-B144-4983A3FD3A6D}" name=" Problem Link" dataDxfId="146" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{D75CC4EA-2B11-344B-9E2E-27CC9C063F91}" name=" Hint" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{840A0859-66DC-0144-8CD3-1711B3B05801}" name=" Solution link" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{C590D98C-470B-6843-A441-E88F4BC4E078}" name=" Priority" dataDxfId="143"/>
+    <tableColumn id="1" xr3:uid="{5259188F-D12C-B345-A6CF-0C177D4DD080}" name="Problem statement" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{68FCDB40-CBCA-E743-B144-4983A3FD3A6D}" name=" Problem Link" dataDxfId="148" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{D75CC4EA-2B11-344B-9E2E-27CC9C063F91}" name=" Hint" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{840A0859-66DC-0144-8CD3-1711B3B05801}" name=" Solution link" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{C590D98C-470B-6843-A441-E88F4BC4E078}" name=" Priority" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{EF48D2A2-A31C-1043-B146-78DF460A6F25}" name="greedy_table" displayName="greedy_table" ref="A1:E46" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{EF48D2A2-A31C-1043-B146-78DF460A6F25}" name="greedy_table" displayName="greedy_table" ref="A1:E46" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="A1:E46" xr:uid="{43340416-B516-3C4C-A01A-40CEC92F299B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{347984D2-19A7-D344-BF4B-F76E3893A622}" name="Problem statement" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{E9FB83B1-0D8C-A846-8A8C-0915F0E1427E}" name=" Problem Link" dataDxfId="139" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{F3D4A33A-39F4-F04D-B5B6-7EBAF3CAC7BD}" name=" Hint" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{86EA47A7-D8C0-7046-A0F4-EFE723BC972D}" name=" Solution link" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{8245C972-5286-0343-B24E-37E522C438E6}" name=" Priority" dataDxfId="136"/>
+    <tableColumn id="1" xr3:uid="{347984D2-19A7-D344-BF4B-F76E3893A622}" name="Problem statement" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{E9FB83B1-0D8C-A846-8A8C-0915F0E1427E}" name=" Problem Link" dataDxfId="141" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{F3D4A33A-39F4-F04D-B5B6-7EBAF3CAC7BD}" name=" Hint" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{86EA47A7-D8C0-7046-A0F4-EFE723BC972D}" name=" Solution link" dataDxfId="139"/>
+    <tableColumn id="5" xr3:uid="{8245C972-5286-0343-B24E-37E522C438E6}" name=" Priority" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{05A13C44-4AE2-AF4C-8422-8DE042D27391}" name="hash-table_table" displayName="hash_table_table" ref="A1:E95" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
-  <autoFilter ref="A1:E95" xr:uid="{0B615990-A03E-3E47-911B-88E684A3161B}"/>
-  <sortState ref="A2:E95">
-    <sortCondition ref="A1:A95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{05A13C44-4AE2-AF4C-8422-8DE042D27391}" name="hash-table_table" displayName="hash_table_table" ref="A1:E93" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="A1:E93" xr:uid="{0B615990-A03E-3E47-911B-88E684A3161B}"/>
+  <sortState ref="A2:E93">
+    <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{26CDA143-15AD-D34E-B1D7-993A973A521C}" name="Problem statement" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{8114E3DF-E130-3641-971F-E31610E946A9}" name=" Problem Link" dataDxfId="132" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{322B2F02-10B7-C741-BAE3-5B1C75295E03}" name=" Hint" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{CA4C58C0-F683-F14C-9EE5-E7E77B187424}" name=" Solution link" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{B79490C4-5502-6145-B79B-02FC19A78CAC}" name=" Priority" dataDxfId="129"/>
+    <tableColumn id="1" xr3:uid="{26CDA143-15AD-D34E-B1D7-993A973A521C}" name="Problem statement" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{8114E3DF-E130-3641-971F-E31610E946A9}" name=" Problem Link" dataDxfId="134" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{322B2F02-10B7-C741-BAE3-5B1C75295E03}" name=" Hint" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{CA4C58C0-F683-F14C-9EE5-E7E77B187424}" name=" Solution link" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{B79490C4-5502-6145-B79B-02FC19A78CAC}" name=" Priority" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{260192B8-2377-0F4A-8877-94828EFC5DF1}" name="heap_table" displayName="heap_table" ref="A1:F33" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{260192B8-2377-0F4A-8877-94828EFC5DF1}" name="heap_table" displayName="heap_table" ref="A1:F33" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="A1:F33" xr:uid="{809F5217-79DF-D448-A4B5-0FB8E2B6CC14}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7DABC9CC-B817-494E-99CA-D5FD04C58C2C}" name="Problem statement" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{9C1CBB69-DBC7-404B-86DF-C2353F3DFEF9}" name=" Problem Link" dataDxfId="125" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{D505FB0D-7DE1-AE43-9723-DD22C5BE97D0}" name=" Hint" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{A7C23067-7CED-4949-B712-E6B64D9518E8}" name=" Solution link" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{B7587719-B830-D442-BC2A-2F2975A0D979}" name=" Priority" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{868D1A53-8205-644A-85EA-E4B078CE1C89}" name="Action" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{7DABC9CC-B817-494E-99CA-D5FD04C58C2C}" name="Problem statement" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{9C1CBB69-DBC7-404B-86DF-C2353F3DFEF9}" name=" Problem Link" dataDxfId="127" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{D505FB0D-7DE1-AE43-9723-DD22C5BE97D0}" name=" Hint" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{A7C23067-7CED-4949-B712-E6B64D9518E8}" name=" Solution link" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{B7587719-B830-D442-BC2A-2F2975A0D979}" name=" Priority" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{868D1A53-8205-644A-85EA-E4B078CE1C89}" name="Action" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A7D1E768-F530-C348-AEEB-8DE50FA5570A}" name="linked-list_table" displayName="linked_list_table" ref="A1:E35" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A7D1E768-F530-C348-AEEB-8DE50FA5570A}" name="linked-list_table" displayName="linked_list_table" ref="A1:E35" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A1:E35" xr:uid="{C8E72D3D-3203-8B40-938F-85C5EDDE4678}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AA9A2F4F-E0CF-6749-A1EF-2D0D2E8658D0}" name="Problem statement" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{7347CFA3-B16C-284D-910C-66E002D77785}" name=" Problem Link" dataDxfId="117" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{17AFF5A9-4305-C447-BB5F-4E7C12B1F778}" name=" Hint" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{DC68B503-1A44-3B42-B841-E51D65959E27}" name=" Solution link" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{F02F10AD-C43A-6C41-93D7-691E73BD83E3}" name=" Priority" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{AA9A2F4F-E0CF-6749-A1EF-2D0D2E8658D0}" name="Problem statement" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{7347CFA3-B16C-284D-910C-66E002D77785}" name=" Problem Link" dataDxfId="119" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{17AFF5A9-4305-C447-BB5F-4E7C12B1F778}" name=" Hint" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{DC68B503-1A44-3B42-B841-E51D65959E27}" name=" Solution link" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{F02F10AD-C43A-6C41-93D7-691E73BD83E3}" name=" Priority" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FB0C4A6-78E1-AB4B-99B4-C30F903B4029}" name="array_table" displayName="array_table" ref="A1:E151" totalsRowShown="0" headerRowDxfId="231">
-  <autoFilter ref="A1:E151" xr:uid="{328971D1-A5DE-BE4D-8D0D-E6893AEFD892}"/>
-  <sortState ref="A2:E151">
-    <sortCondition ref="A1:A151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FB0C4A6-78E1-AB4B-99B4-C30F903B4029}" name="array_table" displayName="array_table" ref="A1:E149" totalsRowShown="0" headerRowDxfId="235">
+  <autoFilter ref="A1:E149" xr:uid="{328971D1-A5DE-BE4D-8D0D-E6893AEFD892}"/>
+  <sortState ref="A2:E149">
+    <sortCondition ref="A1:A149"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2291C374-7F8E-3A4F-A84D-D1CF8927A7F4}" name="Problem statement" dataDxfId="230"/>
-    <tableColumn id="2" xr3:uid="{1E81B206-50A8-5949-A02B-DC563EE37EA8}" name=" Problem Link" dataDxfId="229" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{2291C374-7F8E-3A4F-A84D-D1CF8927A7F4}" name="Problem statement" dataDxfId="234"/>
+    <tableColumn id="2" xr3:uid="{1E81B206-50A8-5949-A02B-DC563EE37EA8}" name=" Problem Link" dataDxfId="233" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{6913C1FC-660C-5E4A-B1AC-F4D6372516DE}" name=" Hint"/>
     <tableColumn id="4" xr3:uid="{D5E7D5CD-50E9-724B-8D0F-B611CAE92F08}" name=" Solution link"/>
     <tableColumn id="5" xr3:uid="{8BD5D1BD-0B06-DF49-81B7-E1E4F9D1FB32}" name=" Priority"/>
@@ -7539,22 +7608,22 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B5153C28-7F9C-254A-ACC4-695A62A2B921}" name="map_table" displayName="map_table" ref="A1:E3" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B5153C28-7F9C-254A-ACC4-695A62A2B921}" name="map_table" displayName="map_table" ref="A1:E3" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
   <autoFilter ref="A1:E3" xr:uid="{AE5FC005-D103-0341-A593-822F28D591D0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0370741-70C1-9A49-8F30-AD218C78B0D4}" name="Problem statement" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{9C53F1DA-9266-6B40-88AB-6E15FEA8E938}" name=" Problem Link" dataDxfId="110" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{C0EBFF6B-1E08-1048-BAA4-D09B53337033}" name=" Hint" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{E9DFC230-E82C-9943-935B-E3E0463EA014}" name=" Solution link" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{0ED0F510-1AD0-BB41-BEF3-49A3EDF7C57D}" name=" Priority" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{E0370741-70C1-9A49-8F30-AD218C78B0D4}" name="Problem statement" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{9C53F1DA-9266-6B40-88AB-6E15FEA8E938}" name=" Problem Link" dataDxfId="112" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{C0EBFF6B-1E08-1048-BAA4-D09B53337033}" name=" Hint" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{E9DFC230-E82C-9943-935B-E3E0463EA014}" name=" Solution link" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{0ED0F510-1AD0-BB41-BEF3-49A3EDF7C57D}" name=" Priority" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{AE289DC2-B71D-5F43-B5C9-AC7B4BE84118}" name="math_table" displayName="math_table" ref="A1:E118" totalsRowShown="0" headerRowDxfId="106">
-  <autoFilter ref="A1:E118" xr:uid="{392FA19B-E2C2-A341-BB34-99E74611701D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{AE289DC2-B71D-5F43-B5C9-AC7B4BE84118}" name="math_table" displayName="math_table" ref="A1:E117" totalsRowShown="0" headerRowDxfId="108">
+  <autoFilter ref="A1:E117" xr:uid="{392FA19B-E2C2-A341-BB34-99E74611701D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7A704A2E-48EF-AA47-B3BB-DE95BDF7441D}" name="Problem statement"/>
     <tableColumn id="2" xr3:uid="{6DEA8E1D-9781-0749-AF7D-3E968B156E0D}" name=" Problem Link" dataCellStyle="Hyperlink"/>
@@ -7567,166 +7636,166 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2D039F45-4C38-4746-A3AA-5D0DAEF89112}" name="memoization_table" displayName="memoization_table" ref="A1:E2" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2D039F45-4C38-4746-A3AA-5D0DAEF89112}" name="memoization_table" displayName="memoization_table" ref="A1:E2" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:E2" xr:uid="{12F94FCB-103A-C346-9FE6-59BE039F7446}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{49FA8E68-6606-394A-A3D4-032C9761C85A}" name="Problem statement" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{1E6C7C9B-2F50-DA43-A2E3-D3DC0A52E7FE}" name=" Problem Link" dataDxfId="102" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{DBB88847-3542-E24D-8292-C152BAFA0544}" name=" Hint" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{7DA4558F-02E7-DF47-B0AD-5D2D3EA04A44}" name=" Solution link" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{13127495-B212-C54A-93C6-392D87B46119}" name=" Priority" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{49FA8E68-6606-394A-A3D4-032C9761C85A}" name="Problem statement" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{1E6C7C9B-2F50-DA43-A2E3-D3DC0A52E7FE}" name=" Problem Link" dataDxfId="104" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{DBB88847-3542-E24D-8292-C152BAFA0544}" name=" Hint" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{7DA4558F-02E7-DF47-B0AD-5D2D3EA04A44}" name=" Solution link" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{13127495-B212-C54A-93C6-392D87B46119}" name=" Priority" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{447035E8-A086-BC49-9E4C-131523456E63}" name="minimax_table" displayName="minimax_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{447035E8-A086-BC49-9E4C-131523456E63}" name="minimax_table" displayName="minimax_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="A1:E6" xr:uid="{C2E6B94F-3E5A-E446-8FF8-1AEF16295E46}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CBD7642D-BAA1-8B4C-AF37-F5D3EB1620FC}" name="Problem statement" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{AE20608A-B8CE-BE49-A206-9CB5580FE76F}" name=" Problem Link" dataDxfId="95" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{5B12979A-7358-5549-A896-B150DD6F31CF}" name=" Hint" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{B1BE27B7-4EFF-424A-A120-67DE097FE17B}" name=" Solution link" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{54F68134-CE35-EB49-81FB-CE2F8C8ADACA}" name=" Priority" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{CBD7642D-BAA1-8B4C-AF37-F5D3EB1620FC}" name="Problem statement" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{AE20608A-B8CE-BE49-A206-9CB5580FE76F}" name=" Problem Link" dataDxfId="97" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{5B12979A-7358-5549-A896-B150DD6F31CF}" name=" Hint" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{B1BE27B7-4EFF-424A-A120-67DE097FE17B}" name=" Solution link" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{54F68134-CE35-EB49-81FB-CE2F8C8ADACA}" name=" Priority" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{3A6AF80C-FBD9-8945-B02F-6E13D7D5346B}" name="queue_table" displayName="queue_table" ref="A1:E10" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{3A6AF80C-FBD9-8945-B02F-6E13D7D5346B}" name="queue_table" displayName="queue_table" ref="A1:E10" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:E10" xr:uid="{D768C18B-28E3-074F-A5F3-8AF04A1DC371}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C9B27D2C-054F-1442-927F-B7E7CEE44C25}" name="Problem statement" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{E7CF9897-7B7B-C74D-8737-F1CA000C5268}" name=" Problem Link" dataDxfId="88" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{4980DEA5-2178-3243-9B20-5FE742FC7F1F}" name=" Hint" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{B809505A-7C78-5343-A012-75ACF660EC5E}" name=" Solution link" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{92D8303A-3956-2A46-852D-CDFBCD48F154}" name=" Priority" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{C9B27D2C-054F-1442-927F-B7E7CEE44C25}" name="Problem statement" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{E7CF9897-7B7B-C74D-8737-F1CA000C5268}" name=" Problem Link" dataDxfId="90" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{4980DEA5-2178-3243-9B20-5FE742FC7F1F}" name=" Hint" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{B809505A-7C78-5343-A012-75ACF660EC5E}" name=" Solution link" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{92D8303A-3956-2A46-852D-CDFBCD48F154}" name=" Priority" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{9298E772-48F8-4446-9052-D2DB642F7F0B}" name="random_table" displayName="random_table" ref="A1:E7" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{9298E772-48F8-4446-9052-D2DB642F7F0B}" name="random_table" displayName="random_table" ref="A1:E7" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:E7" xr:uid="{A9C6A42F-1FB6-F54B-912F-8D17E1AF9367}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5D36D46B-57AF-5445-91F2-CEFAED64269A}" name="Problem statement" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{C27FB78B-6BEC-4545-B94C-3F99D3EFB50B}" name=" Problem Link" dataDxfId="81" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{5DDF6C8A-F94D-404D-9553-A6E2DFEBA0C4}" name=" Hint" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{E6864AB4-7C61-3644-A4AA-C1AEDA0221D2}" name=" Solution link" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{D4893A9C-453B-E040-9FB4-C355F572C8CA}" name=" Priority" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{5D36D46B-57AF-5445-91F2-CEFAED64269A}" name="Problem statement" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{C27FB78B-6BEC-4545-B94C-3F99D3EFB50B}" name=" Problem Link" dataDxfId="83" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{5DDF6C8A-F94D-404D-9553-A6E2DFEBA0C4}" name=" Hint" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{E6864AB4-7C61-3644-A4AA-C1AEDA0221D2}" name=" Solution link" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{D4893A9C-453B-E040-9FB4-C355F572C8CA}" name=" Priority" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{02AFA1AC-B9E4-1A48-B452-A81B08245C85}" name="recursion_table" displayName="recursion_table" ref="A1:E12" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{02AFA1AC-B9E4-1A48-B452-A81B08245C85}" name="recursion_table" displayName="recursion_table" ref="A1:E12" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:E12" xr:uid="{1FCB52B9-9CF9-4A48-8D63-FA4D33DBFB78}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3FA99FC8-B2FD-0F43-BFD5-4F428AF038E8}" name="Problem statement" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{A5EAE454-9B9F-9946-A586-B8DE474B5291}" name=" Problem Link" dataDxfId="74" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{E170B625-FED2-D946-83E8-5BA98C8BC91C}" name=" Hint" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{0C6FD741-CD72-714A-B142-F9161C49D79A}" name=" Solution link" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{18F9B60E-C21C-DC42-920D-F7EBFC61BD3C}" name=" Priority" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{3FA99FC8-B2FD-0F43-BFD5-4F428AF038E8}" name="Problem statement" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{A5EAE454-9B9F-9946-A586-B8DE474B5291}" name=" Problem Link" dataDxfId="76" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{E170B625-FED2-D946-83E8-5BA98C8BC91C}" name=" Hint" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{0C6FD741-CD72-714A-B142-F9161C49D79A}" name=" Solution link" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{18F9B60E-C21C-DC42-920D-F7EBFC61BD3C}" name=" Priority" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{0284AC16-B3FA-AE42-B734-15A5D2AC2027}" name="rejection-sampling_table" displayName="rejection_sampling_table" ref="A1:E3" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{0284AC16-B3FA-AE42-B734-15A5D2AC2027}" name="rejection-sampling_table" displayName="rejection_sampling_table" ref="A1:E3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:E3" xr:uid="{57A773C2-B3F3-7248-8E92-128840E8568A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{634176F0-C98D-3147-A6A4-F8BCBAA34423}" name="Problem statement" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{3F5F3F59-8464-0746-8BCC-221CDC9D5B76}" name=" Problem Link" dataDxfId="67" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{BBD7309F-A7E2-D24B-81CC-AD8C0BA305FA}" name=" Hint" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{5E67FA86-8E16-764E-ABE7-6577B87F5C40}" name=" Solution link" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{BFF1214C-BD91-DC43-866B-EB644D262915}" name=" Priority" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{634176F0-C98D-3147-A6A4-F8BCBAA34423}" name="Problem statement" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{3F5F3F59-8464-0746-8BCC-221CDC9D5B76}" name=" Problem Link" dataDxfId="69" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{BBD7309F-A7E2-D24B-81CC-AD8C0BA305FA}" name=" Hint" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{5E67FA86-8E16-764E-ABE7-6577B87F5C40}" name=" Solution link" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{BFF1214C-BD91-DC43-866B-EB644D262915}" name=" Priority" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{DEA455E7-CFFB-F04D-8BAC-A28E38D4E42C}" name="reservoir-sampling_table" displayName="reservoir_sampling_table" ref="A1:E3" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{DEA455E7-CFFB-F04D-8BAC-A28E38D4E42C}" name="reservoir-sampling_table" displayName="reservoir_sampling_table" ref="A1:E3" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:E3" xr:uid="{087AC53F-F9EE-D646-8A1D-17EB293DFC56}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D73DB6FD-3E44-1843-8596-FB731CB3FA6F}" name="Problem statement" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{B4B30BB9-5953-4A46-87E2-6B008E705123}" name=" Problem Link" dataDxfId="60" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{825C5361-F970-F344-9A29-70ABDD8E6DE2}" name=" Hint" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{B94B6C1E-415B-6149-84FE-8E5594405FC0}" name=" Solution link" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{6E8F9AB5-09EF-4D42-82C8-E3D8D8BC7BF4}" name=" Priority" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{D73DB6FD-3E44-1843-8596-FB731CB3FA6F}" name="Problem statement" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{B4B30BB9-5953-4A46-87E2-6B008E705123}" name=" Problem Link" dataDxfId="62" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{825C5361-F970-F344-9A29-70ABDD8E6DE2}" name=" Hint" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{B94B6C1E-415B-6149-84FE-8E5594405FC0}" name=" Solution link" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{6E8F9AB5-09EF-4D42-82C8-E3D8D8BC7BF4}" name=" Priority" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{F4A1E4C5-1471-1D4A-84DD-928918C077DE}" name="segment-tree_table" displayName="segment_tree_table" ref="A1:E10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{F4A1E4C5-1471-1D4A-84DD-928918C077DE}" name="segment-tree_table" displayName="segment_tree_table" ref="A1:E10" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:E10" xr:uid="{0BE77513-B6E5-B94D-BCD7-0DFD59552249}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{48D4E0AF-3559-0947-BFD9-8551406B8E25}" name="Problem statement" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{3C615375-CD93-B54C-8205-AD7DAF635A6E}" name=" Problem Link" dataDxfId="53" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{6696EAEE-975F-1A42-91E9-D3B3F9557552}" name=" Hint" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{0DE63B2F-217F-1845-A333-A268948C9136}" name=" Solution link" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{21F580A9-2E48-2643-B446-1DE9747B0652}" name=" Priority" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{48D4E0AF-3559-0947-BFD9-8551406B8E25}" name="Problem statement" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{3C615375-CD93-B54C-8205-AD7DAF635A6E}" name=" Problem Link" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{6696EAEE-975F-1A42-91E9-D3B3F9557552}" name=" Hint" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{0DE63B2F-217F-1845-A333-A268948C9136}" name=" Solution link" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{21F580A9-2E48-2643-B446-1DE9747B0652}" name=" Priority" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FAAFA1A8-A474-3E40-AED6-A16B0F0DD9A8}" name="backtracking_table" displayName="backtracking_table" ref="A1:F40" totalsRowShown="0" headerRowDxfId="228" dataDxfId="227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FAAFA1A8-A474-3E40-AED6-A16B0F0DD9A8}" name="backtracking_table" displayName="backtracking_table" ref="A1:F40" totalsRowShown="0" headerRowDxfId="232" dataDxfId="231">
   <autoFilter ref="A1:F40" xr:uid="{50A963EF-976A-6348-B3D9-1C457A8D56B4}"/>
   <sortState ref="A2:F40">
     <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF661D08-75E7-BE48-9BF2-ECE03910033B}" name="Problem statement" dataDxfId="226"/>
-    <tableColumn id="2" xr3:uid="{00AD8F6C-FB27-7B46-B9B7-1EBCA0D6983A}" name=" Problem Link" dataDxfId="225" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{B5AB7E31-9828-E947-A1FA-264FF98C51F3}" name=" Hint" dataDxfId="224"/>
-    <tableColumn id="4" xr3:uid="{F953FE01-5662-024F-B61F-F08A51E5B531}" name=" Solution link" dataDxfId="223"/>
-    <tableColumn id="5" xr3:uid="{9B8275D7-BCDC-2F47-9E8F-C31AA0AEDE86}" name=" Priority" dataDxfId="222"/>
-    <tableColumn id="6" xr3:uid="{04197398-6E04-9848-8F79-E18C0F07781A}" name="Column1" dataDxfId="221"/>
+    <tableColumn id="1" xr3:uid="{FF661D08-75E7-BE48-9BF2-ECE03910033B}" name="Problem statement" dataDxfId="230"/>
+    <tableColumn id="2" xr3:uid="{00AD8F6C-FB27-7B46-B9B7-1EBCA0D6983A}" name=" Problem Link" dataDxfId="229" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{B5AB7E31-9828-E947-A1FA-264FF98C51F3}" name=" Hint" dataDxfId="228"/>
+    <tableColumn id="4" xr3:uid="{F953FE01-5662-024F-B61F-F08A51E5B531}" name=" Solution link" dataDxfId="227"/>
+    <tableColumn id="5" xr3:uid="{9B8275D7-BCDC-2F47-9E8F-C31AA0AEDE86}" name=" Priority" dataDxfId="226"/>
+    <tableColumn id="6" xr3:uid="{04197398-6E04-9848-8F79-E18C0F07781A}" name="Column1" dataDxfId="225"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{928176D0-D734-4D49-B80B-18B165FA48FA}" name="sort_table" displayName="sort_table" ref="A1:E22" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{928176D0-D734-4D49-B80B-18B165FA48FA}" name="sort_table" displayName="sort_table" ref="A1:E22" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:E22" xr:uid="{A1788F82-D2AE-E746-A97D-5D5A1C3160F3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{30D7F8A5-1303-CC4A-8B9C-95733BC18F95}" name="Problem statement" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{600C013A-C8A3-5545-9A6C-4C61F6221290}" name=" Problem Link" dataDxfId="46" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{84C3F119-D4B8-F146-BFA0-4D88902EAA6A}" name=" Hint" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{69FFEB7A-425C-B04D-8AED-7EBB46E3A1CA}" name=" Solution link" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{8AB29F2A-3567-644E-AF9F-3FCEF5D65D10}" name=" Priority" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{30D7F8A5-1303-CC4A-8B9C-95733BC18F95}" name="Problem statement" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{600C013A-C8A3-5545-9A6C-4C61F6221290}" name=" Problem Link" dataDxfId="48" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{84C3F119-D4B8-F146-BFA0-4D88902EAA6A}" name=" Hint" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{69FFEB7A-425C-B04D-8AED-7EBB46E3A1CA}" name=" Solution link" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{8AB29F2A-3567-644E-AF9F-3FCEF5D65D10}" name=" Priority" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{A0485E49-3B4D-484E-A0CB-EB21D018FAA2}" name="stack_table" displayName="stack_table" ref="A1:E45" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{A0485E49-3B4D-484E-A0CB-EB21D018FAA2}" name="stack_table" displayName="stack_table" ref="A1:E45" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:E45" xr:uid="{7112A56A-F805-4640-8F07-BEE2C9652ACE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A0280B67-B1F6-174F-9917-5690331B8C0C}" name="Problem statement" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{E01DBF3E-00E2-C349-AC36-52232B78958F}" name=" Problem Link" dataDxfId="39" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{EBB9D120-4FE8-C84B-B478-4AE4E3B9CC59}" name=" Hint" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{CB5FAA82-F170-874F-B75B-5E38489017AB}" name=" Solution link" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{3F3D8C14-4A7A-B34F-A91D-640EDE54FB00}" name=" Priority" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{A0280B67-B1F6-174F-9917-5690331B8C0C}" name="Problem statement" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{E01DBF3E-00E2-C349-AC36-52232B78958F}" name=" Problem Link" dataDxfId="41" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{EBB9D120-4FE8-C84B-B478-4AE4E3B9CC59}" name=" Hint" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{CB5FAA82-F170-874F-B75B-5E38489017AB}" name=" Solution link" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{3F3D8C14-4A7A-B34F-A91D-640EDE54FB00}" name=" Priority" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{526DADC4-0331-8E46-8823-8CB20B1E6915}" name="string_table" displayName="string_table" ref="A1:E118" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="A1:E118" xr:uid="{09E79699-5B4E-4E4A-A230-833A7EB77300}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{526DADC4-0331-8E46-8823-8CB20B1E6915}" name="string_table" displayName="string_table" ref="A1:E117" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="A1:E117" xr:uid="{09E79699-5B4E-4E4A-A230-833A7EB77300}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{75452879-3FAD-7541-B33F-A269B3CCA0EB}" name="Problem statement"/>
     <tableColumn id="2" xr3:uid="{C1C5FC0D-256B-A546-8E8C-B65D81030D97}" name=" Problem Link" dataCellStyle="Hyperlink"/>
@@ -7739,62 +7808,64 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{926F1BEA-4A77-4947-8601-1E8D764E84E0}" name="topological-sort_table" displayName="topological_sort_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{926F1BEA-4A77-4947-8601-1E8D764E84E0}" name="topological-sort_table" displayName="topological_sort_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:E6" xr:uid="{11B9E174-6E3A-BE4A-B880-D0E512E66889}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D3F67934-4F2D-CE44-B3A0-F0B4E59D14A3}" name="Problem statement" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{FDD4F62E-C9CA-ED4D-8464-00DB64B0DC50}" name=" Problem Link" dataDxfId="31" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{5043DE68-C4EE-0F42-B004-4EF6631E9D86}" name=" Hint" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{C99E3A7F-C4B8-9F44-9FBE-BE4FADB38D93}" name=" Solution link" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{E3B6525D-8ABD-5E4E-AAB4-962F04585450}" name=" Priority" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{D3F67934-4F2D-CE44-B3A0-F0B4E59D14A3}" name="Problem statement" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{FDD4F62E-C9CA-ED4D-8464-00DB64B0DC50}" name=" Problem Link" dataDxfId="33" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{5043DE68-C4EE-0F42-B004-4EF6631E9D86}" name=" Hint" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C99E3A7F-C4B8-9F44-9FBE-BE4FADB38D93}" name=" Solution link" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{E3B6525D-8ABD-5E4E-AAB4-962F04585450}" name=" Priority" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{58FD54E4-ABF3-5D4F-A522-55A897D5767E}" name="tree_table" displayName="tree_table" ref="A1:E100" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:E100" xr:uid="{FF036447-33D7-AA47-90B0-261E003BDB55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{58FD54E4-ABF3-5D4F-A522-55A897D5767E}" name="tree_table" displayName="tree_table" ref="A1:F100" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:F100" xr:uid="{FF036447-33D7-AA47-90B0-261E003BDB55}"/>
   <sortState ref="A2:E100">
     <sortCondition ref="A1:A100"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0F8DD3EE-CD90-7640-B1BC-D99487A0749C}" name="Problem statement" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{5CB45B0C-6DCE-844F-B64C-EF03B38C7785}" name=" Problem Link" dataDxfId="24" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{4AD232C4-C350-9942-98A5-C51427667A6D}" name=" Hint" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{60804825-B6A3-DB45-AD80-EBE8EAEF4A11}" name=" Solution link" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{E04574E3-C4E9-4043-8DF5-4B9BC9EC69CA}" name=" Priority" dataDxfId="21"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0F8DD3EE-CD90-7640-B1BC-D99487A0749C}" name="Problem statement" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{5CB45B0C-6DCE-844F-B64C-EF03B38C7785}" name=" Problem Link" dataDxfId="26" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{4AD232C4-C350-9942-98A5-C51427667A6D}" name=" Hint" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{60804825-B6A3-DB45-AD80-EBE8EAEF4A11}" name=" Solution link" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{E04574E3-C4E9-4043-8DF5-4B9BC9EC69CA}" name=" Priority" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{6CB6636F-6838-1642-BA77-38431684EADF}" name="Column1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{631A0567-FEFF-874C-B3F2-EE7936B46196}" name="trie_table" displayName="trie_table" ref="A1:E15" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{631A0567-FEFF-874C-B3F2-EE7936B46196}" name="trie_table" displayName="trie_table" ref="A1:E15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E15" xr:uid="{4DF5852F-51B9-2F4E-826B-054421187E96}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A02C4B4D-492E-2E40-8FEB-9E29D1460617}" name="Problem statement" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A8179BC9-7AD1-5048-8E10-1946570FCE38}" name=" Problem Link" dataDxfId="17" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{6CE212BB-C847-184E-8A83-51E4103A1E55}" name=" Hint" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{EF0BDC63-CC2E-014F-9F36-8A654F2CCAA5}" name=" Solution link" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{3055B4E1-2020-2F43-8758-77A8D21273C1}" name=" Priority" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{A02C4B4D-492E-2E40-8FEB-9E29D1460617}" name="Problem statement" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A8179BC9-7AD1-5048-8E10-1946570FCE38}" name=" Problem Link" dataDxfId="18" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{6CE212BB-C847-184E-8A83-51E4103A1E55}" name=" Hint" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{EF0BDC63-CC2E-014F-9F36-8A654F2CCAA5}" name=" Solution link" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{3055B4E1-2020-2F43-8758-77A8D21273C1}" name=" Priority" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{CCFB56B5-B4A8-A24F-BBB6-A750DEB23059}" name="two-pointers_table" displayName="two_pointers_table" ref="A1:E51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E51" xr:uid="{ADB0DFA5-51B1-6044-B939-F022A5DE752F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{CCFB56B5-B4A8-A24F-BBB6-A750DEB23059}" name="two-pointers_table" displayName="two_pointers_table" ref="A1:F51" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:F51" xr:uid="{ADB0DFA5-51B1-6044-B939-F022A5DE752F}"/>
   <sortState ref="A2:E51">
     <sortCondition ref="A1:A51"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4E9B21EB-D580-BD40-BC17-6ED5176C44DA}" name="Problem statement" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B5F700F1-BBF5-4546-829C-AEB53F932AC8}" name=" Problem Link" dataDxfId="10" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{C2913759-89AC-6148-8A0B-2020DBA0EB53}" name=" Hint" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{9025099E-04A8-B441-B3C8-406A2726F2C1}" name=" Solution link" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{862006E9-5DA9-E548-B67A-C7191C8A5794}" name=" Priority" dataDxfId="7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4E9B21EB-D580-BD40-BC17-6ED5176C44DA}" name="Problem statement" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{B5F700F1-BBF5-4546-829C-AEB53F932AC8}" name=" Problem Link" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{C2913759-89AC-6148-8A0B-2020DBA0EB53}" name=" Hint" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9025099E-04A8-B441-B3C8-406A2726F2C1}" name=" Solution link" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{862006E9-5DA9-E548-B67A-C7191C8A5794}" name=" Priority" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{43D0C228-820D-884B-AD86-63CC57707701}" name="Action" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7815,87 +7886,89 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2C5974E2-132B-EB42-998E-B954BB0C17BA}" name="binary-indexed-tree_table" displayName="binary_indexed_tree_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2C5974E2-132B-EB42-998E-B954BB0C17BA}" name="binary-indexed-tree_table" displayName="binary_indexed_tree_table" ref="A1:E6" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223">
   <autoFilter ref="A1:E6" xr:uid="{8C4C4478-B2D2-A344-B0BD-6BF2AF529C5F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C9E0C009-4EB4-0944-9F21-65CEF56C6B3D}" name="Problem statement" dataDxfId="218"/>
-    <tableColumn id="2" xr3:uid="{E3826CE6-D6BB-8646-A2C8-92177C9BB031}" name=" Problem Link" dataDxfId="217" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{3453E097-24BF-6345-98C8-54DE5E0A0478}" name=" Hint" dataDxfId="216"/>
-    <tableColumn id="4" xr3:uid="{39BC8CB1-7E2F-F04F-AE3F-5D4EDA48A92A}" name=" Solution link" dataDxfId="215"/>
-    <tableColumn id="5" xr3:uid="{5AEBE957-74AC-0F4C-87A0-AC5D19A9949C}" name=" Priority" dataDxfId="214"/>
+    <tableColumn id="1" xr3:uid="{C9E0C009-4EB4-0944-9F21-65CEF56C6B3D}" name="Problem statement" dataDxfId="222"/>
+    <tableColumn id="2" xr3:uid="{E3826CE6-D6BB-8646-A2C8-92177C9BB031}" name=" Problem Link" dataDxfId="221" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{3453E097-24BF-6345-98C8-54DE5E0A0478}" name=" Hint" dataDxfId="220"/>
+    <tableColumn id="4" xr3:uid="{39BC8CB1-7E2F-F04F-AE3F-5D4EDA48A92A}" name=" Solution link" dataDxfId="219"/>
+    <tableColumn id="5" xr3:uid="{5AEBE957-74AC-0F4C-87A0-AC5D19A9949C}" name=" Priority" dataDxfId="218"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B196AA9C-C04E-394D-8C29-1A25126EE3FC}" name="binary-search-tree_table" displayName="binary_search_tree_table" ref="A1:E15" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B196AA9C-C04E-394D-8C29-1A25126EE3FC}" name="binary-search-tree_table" displayName="binary_search_tree_table" ref="A1:E15" totalsRowShown="0" headerRowDxfId="217" dataDxfId="216">
   <autoFilter ref="A1:E15" xr:uid="{3D4A91CF-4634-9E4F-88DB-2F51E4EE97AD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{70C63C53-DE39-7F44-B761-6ECDBF546978}" name="Problem statement" dataDxfId="211"/>
-    <tableColumn id="2" xr3:uid="{C03687CB-5519-5944-91C2-79C3696FD151}" name=" Problem Link" dataDxfId="210" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{52DE3700-E6A5-C243-BEC1-EA2D47561974}" name=" Hint" dataDxfId="209"/>
-    <tableColumn id="4" xr3:uid="{5F8F3299-852E-B840-ABD1-C000384C0AAB}" name=" Solution link" dataDxfId="208"/>
-    <tableColumn id="5" xr3:uid="{D67468B2-5CEB-A948-AD39-01706C253567}" name=" Priority" dataDxfId="207"/>
+    <tableColumn id="1" xr3:uid="{70C63C53-DE39-7F44-B761-6ECDBF546978}" name="Problem statement" dataDxfId="215"/>
+    <tableColumn id="2" xr3:uid="{C03687CB-5519-5944-91C2-79C3696FD151}" name=" Problem Link" dataDxfId="214" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{52DE3700-E6A5-C243-BEC1-EA2D47561974}" name=" Hint" dataDxfId="213"/>
+    <tableColumn id="4" xr3:uid="{5F8F3299-852E-B840-ABD1-C000384C0AAB}" name=" Solution link" dataDxfId="212"/>
+    <tableColumn id="5" xr3:uid="{D67468B2-5CEB-A948-AD39-01706C253567}" name=" Priority" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2080DDDC-0C8F-9C43-A2F0-6A6DEB6AB430}" name="binary-search_table" displayName="binary_search_table" ref="A1:E61" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2080DDDC-0C8F-9C43-A2F0-6A6DEB6AB430}" name="binary-search_table" displayName="binary_search_table" ref="A1:E61" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209">
   <autoFilter ref="A1:E61" xr:uid="{3F51F787-1523-1549-89F1-3A8D0055B244}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8EC6A310-9556-6D4F-B622-FC08A5CFD525}" name="Problem statement" dataDxfId="204"/>
-    <tableColumn id="2" xr3:uid="{0EF2C2A6-3E97-0649-960E-6F4BEB31B9EC}" name=" Problem Link" dataDxfId="203" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{7FFBE823-6619-8A49-B88D-C11A826DAC6A}" name=" Hint" dataDxfId="202"/>
-    <tableColumn id="4" xr3:uid="{C4EEFE21-CD57-704D-B8E2-64BF341785AE}" name=" Solution link" dataDxfId="201"/>
-    <tableColumn id="5" xr3:uid="{DC2A4C4B-8F9B-4941-A0A5-F03A01FED342}" name=" Priority" dataDxfId="200"/>
+    <tableColumn id="1" xr3:uid="{8EC6A310-9556-6D4F-B622-FC08A5CFD525}" name="Problem statement" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{0EF2C2A6-3E97-0649-960E-6F4BEB31B9EC}" name=" Problem Link" dataDxfId="207" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{7FFBE823-6619-8A49-B88D-C11A826DAC6A}" name=" Hint" dataDxfId="206"/>
+    <tableColumn id="4" xr3:uid="{C4EEFE21-CD57-704D-B8E2-64BF341785AE}" name=" Solution link" dataDxfId="205"/>
+    <tableColumn id="5" xr3:uid="{DC2A4C4B-8F9B-4941-A0A5-F03A01FED342}" name=" Priority" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{86DFB335-CFE2-5448-B875-26C3F1CA935E}" name="bit-manipulation_table" displayName="bit_manipulation_table" ref="A1:E33" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
-  <autoFilter ref="A1:E33" xr:uid="{8EF31324-4A16-D14D-80E8-A857CF2EF99A}"/>
-  <sortState ref="A2:E33">
-    <sortCondition ref="A1:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{86DFB335-CFE2-5448-B875-26C3F1CA935E}" name="bit-manipulation_table" displayName="bit_manipulation_table" ref="A1:F32" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
+  <autoFilter ref="A1:F32" xr:uid="{8EF31324-4A16-D14D-80E8-A857CF2EF99A}"/>
+  <sortState ref="A2:E32">
+    <sortCondition ref="A1:A32"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F28FCA6D-41E9-374E-B68C-678905383B1E}" name="Problem statement" dataDxfId="197"/>
-    <tableColumn id="2" xr3:uid="{815166F4-8E13-DE4B-BCD9-F11245DFD402}" name=" Problem Link" dataDxfId="196" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{5E4ACE64-4281-6D46-9BA6-73D0E42024EB}" name=" Hint" dataDxfId="195"/>
-    <tableColumn id="4" xr3:uid="{4B57796C-5062-ED49-8534-FC4A1520EF2F}" name=" Solution link" dataDxfId="194"/>
-    <tableColumn id="5" xr3:uid="{54A7E9A6-8166-1F4F-BCAE-020B2AE055B4}" name=" Priority" dataDxfId="193"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F28FCA6D-41E9-374E-B68C-678905383B1E}" name="Problem statement" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{815166F4-8E13-DE4B-BCD9-F11245DFD402}" name=" Problem Link" dataDxfId="200" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{5E4ACE64-4281-6D46-9BA6-73D0E42024EB}" name=" Hint" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{4B57796C-5062-ED49-8534-FC4A1520EF2F}" name=" Solution link" dataDxfId="198"/>
+    <tableColumn id="5" xr3:uid="{54A7E9A6-8166-1F4F-BCAE-020B2AE055B4}" name=" Priority" dataDxfId="197"/>
+    <tableColumn id="6" xr3:uid="{3B2F8817-FF25-D94E-A264-2C619CE8EE92}" name="Column1" dataDxfId="196"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{22F5365D-44D6-1D44-94F1-287793FF31DA}" name="brainteaser_table" displayName="brainteaser_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{22F5365D-44D6-1D44-94F1-287793FF31DA}" name="brainteaser_table" displayName="brainteaser_table" ref="A1:E4" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
   <autoFilter ref="A1:E4" xr:uid="{FD4BDDC8-BFCC-D740-9238-9DB30D47B6C0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6E8AC02B-C39D-7148-B110-A2D1877B6C2D}" name="Problem statement" dataDxfId="190"/>
-    <tableColumn id="2" xr3:uid="{2FC1AAAC-9404-5847-BFAB-9B53134EDD19}" name=" Problem Link" dataDxfId="189" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{7B43242A-1DDE-E74E-AD7A-E29E00D6E39E}" name=" Hint" dataDxfId="188"/>
-    <tableColumn id="4" xr3:uid="{60EE1216-A8F7-1947-B0BB-6E2A36D538DD}" name=" Solution link" dataDxfId="187"/>
-    <tableColumn id="5" xr3:uid="{EE2221AF-3D23-6B49-B0A7-0F01B7DC5782}" name=" Priority" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{6E8AC02B-C39D-7148-B110-A2D1877B6C2D}" name="Problem statement" dataDxfId="193"/>
+    <tableColumn id="2" xr3:uid="{2FC1AAAC-9404-5847-BFAB-9B53134EDD19}" name=" Problem Link" dataDxfId="192" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{7B43242A-1DDE-E74E-AD7A-E29E00D6E39E}" name=" Hint" dataDxfId="191"/>
+    <tableColumn id="4" xr3:uid="{60EE1216-A8F7-1947-B0BB-6E2A36D538DD}" name=" Solution link" dataDxfId="190"/>
+    <tableColumn id="5" xr3:uid="{EE2221AF-3D23-6B49-B0A7-0F01B7DC5782}" name=" Priority" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{063DAC99-61CD-D44E-9AC0-45784D4C4E8D}" name="breadth-first-search_table" displayName="breadth_first_search_table" ref="A1:E46" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
-  <autoFilter ref="A1:E46" xr:uid="{7A0B055D-CCB2-224C-9C59-356D40A2E7F0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F9C53122-5D48-6A4F-8E95-92ECF6E1EA90}" name="Problem statement" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{97CB2444-3DBD-FD43-9969-D9308AF07168}" name=" Problem Link" dataDxfId="182" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{2F3A81B9-B5DB-0C4C-9357-13F4D3DE6005}" name=" Hint" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{5AAA3BD6-71F1-BA45-B25A-37BB52639003}" name=" Solution link" dataDxfId="180"/>
-    <tableColumn id="5" xr3:uid="{2A10F67F-650D-E349-A627-D9B625A00624}" name=" Priority" dataDxfId="179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{063DAC99-61CD-D44E-9AC0-45784D4C4E8D}" name="breadth-first-search_table" displayName="breadth_first_search_table" ref="A1:F46" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
+  <autoFilter ref="A1:F46" xr:uid="{7A0B055D-CCB2-224C-9C59-356D40A2E7F0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F9C53122-5D48-6A4F-8E95-92ECF6E1EA90}" name="Problem statement" dataDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{97CB2444-3DBD-FD43-9969-D9308AF07168}" name=" Problem Link" dataDxfId="185" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{2F3A81B9-B5DB-0C4C-9357-13F4D3DE6005}" name=" Hint" dataDxfId="184"/>
+    <tableColumn id="4" xr3:uid="{5AAA3BD6-71F1-BA45-B25A-37BB52639003}" name=" Solution link" dataDxfId="183"/>
+    <tableColumn id="5" xr3:uid="{2A10F67F-650D-E349-A627-D9B625A00624}" name=" Priority" dataDxfId="182"/>
+    <tableColumn id="6" xr3:uid="{0EB37137-E166-A249-BF1E-9E0D71FE54BF}" name="Action" dataDxfId="181"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8201,8 +8274,8 @@
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -9053,7 +9126,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -9726,10 +9799,10 @@
         <v>748</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>1807</v>
@@ -9876,7 +9949,7 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>1798</v>
@@ -10217,8 +10290,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11142,7 +11215,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -15029,7 +15104,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15986,10 +16061,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535FF035-F12B-B748-BED0-1904403C7C7E}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16122,10 +16197,10 @@
         <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1798</v>
@@ -16304,10 +16379,10 @@
         <v>1118</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1807</v>
@@ -16332,10 +16407,10 @@
         <v>1194</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1805</v>
@@ -16409,10 +16484,10 @@
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>450</v>
+        <v>1157</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>449</v>
+        <v>1156</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -16420,10 +16495,10 @@
     </row>
     <row r="37" spans="1:5" ht="51">
       <c r="A37" s="2" t="s">
-        <v>466</v>
+        <v>1211</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>465</v>
+        <v>1210</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -16431,54 +16506,54 @@
     </row>
     <row r="38" spans="1:5" ht="51">
       <c r="A38" s="2" t="s">
-        <v>1157</v>
+        <v>1111</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1156</v>
+        <v>1110</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="51">
+    <row r="39" spans="1:5" ht="34">
       <c r="A39" s="2" t="s">
-        <v>1211</v>
+        <v>1155</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1210</v>
+        <v>1154</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="51">
+    <row r="40" spans="1:5" ht="34">
       <c r="A40" s="2" t="s">
-        <v>1111</v>
+        <v>1169</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1110</v>
+        <v>1168</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="34">
+    <row r="41" spans="1:5" ht="51">
       <c r="A41" s="2" t="s">
-        <v>1155</v>
+        <v>789</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1154</v>
+        <v>788</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="34">
+    <row r="42" spans="1:5" ht="68">
       <c r="A42" s="2" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -16486,10 +16561,10 @@
     </row>
     <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>789</v>
+        <v>1167</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>788</v>
+        <v>1166</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -16497,21 +16572,21 @@
     </row>
     <row r="44" spans="1:5" ht="68">
       <c r="A44" s="2" t="s">
-        <v>1143</v>
+        <v>1199</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1142</v>
+        <v>1198</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="51">
+    <row r="45" spans="1:5" ht="68">
       <c r="A45" s="2" t="s">
-        <v>1167</v>
+        <v>1215</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1166</v>
+        <v>1214</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -16519,32 +16594,32 @@
     </row>
     <row r="46" spans="1:5" ht="68">
       <c r="A46" s="2" t="s">
-        <v>1199</v>
+        <v>1173</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1198</v>
+        <v>1172</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="68">
+    <row r="47" spans="1:5" ht="51">
       <c r="A47" s="2" t="s">
-        <v>1215</v>
+        <v>1127</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1214</v>
+        <v>1126</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="68">
+    <row r="48" spans="1:5" ht="51">
       <c r="A48" s="2" t="s">
-        <v>1173</v>
+        <v>1187</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1172</v>
+        <v>1186</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -16552,10 +16627,10 @@
     </row>
     <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>1127</v>
+        <v>225</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1126</v>
+        <v>224</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -16563,10 +16638,10 @@
     </row>
     <row r="50" spans="1:5" ht="51">
       <c r="A50" s="2" t="s">
-        <v>1187</v>
+        <v>117</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1186</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -16574,54 +16649,54 @@
     </row>
     <row r="51" spans="1:5" ht="51">
       <c r="A51" s="2" t="s">
-        <v>225</v>
+        <v>1103</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>224</v>
+        <v>1102</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" ht="51">
+    <row r="52" spans="1:5" ht="68">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="51">
+    <row r="53" spans="1:5" ht="68">
       <c r="A53" s="2" t="s">
-        <v>1103</v>
+        <v>1191</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1102</v>
+        <v>1190</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" ht="68">
+    <row r="54" spans="1:5" ht="51">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>1099</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>80</v>
+        <v>1098</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="68">
+    <row r="55" spans="1:5" ht="51">
       <c r="A55" s="2" t="s">
-        <v>1191</v>
+        <v>1141</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1190</v>
+        <v>1140</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -16629,10 +16704,10 @@
     </row>
     <row r="56" spans="1:5" ht="51">
       <c r="A56" s="2" t="s">
-        <v>1099</v>
+        <v>1165</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1098</v>
+        <v>1164</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -16640,58 +16715,58 @@
     </row>
     <row r="57" spans="1:5" ht="51">
       <c r="A57" s="2" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="51">
+    <row r="58" spans="1:5" ht="68">
       <c r="A58" s="2" t="s">
-        <v>1165</v>
+        <v>1093</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>1092</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1808</v>
+      </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>1153</v>
+        <v>1125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1152</v>
+        <v>1124</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="68">
+    <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>1093</v>
+        <v>1161</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>1808</v>
-      </c>
+        <v>1160</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>1807</v>
-      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>1125</v>
+        <v>683</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1124</v>
+        <v>682</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -16699,10 +16774,10 @@
     </row>
     <row r="62" spans="1:5" ht="51">
       <c r="A62" s="2" t="s">
-        <v>1161</v>
+        <v>681</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1160</v>
+        <v>680</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -16710,10 +16785,10 @@
     </row>
     <row r="63" spans="1:5" ht="51">
       <c r="A63" s="2" t="s">
-        <v>683</v>
+        <v>1197</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>682</v>
+        <v>1196</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -16721,10 +16796,10 @@
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>681</v>
+        <v>1205</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>680</v>
+        <v>1204</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -16732,10 +16807,10 @@
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>1197</v>
+        <v>1095</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1196</v>
+        <v>1094</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -16743,10 +16818,10 @@
     </row>
     <row r="66" spans="1:5" ht="51">
       <c r="A66" s="2" t="s">
-        <v>1205</v>
+        <v>1109</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -16754,10 +16829,10 @@
     </row>
     <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>1095</v>
+        <v>420</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1094</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -16765,10 +16840,10 @@
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>1109</v>
+        <v>1081</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1108</v>
+        <v>1080</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -16776,21 +16851,27 @@
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>420</v>
+        <v>539</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="51">
+        <v>538</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="34">
       <c r="A70" s="2" t="s">
-        <v>1081</v>
+        <v>1133</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1080</v>
+        <v>1132</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -16798,27 +16879,21 @@
     </row>
     <row r="71" spans="1:5" ht="51">
       <c r="A71" s="2" t="s">
-        <v>539</v>
+        <v>1123</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>1807</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="34">
       <c r="A72" s="2" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -16826,60 +16901,60 @@
     </row>
     <row r="73" spans="1:5" ht="51">
       <c r="A73" s="2" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="34">
+    <row r="74" spans="1:5" ht="85">
       <c r="A74" s="2" t="s">
-        <v>1135</v>
+        <v>819</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="51">
+        <v>818</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="34">
       <c r="A75" s="2" t="s">
-        <v>1117</v>
+        <v>521</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1116</v>
+        <v>520</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="85">
+    <row r="76" spans="1:5" ht="51">
       <c r="A76" s="2" t="s">
-        <v>819</v>
+        <v>1137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="34">
+        <v>1136</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>521</v>
+        <v>1193</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>520</v>
+        <v>1192</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -16887,10 +16962,10 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>1137</v>
+        <v>1209</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1136</v>
+        <v>1208</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -16898,10 +16973,10 @@
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>1193</v>
+        <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1192</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -16909,132 +16984,136 @@
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>1209</v>
+        <v>1107</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1208</v>
+        <v>1106</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="51">
+    <row r="81" spans="1:5" ht="68">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>1219</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>126</v>
+        <v>1218</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="51">
+    <row r="82" spans="1:5" ht="34">
       <c r="A82" s="2" t="s">
-        <v>1107</v>
+        <v>328</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1106</v>
+        <v>327</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="68">
+    <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>1219</v>
+        <v>1171</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1218</v>
+        <v>1170</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="34">
+    <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>328</v>
+        <v>1129</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+        <v>1128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>1171</v>
+        <v>167</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>1129</v>
+        <v>825</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="51">
+        <v>824</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="68">
       <c r="A87" s="2" t="s">
-        <v>167</v>
+        <v>1105</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>1798</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="68">
+    <row r="89" spans="1:5" ht="51">
       <c r="A89" s="2" t="s">
-        <v>1105</v>
+        <v>1175</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>1174</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1835</v>
+      </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="51">
+      <c r="E89" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="34">
       <c r="A90" s="2" t="s">
-        <v>813</v>
+        <v>1185</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>812</v>
+        <v>1184</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -17042,59 +17121,47 @@
     </row>
     <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>1175</v>
+        <v>1097</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>1836</v>
-      </c>
+        <v>1096</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="34">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="51">
       <c r="A92" s="2" t="s">
-        <v>1185</v>
+        <v>1091</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1184</v>
+        <v>1090</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="51">
+    <row r="93" spans="1:5" ht="34">
       <c r="A93" s="2" t="s">
-        <v>1097</v>
+        <v>1181</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1096</v>
+        <v>1180</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" ht="51">
-      <c r="A94" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>1090</v>
-      </c>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" ht="34">
-      <c r="A95" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1180</v>
-      </c>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -17113,120 +17180,104 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E84A5F5F-0028-3045-A533-5E645F116769}"/>
-    <hyperlink ref="B83" r:id="rId2" xr:uid="{B66D2F96-F027-DB47-8D2F-4DD0CE76AB41}"/>
+    <hyperlink ref="B81" r:id="rId2" xr:uid="{B66D2F96-F027-DB47-8D2F-4DD0CE76AB41}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{A272FF23-3972-D845-9C1E-2A587CCD3848}"/>
-    <hyperlink ref="B47" r:id="rId4" xr:uid="{490718A0-B293-F94C-9043-D1A833C3D796}"/>
+    <hyperlink ref="B45" r:id="rId4" xr:uid="{490718A0-B293-F94C-9043-D1A833C3D796}"/>
     <hyperlink ref="B28" r:id="rId5" xr:uid="{4449E83B-C313-C949-9926-4B6AF833C22B}"/>
-    <hyperlink ref="B88" r:id="rId6" xr:uid="{DA7A7227-1A3A-3044-A917-7E71E6B79401}"/>
-    <hyperlink ref="B39" r:id="rId7" xr:uid="{1AC4EC8C-49C9-BE45-8A12-972D0DA3CD3D}"/>
-    <hyperlink ref="B76" r:id="rId8" xr:uid="{E9E9E097-E1DF-E14D-9DF2-F07B86E0D3BE}"/>
-    <hyperlink ref="B80" r:id="rId9" xr:uid="{F3FCAE50-AB96-084E-ACA8-61C061199CA3}"/>
+    <hyperlink ref="B86" r:id="rId6" xr:uid="{DA7A7227-1A3A-3044-A917-7E71E6B79401}"/>
+    <hyperlink ref="B37" r:id="rId7" xr:uid="{1AC4EC8C-49C9-BE45-8A12-972D0DA3CD3D}"/>
+    <hyperlink ref="B74" r:id="rId8" xr:uid="{E9E9E097-E1DF-E14D-9DF2-F07B86E0D3BE}"/>
+    <hyperlink ref="B78" r:id="rId9" xr:uid="{F3FCAE50-AB96-084E-ACA8-61C061199CA3}"/>
     <hyperlink ref="B30" r:id="rId10" xr:uid="{9DA9980A-564D-4E4B-8028-C6099B2998E1}"/>
-    <hyperlink ref="B66" r:id="rId11" xr:uid="{F3F2947B-0EE7-CF42-A413-A650D4877FF2}"/>
+    <hyperlink ref="B64" r:id="rId11" xr:uid="{F3F2947B-0EE7-CF42-A413-A650D4877FF2}"/>
     <hyperlink ref="B31" r:id="rId12" xr:uid="{9EA7DA55-7EB1-4C4B-8F50-8EEE6D08B2AE}"/>
-    <hyperlink ref="B90" r:id="rId13" xr:uid="{0DB3BE1B-5FF5-9642-8E25-EDF25CCD7B6A}"/>
+    <hyperlink ref="B88" r:id="rId13" xr:uid="{0DB3BE1B-5FF5-9642-8E25-EDF25CCD7B6A}"/>
     <hyperlink ref="B10" r:id="rId14" xr:uid="{D057BFD4-4DE3-9E44-B532-D946E1247EAF}"/>
-    <hyperlink ref="B46" r:id="rId15" xr:uid="{3335065B-7A00-9E46-9B8B-7E288FAA814F}"/>
-    <hyperlink ref="B65" r:id="rId16" xr:uid="{21FB827B-7124-D74C-A802-34CA23F62162}"/>
+    <hyperlink ref="B44" r:id="rId15" xr:uid="{3335065B-7A00-9E46-9B8B-7E288FAA814F}"/>
+    <hyperlink ref="B63" r:id="rId16" xr:uid="{21FB827B-7124-D74C-A802-34CA23F62162}"/>
     <hyperlink ref="B29" r:id="rId17" xr:uid="{762A62E3-86DA-6A4F-AE24-E73E217986AB}"/>
-    <hyperlink ref="B51" r:id="rId18" xr:uid="{99664847-B282-1B48-A1E4-9E2DA59D6C0F}"/>
-    <hyperlink ref="B79" r:id="rId19" xr:uid="{97D7BAC9-B6B7-5643-8F69-707CD956F333}"/>
-    <hyperlink ref="B55" r:id="rId20" xr:uid="{7AAEA996-D9A9-B544-A6CD-1D2717E50154}"/>
+    <hyperlink ref="B49" r:id="rId18" xr:uid="{99664847-B282-1B48-A1E4-9E2DA59D6C0F}"/>
+    <hyperlink ref="B77" r:id="rId19" xr:uid="{97D7BAC9-B6B7-5643-8F69-707CD956F333}"/>
+    <hyperlink ref="B53" r:id="rId20" xr:uid="{7AAEA996-D9A9-B544-A6CD-1D2717E50154}"/>
     <hyperlink ref="B15" r:id="rId21" xr:uid="{82A49863-F073-C84A-A1EB-9896899EF78E}"/>
-    <hyperlink ref="B50" r:id="rId22" xr:uid="{714A8508-AAD5-7444-9257-1E74A5A59E7C}"/>
-    <hyperlink ref="B92" r:id="rId23" xr:uid="{738A3A9B-A787-AD47-80BF-CE9D55DDD2B0}"/>
+    <hyperlink ref="B48" r:id="rId22" xr:uid="{714A8508-AAD5-7444-9257-1E74A5A59E7C}"/>
+    <hyperlink ref="B90" r:id="rId23" xr:uid="{738A3A9B-A787-AD47-80BF-CE9D55DDD2B0}"/>
     <hyperlink ref="B8" r:id="rId24" xr:uid="{4F59B9DE-7FD5-DC4D-ACE7-35D69A825F4E}"/>
-    <hyperlink ref="B95" r:id="rId25" xr:uid="{CBE2BCD9-E4AC-D249-9690-18FDE1E95E6E}"/>
+    <hyperlink ref="B93" r:id="rId25" xr:uid="{CBE2BCD9-E4AC-D249-9690-18FDE1E95E6E}"/>
     <hyperlink ref="B32" r:id="rId26" xr:uid="{5E012491-2DE2-1940-86A0-C27094CAA40A}"/>
     <hyperlink ref="B14" r:id="rId27" xr:uid="{35DDD992-CBF7-624F-B5FF-C359A1F27AFD}"/>
-    <hyperlink ref="B91" r:id="rId28" xr:uid="{BB785BE5-06C5-0647-825B-94F527E4BAA9}"/>
-    <hyperlink ref="B48" r:id="rId29" xr:uid="{E3B6E16D-DAF8-1D4E-A914-539774768B5E}"/>
-    <hyperlink ref="B77" r:id="rId30" xr:uid="{767A6AFF-9FBB-1042-8171-51E10931EF7A}"/>
+    <hyperlink ref="B89" r:id="rId28" xr:uid="{BB785BE5-06C5-0647-825B-94F527E4BAA9}"/>
+    <hyperlink ref="B46" r:id="rId29" xr:uid="{E3B6E16D-DAF8-1D4E-A914-539774768B5E}"/>
+    <hyperlink ref="B75" r:id="rId30" xr:uid="{767A6AFF-9FBB-1042-8171-51E10931EF7A}"/>
     <hyperlink ref="B12" r:id="rId31" xr:uid="{5B476CFD-2066-F14A-AEF3-79A08846C2C7}"/>
     <hyperlink ref="B11" r:id="rId32" xr:uid="{9E5E89C7-6487-0547-814B-8BC1E0C9FC8A}"/>
-    <hyperlink ref="B87" r:id="rId33" xr:uid="{15558B97-C4C3-E24F-B14D-5368E869B406}"/>
-    <hyperlink ref="B85" r:id="rId34" xr:uid="{767E2392-CB88-3847-8D7C-3109378AA0EF}"/>
-    <hyperlink ref="B37" r:id="rId35" xr:uid="{14C2F4CE-DC2E-E84F-9736-581832920796}"/>
-    <hyperlink ref="B19" r:id="rId36" xr:uid="{B380F834-F80D-CC40-8617-331D4A03108F}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{BE3B534E-4B7F-5D41-9384-9D248CE292C8}"/>
-    <hyperlink ref="B70" r:id="rId38" xr:uid="{6667C8DE-3A0C-5B43-AC48-8093AC1CF382}"/>
-    <hyperlink ref="B43" r:id="rId39" xr:uid="{EEB6C91B-EFA6-484D-8953-38EF7E8299E4}"/>
-    <hyperlink ref="B34" r:id="rId40" xr:uid="{56F22103-F662-C14B-A99F-878980211EB4}"/>
-    <hyperlink ref="B35" r:id="rId41" xr:uid="{8656E25C-9961-CE41-88E4-2A1DE4B2AF19}"/>
-    <hyperlink ref="B26" r:id="rId42" xr:uid="{BC24434D-A0D7-7243-913C-304F516982A4}"/>
-    <hyperlink ref="B84" r:id="rId43" xr:uid="{89CB7333-322A-B646-8117-FDD40A914A34}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{AA37C072-3775-3341-B041-A40E39E873EC}"/>
-    <hyperlink ref="B36" r:id="rId45" xr:uid="{FC40913F-05BA-C746-8D2B-FDAA9F7ECE86}"/>
-    <hyperlink ref="B58" r:id="rId46" xr:uid="{4181D682-73C9-FF42-A742-40EC7ED41F04}"/>
-    <hyperlink ref="B23" r:id="rId47" xr:uid="{24EF38CC-01BE-5946-97BF-B79B4B7EA69E}"/>
-    <hyperlink ref="B62" r:id="rId48" xr:uid="{E0C89FF2-B3BE-4042-99F0-46E3A99556D3}"/>
-    <hyperlink ref="B3" r:id="rId49" xr:uid="{6F44CFDF-4143-8A4F-9B72-F6C14335D692}"/>
-    <hyperlink ref="B38" r:id="rId50" xr:uid="{4BD4AA4A-829A-4C4F-81FE-80D96084FAD7}"/>
-    <hyperlink ref="B41" r:id="rId51" xr:uid="{D1906D8D-1F41-2E4E-B876-446FAD33C7BA}"/>
-    <hyperlink ref="B59" r:id="rId52" xr:uid="{56D84650-3D61-E84D-847F-72D7C187C1CA}"/>
-    <hyperlink ref="B13" r:id="rId53" xr:uid="{FEC4F73C-FC94-004A-BD96-55B9F233FD7E}"/>
-    <hyperlink ref="B22" r:id="rId54" xr:uid="{EB1B7A63-22DE-B448-8BBD-9248D04A6451}"/>
-    <hyperlink ref="B9" r:id="rId55" xr:uid="{D1C087EA-598D-174A-BDF2-C7F2A557C997}"/>
-    <hyperlink ref="B20" r:id="rId56" xr:uid="{05D3BA87-68C6-8E40-A370-98E213035D71}"/>
-    <hyperlink ref="B44" r:id="rId57" xr:uid="{FC37779A-5008-F24E-BFB7-8DEF76FA76DA}"/>
-    <hyperlink ref="B57" r:id="rId58" xr:uid="{E6DB67AA-DFD1-3942-A9C9-446E061B3746}"/>
-    <hyperlink ref="B25" r:id="rId59" xr:uid="{9B005717-5C0B-8649-9596-DE3A47F7423E}"/>
-    <hyperlink ref="B52" r:id="rId60" xr:uid="{B3B5275E-E4DF-EB43-AC80-36E113E65DC4}"/>
-    <hyperlink ref="B78" r:id="rId61" xr:uid="{3179C41C-C303-D945-B3DE-FD29898A727C}"/>
-    <hyperlink ref="B74" r:id="rId62" xr:uid="{9F0962B3-139E-F141-907E-56C433290757}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{48E606A9-38E7-6740-9B92-5B36659BB226}"/>
-    <hyperlink ref="B33" r:id="rId64" xr:uid="{3AF75B7E-3CD7-9047-BA53-4A8BF9373564}"/>
-    <hyperlink ref="B21" r:id="rId65" xr:uid="{838DB0A1-5D64-2040-914F-3CE800D0054A}"/>
-    <hyperlink ref="B63" r:id="rId66" xr:uid="{56A18411-BE20-9446-8938-B842DE6B52AD}"/>
-    <hyperlink ref="B86" r:id="rId67" xr:uid="{561DA6DB-9B76-AE45-8ABD-11A7BC457197}"/>
-    <hyperlink ref="B64" r:id="rId68" xr:uid="{11D7933F-8DE4-CA4F-ADF5-C2F739D6086B}"/>
-    <hyperlink ref="B54" r:id="rId69" xr:uid="{409EE10D-8072-FF46-80FF-9CB3FA4EFE4D}"/>
-    <hyperlink ref="B49" r:id="rId70" xr:uid="{FF804F66-652C-E643-BEB9-AD28A5C03837}"/>
-    <hyperlink ref="B61" r:id="rId71" xr:uid="{44DC8E6A-2A5F-2C49-9CE5-F15AA347D662}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{B823159A-95C6-1E40-8FC2-AE28E9FB9C09}"/>
-    <hyperlink ref="B16" r:id="rId73" xr:uid="{6FEE86CB-2C81-ED47-A69F-0926ECBFF48E}"/>
-    <hyperlink ref="B27" r:id="rId74" xr:uid="{1EE8EBE7-C944-B74F-8369-5FCC86017A67}"/>
-    <hyperlink ref="B75" r:id="rId75" xr:uid="{ED4D3A1E-FD9F-FA4A-99D5-59C979F8DA33}"/>
-    <hyperlink ref="B24" r:id="rId76" xr:uid="{5C853949-EBBA-4F44-8B62-F22C1167F750}"/>
-    <hyperlink ref="B5" r:id="rId77" xr:uid="{02E31A09-F837-2549-A551-680626AAE48D}"/>
-    <hyperlink ref="B40" r:id="rId78" xr:uid="{865E4DCF-CFFE-0E44-B2ED-DE2F8FB2BD75}"/>
-    <hyperlink ref="B81" r:id="rId79" xr:uid="{057246F8-DC5B-8D40-A338-0B1A526095B7}"/>
-    <hyperlink ref="B68" r:id="rId80" xr:uid="{8AAF4266-27D4-1948-98F8-997BE7459A66}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{F8341839-E748-984C-ACFF-F2F152D2F5D3}"/>
-    <hyperlink ref="B69" r:id="rId82" xr:uid="{59DFBAE7-7E1B-7D47-8212-F7979D90C2D1}"/>
-    <hyperlink ref="B18" r:id="rId83" xr:uid="{D4AC630C-820D-054F-8302-049AD2F28384}"/>
-    <hyperlink ref="B17" r:id="rId84" xr:uid="{BD68AFA7-367C-8F40-A4A5-D4BF8D2BFB11}"/>
-    <hyperlink ref="B89" r:id="rId85" xr:uid="{78464788-FA5D-0342-8C8C-7E1A46702F4C}"/>
-    <hyperlink ref="B53" r:id="rId86" xr:uid="{18B7977D-F971-7C49-BD94-4C69C610617C}"/>
-    <hyperlink ref="B6" r:id="rId87" xr:uid="{63BF238A-B263-734A-A2BD-D51E0418C710}"/>
-    <hyperlink ref="B56" r:id="rId88" xr:uid="{247D98F6-8130-8446-AF1B-56737B35B288}"/>
-    <hyperlink ref="B93" r:id="rId89" xr:uid="{71915A69-0AFE-3A45-AB4C-AE73BA856BB5}"/>
-    <hyperlink ref="B4" r:id="rId90" xr:uid="{C76427D4-C9D7-C447-A535-13291021F1E9}"/>
-    <hyperlink ref="B67" r:id="rId91" xr:uid="{7CCC268D-6261-1A4B-B883-5B3D19F50BB5}"/>
-    <hyperlink ref="B60" r:id="rId92" xr:uid="{2B71A2E7-43BC-0243-970A-B854B76A88EE}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{CD2CF7EE-7106-2A40-BA2B-7CC6012CED6B}"/>
-    <hyperlink ref="B71" r:id="rId94" xr:uid="{774D855B-3C54-6F46-8F89-F65BAC600D3E}"/>
+    <hyperlink ref="B85" r:id="rId33" xr:uid="{15558B97-C4C3-E24F-B14D-5368E869B406}"/>
+    <hyperlink ref="B83" r:id="rId34" xr:uid="{767E2392-CB88-3847-8D7C-3109378AA0EF}"/>
+    <hyperlink ref="B19" r:id="rId35" xr:uid="{B380F834-F80D-CC40-8617-331D4A03108F}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{BE3B534E-4B7F-5D41-9384-9D248CE292C8}"/>
+    <hyperlink ref="B68" r:id="rId37" xr:uid="{6667C8DE-3A0C-5B43-AC48-8093AC1CF382}"/>
+    <hyperlink ref="B41" r:id="rId38" xr:uid="{EEB6C91B-EFA6-484D-8953-38EF7E8299E4}"/>
+    <hyperlink ref="B34" r:id="rId39" xr:uid="{56F22103-F662-C14B-A99F-878980211EB4}"/>
+    <hyperlink ref="B35" r:id="rId40" xr:uid="{8656E25C-9961-CE41-88E4-2A1DE4B2AF19}"/>
+    <hyperlink ref="B26" r:id="rId41" xr:uid="{BC24434D-A0D7-7243-913C-304F516982A4}"/>
+    <hyperlink ref="B82" r:id="rId42" xr:uid="{89CB7333-322A-B646-8117-FDD40A914A34}"/>
+    <hyperlink ref="B43" r:id="rId43" xr:uid="{AA37C072-3775-3341-B041-A40E39E873EC}"/>
+    <hyperlink ref="B56" r:id="rId44" xr:uid="{4181D682-73C9-FF42-A742-40EC7ED41F04}"/>
+    <hyperlink ref="B23" r:id="rId45" xr:uid="{24EF38CC-01BE-5946-97BF-B79B4B7EA69E}"/>
+    <hyperlink ref="B60" r:id="rId46" xr:uid="{E0C89FF2-B3BE-4042-99F0-46E3A99556D3}"/>
+    <hyperlink ref="B3" r:id="rId47" xr:uid="{6F44CFDF-4143-8A4F-9B72-F6C14335D692}"/>
+    <hyperlink ref="B36" r:id="rId48" xr:uid="{4BD4AA4A-829A-4C4F-81FE-80D96084FAD7}"/>
+    <hyperlink ref="B39" r:id="rId49" xr:uid="{D1906D8D-1F41-2E4E-B876-446FAD33C7BA}"/>
+    <hyperlink ref="B57" r:id="rId50" xr:uid="{56D84650-3D61-E84D-847F-72D7C187C1CA}"/>
+    <hyperlink ref="B13" r:id="rId51" xr:uid="{FEC4F73C-FC94-004A-BD96-55B9F233FD7E}"/>
+    <hyperlink ref="B22" r:id="rId52" xr:uid="{EB1B7A63-22DE-B448-8BBD-9248D04A6451}"/>
+    <hyperlink ref="B9" r:id="rId53" xr:uid="{D1C087EA-598D-174A-BDF2-C7F2A557C997}"/>
+    <hyperlink ref="B20" r:id="rId54" xr:uid="{05D3BA87-68C6-8E40-A370-98E213035D71}"/>
+    <hyperlink ref="B42" r:id="rId55" xr:uid="{FC37779A-5008-F24E-BFB7-8DEF76FA76DA}"/>
+    <hyperlink ref="B55" r:id="rId56" xr:uid="{E6DB67AA-DFD1-3942-A9C9-446E061B3746}"/>
+    <hyperlink ref="B25" r:id="rId57" xr:uid="{9B005717-5C0B-8649-9596-DE3A47F7423E}"/>
+    <hyperlink ref="B50" r:id="rId58" xr:uid="{B3B5275E-E4DF-EB43-AC80-36E113E65DC4}"/>
+    <hyperlink ref="B76" r:id="rId59" xr:uid="{3179C41C-C303-D945-B3DE-FD29898A727C}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{9F0962B3-139E-F141-907E-56C433290757}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{48E606A9-38E7-6740-9B92-5B36659BB226}"/>
+    <hyperlink ref="B33" r:id="rId62" xr:uid="{3AF75B7E-3CD7-9047-BA53-4A8BF9373564}"/>
+    <hyperlink ref="B21" r:id="rId63" xr:uid="{838DB0A1-5D64-2040-914F-3CE800D0054A}"/>
+    <hyperlink ref="B61" r:id="rId64" xr:uid="{56A18411-BE20-9446-8938-B842DE6B52AD}"/>
+    <hyperlink ref="B84" r:id="rId65" xr:uid="{561DA6DB-9B76-AE45-8ABD-11A7BC457197}"/>
+    <hyperlink ref="B62" r:id="rId66" xr:uid="{11D7933F-8DE4-CA4F-ADF5-C2F739D6086B}"/>
+    <hyperlink ref="B52" r:id="rId67" xr:uid="{409EE10D-8072-FF46-80FF-9CB3FA4EFE4D}"/>
+    <hyperlink ref="B47" r:id="rId68" xr:uid="{FF804F66-652C-E643-BEB9-AD28A5C03837}"/>
+    <hyperlink ref="B59" r:id="rId69" xr:uid="{44DC8E6A-2A5F-2C49-9CE5-F15AA347D662}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{B823159A-95C6-1E40-8FC2-AE28E9FB9C09}"/>
+    <hyperlink ref="B16" r:id="rId71" xr:uid="{6FEE86CB-2C81-ED47-A69F-0926ECBFF48E}"/>
+    <hyperlink ref="B27" r:id="rId72" xr:uid="{1EE8EBE7-C944-B74F-8369-5FCC86017A67}"/>
+    <hyperlink ref="B73" r:id="rId73" xr:uid="{ED4D3A1E-FD9F-FA4A-99D5-59C979F8DA33}"/>
+    <hyperlink ref="B24" r:id="rId74" xr:uid="{5C853949-EBBA-4F44-8B62-F22C1167F750}"/>
+    <hyperlink ref="B5" r:id="rId75" xr:uid="{02E31A09-F837-2549-A551-680626AAE48D}"/>
+    <hyperlink ref="B38" r:id="rId76" xr:uid="{865E4DCF-CFFE-0E44-B2ED-DE2F8FB2BD75}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{057246F8-DC5B-8D40-A338-0B1A526095B7}"/>
+    <hyperlink ref="B66" r:id="rId78" xr:uid="{8AAF4266-27D4-1948-98F8-997BE7459A66}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{F8341839-E748-984C-ACFF-F2F152D2F5D3}"/>
+    <hyperlink ref="B67" r:id="rId80" xr:uid="{59DFBAE7-7E1B-7D47-8212-F7979D90C2D1}"/>
+    <hyperlink ref="B18" r:id="rId81" xr:uid="{D4AC630C-820D-054F-8302-049AD2F28384}"/>
+    <hyperlink ref="B17" r:id="rId82" xr:uid="{BD68AFA7-367C-8F40-A4A5-D4BF8D2BFB11}"/>
+    <hyperlink ref="B87" r:id="rId83" xr:uid="{78464788-FA5D-0342-8C8C-7E1A46702F4C}"/>
+    <hyperlink ref="B51" r:id="rId84" xr:uid="{18B7977D-F971-7C49-BD94-4C69C610617C}"/>
+    <hyperlink ref="B6" r:id="rId85" xr:uid="{63BF238A-B263-734A-A2BD-D51E0418C710}"/>
+    <hyperlink ref="B54" r:id="rId86" xr:uid="{247D98F6-8130-8446-AF1B-56737B35B288}"/>
+    <hyperlink ref="B91" r:id="rId87" xr:uid="{71915A69-0AFE-3A45-AB4C-AE73BA856BB5}"/>
+    <hyperlink ref="B4" r:id="rId88" xr:uid="{C76427D4-C9D7-C447-A535-13291021F1E9}"/>
+    <hyperlink ref="B65" r:id="rId89" xr:uid="{7CCC268D-6261-1A4B-B883-5B3D19F50BB5}"/>
+    <hyperlink ref="B58" r:id="rId90" xr:uid="{2B71A2E7-43BC-0243-970A-B854B76A88EE}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{CD2CF7EE-7106-2A40-BA2B-7CC6012CED6B}"/>
+    <hyperlink ref="B69" r:id="rId92" xr:uid="{774D855B-3C54-6F46-8F89-F65BAC600D3E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId95"/>
+    <tablePart r:id="rId93"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17263,7 +17314,7 @@
         <v>304</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51">
@@ -17442,10 +17493,10 @@
         <v>1158</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>1845</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1846</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1805</v>
@@ -17484,10 +17535,10 @@
         <v>1128</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1805</v>
@@ -17652,22 +17703,22 @@
     </row>
     <row r="33" spans="1:6" ht="323">
       <c r="A33" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>1850</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1852</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -18440,10 +18491,10 @@
         <v>1250</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>1863</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1864</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1805</v>
@@ -19094,10 +19145,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0623B-E62E-3B42-B379-97562A831E49}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19519,50 +19570,53 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51">
+    <row r="41" spans="1:5" ht="34">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="51">
+    <row r="44" spans="1:5" ht="68">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="68">
+    <row r="45" spans="1:5" ht="34">
       <c r="A45" s="2" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -19570,10 +19624,10 @@
     </row>
     <row r="46" spans="1:5" ht="34">
       <c r="A46" s="2" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -19581,10 +19635,10 @@
     </row>
     <row r="47" spans="1:5" ht="34">
       <c r="A47" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -19592,127 +19646,127 @@
     </row>
     <row r="48" spans="1:5" ht="34">
       <c r="A48" s="2" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="51">
+        <v>136</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="68">
       <c r="A50" s="2" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="51">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="51">
+        <v>268</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="68">
       <c r="A52" s="2" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="68">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="34">
       <c r="A53" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="34">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="34">
+    <row r="55" spans="1:5" ht="51">
       <c r="A55" s="2" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="51">
+    <row r="56" spans="1:5" ht="68">
       <c r="A56" s="2" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+        <v>98</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="68">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="68">
+        <v>130</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -19720,75 +19774,75 @@
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="51">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="51">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="51">
+    <row r="66" spans="1:5" ht="68">
       <c r="A66" s="2" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="68">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -19796,40 +19850,40 @@
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51">
+    <row r="70" spans="1:5" ht="68">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="68">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="68">
+        <v>112</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="51">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -19837,10 +19891,10 @@
     </row>
     <row r="73" spans="1:5" ht="51">
       <c r="A73" s="2" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -19848,53 +19902,53 @@
     </row>
     <row r="74" spans="1:5" ht="51">
       <c r="A74" s="2" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="68">
       <c r="A75" s="2" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="68">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="51">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -19902,10 +19956,10 @@
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -19913,37 +19967,37 @@
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="68">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -19951,10 +20005,10 @@
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -19962,110 +20016,110 @@
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="34">
       <c r="A87" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="51">
+    <row r="88" spans="1:5" ht="34">
       <c r="A88" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="34">
       <c r="A89" s="2" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="51">
       <c r="A90" s="2" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="34">
+        <v>222</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="68">
       <c r="A92" s="2" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="68">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="51">
       <c r="A94" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="51">
       <c r="A95" s="2" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" ht="51">
       <c r="A96" s="2" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="51">
+        <v>262</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="34">
       <c r="A97" s="2" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -20073,89 +20127,89 @@
     </row>
     <row r="98" spans="1:5" ht="51">
       <c r="A98" s="2" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="34">
       <c r="A99" s="2" t="s">
-        <v>283</v>
+        <v>65</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="51">
       <c r="A100" s="2" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" ht="34">
       <c r="A101" s="2" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="51">
+        <v>160</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="34">
       <c r="A102" s="2" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" ht="34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="68">
       <c r="A103" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" ht="34">
+    <row r="104" spans="1:5" ht="68">
       <c r="A104" s="2" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="68">
+        <v>272</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="51">
       <c r="A105" s="2" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" ht="68">
+    <row r="106" spans="1:5" ht="51">
       <c r="A106" s="2" t="s">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -20163,59 +20217,59 @@
     </row>
     <row r="107" spans="1:5" ht="51">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" ht="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="34">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="34">
       <c r="A109" s="2" t="s">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" ht="34">
       <c r="A110" s="2" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="34">
+        <v>208</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="51">
       <c r="A111" s="2" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5" ht="34">
+    <row r="112" spans="1:5" ht="51">
       <c r="A112" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -20223,10 +20277,10 @@
     </row>
     <row r="113" spans="1:5" ht="51">
       <c r="A113" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -20234,10 +20288,10 @@
     </row>
     <row r="114" spans="1:5" ht="51">
       <c r="A114" s="2" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -20245,21 +20299,21 @@
     </row>
     <row r="115" spans="1:5" ht="51">
       <c r="A115" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" ht="51">
+    <row r="116" spans="1:5" ht="68">
       <c r="A116" s="2" t="s">
-        <v>297</v>
+        <v>125</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -20267,91 +20321,91 @@
     </row>
     <row r="117" spans="1:5" ht="51">
       <c r="A117" s="2" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" ht="68">
+      <c r="D117" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="85">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="51">
       <c r="A119" s="2" t="s">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="51">
       <c r="A120" s="2" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="34">
       <c r="A121" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="51">
+        <v>178</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" ht="34">
       <c r="A122" s="2" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="34">
+        <v>210</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" ht="51">
       <c r="A123" s="2" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" ht="34">
+    <row r="124" spans="1:5" ht="51">
       <c r="A124" s="2" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -20359,100 +20413,100 @@
     </row>
     <row r="125" spans="1:5" ht="51">
       <c r="A125" s="2" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="51">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" ht="51">
+    <row r="127" spans="1:5" ht="34">
       <c r="A127" s="2" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="51">
+        <v>276</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" ht="34">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" ht="34">
+    <row r="129" spans="1:5" ht="51">
       <c r="A129" s="2" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" ht="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="51">
       <c r="A130" s="2" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="131" spans="1:5" ht="51">
       <c r="A131" s="2" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="51">
+        <v>240</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="34">
       <c r="A132" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" ht="51">
       <c r="A133" s="2" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" ht="34">
+    <row r="134" spans="1:5" ht="51">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -20460,67 +20514,67 @@
     </row>
     <row r="135" spans="1:5" ht="51">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="136" spans="1:5" ht="51">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="137" spans="1:5" ht="51">
       <c r="A137" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="51">
       <c r="A138" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="51">
+        <v>186</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" ht="34">
       <c r="A139" s="2" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="51">
+        <v>260</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="34">
       <c r="A140" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" ht="34">
+    <row r="141" spans="1:5" ht="51">
       <c r="A141" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -20528,10 +20582,10 @@
     </row>
     <row r="142" spans="1:5" ht="34">
       <c r="A142" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -20539,51 +20593,51 @@
     </row>
     <row r="143" spans="1:5" ht="51">
       <c r="A143" s="2" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" ht="34">
+    <row r="144" spans="1:5" ht="51">
       <c r="A144" s="2" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="145" spans="1:5" ht="51">
       <c r="A145" s="2" t="s">
-        <v>287</v>
+        <v>119</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" ht="51">
+    <row r="146" spans="1:5" ht="34">
       <c r="A146" s="2" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="51">
+        <v>230</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" ht="34">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -20591,42 +20645,20 @@
     </row>
     <row r="148" spans="1:5" ht="34">
       <c r="A148" s="2" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" ht="34">
+    <row r="149" spans="1:5" ht="51">
       <c r="A149" s="2" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" ht="34">
-      <c r="A150" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" ht="51">
-      <c r="A151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B151" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -20635,157 +20667,155 @@
     <hyperlink ref="B23" r:id="rId1" xr:uid="{C2AAC02D-DC19-6E4F-971B-93E7F37EA900}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{8337563B-4B3E-3E49-B132-EAD139832647}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{905CA439-9B6B-D34B-838F-ECEB2C3862C3}"/>
-    <hyperlink ref="B116" r:id="rId4" xr:uid="{00810A04-6CB6-C145-B455-1AEF84431738}"/>
+    <hyperlink ref="B114" r:id="rId4" xr:uid="{00810A04-6CB6-C145-B455-1AEF84431738}"/>
     <hyperlink ref="B36" r:id="rId5" xr:uid="{3F927600-5D49-DE44-9327-B5EFBAA4939E}"/>
-    <hyperlink ref="B48" r:id="rId6" xr:uid="{E975448C-2F50-AB48-835C-ABC21A7C1A2D}"/>
-    <hyperlink ref="B47" r:id="rId7" xr:uid="{217D1D9D-9CF6-7D4B-967D-AAC215B34EC8}"/>
-    <hyperlink ref="B125" r:id="rId8" xr:uid="{EBDD7172-49FE-C447-BF1A-E50BD9BD9E11}"/>
-    <hyperlink ref="B145" r:id="rId9" xr:uid="{DB902742-0834-A34B-829E-9949935C7817}"/>
-    <hyperlink ref="B84" r:id="rId10" xr:uid="{E465A72D-9B7D-5740-8522-8F2F3B9FF7B3}"/>
-    <hyperlink ref="B99" r:id="rId11" xr:uid="{40FD8F35-4BF7-2048-80F6-EE17F1EFB2D7}"/>
-    <hyperlink ref="B117" r:id="rId12" xr:uid="{589D8352-3CD0-6946-B286-716476626E3D}"/>
-    <hyperlink ref="B113" r:id="rId13" xr:uid="{D085B727-C3E3-AA4B-BBC6-8B23BA055B7F}"/>
-    <hyperlink ref="B129" r:id="rId14" xr:uid="{55051BD2-12AC-994F-BCAA-B1E96006C5F2}"/>
-    <hyperlink ref="B150" r:id="rId15" xr:uid="{8DE15EDE-C57F-5D4F-9269-E73157FD4F4C}"/>
-    <hyperlink ref="B106" r:id="rId16" xr:uid="{41FB5783-315A-234F-B343-38C4DA675281}"/>
-    <hyperlink ref="B115" r:id="rId17" xr:uid="{C6387FBE-AF13-3146-903E-FC081833902C}"/>
-    <hyperlink ref="B52" r:id="rId18" xr:uid="{EA90135C-E13E-784F-A89A-1E4F397A0C09}"/>
+    <hyperlink ref="B47" r:id="rId6" xr:uid="{E975448C-2F50-AB48-835C-ABC21A7C1A2D}"/>
+    <hyperlink ref="B46" r:id="rId7" xr:uid="{217D1D9D-9CF6-7D4B-967D-AAC215B34EC8}"/>
+    <hyperlink ref="B123" r:id="rId8" xr:uid="{EBDD7172-49FE-C447-BF1A-E50BD9BD9E11}"/>
+    <hyperlink ref="B143" r:id="rId9" xr:uid="{DB902742-0834-A34B-829E-9949935C7817}"/>
+    <hyperlink ref="B83" r:id="rId10" xr:uid="{E465A72D-9B7D-5740-8522-8F2F3B9FF7B3}"/>
+    <hyperlink ref="B97" r:id="rId11" xr:uid="{40FD8F35-4BF7-2048-80F6-EE17F1EFB2D7}"/>
+    <hyperlink ref="B115" r:id="rId12" xr:uid="{589D8352-3CD0-6946-B286-716476626E3D}"/>
+    <hyperlink ref="B111" r:id="rId13" xr:uid="{D085B727-C3E3-AA4B-BBC6-8B23BA055B7F}"/>
+    <hyperlink ref="B127" r:id="rId14" xr:uid="{55051BD2-12AC-994F-BCAA-B1E96006C5F2}"/>
+    <hyperlink ref="B148" r:id="rId15" xr:uid="{8DE15EDE-C57F-5D4F-9269-E73157FD4F4C}"/>
+    <hyperlink ref="B104" r:id="rId16" xr:uid="{41FB5783-315A-234F-B343-38C4DA675281}"/>
+    <hyperlink ref="B113" r:id="rId17" xr:uid="{C6387FBE-AF13-3146-903E-FC081833902C}"/>
+    <hyperlink ref="B51" r:id="rId18" xr:uid="{EA90135C-E13E-784F-A89A-1E4F397A0C09}"/>
     <hyperlink ref="B22" r:id="rId19" xr:uid="{FBCE4B19-59F1-C64C-806A-21178990185C}"/>
     <hyperlink ref="B21" r:id="rId20" xr:uid="{60374BD5-C8F7-8043-9A92-64BDB5447A39}"/>
-    <hyperlink ref="B98" r:id="rId21" xr:uid="{FF45E500-8F31-5740-84F2-AA5D801BFD94}"/>
-    <hyperlink ref="B141" r:id="rId22" xr:uid="{9F1126AC-DAEC-9243-B2C4-6F1C8E540CC2}"/>
+    <hyperlink ref="B96" r:id="rId21" xr:uid="{FF45E500-8F31-5740-84F2-AA5D801BFD94}"/>
+    <hyperlink ref="B139" r:id="rId22" xr:uid="{9F1126AC-DAEC-9243-B2C4-6F1C8E540CC2}"/>
     <hyperlink ref="B14" r:id="rId23" xr:uid="{2F01770E-D20A-A44A-8D7A-0FBA3D2E72F2}"/>
-    <hyperlink ref="B73" r:id="rId24" xr:uid="{C3C13EF7-C413-F947-9521-868AC93A2666}"/>
+    <hyperlink ref="B72" r:id="rId24" xr:uid="{C3C13EF7-C413-F947-9521-868AC93A2666}"/>
     <hyperlink ref="B30" r:id="rId25" xr:uid="{F6A856AD-BB02-F345-920A-A589A828849E}"/>
     <hyperlink ref="B31" r:id="rId26" xr:uid="{DC7AC8AD-1E48-4947-B2F4-D315229571FC}"/>
-    <hyperlink ref="B87" r:id="rId27" xr:uid="{6FD15A6A-DAD0-CB46-A64C-B322DB72B988}"/>
-    <hyperlink ref="B143" r:id="rId28" xr:uid="{6FD09F40-E945-9641-B670-E1AA462AE32A}"/>
-    <hyperlink ref="B111" r:id="rId29" xr:uid="{553CCD79-7D27-6149-8DFC-261EE63BBB3A}"/>
-    <hyperlink ref="B85" r:id="rId30" xr:uid="{1F1CDC37-9304-264F-B39E-A78E947118EE}"/>
+    <hyperlink ref="B85" r:id="rId27" xr:uid="{6FD15A6A-DAD0-CB46-A64C-B322DB72B988}"/>
+    <hyperlink ref="B141" r:id="rId28" xr:uid="{6FD09F40-E945-9641-B670-E1AA462AE32A}"/>
+    <hyperlink ref="B109" r:id="rId29" xr:uid="{553CCD79-7D27-6149-8DFC-261EE63BBB3A}"/>
+    <hyperlink ref="B84" r:id="rId30" xr:uid="{1F1CDC37-9304-264F-B39E-A78E947118EE}"/>
     <hyperlink ref="B20" r:id="rId31" xr:uid="{BD0FBAFA-16EA-FE47-B2D5-E9D68F65F64D}"/>
-    <hyperlink ref="B133" r:id="rId32" xr:uid="{5804B982-242B-DA4E-A1C6-FCABCB031DC0}"/>
-    <hyperlink ref="B61" r:id="rId33" xr:uid="{37C678D3-A4D6-DE48-BB3C-453D10E3ED12}"/>
-    <hyperlink ref="B119" r:id="rId34" xr:uid="{B4C07438-DF92-1042-9B55-3EEEA989407F}"/>
-    <hyperlink ref="B120" r:id="rId35" xr:uid="{AF894543-1886-1E44-A4A6-94647420E9A9}"/>
+    <hyperlink ref="B131" r:id="rId32" xr:uid="{5804B982-242B-DA4E-A1C6-FCABCB031DC0}"/>
+    <hyperlink ref="B60" r:id="rId33" xr:uid="{37C678D3-A4D6-DE48-BB3C-453D10E3ED12}"/>
+    <hyperlink ref="B117" r:id="rId34" xr:uid="{B4C07438-DF92-1042-9B55-3EEEA989407F}"/>
+    <hyperlink ref="B118" r:id="rId35" xr:uid="{AF894543-1886-1E44-A4A6-94647420E9A9}"/>
     <hyperlink ref="B5" r:id="rId36" xr:uid="{1E514237-0231-584F-B01D-799460C4C062}"/>
-    <hyperlink ref="B148" r:id="rId37" xr:uid="{02DA0516-2C13-D548-B47B-8530C6BD91C9}"/>
-    <hyperlink ref="B89" r:id="rId38" xr:uid="{8829DB7C-C193-6A4A-980C-6A593E562DE2}"/>
-    <hyperlink ref="B107" r:id="rId39" xr:uid="{2D8903F1-04FF-FA4E-8FD4-467DC3512B75}"/>
-    <hyperlink ref="B66" r:id="rId40" xr:uid="{39BE4BF4-C14F-F14C-A5BD-DB15143986DB}"/>
-    <hyperlink ref="B92" r:id="rId41" xr:uid="{5B226B39-E383-B34E-BD47-D28AFB432DEE}"/>
-    <hyperlink ref="B46" r:id="rId42" xr:uid="{26296D71-768D-104A-84BF-DF528EB9832E}"/>
+    <hyperlink ref="B146" r:id="rId37" xr:uid="{02DA0516-2C13-D548-B47B-8530C6BD91C9}"/>
+    <hyperlink ref="B87" r:id="rId38" xr:uid="{8829DB7C-C193-6A4A-980C-6A593E562DE2}"/>
+    <hyperlink ref="B105" r:id="rId39" xr:uid="{2D8903F1-04FF-FA4E-8FD4-467DC3512B75}"/>
+    <hyperlink ref="B65" r:id="rId40" xr:uid="{39BE4BF4-C14F-F14C-A5BD-DB15143986DB}"/>
+    <hyperlink ref="B90" r:id="rId41" xr:uid="{5B226B39-E383-B34E-BD47-D28AFB432DEE}"/>
+    <hyperlink ref="B45" r:id="rId42" xr:uid="{26296D71-768D-104A-84BF-DF528EB9832E}"/>
     <hyperlink ref="B34" r:id="rId43" xr:uid="{B6114F36-FE15-8E4E-967E-221FE4142B2D}"/>
-    <hyperlink ref="B130" r:id="rId44" xr:uid="{6452CF47-2D85-B64C-9033-264C61B3405D}"/>
-    <hyperlink ref="B56" r:id="rId45" xr:uid="{26789BEC-00CA-6447-AEB3-09ACB2166723}"/>
+    <hyperlink ref="B128" r:id="rId44" xr:uid="{6452CF47-2D85-B64C-9033-264C61B3405D}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{26789BEC-00CA-6447-AEB3-09ACB2166723}"/>
     <hyperlink ref="B28" r:id="rId46" xr:uid="{FA8465E8-1CE1-F349-975E-510EFB788D08}"/>
-    <hyperlink ref="B124" r:id="rId47" xr:uid="{6B53878E-617B-5D44-9F8A-E8A267B89296}"/>
-    <hyperlink ref="B112" r:id="rId48" xr:uid="{9407E7D0-539C-7346-BF1B-F1511B809F1D}"/>
+    <hyperlink ref="B122" r:id="rId47" xr:uid="{6B53878E-617B-5D44-9F8A-E8A267B89296}"/>
+    <hyperlink ref="B110" r:id="rId48" xr:uid="{9407E7D0-539C-7346-BF1B-F1511B809F1D}"/>
     <hyperlink ref="B12" r:id="rId49" xr:uid="{96AAE011-1921-5540-B172-86B2029E9E98}"/>
-    <hyperlink ref="B105" r:id="rId50" xr:uid="{B0255F0F-C681-CC45-9670-C1B19218B527}"/>
-    <hyperlink ref="B81" r:id="rId51" xr:uid="{70AC56C5-D137-D04D-BBB0-F53470CBBD2B}"/>
-    <hyperlink ref="B86" r:id="rId52" xr:uid="{8BD69276-A63B-FA47-906A-11D2E750828A}"/>
-    <hyperlink ref="B102" r:id="rId53" xr:uid="{23B9CC41-F218-1642-A655-0BBFC00A1B6C}"/>
-    <hyperlink ref="B114" r:id="rId54" xr:uid="{34002492-FF7A-2F44-BEC0-73424414ECFA}"/>
-    <hyperlink ref="B97" r:id="rId55" xr:uid="{F0D91D20-E413-C04D-BF4E-7806E934B437}"/>
-    <hyperlink ref="B18" r:id="rId56" xr:uid="{022992BF-8D6C-384B-BDEC-1EEB165D395B}"/>
-    <hyperlink ref="B144" r:id="rId57" xr:uid="{567F6CE7-596B-7748-AC55-5D37C1C520CA}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{32EC7377-367E-AA49-843C-6803EB939A67}"/>
-    <hyperlink ref="B140" r:id="rId59" xr:uid="{2C0EB88C-08A9-7E41-82C5-4169F857796A}"/>
-    <hyperlink ref="B13" r:id="rId60" xr:uid="{CC15577F-1A57-3A4F-AFCB-65EA07D1F632}"/>
-    <hyperlink ref="B80" r:id="rId61" xr:uid="{4E3D0DF7-7D26-8042-8D02-6203954E09C5}"/>
-    <hyperlink ref="B149" r:id="rId62" xr:uid="{B86A6D21-A559-F248-ADA8-ED4A3763EF38}"/>
-    <hyperlink ref="B123" r:id="rId63" xr:uid="{1C150FBA-A9C6-2C43-83B6-27F006E4A184}"/>
-    <hyperlink ref="B3" r:id="rId64" xr:uid="{40585DEC-A140-9649-87E9-784154D9B0F8}"/>
-    <hyperlink ref="B60" r:id="rId65" xr:uid="{5EA3A6A5-680E-8F42-9BD0-4A1AFF186A5B}"/>
-    <hyperlink ref="B35" r:id="rId66" xr:uid="{66A4996E-25C6-0548-AEA6-44980E555E7C}"/>
-    <hyperlink ref="B142" r:id="rId67" xr:uid="{1493932F-2990-0941-8F91-BD584AF77826}"/>
-    <hyperlink ref="B79" r:id="rId68" xr:uid="{D3164D01-BCC5-5D45-A728-77B2128A1C44}"/>
-    <hyperlink ref="B32" r:id="rId69" xr:uid="{F182D8C2-069E-B645-AA30-AA20C4BB46F6}"/>
-    <hyperlink ref="B103" r:id="rId70" xr:uid="{683708C2-008E-F548-93E2-07E253006914}"/>
-    <hyperlink ref="B44" r:id="rId71" xr:uid="{C6985457-1B53-2449-8464-F764FE8AD216}"/>
-    <hyperlink ref="B45" r:id="rId72" xr:uid="{8917DB16-F574-C742-9D4E-715061C27AFE}"/>
-    <hyperlink ref="B19" r:id="rId73" xr:uid="{DE4A69AF-2F18-F646-9434-5E07EEB36C62}"/>
-    <hyperlink ref="B40" r:id="rId74" xr:uid="{1954E2C6-7988-DA47-BF32-7C8A96F3D0DC}"/>
-    <hyperlink ref="B136" r:id="rId75" xr:uid="{470B9032-BCAB-244E-8C41-415D2FF7E4DB}"/>
-    <hyperlink ref="B27" r:id="rId76" xr:uid="{7E939423-CB8E-F44C-99E6-441DA331D5E0}"/>
-    <hyperlink ref="B26" r:id="rId77" xr:uid="{B620B53C-39C9-CF4D-8FBF-1C26B7A79E8D}"/>
-    <hyperlink ref="B65" r:id="rId78" xr:uid="{0112B004-64BB-C942-B638-C074434553C6}"/>
-    <hyperlink ref="B135" r:id="rId79" xr:uid="{4422172F-4C9E-3C41-B3F7-4750F48828AC}"/>
-    <hyperlink ref="B54" r:id="rId80" xr:uid="{194EFB3F-9659-BF44-A924-EC8FBA72A089}"/>
-    <hyperlink ref="B55" r:id="rId81" xr:uid="{9561B947-9389-714C-8ACE-D0F3A37D9555}"/>
-    <hyperlink ref="B50" r:id="rId82" xr:uid="{A51FD758-8698-3D4F-85EB-4DB8A243DD31}"/>
-    <hyperlink ref="B126" r:id="rId83" xr:uid="{F2982806-6FDB-EE4F-B9C2-F411A3C5322E}"/>
-    <hyperlink ref="B10" r:id="rId84" xr:uid="{4D46A99F-60EC-B84D-8F1A-4EE6DF44B9DA}"/>
-    <hyperlink ref="B58" r:id="rId85" xr:uid="{B5D17F78-3EB7-B744-9E19-C49259E74A1A}"/>
-    <hyperlink ref="B108" r:id="rId86" xr:uid="{03A6DFCB-D758-C04C-B7E5-2F5ACDFD7467}"/>
-    <hyperlink ref="B128" r:id="rId87" xr:uid="{3C315ED3-874C-FB46-866F-4713CB4DD9B1}"/>
-    <hyperlink ref="B118" r:id="rId88" xr:uid="{8CB17C4D-1B4F-BC4C-BBAA-5D947797CF59}"/>
-    <hyperlink ref="B8" r:id="rId89" xr:uid="{CA00C2EB-6E37-A647-AAF0-E253B5A59837}"/>
-    <hyperlink ref="B16" r:id="rId90" xr:uid="{98AB462B-DCBC-4F42-942A-46402E960030}"/>
-    <hyperlink ref="B147" r:id="rId91" xr:uid="{B1734414-BD98-5A4D-BC5B-02166D206157}"/>
-    <hyperlink ref="B70" r:id="rId92" xr:uid="{34BEBC5F-DA57-BF49-9327-44F90F5D2156}"/>
-    <hyperlink ref="B134" r:id="rId93" xr:uid="{9BE3E0E7-6480-2846-88DA-B0DA386C783E}"/>
-    <hyperlink ref="B72" r:id="rId94" xr:uid="{FE16A253-1001-A44A-A1EB-7191DAACA0D5}"/>
-    <hyperlink ref="B68" r:id="rId95" xr:uid="{82CA1914-3E4E-674E-9F60-B4760AD9AABD}"/>
-    <hyperlink ref="B69" r:id="rId96" xr:uid="{2375434C-0CFF-FD4A-944A-9DFA6B84F4B3}"/>
-    <hyperlink ref="B43" r:id="rId97" xr:uid="{F26B8D9C-81AF-7E40-8F27-7A6AA596A286}"/>
-    <hyperlink ref="B93" r:id="rId98" xr:uid="{6556E378-851A-9946-B9B0-B5440B0A5D33}"/>
-    <hyperlink ref="B11" r:id="rId99" xr:uid="{224002D3-60F3-3A4C-A0A9-580ED696AB21}"/>
-    <hyperlink ref="B77" r:id="rId100" xr:uid="{188F9D56-5C80-DC40-B981-C8D30FD4C1FE}"/>
-    <hyperlink ref="B57" r:id="rId101" xr:uid="{7160BBC9-7F5F-C444-AE36-FDCC9707B1DD}"/>
-    <hyperlink ref="B49" r:id="rId102" xr:uid="{C54F30F6-DAAF-4343-A46D-4948FD4B3273}"/>
-    <hyperlink ref="B76" r:id="rId103" xr:uid="{71274984-8993-484F-BE48-473C365566ED}"/>
-    <hyperlink ref="B62" r:id="rId104" xr:uid="{F40D981A-9713-1C42-A683-3439E3E2B5C2}"/>
-    <hyperlink ref="B24" r:id="rId105" xr:uid="{4222299C-5DDF-B044-8D4D-5FFDBDA1984F}"/>
-    <hyperlink ref="B15" r:id="rId106" xr:uid="{775F90E5-4BC4-CC41-BDDC-545579DD5AA1}"/>
-    <hyperlink ref="B127" r:id="rId107" xr:uid="{3F0014F1-69CF-AE4B-B16A-2DC170F19DFE}"/>
-    <hyperlink ref="B104" r:id="rId108" xr:uid="{16B24011-226E-EC4D-B7E4-037E49DCD973}"/>
-    <hyperlink ref="B2" r:id="rId109" xr:uid="{32D74EF5-25F3-654A-8F6E-97AF14EE1A84}"/>
-    <hyperlink ref="B71" r:id="rId110" xr:uid="{F461A805-B489-2841-AD2A-ECEC55BDBA4F}"/>
-    <hyperlink ref="B29" r:id="rId111" xr:uid="{B4AAD3B3-7576-1948-9681-9DCDE5122B03}"/>
-    <hyperlink ref="B17" r:id="rId112" xr:uid="{1DB527F0-3D16-3044-9E54-603F963D2B8C}"/>
-    <hyperlink ref="B33" r:id="rId113" xr:uid="{AC52BD4B-0E91-C349-833C-8016ACCB5346}"/>
-    <hyperlink ref="B91" r:id="rId114" xr:uid="{C2C42E66-157E-6E47-A084-AEF89116EBC1}"/>
-    <hyperlink ref="B90" r:id="rId115" xr:uid="{04D2CAD0-10EC-474F-AB41-B84A876B906F}"/>
-    <hyperlink ref="B82" r:id="rId116" xr:uid="{51282052-410A-4148-AB92-E38F392F7CB0}"/>
-    <hyperlink ref="B51" r:id="rId117" xr:uid="{26F85C1E-6B4D-2B4F-85A5-EDEBDBBB358C}"/>
-    <hyperlink ref="B101" r:id="rId118" xr:uid="{A1E1A0DC-5260-3C47-9D19-6E1086166D4D}"/>
-    <hyperlink ref="B137" r:id="rId119" xr:uid="{D7A4F151-D122-CA45-ADAE-D1F2C9338821}"/>
-    <hyperlink ref="B63" r:id="rId120" xr:uid="{274F4C0B-433A-E24A-A277-C12505DDB005}"/>
-    <hyperlink ref="B64" r:id="rId121" xr:uid="{3CDA0B6C-F2A8-1240-AEC8-134931154584}"/>
-    <hyperlink ref="B41" r:id="rId122" xr:uid="{C6C5109A-3940-A548-BA58-E920AAD304FA}"/>
-    <hyperlink ref="B138" r:id="rId123" xr:uid="{3EA93E09-36A9-264D-B9B5-6D62B63F7BAA}"/>
-    <hyperlink ref="B94" r:id="rId124" xr:uid="{71E54464-9137-4D49-A9AC-4F4ABC112467}"/>
-    <hyperlink ref="B95" r:id="rId125" xr:uid="{E408C9F4-9EFC-3545-9D14-361E0C8F2092}"/>
-    <hyperlink ref="B39" r:id="rId126" xr:uid="{D6D6DCD7-B624-2F49-A0B6-574F98FB4AF9}"/>
-    <hyperlink ref="B100" r:id="rId127" xr:uid="{296EE09B-AE33-C14D-BCE7-2C5A52313396}"/>
-    <hyperlink ref="B38" r:id="rId128" xr:uid="{CE26DB80-B98B-7647-B924-672B6D853470}"/>
-    <hyperlink ref="B42" r:id="rId129" xr:uid="{9233C241-02EB-6E48-8758-A9D6C0127438}"/>
-    <hyperlink ref="B59" r:id="rId130" xr:uid="{587A7437-A894-7C40-B3AC-B80688C920C4}"/>
-    <hyperlink ref="B67" r:id="rId131" xr:uid="{D54D4AA4-E715-2243-9068-B3F8C903CE21}"/>
-    <hyperlink ref="B139" r:id="rId132" xr:uid="{0EB58137-441E-8B4C-978B-78186060B3A5}"/>
-    <hyperlink ref="B7" r:id="rId133" xr:uid="{4FD906C9-F682-4248-9D4A-1F247EF40E07}"/>
-    <hyperlink ref="B53" r:id="rId134" xr:uid="{9081822A-626E-DC45-B0DF-900E6F0707B2}"/>
-    <hyperlink ref="B25" r:id="rId135" xr:uid="{576B5CA8-2EB0-6744-B903-B4AAB5DF4A31}"/>
-    <hyperlink ref="B132" r:id="rId136" xr:uid="{6DE1D2DD-06EE-7B42-B379-3D5385BAF68F}"/>
-    <hyperlink ref="B88" r:id="rId137" xr:uid="{DC6F2EA3-BE2E-304C-BC18-032C330CADDB}"/>
-    <hyperlink ref="B110" r:id="rId138" xr:uid="{518BD4D5-E830-6944-BCC0-D5F09F18E021}"/>
-    <hyperlink ref="B121" r:id="rId139" xr:uid="{821D620C-10A4-DB41-8F30-5B46BB3E256D}"/>
-    <hyperlink ref="B131" r:id="rId140" xr:uid="{FADFADC4-837D-8A4F-BDEC-B0EA8C258EA0}"/>
-    <hyperlink ref="B151" r:id="rId141" xr:uid="{95648F4E-78F9-3C4E-AB5A-129EA44BAFF8}"/>
-    <hyperlink ref="B96" r:id="rId142" xr:uid="{2307C642-97EF-C545-8EA6-634834DA124C}"/>
-    <hyperlink ref="B146" r:id="rId143" xr:uid="{109B19A8-2C91-8E45-847B-C2F208D75FAB}"/>
-    <hyperlink ref="B75" r:id="rId144" xr:uid="{D484A0A5-8DE0-954E-9B1A-A4CA30CACAC8}"/>
-    <hyperlink ref="B122" r:id="rId145" xr:uid="{09CEBAA8-C839-254A-AE41-1FC2DCAF4690}"/>
-    <hyperlink ref="B37" r:id="rId146" xr:uid="{84049D22-82E0-1F48-A77C-98E0C1BCBBFA}"/>
-    <hyperlink ref="B83" r:id="rId147" xr:uid="{AC946D5D-560C-6640-9500-723394B900E4}"/>
-    <hyperlink ref="B109" r:id="rId148" xr:uid="{43EBE9A0-490E-8640-86B7-4B25B7B18CB6}"/>
-    <hyperlink ref="B9" r:id="rId149" xr:uid="{15A8FBA4-60D9-D341-87B3-7BDEA9C12447}"/>
-    <hyperlink ref="B78" r:id="rId150" xr:uid="{1EEBAEF7-0957-AA42-AD23-9610CBAABD6E}"/>
+    <hyperlink ref="B103" r:id="rId50" xr:uid="{B0255F0F-C681-CC45-9670-C1B19218B527}"/>
+    <hyperlink ref="B80" r:id="rId51" xr:uid="{70AC56C5-D137-D04D-BBB0-F53470CBBD2B}"/>
+    <hyperlink ref="B100" r:id="rId52" xr:uid="{23B9CC41-F218-1642-A655-0BBFC00A1B6C}"/>
+    <hyperlink ref="B112" r:id="rId53" xr:uid="{34002492-FF7A-2F44-BEC0-73424414ECFA}"/>
+    <hyperlink ref="B95" r:id="rId54" xr:uid="{F0D91D20-E413-C04D-BF4E-7806E934B437}"/>
+    <hyperlink ref="B18" r:id="rId55" xr:uid="{022992BF-8D6C-384B-BDEC-1EEB165D395B}"/>
+    <hyperlink ref="B142" r:id="rId56" xr:uid="{567F6CE7-596B-7748-AC55-5D37C1C520CA}"/>
+    <hyperlink ref="B73" r:id="rId57" xr:uid="{32EC7377-367E-AA49-843C-6803EB939A67}"/>
+    <hyperlink ref="B138" r:id="rId58" xr:uid="{2C0EB88C-08A9-7E41-82C5-4169F857796A}"/>
+    <hyperlink ref="B13" r:id="rId59" xr:uid="{CC15577F-1A57-3A4F-AFCB-65EA07D1F632}"/>
+    <hyperlink ref="B79" r:id="rId60" xr:uid="{4E3D0DF7-7D26-8042-8D02-6203954E09C5}"/>
+    <hyperlink ref="B147" r:id="rId61" xr:uid="{B86A6D21-A559-F248-ADA8-ED4A3763EF38}"/>
+    <hyperlink ref="B121" r:id="rId62" xr:uid="{1C150FBA-A9C6-2C43-83B6-27F006E4A184}"/>
+    <hyperlink ref="B3" r:id="rId63" xr:uid="{40585DEC-A140-9649-87E9-784154D9B0F8}"/>
+    <hyperlink ref="B59" r:id="rId64" xr:uid="{5EA3A6A5-680E-8F42-9BD0-4A1AFF186A5B}"/>
+    <hyperlink ref="B35" r:id="rId65" xr:uid="{66A4996E-25C6-0548-AEA6-44980E555E7C}"/>
+    <hyperlink ref="B140" r:id="rId66" xr:uid="{1493932F-2990-0941-8F91-BD584AF77826}"/>
+    <hyperlink ref="B78" r:id="rId67" xr:uid="{D3164D01-BCC5-5D45-A728-77B2128A1C44}"/>
+    <hyperlink ref="B32" r:id="rId68" xr:uid="{F182D8C2-069E-B645-AA30-AA20C4BB46F6}"/>
+    <hyperlink ref="B101" r:id="rId69" xr:uid="{683708C2-008E-F548-93E2-07E253006914}"/>
+    <hyperlink ref="B43" r:id="rId70" xr:uid="{C6985457-1B53-2449-8464-F764FE8AD216}"/>
+    <hyperlink ref="B44" r:id="rId71" xr:uid="{8917DB16-F574-C742-9D4E-715061C27AFE}"/>
+    <hyperlink ref="B19" r:id="rId72" xr:uid="{DE4A69AF-2F18-F646-9434-5E07EEB36C62}"/>
+    <hyperlink ref="B40" r:id="rId73" xr:uid="{1954E2C6-7988-DA47-BF32-7C8A96F3D0DC}"/>
+    <hyperlink ref="B134" r:id="rId74" xr:uid="{470B9032-BCAB-244E-8C41-415D2FF7E4DB}"/>
+    <hyperlink ref="B27" r:id="rId75" xr:uid="{7E939423-CB8E-F44C-99E6-441DA331D5E0}"/>
+    <hyperlink ref="B26" r:id="rId76" xr:uid="{B620B53C-39C9-CF4D-8FBF-1C26B7A79E8D}"/>
+    <hyperlink ref="B64" r:id="rId77" xr:uid="{0112B004-64BB-C942-B638-C074434553C6}"/>
+    <hyperlink ref="B133" r:id="rId78" xr:uid="{4422172F-4C9E-3C41-B3F7-4750F48828AC}"/>
+    <hyperlink ref="B53" r:id="rId79" xr:uid="{194EFB3F-9659-BF44-A924-EC8FBA72A089}"/>
+    <hyperlink ref="B54" r:id="rId80" xr:uid="{9561B947-9389-714C-8ACE-D0F3A37D9555}"/>
+    <hyperlink ref="B49" r:id="rId81" xr:uid="{A51FD758-8698-3D4F-85EB-4DB8A243DD31}"/>
+    <hyperlink ref="B124" r:id="rId82" xr:uid="{F2982806-6FDB-EE4F-B9C2-F411A3C5322E}"/>
+    <hyperlink ref="B10" r:id="rId83" xr:uid="{4D46A99F-60EC-B84D-8F1A-4EE6DF44B9DA}"/>
+    <hyperlink ref="B57" r:id="rId84" xr:uid="{B5D17F78-3EB7-B744-9E19-C49259E74A1A}"/>
+    <hyperlink ref="B106" r:id="rId85" xr:uid="{03A6DFCB-D758-C04C-B7E5-2F5ACDFD7467}"/>
+    <hyperlink ref="B126" r:id="rId86" xr:uid="{3C315ED3-874C-FB46-866F-4713CB4DD9B1}"/>
+    <hyperlink ref="B116" r:id="rId87" xr:uid="{8CB17C4D-1B4F-BC4C-BBAA-5D947797CF59}"/>
+    <hyperlink ref="B8" r:id="rId88" xr:uid="{CA00C2EB-6E37-A647-AAF0-E253B5A59837}"/>
+    <hyperlink ref="B16" r:id="rId89" xr:uid="{98AB462B-DCBC-4F42-942A-46402E960030}"/>
+    <hyperlink ref="B145" r:id="rId90" xr:uid="{B1734414-BD98-5A4D-BC5B-02166D206157}"/>
+    <hyperlink ref="B69" r:id="rId91" xr:uid="{34BEBC5F-DA57-BF49-9327-44F90F5D2156}"/>
+    <hyperlink ref="B132" r:id="rId92" xr:uid="{9BE3E0E7-6480-2846-88DA-B0DA386C783E}"/>
+    <hyperlink ref="B71" r:id="rId93" xr:uid="{FE16A253-1001-A44A-A1EB-7191DAACA0D5}"/>
+    <hyperlink ref="B67" r:id="rId94" xr:uid="{82CA1914-3E4E-674E-9F60-B4760AD9AABD}"/>
+    <hyperlink ref="B68" r:id="rId95" xr:uid="{2375434C-0CFF-FD4A-944A-9DFA6B84F4B3}"/>
+    <hyperlink ref="B42" r:id="rId96" xr:uid="{F26B8D9C-81AF-7E40-8F27-7A6AA596A286}"/>
+    <hyperlink ref="B91" r:id="rId97" xr:uid="{6556E378-851A-9946-B9B0-B5440B0A5D33}"/>
+    <hyperlink ref="B11" r:id="rId98" xr:uid="{224002D3-60F3-3A4C-A0A9-580ED696AB21}"/>
+    <hyperlink ref="B76" r:id="rId99" xr:uid="{188F9D56-5C80-DC40-B981-C8D30FD4C1FE}"/>
+    <hyperlink ref="B56" r:id="rId100" xr:uid="{7160BBC9-7F5F-C444-AE36-FDCC9707B1DD}"/>
+    <hyperlink ref="B48" r:id="rId101" xr:uid="{C54F30F6-DAAF-4343-A46D-4948FD4B3273}"/>
+    <hyperlink ref="B75" r:id="rId102" xr:uid="{71274984-8993-484F-BE48-473C365566ED}"/>
+    <hyperlink ref="B61" r:id="rId103" xr:uid="{F40D981A-9713-1C42-A683-3439E3E2B5C2}"/>
+    <hyperlink ref="B24" r:id="rId104" xr:uid="{4222299C-5DDF-B044-8D4D-5FFDBDA1984F}"/>
+    <hyperlink ref="B15" r:id="rId105" xr:uid="{775F90E5-4BC4-CC41-BDDC-545579DD5AA1}"/>
+    <hyperlink ref="B125" r:id="rId106" xr:uid="{3F0014F1-69CF-AE4B-B16A-2DC170F19DFE}"/>
+    <hyperlink ref="B102" r:id="rId107" xr:uid="{16B24011-226E-EC4D-B7E4-037E49DCD973}"/>
+    <hyperlink ref="B2" r:id="rId108" xr:uid="{32D74EF5-25F3-654A-8F6E-97AF14EE1A84}"/>
+    <hyperlink ref="B70" r:id="rId109" xr:uid="{F461A805-B489-2841-AD2A-ECEC55BDBA4F}"/>
+    <hyperlink ref="B29" r:id="rId110" xr:uid="{B4AAD3B3-7576-1948-9681-9DCDE5122B03}"/>
+    <hyperlink ref="B17" r:id="rId111" xr:uid="{1DB527F0-3D16-3044-9E54-603F963D2B8C}"/>
+    <hyperlink ref="B33" r:id="rId112" xr:uid="{AC52BD4B-0E91-C349-833C-8016ACCB5346}"/>
+    <hyperlink ref="B89" r:id="rId113" xr:uid="{C2C42E66-157E-6E47-A084-AEF89116EBC1}"/>
+    <hyperlink ref="B88" r:id="rId114" xr:uid="{04D2CAD0-10EC-474F-AB41-B84A876B906F}"/>
+    <hyperlink ref="B81" r:id="rId115" xr:uid="{51282052-410A-4148-AB92-E38F392F7CB0}"/>
+    <hyperlink ref="B50" r:id="rId116" xr:uid="{26F85C1E-6B4D-2B4F-85A5-EDEBDBBB358C}"/>
+    <hyperlink ref="B99" r:id="rId117" xr:uid="{A1E1A0DC-5260-3C47-9D19-6E1086166D4D}"/>
+    <hyperlink ref="B135" r:id="rId118" xr:uid="{D7A4F151-D122-CA45-ADAE-D1F2C9338821}"/>
+    <hyperlink ref="B62" r:id="rId119" xr:uid="{274F4C0B-433A-E24A-A277-C12505DDB005}"/>
+    <hyperlink ref="B63" r:id="rId120" xr:uid="{3CDA0B6C-F2A8-1240-AEC8-134931154584}"/>
+    <hyperlink ref="B136" r:id="rId121" xr:uid="{3EA93E09-36A9-264D-B9B5-6D62B63F7BAA}"/>
+    <hyperlink ref="B92" r:id="rId122" xr:uid="{71E54464-9137-4D49-A9AC-4F4ABC112467}"/>
+    <hyperlink ref="B93" r:id="rId123" xr:uid="{E408C9F4-9EFC-3545-9D14-361E0C8F2092}"/>
+    <hyperlink ref="B39" r:id="rId124" xr:uid="{D6D6DCD7-B624-2F49-A0B6-574F98FB4AF9}"/>
+    <hyperlink ref="B98" r:id="rId125" xr:uid="{296EE09B-AE33-C14D-BCE7-2C5A52313396}"/>
+    <hyperlink ref="B38" r:id="rId126" xr:uid="{CE26DB80-B98B-7647-B924-672B6D853470}"/>
+    <hyperlink ref="B41" r:id="rId127" xr:uid="{9233C241-02EB-6E48-8758-A9D6C0127438}"/>
+    <hyperlink ref="B58" r:id="rId128" xr:uid="{587A7437-A894-7C40-B3AC-B80688C920C4}"/>
+    <hyperlink ref="B66" r:id="rId129" xr:uid="{D54D4AA4-E715-2243-9068-B3F8C903CE21}"/>
+    <hyperlink ref="B137" r:id="rId130" xr:uid="{0EB58137-441E-8B4C-978B-78186060B3A5}"/>
+    <hyperlink ref="B7" r:id="rId131" xr:uid="{4FD906C9-F682-4248-9D4A-1F247EF40E07}"/>
+    <hyperlink ref="B52" r:id="rId132" xr:uid="{9081822A-626E-DC45-B0DF-900E6F0707B2}"/>
+    <hyperlink ref="B25" r:id="rId133" xr:uid="{576B5CA8-2EB0-6744-B903-B4AAB5DF4A31}"/>
+    <hyperlink ref="B130" r:id="rId134" xr:uid="{6DE1D2DD-06EE-7B42-B379-3D5385BAF68F}"/>
+    <hyperlink ref="B86" r:id="rId135" xr:uid="{DC6F2EA3-BE2E-304C-BC18-032C330CADDB}"/>
+    <hyperlink ref="B108" r:id="rId136" xr:uid="{518BD4D5-E830-6944-BCC0-D5F09F18E021}"/>
+    <hyperlink ref="B119" r:id="rId137" xr:uid="{821D620C-10A4-DB41-8F30-5B46BB3E256D}"/>
+    <hyperlink ref="B129" r:id="rId138" xr:uid="{FADFADC4-837D-8A4F-BDEC-B0EA8C258EA0}"/>
+    <hyperlink ref="B149" r:id="rId139" xr:uid="{95648F4E-78F9-3C4E-AB5A-129EA44BAFF8}"/>
+    <hyperlink ref="B94" r:id="rId140" xr:uid="{2307C642-97EF-C545-8EA6-634834DA124C}"/>
+    <hyperlink ref="B144" r:id="rId141" xr:uid="{109B19A8-2C91-8E45-847B-C2F208D75FAB}"/>
+    <hyperlink ref="B74" r:id="rId142" xr:uid="{D484A0A5-8DE0-954E-9B1A-A4CA30CACAC8}"/>
+    <hyperlink ref="B120" r:id="rId143" xr:uid="{09CEBAA8-C839-254A-AE41-1FC2DCAF4690}"/>
+    <hyperlink ref="B37" r:id="rId144" xr:uid="{84049D22-82E0-1F48-A77C-98E0C1BCBBFA}"/>
+    <hyperlink ref="B82" r:id="rId145" xr:uid="{AC946D5D-560C-6640-9500-723394B900E4}"/>
+    <hyperlink ref="B107" r:id="rId146" xr:uid="{43EBE9A0-490E-8640-86B7-4B25B7B18CB6}"/>
+    <hyperlink ref="B9" r:id="rId147" xr:uid="{15A8FBA4-60D9-D341-87B3-7BDEA9C12447}"/>
+    <hyperlink ref="B77" r:id="rId148" xr:uid="{1EEBAEF7-0957-AA42-AD23-9610CBAABD6E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId151"/>
+    <tablePart r:id="rId149"/>
   </tableParts>
 </worksheet>
 </file>
@@ -21536,10 +21566,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FADCE0-33A9-0845-A545-B732B0BAB256}">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21886,23 +21916,23 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="51">
+    <row r="31" spans="1:5" ht="34">
       <c r="A31" s="2" t="s">
-        <v>201</v>
+        <v>1189</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>200</v>
+        <v>1188</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="34">
+    <row r="32" spans="1:5" ht="51">
       <c r="A32" s="2" t="s">
-        <v>1189</v>
+        <v>1393</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1188</v>
+        <v>1392</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -21910,10 +21940,10 @@
     </row>
     <row r="33" spans="1:5" ht="51">
       <c r="A33" s="2" t="s">
-        <v>1393</v>
+        <v>1187</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1392</v>
+        <v>1186</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -21921,10 +21951,10 @@
     </row>
     <row r="34" spans="1:5" ht="51">
       <c r="A34" s="2" t="s">
-        <v>1187</v>
+        <v>352</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1186</v>
+        <v>351</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -21932,10 +21962,10 @@
     </row>
     <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>352</v>
+        <v>1391</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>351</v>
+        <v>1390</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -21943,32 +21973,32 @@
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="51">
+    <row r="37" spans="1:5" ht="34">
       <c r="A37" s="2" t="s">
-        <v>1389</v>
+        <v>1179</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1388</v>
+        <v>1178</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="34">
+    <row r="38" spans="1:5" ht="51">
       <c r="A38" s="2" t="s">
-        <v>1179</v>
+        <v>1387</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1178</v>
+        <v>1386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -21976,21 +22006,21 @@
     </row>
     <row r="39" spans="1:5" ht="51">
       <c r="A39" s="2" t="s">
-        <v>1387</v>
+        <v>1249</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1386</v>
+        <v>1248</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="51">
+    <row r="40" spans="1:5" ht="34">
       <c r="A40" s="2" t="s">
-        <v>1249</v>
+        <v>1385</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1248</v>
+        <v>1384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -21998,32 +22028,32 @@
     </row>
     <row r="41" spans="1:5" ht="34">
       <c r="A41" s="2" t="s">
-        <v>1385</v>
+        <v>1169</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1384</v>
+        <v>1168</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="34">
+    <row r="42" spans="1:5" ht="68">
       <c r="A42" s="2" t="s">
-        <v>1169</v>
+        <v>330</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1168</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="68">
+    <row r="43" spans="1:5" ht="51">
       <c r="A43" s="2" t="s">
-        <v>330</v>
+        <v>1383</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>329</v>
+        <v>1382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -22031,10 +22061,10 @@
     </row>
     <row r="44" spans="1:5" ht="51">
       <c r="A44" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -22042,10 +22072,10 @@
     </row>
     <row r="45" spans="1:5" ht="51">
       <c r="A45" s="2" t="s">
-        <v>1381</v>
+        <v>961</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1380</v>
+        <v>960</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -22053,21 +22083,21 @@
     </row>
     <row r="46" spans="1:5" ht="51">
       <c r="A46" s="2" t="s">
-        <v>961</v>
+        <v>460</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>960</v>
+        <v>459</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="51">
+    <row r="47" spans="1:5" ht="34">
       <c r="A47" s="2" t="s">
-        <v>460</v>
+        <v>1379</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>459</v>
+        <v>1378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -22075,21 +22105,21 @@
     </row>
     <row r="48" spans="1:5" ht="34">
       <c r="A48" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="34">
+    <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>1377</v>
+        <v>511</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1376</v>
+        <v>510</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -22097,43 +22127,43 @@
     </row>
     <row r="50" spans="1:5" ht="51">
       <c r="A50" s="2" t="s">
-        <v>511</v>
+        <v>947</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>510</v>
+        <v>946</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="51">
+    <row r="51" spans="1:5" ht="34">
       <c r="A51" s="2" t="s">
-        <v>947</v>
+        <v>1375</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>946</v>
+        <v>1374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" ht="34">
+    <row r="52" spans="1:5" ht="68">
       <c r="A52" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="68">
+    <row r="53" spans="1:5" ht="51">
       <c r="A53" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -22141,21 +22171,21 @@
     </row>
     <row r="54" spans="1:5" ht="51">
       <c r="A54" s="2" t="s">
-        <v>1371</v>
+        <v>446</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1370</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="51">
+    <row r="55" spans="1:5" ht="68">
       <c r="A55" s="2" t="s">
-        <v>446</v>
+        <v>1369</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>445</v>
+        <v>1368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -22163,21 +22193,21 @@
     </row>
     <row r="56" spans="1:5" ht="68">
       <c r="A56" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="68">
+    <row r="57" spans="1:5" ht="51">
       <c r="A57" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -22185,10 +22215,10 @@
     </row>
     <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>1365</v>
+        <v>440</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1364</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -22196,10 +22226,10 @@
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>440</v>
+        <v>927</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>439</v>
+        <v>926</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -22207,10 +22237,10 @@
     </row>
     <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -22218,10 +22248,10 @@
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>925</v>
+        <v>1149</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>924</v>
+        <v>1148</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -22229,10 +22259,10 @@
     </row>
     <row r="62" spans="1:5" ht="51">
       <c r="A62" s="2" t="s">
-        <v>1149</v>
+        <v>1363</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1148</v>
+        <v>1362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -22240,10 +22270,10 @@
     </row>
     <row r="63" spans="1:5" ht="51">
       <c r="A63" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -22251,10 +22281,10 @@
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -22262,43 +22292,43 @@
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="51">
+    <row r="66" spans="1:5" ht="34">
       <c r="A66" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="34">
+    <row r="67" spans="1:5" ht="68">
       <c r="A67" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="68">
+    <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -22306,98 +22336,98 @@
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51">
+    <row r="70" spans="1:5" ht="68">
       <c r="A70" s="2" t="s">
-        <v>1349</v>
+        <v>113</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1348</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="68">
+    <row r="71" spans="1:5" ht="51">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>1347</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>112</v>
+        <v>1346</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="51">
+    <row r="72" spans="1:5" ht="68">
       <c r="A72" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="68">
+    <row r="73" spans="1:5" ht="51">
       <c r="A73" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="51">
+    <row r="74" spans="1:5" ht="34">
       <c r="A74" s="2" t="s">
-        <v>1343</v>
+        <v>1135</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1342</v>
+        <v>1134</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="34">
+    <row r="75" spans="1:5" ht="51">
       <c r="A75" s="2" t="s">
-        <v>1135</v>
+        <v>907</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1134</v>
+        <v>906</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="51">
+    <row r="76" spans="1:5" ht="34">
       <c r="A76" s="2" t="s">
-        <v>907</v>
+        <v>1341</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>906</v>
+        <v>1340</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="34">
+    <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -22405,10 +22435,10 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>1339</v>
+        <v>101</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1338</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -22416,10 +22446,10 @@
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>1337</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>100</v>
+        <v>1336</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -22427,10 +22457,10 @@
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -22438,10 +22468,10 @@
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>1335</v>
+        <v>671</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1334</v>
+        <v>670</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -22449,21 +22479,25 @@
     </row>
     <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>671</v>
+        <v>57</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1883</v>
+      </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>57</v>
+        <v>1109</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>56</v>
+        <v>1108</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -22471,10 +22505,10 @@
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>1109</v>
+        <v>55</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1108</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -22482,10 +22516,10 @@
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>55</v>
+        <v>1333</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>54</v>
+        <v>1332</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -22493,10 +22527,10 @@
     </row>
     <row r="86" spans="1:5" ht="51">
       <c r="A86" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -22504,10 +22538,10 @@
     </row>
     <row r="87" spans="1:5" ht="51">
       <c r="A87" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -22515,10 +22549,10 @@
     </row>
     <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -22526,10 +22560,10 @@
     </row>
     <row r="89" spans="1:5" ht="51">
       <c r="A89" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -22537,10 +22571,10 @@
     </row>
     <row r="90" spans="1:5" ht="51">
       <c r="A90" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -22548,10 +22582,10 @@
     </row>
     <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -22559,10 +22593,10 @@
     </row>
     <row r="92" spans="1:5" ht="51">
       <c r="A92" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -22570,10 +22604,10 @@
     </row>
     <row r="93" spans="1:5" ht="51">
       <c r="A93" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -22581,10 +22615,10 @@
     </row>
     <row r="94" spans="1:5" ht="51">
       <c r="A94" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -22592,10 +22626,10 @@
     </row>
     <row r="95" spans="1:5" ht="51">
       <c r="A95" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -22603,200 +22637,189 @@
     </row>
     <row r="96" spans="1:5" ht="51">
       <c r="A96" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" ht="51">
+    <row r="97" spans="1:5" ht="34">
       <c r="A97" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" ht="34">
+    <row r="98" spans="1:5" ht="51">
       <c r="A98" s="2" t="s">
-        <v>1309</v>
+        <v>412</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1308</v>
+        <v>411</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" ht="51">
+    <row r="99" spans="1:5" ht="34">
       <c r="A99" s="2" t="s">
-        <v>412</v>
+        <v>865</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>411</v>
+        <v>864</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" ht="34">
-      <c r="A100" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1306</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>1303</v>
+        <v>406</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1302</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>405</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>1015</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>28</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>1015</v>
+        <v>1301</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1014</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>1301</v>
+        <v>861</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1300</v>
+        <v>860</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>861</v>
+        <v>1299</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>860</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>1299</v>
+        <v>19</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1298</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>18</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>404</v>
+        <v>1297</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>403</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1295</v>
+        <v>1033</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1294</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1033</v>
+        <v>1293</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1032</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1291</v>
+        <v>1013</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1290</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1013</v>
+        <v>845</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>845</v>
-      </c>
-      <c r="B118" s="1" t="s">
         <v>844</v>
       </c>
     </row>
@@ -22831,98 +22854,97 @@
     <hyperlink ref="B28" r:id="rId27" xr:uid="{77E2ABD8-3DC9-0B42-8FD8-36DB4E94FEA9}"/>
     <hyperlink ref="B29" r:id="rId28" xr:uid="{C07390F2-0076-D445-B126-B89F2F977665}"/>
     <hyperlink ref="B30" r:id="rId29" xr:uid="{900A7D8D-120F-3046-82E1-31EB1BEB9E5D}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{A5E12B88-678F-0F48-B4C3-8DA67F74208E}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{56ED2418-0019-CC4D-AE22-DC667DD5EDA8}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{49A0259B-B2C9-BD49-953E-9789AF962D5C}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{781B43E1-DC86-AE4F-B625-F791C11B3A88}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{ED4A52FD-77A0-8042-A5F3-0D99CDFB1325}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{A1D6E62B-A8D9-B04A-BF88-0FDB4C32B518}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{9046CB53-53D4-2147-8C8F-73D1ADACAA19}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{CBB45D0F-9179-414A-8F3B-957F15AFFE82}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{21D736CA-38F4-D648-8FA6-37C1CF3CF96D}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{97CC6CEC-36E5-B740-B95F-8681C96E8949}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{24846AD3-B20D-8D4F-A978-15A83D2A72E5}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{9FB94D9A-926C-0B4C-932A-AA48724C58BA}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{FF05D1FE-1268-4743-9B87-DA0044EEA807}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{35F417B8-F2A0-754B-A885-B74663687119}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{6DDA438C-2A52-0C4C-A844-AFD7D47B4C2D}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{3A1433B5-01D9-9443-A5D9-3142CA684A62}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{950D52D8-1CF7-3246-9194-93CA27E439EA}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{9218201E-E3E0-214F-8E20-C0C313A38F3D}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{E379D7A7-8EDC-4640-B290-9B40670DD8FC}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{CF63B155-9B4D-114B-B1FB-FB029DC7646E}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{E89CECE3-DEE9-0948-8E71-2DC95DE1533A}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{E604EA32-C164-5B44-8FB7-93A0723B7D6A}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{AD08FE80-9CA2-7147-B1E6-47134100E71D}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{87F5F23A-B66B-B04A-8A1C-31A38DCFF0E1}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{E1B0AC13-802F-C842-B28E-DEBDAFDF5959}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{4AC6CFBD-CBF0-1B4F-B091-1436100BA66B}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{3F7B39F7-C2DC-1646-A4BB-785A7C764364}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{8BEF7F2C-20EB-D147-814F-CBA0446FBCB2}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{B9779834-209D-9341-A7FC-E61A45A42E66}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{307B62C0-7B40-7648-8847-0550CC71D5CB}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{69E951C0-B517-A145-AE62-D39073D27461}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{7BA85BF1-8924-9E49-8F85-CDC14F0C0A8B}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{40506B39-0255-6240-878F-38003E11C87C}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{5B9994EE-AE69-5B4B-A205-10A76F065089}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{DC961849-37C2-E944-B37E-6D5EDA56DAAD}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{C89E295B-D038-C44B-B1DF-FBDF005D8C5F}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{FD991B81-18E4-664D-9889-BD4C048BE5C4}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{4DD4F252-6789-DB4E-B19C-6185FEAED7A6}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{BF5B0D72-07D3-4F49-AFE5-EC00D9475D70}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{6CEDF4C2-84B7-A845-994E-115F371D0F67}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{CB713F5C-0CFC-7040-9E5D-B558B9ACCB6B}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{402F29D9-AB51-2241-8526-C2EE6A8BD44E}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{FA5C7A38-F26C-5142-8AFC-A9E2E150FD30}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{1AEEF54B-4BFB-7A49-B741-B7554F5E4F79}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{D673AE92-6180-4646-8F62-8EA74D333A65}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{3CFC4FAB-0CCE-6E41-AE3C-6C05A3E83438}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{F88A12A4-750E-6D4B-848D-7CE125D0AFF5}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{DE91294B-02C7-CE4C-8F85-E5478A7BE036}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{C2992017-3BB7-3446-82BE-A36F68C507E5}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{8ED67322-7819-6A4D-8C39-2D4266882419}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{0929F9E4-7EF6-EF43-97EB-CD155F18BD79}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{3A805F73-1489-1543-826D-0BD9BC1562B9}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{3E43B208-96D8-E04E-A95A-0A7B5F1008FA}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{DCE24348-D46B-DE40-B03F-E73D68B1F3A5}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{41254FC1-C2F8-7C44-8E2E-168FF57D477E}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{2FAA2779-CEA8-1C42-848D-54D04C088194}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{2EF0A6E6-6B60-4A4F-8522-F2DB2C76C8CE}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{41F1DBAF-A64B-F04D-9987-1BBC074A1EAB}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{352ED415-FAFD-5640-9A39-A2740B39AD84}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{46EE676D-E3F2-484B-A813-D3C2A6F7F81D}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{C37716B1-A469-3B40-A842-BC5112B850F9}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{EFE6667F-3ADB-6542-ACC5-66C84863CC1B}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{9B243BC9-03E0-3B4B-BF24-9282B1456D4B}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{CC6AA1D5-A3C2-5F43-B882-2EE2E62B8D57}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{D2D638E4-05AB-8244-9E12-EB721DBAFF96}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{381D62CD-E4E7-8843-8BE7-4437A53E093A}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{91EC6D90-9497-E04C-A58F-AC45CC0493F7}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{1BD91816-155A-0540-BC84-B6C0F426AF77}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{8CD1E7F3-E04C-DC45-AA02-4BCCDB66D886}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{24C939A2-9136-B346-9F30-241D6D403714}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{041BF941-9B64-1842-8FF4-D05F8415F48F}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{3211917E-AB59-9B4C-8B19-428E76317D4C}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{432E5A99-1458-F943-A229-0DDDE6C2EFFB}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{252AC494-BD22-B74B-BDB2-E5DEDD5118AC}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{1287102D-F285-F140-AB01-21814F5F9854}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{4A6F28AA-2E67-2C4D-94DF-79AD6BA3DCD0}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{59D20834-B8DD-F94D-9F44-32B3E9CD5E18}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{57C65545-7A40-524A-902B-DCEFA8ADB014}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{E242DCDE-5176-EE4D-B9BB-47E0C12995AF}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{A2ADEAA6-8DFC-054B-BD70-C421CE5780AB}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{7E0F1DA0-7C89-BB4B-B229-D64437862ED0}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{B940AAB8-6D81-624C-BEBD-2D7BCCD774E1}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{0789CA71-2692-B247-B6DD-DCC182A07C82}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{FFFEA65E-8256-054D-B10D-909C8A6A05F0}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{B3A47D3F-2AE4-254F-9361-346C178C8909}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{E0DBF233-2B07-0B40-84B6-77DEA2AB924E}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{CAD193A1-FA4C-644D-BA0A-4767D9F0E504}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{B10D62FD-F484-184F-8F13-56CBA904F01F}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{56ED2418-0019-CC4D-AE22-DC667DD5EDA8}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{49A0259B-B2C9-BD49-953E-9789AF962D5C}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{781B43E1-DC86-AE4F-B625-F791C11B3A88}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{ED4A52FD-77A0-8042-A5F3-0D99CDFB1325}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{A1D6E62B-A8D9-B04A-BF88-0FDB4C32B518}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{9046CB53-53D4-2147-8C8F-73D1ADACAA19}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{CBB45D0F-9179-414A-8F3B-957F15AFFE82}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{21D736CA-38F4-D648-8FA6-37C1CF3CF96D}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{97CC6CEC-36E5-B740-B95F-8681C96E8949}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{24846AD3-B20D-8D4F-A978-15A83D2A72E5}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{9FB94D9A-926C-0B4C-932A-AA48724C58BA}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{FF05D1FE-1268-4743-9B87-DA0044EEA807}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{35F417B8-F2A0-754B-A885-B74663687119}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{6DDA438C-2A52-0C4C-A844-AFD7D47B4C2D}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{3A1433B5-01D9-9443-A5D9-3142CA684A62}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{950D52D8-1CF7-3246-9194-93CA27E439EA}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{9218201E-E3E0-214F-8E20-C0C313A38F3D}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{E379D7A7-8EDC-4640-B290-9B40670DD8FC}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{CF63B155-9B4D-114B-B1FB-FB029DC7646E}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{E89CECE3-DEE9-0948-8E71-2DC95DE1533A}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{E604EA32-C164-5B44-8FB7-93A0723B7D6A}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{AD08FE80-9CA2-7147-B1E6-47134100E71D}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{87F5F23A-B66B-B04A-8A1C-31A38DCFF0E1}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{E1B0AC13-802F-C842-B28E-DEBDAFDF5959}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{4AC6CFBD-CBF0-1B4F-B091-1436100BA66B}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{3F7B39F7-C2DC-1646-A4BB-785A7C764364}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{8BEF7F2C-20EB-D147-814F-CBA0446FBCB2}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{B9779834-209D-9341-A7FC-E61A45A42E66}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{307B62C0-7B40-7648-8847-0550CC71D5CB}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{69E951C0-B517-A145-AE62-D39073D27461}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{7BA85BF1-8924-9E49-8F85-CDC14F0C0A8B}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{40506B39-0255-6240-878F-38003E11C87C}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{5B9994EE-AE69-5B4B-A205-10A76F065089}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{DC961849-37C2-E944-B37E-6D5EDA56DAAD}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{C89E295B-D038-C44B-B1DF-FBDF005D8C5F}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{FD991B81-18E4-664D-9889-BD4C048BE5C4}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{4DD4F252-6789-DB4E-B19C-6185FEAED7A6}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{BF5B0D72-07D3-4F49-AFE5-EC00D9475D70}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{6CEDF4C2-84B7-A845-994E-115F371D0F67}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{CB713F5C-0CFC-7040-9E5D-B558B9ACCB6B}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{402F29D9-AB51-2241-8526-C2EE6A8BD44E}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{FA5C7A38-F26C-5142-8AFC-A9E2E150FD30}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{1AEEF54B-4BFB-7A49-B741-B7554F5E4F79}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{D673AE92-6180-4646-8F62-8EA74D333A65}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{3CFC4FAB-0CCE-6E41-AE3C-6C05A3E83438}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{F88A12A4-750E-6D4B-848D-7CE125D0AFF5}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{DE91294B-02C7-CE4C-8F85-E5478A7BE036}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{C2992017-3BB7-3446-82BE-A36F68C507E5}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{8ED67322-7819-6A4D-8C39-2D4266882419}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{0929F9E4-7EF6-EF43-97EB-CD155F18BD79}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{3A805F73-1489-1543-826D-0BD9BC1562B9}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{3E43B208-96D8-E04E-A95A-0A7B5F1008FA}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{DCE24348-D46B-DE40-B03F-E73D68B1F3A5}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{41254FC1-C2F8-7C44-8E2E-168FF57D477E}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{2FAA2779-CEA8-1C42-848D-54D04C088194}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{2EF0A6E6-6B60-4A4F-8522-F2DB2C76C8CE}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{41F1DBAF-A64B-F04D-9987-1BBC074A1EAB}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{352ED415-FAFD-5640-9A39-A2740B39AD84}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{46EE676D-E3F2-484B-A813-D3C2A6F7F81D}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{C37716B1-A469-3B40-A842-BC5112B850F9}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{EFE6667F-3ADB-6542-ACC5-66C84863CC1B}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{9B243BC9-03E0-3B4B-BF24-9282B1456D4B}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{CC6AA1D5-A3C2-5F43-B882-2EE2E62B8D57}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{D2D638E4-05AB-8244-9E12-EB721DBAFF96}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{381D62CD-E4E7-8843-8BE7-4437A53E093A}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{91EC6D90-9497-E04C-A58F-AC45CC0493F7}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{1BD91816-155A-0540-BC84-B6C0F426AF77}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{8CD1E7F3-E04C-DC45-AA02-4BCCDB66D886}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{24C939A2-9136-B346-9F30-241D6D403714}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{041BF941-9B64-1842-8FF4-D05F8415F48F}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{3211917E-AB59-9B4C-8B19-428E76317D4C}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{432E5A99-1458-F943-A229-0DDDE6C2EFFB}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{252AC494-BD22-B74B-BDB2-E5DEDD5118AC}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{1287102D-F285-F140-AB01-21814F5F9854}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{4A6F28AA-2E67-2C4D-94DF-79AD6BA3DCD0}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{59D20834-B8DD-F94D-9F44-32B3E9CD5E18}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{57C65545-7A40-524A-902B-DCEFA8ADB014}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{E242DCDE-5176-EE4D-B9BB-47E0C12995AF}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{A2ADEAA6-8DFC-054B-BD70-C421CE5780AB}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{7E0F1DA0-7C89-BB4B-B229-D64437862ED0}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{B940AAB8-6D81-624C-BEBD-2D7BCCD774E1}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{0789CA71-2692-B247-B6DD-DCC182A07C82}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{FFFEA65E-8256-054D-B10D-909C8A6A05F0}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{B3A47D3F-2AE4-254F-9361-346C178C8909}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{E0DBF233-2B07-0B40-84B6-77DEA2AB924E}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{CAD193A1-FA4C-644D-BA0A-4767D9F0E504}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{B10D62FD-F484-184F-8F13-56CBA904F01F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId118"/>
+    <tablePart r:id="rId117"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26109,10 +26131,10 @@
         <v>1328</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>1861</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1862</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1805</v>
@@ -29279,10 +29301,10 @@
         <v>339</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>1807</v>
@@ -30047,7 +30069,9 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -30182,16 +30206,22 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="51">
+    <row r="12" spans="1:5" ht="170">
       <c r="A12" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="34">
       <c r="A13" s="2" t="s">
@@ -30200,7 +30230,9 @@
       <c r="B13" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>1886</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
@@ -30233,7 +30265,9 @@
       <c r="B16" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>1885</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
@@ -31850,10 +31884,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7E816-065E-4C4D-9128-39CDCBC16733}">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32195,10 +32229,10 @@
         <v>1626</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>1805</v>
@@ -32305,21 +32339,21 @@
     </row>
     <row r="40" spans="1:5" ht="51">
       <c r="A40" s="2" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51">
+    <row r="41" spans="1:5" ht="68">
       <c r="A41" s="2" t="s">
-        <v>1617</v>
+        <v>1173</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1616</v>
+        <v>1172</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -32327,58 +32361,58 @@
     </row>
     <row r="42" spans="1:5" ht="68">
       <c r="A42" s="2" t="s">
-        <v>1173</v>
+        <v>340</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1172</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="68">
+    <row r="43" spans="1:5" ht="34">
       <c r="A43" s="2" t="s">
-        <v>340</v>
+        <v>1615</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>1614</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1799</v>
+      </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="34">
+      <c r="E43" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="51">
       <c r="A44" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1799</v>
-      </c>
+        <v>1612</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
-        <v>1798</v>
-      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="51">
       <c r="A45" s="2" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="51">
+    <row r="46" spans="1:5" ht="34">
       <c r="A46" s="2" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -32386,21 +32420,21 @@
     </row>
     <row r="47" spans="1:5" ht="34">
       <c r="A47" s="2" t="s">
-        <v>1609</v>
+        <v>1495</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1608</v>
+        <v>1494</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="34">
+    <row r="48" spans="1:5" ht="51">
       <c r="A48" s="2" t="s">
-        <v>1495</v>
+        <v>1607</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1494</v>
+        <v>1606</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -32408,10 +32442,10 @@
     </row>
     <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -32419,10 +32453,10 @@
     </row>
     <row r="50" spans="1:5" ht="51">
       <c r="A50" s="2" t="s">
-        <v>1605</v>
+        <v>322</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1604</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -32430,10 +32464,10 @@
     </row>
     <row r="51" spans="1:5" ht="51">
       <c r="A51" s="2" t="s">
-        <v>322</v>
+        <v>1165</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>321</v>
+        <v>1164</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -32441,10 +32475,10 @@
     </row>
     <row r="52" spans="1:5" ht="51">
       <c r="A52" s="2" t="s">
-        <v>1165</v>
+        <v>1603</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1164</v>
+        <v>1602</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -32452,10 +32486,10 @@
     </row>
     <row r="53" spans="1:5" ht="51">
       <c r="A53" s="2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -32463,32 +32497,32 @@
     </row>
     <row r="54" spans="1:5" ht="51">
       <c r="A54" s="2" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="51">
+    <row r="55" spans="1:5" ht="34">
       <c r="A55" s="2" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="34">
+    <row r="56" spans="1:5" ht="51">
       <c r="A56" s="2" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -32496,10 +32530,10 @@
     </row>
     <row r="57" spans="1:5" ht="51">
       <c r="A57" s="2" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -32507,10 +32541,10 @@
     </row>
     <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -32518,10 +32552,10 @@
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>1591</v>
+        <v>1455</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1590</v>
+        <v>1454</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -32529,10 +32563,10 @@
     </row>
     <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -32540,21 +32574,21 @@
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>1447</v>
+        <v>1361</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1446</v>
+        <v>1360</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="51">
+    <row r="62" spans="1:5" ht="68">
       <c r="A62" s="2" t="s">
-        <v>1361</v>
+        <v>1589</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1360</v>
+        <v>1588</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -32562,21 +32596,21 @@
     </row>
     <row r="63" spans="1:5" ht="68">
       <c r="A63" s="2" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="68">
+    <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -32584,10 +32618,10 @@
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -32595,10 +32629,10 @@
     </row>
     <row r="66" spans="1:5" ht="51">
       <c r="A66" s="2" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -32606,10 +32640,10 @@
     </row>
     <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>1581</v>
+        <v>1359</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1580</v>
+        <v>1358</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -32617,10 +32651,10 @@
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>1359</v>
+        <v>1579</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1358</v>
+        <v>1578</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -32628,32 +32662,32 @@
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="A69" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51">
+    <row r="70" spans="1:5" ht="68">
       <c r="A70" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="68">
+    <row r="71" spans="1:5" ht="51">
       <c r="A71" s="2" t="s">
-        <v>1575</v>
+        <v>1139</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1574</v>
+        <v>1138</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -32661,32 +32695,32 @@
     </row>
     <row r="72" spans="1:5" ht="51">
       <c r="A72" s="2" t="s">
-        <v>1139</v>
+        <v>1573</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1138</v>
+        <v>1572</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="51">
+    <row r="73" spans="1:5" ht="34">
       <c r="A73" s="2" t="s">
-        <v>1573</v>
+        <v>1487</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1572</v>
+        <v>1486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="34">
+    <row r="74" spans="1:5" ht="51">
       <c r="A74" s="2" t="s">
-        <v>1487</v>
+        <v>1571</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1486</v>
+        <v>1570</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -32694,10 +32728,10 @@
     </row>
     <row r="75" spans="1:5" ht="51">
       <c r="A75" s="2" t="s">
-        <v>1571</v>
+        <v>771</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1570</v>
+        <v>770</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -32705,10 +32739,10 @@
     </row>
     <row r="76" spans="1:5" ht="51">
       <c r="A76" s="2" t="s">
-        <v>771</v>
+        <v>1137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>770</v>
+        <v>1136</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -32716,10 +32750,10 @@
     </row>
     <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>1137</v>
+        <v>911</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1136</v>
+        <v>910</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -32727,10 +32761,10 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>911</v>
+        <v>1569</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>910</v>
+        <v>1568</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -32738,10 +32772,10 @@
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -32749,10 +32783,10 @@
     </row>
     <row r="80" spans="1:5" ht="51">
       <c r="A80" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -32760,10 +32794,10 @@
     </row>
     <row r="81" spans="1:5" ht="51">
       <c r="A81" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -32771,10 +32805,10 @@
     </row>
     <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -32782,10 +32816,10 @@
     </row>
     <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -32793,10 +32827,10 @@
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -32804,32 +32838,32 @@
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="51">
+    <row r="86" spans="1:5" ht="68">
       <c r="A86" s="2" t="s">
-        <v>1555</v>
+        <v>893</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1554</v>
+        <v>892</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="68">
+    <row r="87" spans="1:5" ht="51">
       <c r="A87" s="2" t="s">
-        <v>893</v>
+        <v>1553</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>892</v>
+        <v>1552</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -32837,10 +32871,10 @@
     </row>
     <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -32848,10 +32882,10 @@
     </row>
     <row r="89" spans="1:5" ht="51">
       <c r="A89" s="2" t="s">
-        <v>1551</v>
+        <v>1443</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1550</v>
+        <v>1442</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -32859,10 +32893,10 @@
     </row>
     <row r="90" spans="1:5" ht="51">
       <c r="A90" s="2" t="s">
-        <v>1443</v>
+        <v>1049</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1442</v>
+        <v>1048</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -32870,10 +32904,10 @@
     </row>
     <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>1049</v>
+        <v>1113</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1048</v>
+        <v>1112</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -32881,32 +32915,32 @@
     </row>
     <row r="92" spans="1:5" ht="51">
       <c r="A92" s="2" t="s">
-        <v>1113</v>
+        <v>1479</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1112</v>
+        <v>1478</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="51">
+    <row r="93" spans="1:5" ht="34">
       <c r="A93" s="2" t="s">
-        <v>1479</v>
+        <v>1549</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1478</v>
+        <v>1548</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" ht="34">
+    <row r="94" spans="1:5" ht="51">
       <c r="A94" s="2" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -32914,10 +32948,10 @@
     </row>
     <row r="95" spans="1:5" ht="51">
       <c r="A95" s="2" t="s">
-        <v>1547</v>
+        <v>1327</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1546</v>
+        <v>1326</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -32925,10 +32959,10 @@
     </row>
     <row r="96" spans="1:5" ht="51">
       <c r="A96" s="2" t="s">
-        <v>1327</v>
+        <v>1545</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1326</v>
+        <v>1544</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -32936,183 +32970,172 @@
     </row>
     <row r="97" spans="1:5" ht="51">
       <c r="A97" s="2" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" ht="51">
-      <c r="A98" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1540</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>1535</v>
+        <v>310</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1534</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>310</v>
+        <v>1533</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>309</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>1531</v>
+        <v>1473</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1530</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>1473</v>
+        <v>1529</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1472</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>1523</v>
+        <v>1301</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1522</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>1301</v>
+        <v>1521</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1300</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>1521</v>
+        <v>1039</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1520</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1039</v>
+        <v>1519</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1038</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1513</v>
+        <v>1091</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B118" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -33156,89 +33179,88 @@
     <hyperlink ref="B37" r:id="rId36" xr:uid="{7CB511D6-C29F-A94E-B1BE-62D7EB2A6356}"/>
     <hyperlink ref="B38" r:id="rId37" xr:uid="{A013D4CA-81D7-D447-8FD7-7DBBAC6BF16A}"/>
     <hyperlink ref="B39" r:id="rId38" xr:uid="{F8FD8BA1-8953-8342-8A25-B31259873C09}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{C57F0C3B-D608-B443-A175-29A3090472E1}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{22F82D80-1587-9E44-A516-CA4CEE06D72B}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{9F9D8142-14B6-DE4A-BC27-0DF51D0B9FF9}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{1CDACB0D-C7E5-194E-8815-6B8EB2CF03D4}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{47771C96-2797-7146-AE1A-BA4F0B9716CD}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{DB147B68-6B39-BF43-AD09-A8CA05A8B20A}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{B5ADF055-98D6-6945-AC8F-E4936186C165}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{685FAAD6-8570-014A-AD2F-E426460B6CB2}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{DC24621F-697B-FA4F-824C-4B75B3756AD7}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{75ABDDAA-3771-074E-A551-099E8C31DA5D}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{1417FD4E-040E-5340-9569-CF38BD3D3460}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{82EBB7C0-5F67-8244-90B2-5FE006BE525B}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{1D9377F2-8D24-FB45-9485-7DF163710BAD}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{85DF165A-34AE-A644-93B0-563078525E9F}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{81FE6136-ACA2-DC48-9433-BA8240378FB4}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{464ABD9F-260D-D545-AD32-E5B0948073E7}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{757503B8-C71B-FB46-B9E2-049A967D07B3}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{49CCDD90-26FD-154A-A65B-003DC9369AB7}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{B0061805-9F07-D042-AB80-598AEABD5CF4}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{0AD8A65B-5B15-8447-A2C2-6008094092A4}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{EFF23AB4-5A40-0D4D-99C1-CFE5F72613ED}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{9BF11A80-34FF-894D-9EFA-5F680F4923F6}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{48EE8446-7886-4540-A1F9-D6A823628FF2}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{A99D3BD4-C4BD-DD41-84D5-E5773439858D}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{81BE7B0C-46E1-BA4D-8948-320CE9FD296A}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{DE9AD2EE-1E40-CF4A-A150-B536660E8D9D}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{85E6C868-6505-144E-A523-7CA685B416B6}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{38F6C3BF-C8C6-A24E-9A65-A38A29882224}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{E8010183-7787-D543-BA75-905C1DC8EF8A}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{34F3679F-F9D1-484F-8B9D-E70BD9E75488}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{93179FB3-7A23-CA4A-A8E5-F692A7BF0109}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{883099CE-DC20-3E4A-9202-BC7C9ADED04D}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{F88663E6-7F49-0949-A407-08B13D7C1AD2}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{FEDC3C91-3EAC-3745-AB5E-53178A93346F}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{C423DFB2-21ED-C645-9114-C610E9C9F9EA}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{05806685-A311-AE44-9D79-BEE84875A16B}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{219A557E-94AC-5C4B-A940-70DA84658974}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{211DB40C-2271-8749-AA4D-31B627659B2A}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{9BEF70A2-F9E6-304A-8435-38125713F72C}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{E8FDA2E8-8255-AC48-B7F9-25BED58F863E}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{759D813B-F8A6-CF47-B4D4-D264232BFFE8}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{5592AF32-135C-DA43-ADAA-85FCC675DDBA}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{BC58B021-D1AD-4A4E-AE89-20177722AC96}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{B481BDC2-49B9-DE4A-9530-4D836AB24645}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{630B8794-6E81-4C49-98FE-41857B80E2B9}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{8C9E43AC-891C-1343-8D15-81F83ADED0DC}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{1345AA76-EE80-1646-9732-FE72FC862FC2}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{3C7C4A14-7F42-3448-810A-C721F5093529}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{87DE6987-CBEE-5046-9129-C957B4B2AC55}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{0C54CDC1-CF3A-3849-9E58-7D1D4C89AC68}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{6314CB0A-1FB6-0D4F-B7F9-0B2D10F286A2}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{AF81E897-5284-004A-B938-5DA1EF393405}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{4371EF25-A360-EF44-8A8A-267F52E21604}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{74AC74A4-E098-9644-99F6-47787C8178A7}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{18390DA4-9007-ED4C-8E89-FABA2F66E8A7}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{C19228EB-CDAF-EC40-96DC-C273C4BC9C74}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{44AD29FC-A81C-A44E-AB55-87EC344A876C}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{5780EA0A-F1A1-2046-AF0F-50AE09E60B6C}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{9FF6D712-E085-2844-94C6-8B3DFCF77A6B}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{2F255511-DB54-F043-A3CE-814F80CAB0D4}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{0F57E7FB-169F-904E-92FB-6C45637AC0BC}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{82581EC6-5B48-0D4F-BAB0-6C793D63366A}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{900C5943-26A4-DE41-A17D-B6B8EBE3C3DD}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{F5C6A5D4-6AE7-384B-86A4-BD05247D0782}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{1074B740-9D48-D648-9D34-DCC504F51ECC}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{4803CD7C-C2CB-C84F-91DA-FF4A25D137A1}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{2C4AB432-1C53-7942-8CC3-635FB7D3CE80}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{4399FAAB-C614-EC4E-B6FB-3BBB0B393592}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{CBB65767-2860-5D44-A539-6248D0BDB1A0}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{66A53365-5ED9-E44B-AF2D-222FE883569D}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{CD2BEDFD-CCEC-EB4E-8B77-0CAF5C983626}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{8737174B-EA50-654D-BC3A-B50CEEF5D7D8}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{D25BB4BF-0330-EC43-AF4D-D789C7605254}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{5F8C4D91-369A-9D48-8ACA-05415375C653}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{7037DB62-ABCA-BE45-B1AF-B7FE5F5A5FA4}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{4DBF3B5C-3FBD-8843-9405-7458FA5D31A4}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{B7B9AB32-5578-1342-AAB8-8A6BFF7D8BCB}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{467574DC-092D-384A-A84A-DE410891C641}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{7A448D38-8237-CC49-AEDB-1B6C2B40A2CE}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{22F82D80-1587-9E44-A516-CA4CEE06D72B}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{9F9D8142-14B6-DE4A-BC27-0DF51D0B9FF9}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{1CDACB0D-C7E5-194E-8815-6B8EB2CF03D4}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{47771C96-2797-7146-AE1A-BA4F0B9716CD}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{DB147B68-6B39-BF43-AD09-A8CA05A8B20A}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{B5ADF055-98D6-6945-AC8F-E4936186C165}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{685FAAD6-8570-014A-AD2F-E426460B6CB2}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{DC24621F-697B-FA4F-824C-4B75B3756AD7}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{75ABDDAA-3771-074E-A551-099E8C31DA5D}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{1417FD4E-040E-5340-9569-CF38BD3D3460}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{82EBB7C0-5F67-8244-90B2-5FE006BE525B}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{1D9377F2-8D24-FB45-9485-7DF163710BAD}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{85DF165A-34AE-A644-93B0-563078525E9F}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{81FE6136-ACA2-DC48-9433-BA8240378FB4}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{464ABD9F-260D-D545-AD32-E5B0948073E7}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{757503B8-C71B-FB46-B9E2-049A967D07B3}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{49CCDD90-26FD-154A-A65B-003DC9369AB7}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{B0061805-9F07-D042-AB80-598AEABD5CF4}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{0AD8A65B-5B15-8447-A2C2-6008094092A4}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{EFF23AB4-5A40-0D4D-99C1-CFE5F72613ED}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{9BF11A80-34FF-894D-9EFA-5F680F4923F6}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{48EE8446-7886-4540-A1F9-D6A823628FF2}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{A99D3BD4-C4BD-DD41-84D5-E5773439858D}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{81BE7B0C-46E1-BA4D-8948-320CE9FD296A}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{DE9AD2EE-1E40-CF4A-A150-B536660E8D9D}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{85E6C868-6505-144E-A523-7CA685B416B6}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{38F6C3BF-C8C6-A24E-9A65-A38A29882224}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{E8010183-7787-D543-BA75-905C1DC8EF8A}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{34F3679F-F9D1-484F-8B9D-E70BD9E75488}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{93179FB3-7A23-CA4A-A8E5-F692A7BF0109}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{883099CE-DC20-3E4A-9202-BC7C9ADED04D}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{F88663E6-7F49-0949-A407-08B13D7C1AD2}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{FEDC3C91-3EAC-3745-AB5E-53178A93346F}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{C423DFB2-21ED-C645-9114-C610E9C9F9EA}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{05806685-A311-AE44-9D79-BEE84875A16B}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{219A557E-94AC-5C4B-A940-70DA84658974}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{211DB40C-2271-8749-AA4D-31B627659B2A}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{9BEF70A2-F9E6-304A-8435-38125713F72C}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{E8FDA2E8-8255-AC48-B7F9-25BED58F863E}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{759D813B-F8A6-CF47-B4D4-D264232BFFE8}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{5592AF32-135C-DA43-ADAA-85FCC675DDBA}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{BC58B021-D1AD-4A4E-AE89-20177722AC96}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{B481BDC2-49B9-DE4A-9530-4D836AB24645}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{630B8794-6E81-4C49-98FE-41857B80E2B9}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{8C9E43AC-891C-1343-8D15-81F83ADED0DC}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{1345AA76-EE80-1646-9732-FE72FC862FC2}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{3C7C4A14-7F42-3448-810A-C721F5093529}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{87DE6987-CBEE-5046-9129-C957B4B2AC55}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{0C54CDC1-CF3A-3849-9E58-7D1D4C89AC68}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{6314CB0A-1FB6-0D4F-B7F9-0B2D10F286A2}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{AF81E897-5284-004A-B938-5DA1EF393405}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{4371EF25-A360-EF44-8A8A-267F52E21604}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{74AC74A4-E098-9644-99F6-47787C8178A7}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{18390DA4-9007-ED4C-8E89-FABA2F66E8A7}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{C19228EB-CDAF-EC40-96DC-C273C4BC9C74}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{44AD29FC-A81C-A44E-AB55-87EC344A876C}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{5780EA0A-F1A1-2046-AF0F-50AE09E60B6C}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{9FF6D712-E085-2844-94C6-8B3DFCF77A6B}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{2F255511-DB54-F043-A3CE-814F80CAB0D4}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{0F57E7FB-169F-904E-92FB-6C45637AC0BC}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{82581EC6-5B48-0D4F-BAB0-6C793D63366A}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{900C5943-26A4-DE41-A17D-B6B8EBE3C3DD}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{F5C6A5D4-6AE7-384B-86A4-BD05247D0782}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{1074B740-9D48-D648-9D34-DCC504F51ECC}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{4803CD7C-C2CB-C84F-91DA-FF4A25D137A1}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{2C4AB432-1C53-7942-8CC3-635FB7D3CE80}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{4399FAAB-C614-EC4E-B6FB-3BBB0B393592}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{CBB65767-2860-5D44-A539-6248D0BDB1A0}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{66A53365-5ED9-E44B-AF2D-222FE883569D}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{CD2BEDFD-CCEC-EB4E-8B77-0CAF5C983626}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{8737174B-EA50-654D-BC3A-B50CEEF5D7D8}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{D25BB4BF-0330-EC43-AF4D-D789C7605254}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{5F8C4D91-369A-9D48-8ACA-05415375C653}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{7037DB62-ABCA-BE45-B1AF-B7FE5F5A5FA4}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{4DBF3B5C-3FBD-8843-9405-7458FA5D31A4}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{B7B9AB32-5578-1342-AAB8-8A6BFF7D8BCB}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{467574DC-092D-384A-A84A-DE410891C641}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{7A448D38-8237-CC49-AEDB-1B6C2B40A2CE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId118"/>
+    <tablePart r:id="rId117"/>
   </tableParts>
 </worksheet>
 </file>
@@ -34004,10 +34026,10 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41C622-D4C0-3B4D-B06F-80FF76FF705C}">
   <sheetPr codeName="Sheet34"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34016,7 +34038,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="17">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>308</v>
       </c>
@@ -34032,8 +34054,11 @@
       <c r="E1" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51">
+      <c r="F1" s="4" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51">
       <c r="A2" s="2" t="s">
         <v>1695</v>
       </c>
@@ -34043,8 +34068,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="68">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="68">
       <c r="A3" s="2" t="s">
         <v>561</v>
       </c>
@@ -34054,8 +34080,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="51">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="51">
       <c r="A4" s="2" t="s">
         <v>1439</v>
       </c>
@@ -34065,19 +34092,29 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="51">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="68">
       <c r="A5" s="2" t="s">
         <v>1693</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1692</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="51">
+      <c r="C5" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51">
       <c r="A6" s="2" t="s">
         <v>751</v>
       </c>
@@ -34087,8 +34124,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="51">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="2" t="s">
         <v>823</v>
       </c>
@@ -34098,8 +34136,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="51">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="51">
       <c r="A8" s="2" t="s">
         <v>639</v>
       </c>
@@ -34109,8 +34148,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="51">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="2" t="s">
         <v>1217</v>
       </c>
@@ -34120,8 +34160,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="51">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="51">
       <c r="A10" s="2" t="s">
         <v>611</v>
       </c>
@@ -34130,13 +34171,14 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="51">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="51">
       <c r="A11" s="2" t="s">
         <v>635</v>
       </c>
@@ -34146,8 +34188,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="68">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="68">
       <c r="A12" s="2" t="s">
         <v>1731</v>
       </c>
@@ -34157,8 +34200,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="68">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="68">
       <c r="A13" s="2" t="s">
         <v>1703</v>
       </c>
@@ -34168,8 +34212,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="51">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" s="2" t="s">
         <v>741</v>
       </c>
@@ -34179,8 +34224,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="51">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="51">
       <c r="A15" s="2" t="s">
         <v>727</v>
       </c>
@@ -34190,8 +34236,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="51">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="51">
       <c r="A16" s="2" t="s">
         <v>1509</v>
       </c>
@@ -34201,8 +34248,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="51">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="2" t="s">
         <v>1511</v>
       </c>
@@ -34212,8 +34260,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="51">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="51">
       <c r="A18" s="2" t="s">
         <v>1671</v>
       </c>
@@ -34223,8 +34272,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="51">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="51">
       <c r="A19" s="2" t="s">
         <v>629</v>
       </c>
@@ -34234,8 +34284,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="34">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="34">
       <c r="A20" s="2" t="s">
         <v>1701</v>
       </c>
@@ -34245,8 +34296,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="51">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="2" t="s">
         <v>1727</v>
       </c>
@@ -34256,8 +34308,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="68">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="68">
       <c r="A22" s="2" t="s">
         <v>637</v>
       </c>
@@ -34267,8 +34320,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="51">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="51">
       <c r="A23" s="2" t="s">
         <v>1705</v>
       </c>
@@ -34278,8 +34332,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="68">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="68">
       <c r="A24" s="2" t="s">
         <v>1649</v>
       </c>
@@ -34289,8 +34344,9 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="51">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="2" t="s">
         <v>487</v>
       </c>
@@ -34300,8 +34356,9 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="51">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="51">
       <c r="A26" s="2" t="s">
         <v>1503</v>
       </c>
@@ -34311,8 +34368,9 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="51">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="51">
       <c r="A27" s="2" t="s">
         <v>1673</v>
       </c>
@@ -34322,8 +34380,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="51">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="51">
       <c r="A28" s="2" t="s">
         <v>1653</v>
       </c>
@@ -34333,8 +34392,9 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="85">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="85">
       <c r="A29" s="2" t="s">
         <v>265</v>
       </c>
@@ -34344,8 +34404,9 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="85">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="85">
       <c r="A30" s="2" t="s">
         <v>267</v>
       </c>
@@ -34355,8 +34416,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="85">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="85">
       <c r="A31" s="2" t="s">
         <v>1655</v>
       </c>
@@ -34366,8 +34428,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="51">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="51">
       <c r="A32" s="2" t="s">
         <v>1591</v>
       </c>
@@ -34377,8 +34440,9 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="51">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="2" t="s">
         <v>1573</v>
       </c>
@@ -34388,8 +34452,9 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="68">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="68">
       <c r="A34" s="2" t="s">
         <v>831</v>
       </c>
@@ -34399,8 +34464,9 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="51">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="51">
       <c r="A35" s="2" t="s">
         <v>1707</v>
       </c>
@@ -34410,8 +34476,9 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="68">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="68">
       <c r="A36" s="2" t="s">
         <v>721</v>
       </c>
@@ -34421,8 +34488,9 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="51">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="51">
       <c r="A37" s="2" t="s">
         <v>489</v>
       </c>
@@ -34432,8 +34500,9 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="51">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="51">
       <c r="A38" s="2" t="s">
         <v>1733</v>
       </c>
@@ -34443,8 +34512,9 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="51">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="51">
       <c r="A39" s="2" t="s">
         <v>1713</v>
       </c>
@@ -34454,8 +34524,9 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="51">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="51">
       <c r="A40" s="2" t="s">
         <v>1709</v>
       </c>
@@ -34465,8 +34536,9 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="51">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="51">
       <c r="A41" s="2" t="s">
         <v>1659</v>
       </c>
@@ -34476,8 +34548,9 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="51">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="51">
       <c r="A42" s="2" t="s">
         <v>1681</v>
       </c>
@@ -34487,8 +34560,9 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="51">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="51">
       <c r="A43" s="2" t="s">
         <v>589</v>
       </c>
@@ -34498,8 +34572,9 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="51">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="51">
       <c r="A44" s="2" t="s">
         <v>1691</v>
       </c>
@@ -34509,8 +34584,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="51">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="2" t="s">
         <v>591</v>
       </c>
@@ -34520,8 +34596,9 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="51">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="51">
       <c r="A46" s="2" t="s">
         <v>715</v>
       </c>
@@ -34531,8 +34608,9 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="51">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="51">
       <c r="A47" s="2" t="s">
         <v>1711</v>
       </c>
@@ -34542,8 +34620,9 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="51">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="51">
       <c r="A48" s="2" t="s">
         <v>745</v>
       </c>
@@ -34553,8 +34632,9 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="51">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="51">
       <c r="A49" s="2" t="s">
         <v>1651</v>
       </c>
@@ -34564,8 +34644,9 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="51">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="51">
       <c r="A50" s="2" t="s">
         <v>733</v>
       </c>
@@ -34575,8 +34656,9 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="51">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="51">
       <c r="A51" s="2" t="s">
         <v>649</v>
       </c>
@@ -34586,8 +34668,9 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="51">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="51">
       <c r="A52" s="2" t="s">
         <v>1721</v>
       </c>
@@ -34597,8 +34680,9 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="51">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="51">
       <c r="A53" s="2" t="s">
         <v>1667</v>
       </c>
@@ -34608,8 +34692,9 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="51">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="51">
       <c r="A54" s="2" t="s">
         <v>1735</v>
       </c>
@@ -34619,8 +34704,9 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="34">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="34">
       <c r="A55" s="2" t="s">
         <v>1433</v>
       </c>
@@ -34630,8 +34716,9 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="51">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="51">
       <c r="A56" s="2" t="s">
         <v>468</v>
       </c>
@@ -34641,8 +34728,9 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="51">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="51">
       <c r="A57" s="2" t="s">
         <v>1729</v>
       </c>
@@ -34652,8 +34740,9 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="51">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="51">
       <c r="A58" s="2" t="s">
         <v>653</v>
       </c>
@@ -34663,8 +34752,9 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="51">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="51">
       <c r="A59" s="2" t="s">
         <v>1445</v>
       </c>
@@ -34674,8 +34764,9 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="68">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="68">
       <c r="A60" s="2" t="s">
         <v>1723</v>
       </c>
@@ -34685,8 +34776,9 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="153">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="153">
       <c r="A61" s="2" t="s">
         <v>1725</v>
       </c>
@@ -34694,16 +34786,17 @@
         <v>1724</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="51">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="51">
       <c r="A62" s="2" t="s">
         <v>1687</v>
       </c>
@@ -34713,8 +34806,9 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="51">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="51">
       <c r="A63" s="2" t="s">
         <v>719</v>
       </c>
@@ -34728,8 +34822,9 @@
       <c r="E63" s="2" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="51">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="51">
       <c r="A64" s="2" t="s">
         <v>555</v>
       </c>
@@ -34739,8 +34834,9 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="51">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="51">
       <c r="A65" s="2" t="s">
         <v>1683</v>
       </c>
@@ -34750,8 +34846,9 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="51">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="51">
       <c r="A66" s="2" t="s">
         <v>1697</v>
       </c>
@@ -34761,8 +34858,9 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="51">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" ht="51">
       <c r="A67" s="2" t="s">
         <v>633</v>
       </c>
@@ -34778,8 +34876,9 @@
       <c r="E67" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="51">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="51">
       <c r="A68" s="2" t="s">
         <v>1153</v>
       </c>
@@ -34789,8 +34888,9 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="51">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" ht="51">
       <c r="A69" s="2" t="s">
         <v>557</v>
       </c>
@@ -34800,8 +34900,9 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="51">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="51">
       <c r="A70" s="2" t="s">
         <v>1663</v>
       </c>
@@ -34811,8 +34912,9 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" ht="51">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="51">
       <c r="A71" s="2" t="s">
         <v>1661</v>
       </c>
@@ -34822,8 +34924,9 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="34">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="34">
       <c r="A72" s="2" t="s">
         <v>749</v>
       </c>
@@ -34833,8 +34936,9 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="68">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" ht="68">
       <c r="A73" s="2" t="s">
         <v>747</v>
       </c>
@@ -34842,14 +34946,15 @@
         <v>746</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>1820</v>
       </c>
       <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="34">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="34">
       <c r="A74" s="2" t="s">
         <v>1717</v>
       </c>
@@ -34863,8 +34968,9 @@
       <c r="E74" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="34">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="34">
       <c r="A75" s="2" t="s">
         <v>1679</v>
       </c>
@@ -34874,8 +34980,9 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="68">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" ht="68">
       <c r="A76" s="2" t="s">
         <v>725</v>
       </c>
@@ -34885,8 +34992,9 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="68">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="68">
       <c r="A77" s="2" t="s">
         <v>743</v>
       </c>
@@ -34896,8 +35004,9 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="51">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="51">
       <c r="A78" s="2" t="s">
         <v>1685</v>
       </c>
@@ -34907,8 +35016,9 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="51">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="51">
       <c r="A79" s="2" t="s">
         <v>755</v>
       </c>
@@ -34918,8 +35028,9 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="51">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="51">
       <c r="A80" s="2" t="s">
         <v>1021</v>
       </c>
@@ -34929,8 +35040,9 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="51">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" ht="51">
       <c r="A81" s="2" t="s">
         <v>685</v>
       </c>
@@ -34940,8 +35052,9 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="34">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="34">
       <c r="A82" s="2" t="s">
         <v>753</v>
       </c>
@@ -34955,8 +35068,9 @@
       <c r="E82" s="2" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="51">
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" ht="51">
       <c r="A83" s="2" t="s">
         <v>1665</v>
       </c>
@@ -34966,8 +35080,9 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="68">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="68">
       <c r="A84" s="2" t="s">
         <v>1675</v>
       </c>
@@ -34977,8 +35092,9 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="51">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" ht="51">
       <c r="A85" s="2" t="s">
         <v>805</v>
       </c>
@@ -34988,8 +35104,9 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="51">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="51">
       <c r="A86" s="2" t="s">
         <v>1715</v>
       </c>
@@ -34999,8 +35116,9 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="51">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" ht="51">
       <c r="A87" s="2" t="s">
         <v>1657</v>
       </c>
@@ -35010,8 +35128,9 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="68">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" ht="68">
       <c r="A88" s="2" t="s">
         <v>1669</v>
       </c>
@@ -35021,8 +35140,9 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="51">
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" ht="51">
       <c r="A89" s="2" t="s">
         <v>1699</v>
       </c>
@@ -35032,8 +35152,9 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="51">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="51">
       <c r="A90" s="2" t="s">
         <v>665</v>
       </c>
@@ -35043,8 +35164,9 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="51">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" ht="51">
       <c r="A91" s="2" t="s">
         <v>1719</v>
       </c>
@@ -35052,7 +35174,7 @@
         <v>1718</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>1820</v>
@@ -35060,8 +35182,9 @@
       <c r="E91" s="2" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="51">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" ht="51">
       <c r="A92" s="2" t="s">
         <v>739</v>
       </c>
@@ -35071,8 +35194,9 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="51">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="51">
       <c r="A93" s="2" t="s">
         <v>613</v>
       </c>
@@ -35088,8 +35212,9 @@
       <c r="E93" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="51">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" ht="51">
       <c r="A94" s="2" t="s">
         <v>1677</v>
       </c>
@@ -35099,8 +35224,9 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="51">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" ht="51">
       <c r="A95" s="2" t="s">
         <v>1689</v>
       </c>
@@ -35110,8 +35236,9 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="51">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="51">
       <c r="A96" s="2" t="s">
         <v>969</v>
       </c>
@@ -35121,8 +35248,9 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="51">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" ht="51">
       <c r="A97" s="2" t="s">
         <v>1005</v>
       </c>
@@ -35132,8 +35260,9 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="51">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" ht="51">
       <c r="A98" s="2" t="s">
         <v>1647</v>
       </c>
@@ -35143,8 +35272,9 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="51">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="51">
       <c r="A99" s="2" t="s">
         <v>729</v>
       </c>
@@ -35154,8 +35284,9 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" ht="68">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="68">
       <c r="A100" s="2" t="s">
         <v>1505</v>
       </c>
@@ -35165,6 +35296,7 @@
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -36083,10 +36215,10 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3C4E19-5000-FE4F-BCA4-5A3D1F6EC209}">
   <sheetPr codeName="Sheet36"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36095,7 +36227,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="17">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>308</v>
       </c>
@@ -36111,8 +36243,11 @@
       <c r="E1" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="34">
+      <c r="F1" s="4" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34">
       <c r="A2" s="2" t="s">
         <v>177</v>
       </c>
@@ -36122,8 +36257,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="34">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="34">
       <c r="A3" s="2" t="s">
         <v>301</v>
       </c>
@@ -36133,8 +36269,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="34">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="34">
       <c r="A4" s="2" t="s">
         <v>233</v>
       </c>
@@ -36144,8 +36281,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="51">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="2" t="s">
         <v>1741</v>
       </c>
@@ -36155,8 +36293,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="34">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="34">
       <c r="A6" s="2" t="s">
         <v>299</v>
       </c>
@@ -36166,8 +36305,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="51">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="2" t="s">
         <v>1477</v>
       </c>
@@ -36177,8 +36317,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="51">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="51">
       <c r="A8" s="2" t="s">
         <v>1101</v>
       </c>
@@ -36188,8 +36329,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="51">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="2" t="s">
         <v>1041</v>
       </c>
@@ -36199,8 +36341,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="34">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -36210,8 +36353,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="51">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="51">
       <c r="A11" s="2" t="s">
         <v>303</v>
       </c>
@@ -36221,8 +36365,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="68">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="68">
       <c r="A12" s="2" t="s">
         <v>169</v>
       </c>
@@ -36238,8 +36383,9 @@
       <c r="E12" s="2" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="51">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="51">
       <c r="A13" s="2" t="s">
         <v>1743</v>
       </c>
@@ -36249,19 +36395,27 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="51">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="409.6">
       <c r="A14" s="2" t="s">
         <v>1619</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>1879</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="51">
+      <c r="E14" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51">
       <c r="A15" s="2" t="s">
         <v>450</v>
       </c>
@@ -36271,8 +36425,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="51">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="51">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
@@ -36282,8 +36437,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="51">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
@@ -36293,8 +36449,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="51">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="51">
       <c r="A18" s="2" t="s">
         <v>1253</v>
       </c>
@@ -36304,8 +36461,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="51">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="51">
       <c r="A19" s="2" t="s">
         <v>1271</v>
       </c>
@@ -36315,8 +36473,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="51">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="51">
       <c r="A20" s="2" t="s">
         <v>1513</v>
       </c>
@@ -36326,8 +36485,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="51">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="2" t="s">
         <v>1745</v>
       </c>
@@ -36337,8 +36497,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="68">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="68">
       <c r="A22" s="2" t="s">
         <v>1215</v>
       </c>
@@ -36348,8 +36509,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="68">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="68">
       <c r="A23" s="2" t="s">
         <v>1173</v>
       </c>
@@ -36359,8 +36521,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="68">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="68">
       <c r="A24" s="2" t="s">
         <v>1457</v>
       </c>
@@ -36370,8 +36533,9 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="51">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="2" t="s">
         <v>1753</v>
       </c>
@@ -36381,8 +36545,9 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="136">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="221">
       <c r="A26" s="2" t="s">
         <v>203</v>
       </c>
@@ -36390,14 +36555,17 @@
         <v>202</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="51">
+        <v>1807</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="51">
       <c r="A27" s="2" t="s">
         <v>245</v>
       </c>
@@ -36407,8 +36575,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="51">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="51">
       <c r="A28" s="2" t="s">
         <v>1165</v>
       </c>
@@ -36418,8 +36587,9 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="51">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="2" t="s">
         <v>1749</v>
       </c>
@@ -36429,8 +36599,9 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="85">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="85">
       <c r="A30" s="2" t="s">
         <v>229</v>
       </c>
@@ -36444,8 +36615,9 @@
       <c r="E30" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="51">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="51">
       <c r="A31" s="2" t="s">
         <v>1259</v>
       </c>
@@ -36455,8 +36627,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="51">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="51">
       <c r="A32" s="2" t="s">
         <v>1051</v>
       </c>
@@ -36466,8 +36639,9 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="34">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="2" t="s">
         <v>1275</v>
       </c>
@@ -36477,8 +36651,9 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="51">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="51">
       <c r="A34" s="2" t="s">
         <v>1751</v>
       </c>
@@ -36488,8 +36663,9 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="51">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="51">
       <c r="A35" s="2" t="s">
         <v>869</v>
       </c>
@@ -36499,8 +36675,9 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="68">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="68">
       <c r="A36" s="2" t="s">
         <v>205</v>
       </c>
@@ -36510,8 +36687,9 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="68">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="68">
       <c r="A37" s="2" t="s">
         <v>273</v>
       </c>
@@ -36521,8 +36699,9 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="85">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="85">
       <c r="A38" s="2" t="s">
         <v>227</v>
       </c>
@@ -36536,8 +36715,9 @@
       <c r="E38" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="51">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="51">
       <c r="A39" s="2" t="s">
         <v>1285</v>
       </c>
@@ -36547,8 +36727,9 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="34">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="34">
       <c r="A40" s="2" t="s">
         <v>1615</v>
       </c>
@@ -36562,8 +36743,9 @@
       <c r="E40" s="2" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="51">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="51">
       <c r="A41" s="2" t="s">
         <v>1613</v>
       </c>
@@ -36573,8 +36755,9 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="34">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="34">
       <c r="A42" s="2" t="s">
         <v>1281</v>
       </c>
@@ -36584,8 +36767,9 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="51">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="51">
       <c r="A43" s="2" t="s">
         <v>1137</v>
       </c>
@@ -36595,8 +36779,9 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="34">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="34">
       <c r="A44" s="2" t="s">
         <v>179</v>
       </c>
@@ -36606,8 +36791,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="51">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="2" t="s">
         <v>1383</v>
       </c>
@@ -36617,8 +36803,9 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="51">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="51">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -36628,8 +36815,9 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="68">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="68">
       <c r="A47" s="2" t="s">
         <v>1219</v>
       </c>
@@ -36639,8 +36827,9 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="51">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="51">
       <c r="A48" s="2" t="s">
         <v>187</v>
       </c>
@@ -36650,8 +36839,9 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="51">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="51">
       <c r="A49" s="2" t="s">
         <v>249</v>
       </c>
@@ -36661,8 +36851,9 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="51">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="51">
       <c r="A50" s="2" t="s">
         <v>1747</v>
       </c>
@@ -36672,8 +36863,9 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="68">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="68">
       <c r="A51" s="2" t="s">
         <v>1639</v>
       </c>
@@ -36687,92 +36879,93 @@
       <c r="E51" s="2" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -38696,7 +38889,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38752,10 +38945,10 @@
         <v>397</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1805</v>
@@ -39506,8 +39699,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40541,10 +40734,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0844B8D-8438-814F-AD6E-4C941E50EFCB}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40553,7 +40746,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="17">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>308</v>
       </c>
@@ -40569,8 +40762,11 @@
       <c r="E1" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51">
+      <c r="F1" s="4" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51">
       <c r="A2" s="2" t="s">
         <v>501</v>
       </c>
@@ -40580,8 +40776,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="34">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="34">
       <c r="A3" s="2" t="s">
         <v>326</v>
       </c>
@@ -40591,8 +40788,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="51">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="51">
       <c r="A4" s="2" t="s">
         <v>537</v>
       </c>
@@ -40602,8 +40800,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="51">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="2" t="s">
         <v>493</v>
       </c>
@@ -40613,8 +40812,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="68">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="68">
       <c r="A6" s="2" t="s">
         <v>513</v>
       </c>
@@ -40624,8 +40824,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="34">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="34">
       <c r="A7" s="2" t="s">
         <v>531</v>
       </c>
@@ -40635,8 +40836,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="51">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="51">
       <c r="A8" s="2" t="s">
         <v>517</v>
       </c>
@@ -40646,8 +40848,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="51">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="2" t="s">
         <v>356</v>
       </c>
@@ -40657,8 +40860,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="204">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="204">
       <c r="A10" s="2" t="s">
         <v>505</v>
       </c>
@@ -40672,8 +40876,9 @@
         <v>1801</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="51">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="51">
       <c r="A11" s="2" t="s">
         <v>511</v>
       </c>
@@ -40683,8 +40888,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="34">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="34">
       <c r="A12" s="2" t="s">
         <v>499</v>
       </c>
@@ -40694,8 +40900,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="51">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="51">
       <c r="A13" s="2" t="s">
         <v>314</v>
       </c>
@@ -40705,8 +40912,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="51">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" s="2" t="s">
         <v>175</v>
       </c>
@@ -40716,8 +40924,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="68">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="68">
       <c r="A15" s="2" t="s">
         <v>533</v>
       </c>
@@ -40727,8 +40936,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="68">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="68">
       <c r="A16" s="2" t="s">
         <v>509</v>
       </c>
@@ -40738,8 +40948,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="68">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="68">
       <c r="A17" s="2" t="s">
         <v>324</v>
       </c>
@@ -40749,8 +40960,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="51">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="51">
       <c r="A18" s="2" t="s">
         <v>201</v>
       </c>
@@ -40758,10 +40970,15 @@
         <v>200</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="51">
+      <c r="D18" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="51">
       <c r="A19" s="2" t="s">
         <v>503</v>
       </c>
@@ -40771,19 +40988,29 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="51">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="68">
       <c r="A20" s="2" t="s">
         <v>525</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="34">
+      <c r="C20" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34">
       <c r="A21" s="2" t="s">
         <v>529</v>
       </c>
@@ -40793,8 +41020,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="34">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="34">
       <c r="A22" s="2" t="s">
         <v>527</v>
       </c>
@@ -40804,8 +41032,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="68">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="68">
       <c r="A23" s="2" t="s">
         <v>495</v>
       </c>
@@ -40815,8 +41044,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="51">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="51">
       <c r="A24" s="2" t="s">
         <v>497</v>
       </c>
@@ -40826,97 +41056,113 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="34">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="34">
+      <c r="A25" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="34">
       <c r="A26" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="34">
+        <v>520</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="51">
       <c r="A27" s="2" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1802</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51">
+        <v>540</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="51">
       <c r="A28" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="51">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="34">
       <c r="A29" s="2" t="s">
-        <v>535</v>
+        <v>277</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>534</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="34">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="51">
       <c r="A30" s="2" t="s">
-        <v>277</v>
+        <v>519</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>276</v>
+        <v>518</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="51">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="51">
       <c r="A31" s="2" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="51">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="51">
       <c r="A32" s="2" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="51">
-      <c r="A33" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>514</v>
-      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -41383,19 +41629,12 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{B0FF824F-1BF2-DF47-A60C-4CB448E54FA0}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{8BDF0930-E22B-074C-935C-975E5629DB4C}"/>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{B0FF824F-1BF2-DF47-A60C-4CB448E54FA0}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{8BDF0930-E22B-074C-935C-975E5629DB4C}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{A7C5DD2D-CD3F-5D45-9049-EFE993A460F2}"/>
-    <hyperlink ref="B29" r:id="rId4" xr:uid="{B8CEDFB1-4EBB-0444-A56A-9607255F454D}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{B8CEDFB1-4EBB-0444-A56A-9607255F454D}"/>
     <hyperlink ref="B15" r:id="rId5" xr:uid="{838A719A-D2DE-2544-BAE3-DB1B1AD581D1}"/>
     <hyperlink ref="B9" r:id="rId6" xr:uid="{F37473E9-569E-EB4E-A018-66E20F5C89BD}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{37F5796F-F5E0-9E42-AC86-8B9325AED127}"/>
@@ -41403,18 +41642,18 @@
     <hyperlink ref="B22" r:id="rId9" xr:uid="{B356948F-8720-0F4D-810C-351C5E540109}"/>
     <hyperlink ref="B18" r:id="rId10" xr:uid="{BBE584FB-EAA3-BC41-B8BE-20BCAF818561}"/>
     <hyperlink ref="B20" r:id="rId11" xr:uid="{4019EB64-F6C2-5A45-98FF-933355703E60}"/>
-    <hyperlink ref="B26" r:id="rId12" xr:uid="{1F131D08-5E90-7C48-8C05-B570DE442407}"/>
+    <hyperlink ref="B25" r:id="rId12" xr:uid="{1F131D08-5E90-7C48-8C05-B570DE442407}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{6CE0B3D4-DA6E-F04A-B53F-C76DC81AD73E}"/>
-    <hyperlink ref="B27" r:id="rId14" xr:uid="{D0D3B853-8F3E-1F4A-8EE7-DC87F8F2532A}"/>
-    <hyperlink ref="B31" r:id="rId15" xr:uid="{DCEBE03C-58E5-294D-BB79-3DCB3962543E}"/>
+    <hyperlink ref="B26" r:id="rId14" xr:uid="{D0D3B853-8F3E-1F4A-8EE7-DC87F8F2532A}"/>
+    <hyperlink ref="B30" r:id="rId15" xr:uid="{DCEBE03C-58E5-294D-BB79-3DCB3962543E}"/>
     <hyperlink ref="B8" r:id="rId16" xr:uid="{0048F109-62A0-9D46-91B1-4A4F9BC5B7DC}"/>
-    <hyperlink ref="B33" r:id="rId17" xr:uid="{B994F5D1-E7FC-3F49-BEE5-5B5A041D534C}"/>
+    <hyperlink ref="B32" r:id="rId17" xr:uid="{B994F5D1-E7FC-3F49-BEE5-5B5A041D534C}"/>
     <hyperlink ref="B3" r:id="rId18" xr:uid="{DED6D220-7B15-DE48-ABCD-9290D56B08AA}"/>
     <hyperlink ref="B6" r:id="rId19" xr:uid="{7CA975D2-13D4-7749-BD4D-835EFCA5F28B}"/>
     <hyperlink ref="B17" r:id="rId20" xr:uid="{E62B94C8-9889-E947-BD2E-7D8571BD2B4D}"/>
     <hyperlink ref="B11" r:id="rId21" xr:uid="{06449CE4-61E6-4646-8236-A02594F2BAA6}"/>
     <hyperlink ref="B16" r:id="rId22" xr:uid="{BDE76662-E473-EE41-A77B-153ACA58DFD4}"/>
-    <hyperlink ref="B32" r:id="rId23" xr:uid="{C5C0C9BA-C819-D543-BD52-CF81775B03C0}"/>
+    <hyperlink ref="B31" r:id="rId23" xr:uid="{C5C0C9BA-C819-D543-BD52-CF81775B03C0}"/>
     <hyperlink ref="B10" r:id="rId24" xr:uid="{E22BDF8C-32A7-FC41-BEE3-0493467B9CC9}"/>
     <hyperlink ref="B19" r:id="rId25" xr:uid="{F6C4C8E4-9254-2A4F-AD05-C43E8AD7334A}"/>
     <hyperlink ref="B2" r:id="rId26" xr:uid="{0AFADEA9-86AE-D444-A10F-FAC2D199B991}"/>
@@ -42182,10 +42421,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7E5A2A-21F9-5643-80C4-AD277614177D}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42194,7 +42433,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="17">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>308</v>
       </c>
@@ -42210,30 +42449,49 @@
       <c r="E1" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="68">
+      <c r="F1" s="4" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="68">
       <c r="A2" s="2" t="s">
         <v>637</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="51">
+      <c r="C2" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="85">
       <c r="A3" s="2" t="s">
         <v>635</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="51">
+      <c r="C3" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51">
       <c r="A4" s="2" t="s">
         <v>633</v>
       </c>
@@ -42241,16 +42499,17 @@
         <v>632</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="51">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="2" t="s">
         <v>631</v>
       </c>
@@ -42260,8 +42519,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="51">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="51">
       <c r="A6" s="2" t="s">
         <v>629</v>
       </c>
@@ -42271,8 +42531,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="51">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="2" t="s">
         <v>627</v>
       </c>
@@ -42282,8 +42543,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="51">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="51">
       <c r="A8" s="2" t="s">
         <v>625</v>
       </c>
@@ -42293,8 +42555,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="51">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="2" t="s">
         <v>623</v>
       </c>
@@ -42304,8 +42567,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="51">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="51">
       <c r="A10" s="2" t="s">
         <v>621</v>
       </c>
@@ -42315,8 +42579,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="51">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="51">
       <c r="A11" s="2" t="s">
         <v>619</v>
       </c>
@@ -42326,8 +42591,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="68">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="68">
       <c r="A12" s="2" t="s">
         <v>617</v>
       </c>
@@ -42337,8 +42603,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="51">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="51">
       <c r="A13" s="2" t="s">
         <v>615</v>
       </c>
@@ -42348,8 +42615,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="51">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" s="2" t="s">
         <v>611</v>
       </c>
@@ -42359,8 +42627,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="51">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="51">
       <c r="A15" s="2" t="s">
         <v>609</v>
       </c>
@@ -42370,8 +42639,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="34">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="34">
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
@@ -42381,8 +42651,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="34">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="34">
       <c r="A17" s="2" t="s">
         <v>607</v>
       </c>
@@ -42392,8 +42663,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="51">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="51">
       <c r="A18" s="2" t="s">
         <v>605</v>
       </c>
@@ -42403,8 +42675,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="68">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="68">
       <c r="A19" s="2" t="s">
         <v>603</v>
       </c>
@@ -42414,8 +42687,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="51">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="51">
       <c r="A20" s="2" t="s">
         <v>601</v>
       </c>
@@ -42425,8 +42699,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="51">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="2" t="s">
         <v>599</v>
       </c>
@@ -42436,8 +42711,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="34">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="34">
       <c r="A22" s="2" t="s">
         <v>597</v>
       </c>
@@ -42447,8 +42723,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="34">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="34">
       <c r="A23" s="2" t="s">
         <v>595</v>
       </c>
@@ -42458,8 +42735,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="34">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="34">
       <c r="A24" s="2" t="s">
         <v>593</v>
       </c>
@@ -42469,8 +42747,9 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="51">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="2" t="s">
         <v>591</v>
       </c>
@@ -42480,8 +42759,9 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="51">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="51">
       <c r="A26" s="2" t="s">
         <v>589</v>
       </c>
@@ -42491,8 +42771,9 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="34">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="34">
       <c r="A27" s="2" t="s">
         <v>587</v>
       </c>
@@ -42502,8 +42783,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="34">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="34">
       <c r="A28" s="2" t="s">
         <v>585</v>
       </c>
@@ -42513,8 +42795,9 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="51">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="2" t="s">
         <v>583</v>
       </c>
@@ -42524,8 +42807,9 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="51">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="51">
       <c r="A30" s="2" t="s">
         <v>581</v>
       </c>
@@ -42535,8 +42819,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="34">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="34">
       <c r="A31" s="2" t="s">
         <v>579</v>
       </c>
@@ -42546,8 +42831,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="51">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="51">
       <c r="A32" s="2" t="s">
         <v>577</v>
       </c>
@@ -42557,8 +42843,9 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="34">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="2" t="s">
         <v>575</v>
       </c>
@@ -42568,8 +42855,9 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="34">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="2" t="s">
         <v>573</v>
       </c>
@@ -42579,8 +42867,9 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="51">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="51">
       <c r="A35" s="2" t="s">
         <v>571</v>
       </c>
@@ -42590,8 +42879,9 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="51">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="51">
       <c r="A36" s="2" t="s">
         <v>569</v>
       </c>
@@ -42601,8 +42891,9 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="34">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="34">
       <c r="A37" s="2" t="s">
         <v>567</v>
       </c>
@@ -42612,8 +42903,9 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="51">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="51">
       <c r="A38" s="2" t="s">
         <v>565</v>
       </c>
@@ -42623,8 +42915,9 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="51">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="51">
       <c r="A39" s="2" t="s">
         <v>563</v>
       </c>
@@ -42634,8 +42927,9 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="68">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="68">
       <c r="A40" s="2" t="s">
         <v>561</v>
       </c>
@@ -42645,8 +42939,9 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="51">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="51">
       <c r="A41" s="2" t="s">
         <v>559</v>
       </c>
@@ -42656,8 +42951,9 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="51">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="51">
       <c r="A42" s="2" t="s">
         <v>557</v>
       </c>
@@ -42667,8 +42963,9 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="51">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="51">
       <c r="A43" s="2" t="s">
         <v>555</v>
       </c>
@@ -42678,8 +42975,9 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="51">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="51">
       <c r="A44" s="2" t="s">
         <v>553</v>
       </c>
@@ -42689,8 +42987,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="51">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="2" t="s">
         <v>551</v>
       </c>
@@ -42700,8 +42999,9 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="51">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="51">
       <c r="A46" s="2" t="s">
         <v>549</v>
       </c>
@@ -42711,15 +43011,16 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>

--- a/practice/ltcode.xlsx
+++ b/practice/ltcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visawant/gen-next/vagrant/shared/fft-py/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B424133A-F8AD-4546-BFE4-4A6E8475D885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF91B32-C7DF-9F43-9D54-FCA13663D92A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1380" windowWidth="28040" windowHeight="17440" firstSheet="17" activeTab="29" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
+    <workbookView xWindow="2960" yWindow="1400" windowWidth="28040" windowHeight="17440" firstSheet="22" activeTab="25" xr2:uid="{394034B5-F576-0A4C-9A1E-EAAAF830A88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="38" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1893">
   <si>
     <t>https://leetcode.com/problems/maximum-width-ramp</t>
   </si>
@@ -5813,6 +5813,25 @@
   <si>
     <t>&gt; Sort
 &gt; W/ hash map/dict</t>
+  </si>
+  <si>
+    <t>&gt; Ask questions 
+1. What type of keys, size, expected complexity</t>
+  </si>
+  <si>
+    <t>&gt; Visualize</t>
+  </si>
+  <si>
+    <t>&gt; Sort + 2 pointer + Handle duplicate - skip next repeating element for every selection</t>
+  </si>
+  <si>
+    <t>&gt; Trick - 2 Pointer check check value with current pointer and use replace pointer to swap element</t>
+  </si>
+  <si>
+    <t>Runnin sum trick</t>
+  </si>
+  <si>
+    <t>&gt; How to efficiently return the result by optmizing time and space?</t>
   </si>
 </sst>
 </file>
@@ -5896,15 +5915,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5921,6 +5946,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -5962,7 +6002,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7396,7 +7438,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7545,10 +7587,10 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{05A13C44-4AE2-AF4C-8422-8DE042D27391}" name="hash-table_table" displayName="hash_table_table" ref="A1:E93" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
-  <autoFilter ref="A1:E93" xr:uid="{0B615990-A03E-3E47-911B-88E684A3161B}"/>
-  <sortState ref="A2:E93">
-    <sortCondition ref="A1:A93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{05A13C44-4AE2-AF4C-8422-8DE042D27391}" name="hash-table_table" displayName="hash_table_table" ref="A1:E92" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="A1:E92" xr:uid="{0B615990-A03E-3E47-911B-88E684A3161B}"/>
+  <sortState ref="A2:E92">
+    <sortCondition ref="A1:A92"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{26CDA143-15AD-D34E-B1D7-993A973A521C}" name="Problem statement" dataDxfId="135"/>
@@ -7591,10 +7633,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FB0C4A6-78E1-AB4B-99B4-C30F903B4029}" name="array_table" displayName="array_table" ref="A1:E149" totalsRowShown="0" headerRowDxfId="235">
-  <autoFilter ref="A1:E149" xr:uid="{328971D1-A5DE-BE4D-8D0D-E6893AEFD892}"/>
-  <sortState ref="A2:E149">
-    <sortCondition ref="A1:A149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FB0C4A6-78E1-AB4B-99B4-C30F903B4029}" name="array_table" displayName="array_table" ref="A1:E148" totalsRowShown="0" headerRowDxfId="235">
+  <autoFilter ref="A1:E148" xr:uid="{328971D1-A5DE-BE4D-8D0D-E6893AEFD892}"/>
+  <sortState ref="A2:E148">
+    <sortCondition ref="A1:A148"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2291C374-7F8E-3A4F-A84D-D1CF8927A7F4}" name="Problem statement" dataDxfId="234"/>
@@ -8274,8 +8316,8 @@
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -8283,7 +8325,7 @@
     <col min="1" max="1" width="47.1640625" style="9" customWidth="1"/>
     <col min="2" max="4" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="37.1640625" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="24">
@@ -8299,8 +8341,9 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="22">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="44">
       <c r="A2" s="7" t="s">
         <v>1759</v>
       </c>
@@ -9126,8 +9169,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9816,8 +9859,12 @@
         <v>746</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="68">
       <c r="A62" s="2" t="s">
@@ -10290,8 +10337,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10680,15 +10727,19 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="51">
+    <row r="35" spans="1:5" ht="68">
       <c r="A35" s="2" t="s">
         <v>765</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1888</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="51">
@@ -11216,7 +11267,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12035,8 +12086,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12293,16 +12344,22 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="51">
+    <row r="23" spans="1:5" ht="68">
       <c r="A23" s="2" t="s">
         <v>983</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="51">
       <c r="A24" s="2" t="s">
@@ -16061,10 +16118,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535FF035-F12B-B748-BED0-1904403C7C7E}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16263,32 +16320,32 @@
     </row>
     <row r="17" spans="1:5" ht="51">
       <c r="A17" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="51">
+    <row r="18" spans="1:5" ht="34">
       <c r="A18" s="2" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="34">
+    <row r="19" spans="1:5" ht="51">
       <c r="A19" s="2" t="s">
-        <v>791</v>
+        <v>1145</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>790</v>
+        <v>1144</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -16296,10 +16353,10 @@
     </row>
     <row r="20" spans="1:5" ht="51">
       <c r="A20" s="2" t="s">
-        <v>1145</v>
+        <v>581</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1144</v>
+        <v>580</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -16307,10 +16364,10 @@
     </row>
     <row r="21" spans="1:5" ht="51">
       <c r="A21" s="2" t="s">
-        <v>581</v>
+        <v>1149</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>580</v>
+        <v>1148</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -16318,10 +16375,10 @@
     </row>
     <row r="22" spans="1:5" ht="51">
       <c r="A22" s="2" t="s">
-        <v>1149</v>
+        <v>1163</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1148</v>
+        <v>1162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -16329,10 +16386,10 @@
     </row>
     <row r="23" spans="1:5" ht="51">
       <c r="A23" s="2" t="s">
-        <v>1163</v>
+        <v>1115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1162</v>
+        <v>1114</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -16340,10 +16397,10 @@
     </row>
     <row r="24" spans="1:5" ht="51">
       <c r="A24" s="2" t="s">
-        <v>1115</v>
+        <v>1139</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1114</v>
+        <v>1138</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -16351,10 +16408,10 @@
     </row>
     <row r="25" spans="1:5" ht="51">
       <c r="A25" s="2" t="s">
-        <v>1139</v>
+        <v>517</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1138</v>
+        <v>516</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -16362,66 +16419,66 @@
     </row>
     <row r="26" spans="1:5" ht="51">
       <c r="A26" s="2" t="s">
-        <v>517</v>
+        <v>1119</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>1118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="51">
       <c r="A27" s="2" t="s">
-        <v>1119</v>
+        <v>1213</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>1807</v>
-      </c>
+        <v>1212</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="51">
       <c r="A28" s="2" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>1194</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="51">
       <c r="A29" s="2" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="51">
+        <v>1206</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="34">
       <c r="A30" s="2" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -16429,21 +16486,21 @@
     </row>
     <row r="31" spans="1:5" ht="34">
       <c r="A31" s="2" t="s">
-        <v>1203</v>
+        <v>1179</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1202</v>
+        <v>1178</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="34">
+    <row r="32" spans="1:5" ht="51">
       <c r="A32" s="2" t="s">
-        <v>1179</v>
+        <v>1131</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1178</v>
+        <v>1130</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -16451,32 +16508,32 @@
     </row>
     <row r="33" spans="1:5" ht="51">
       <c r="A33" s="2" t="s">
-        <v>1131</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1130</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="51">
+    <row r="34" spans="1:5" ht="68">
       <c r="A34" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="68">
+    <row r="35" spans="1:5" ht="51">
       <c r="A35" s="2" t="s">
-        <v>157</v>
+        <v>1157</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>156</v>
+        <v>1156</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -16484,10 +16541,10 @@
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="2" t="s">
-        <v>1157</v>
+        <v>1211</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1156</v>
+        <v>1210</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -16495,21 +16552,21 @@
     </row>
     <row r="37" spans="1:5" ht="51">
       <c r="A37" s="2" t="s">
-        <v>1211</v>
+        <v>1111</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1210</v>
+        <v>1110</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="51">
+    <row r="38" spans="1:5" ht="34">
       <c r="A38" s="2" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1110</v>
+        <v>1154</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -16517,54 +16574,54 @@
     </row>
     <row r="39" spans="1:5" ht="34">
       <c r="A39" s="2" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="34">
+    <row r="40" spans="1:5" ht="51">
       <c r="A40" s="2" t="s">
-        <v>1169</v>
+        <v>789</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1168</v>
+        <v>788</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51">
+    <row r="41" spans="1:5" ht="68">
       <c r="A41" s="2" t="s">
-        <v>789</v>
+        <v>1143</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>788</v>
+        <v>1142</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="68">
+    <row r="42" spans="1:5" ht="51">
       <c r="A42" s="2" t="s">
-        <v>1143</v>
+        <v>1167</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1142</v>
+        <v>1166</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="51">
+    <row r="43" spans="1:5" ht="68">
       <c r="A43" s="2" t="s">
-        <v>1167</v>
+        <v>1199</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1166</v>
+        <v>1198</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -16572,10 +16629,10 @@
     </row>
     <row r="44" spans="1:5" ht="68">
       <c r="A44" s="2" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -16583,21 +16640,21 @@
     </row>
     <row r="45" spans="1:5" ht="68">
       <c r="A45" s="2" t="s">
-        <v>1215</v>
+        <v>1173</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1214</v>
+        <v>1172</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="68">
+    <row r="46" spans="1:5" ht="51">
       <c r="A46" s="2" t="s">
-        <v>1173</v>
+        <v>1127</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1172</v>
+        <v>1126</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -16605,10 +16662,10 @@
     </row>
     <row r="47" spans="1:5" ht="51">
       <c r="A47" s="2" t="s">
-        <v>1127</v>
+        <v>1187</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1126</v>
+        <v>1186</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -16616,10 +16673,10 @@
     </row>
     <row r="48" spans="1:5" ht="51">
       <c r="A48" s="2" t="s">
-        <v>1187</v>
+        <v>225</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1186</v>
+        <v>224</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -16627,10 +16684,10 @@
     </row>
     <row r="49" spans="1:5" ht="51">
       <c r="A49" s="2" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -16638,21 +16695,21 @@
     </row>
     <row r="50" spans="1:5" ht="51">
       <c r="A50" s="2" t="s">
-        <v>117</v>
+        <v>1103</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>1102</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="51">
+    <row r="51" spans="1:5" ht="68">
       <c r="A51" s="2" t="s">
-        <v>1103</v>
+        <v>81</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1102</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -16660,21 +16717,21 @@
     </row>
     <row r="52" spans="1:5" ht="68">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>1191</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>1190</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="68">
+    <row r="53" spans="1:5" ht="51">
       <c r="A53" s="2" t="s">
-        <v>1191</v>
+        <v>1099</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1190</v>
+        <v>1098</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -16682,10 +16739,10 @@
     </row>
     <row r="54" spans="1:5" ht="51">
       <c r="A54" s="2" t="s">
-        <v>1099</v>
+        <v>1141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1098</v>
+        <v>1140</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -16693,10 +16750,10 @@
     </row>
     <row r="55" spans="1:5" ht="51">
       <c r="A55" s="2" t="s">
-        <v>1141</v>
+        <v>1165</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1140</v>
+        <v>1164</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -16704,47 +16761,47 @@
     </row>
     <row r="56" spans="1:5" ht="51">
       <c r="A56" s="2" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="51">
+    <row r="57" spans="1:5" ht="68">
       <c r="A57" s="2" t="s">
-        <v>1153</v>
+        <v>1093</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>1092</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1808</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="68">
+      <c r="E57" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="51">
       <c r="A58" s="2" t="s">
-        <v>1093</v>
+        <v>1125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>1808</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>1807</v>
-      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="51">
       <c r="A59" s="2" t="s">
-        <v>1125</v>
+        <v>1161</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1124</v>
+        <v>1160</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -16752,10 +16809,10 @@
     </row>
     <row r="60" spans="1:5" ht="51">
       <c r="A60" s="2" t="s">
-        <v>1161</v>
+        <v>683</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1160</v>
+        <v>682</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -16763,10 +16820,10 @@
     </row>
     <row r="61" spans="1:5" ht="51">
       <c r="A61" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -16774,10 +16831,10 @@
     </row>
     <row r="62" spans="1:5" ht="51">
       <c r="A62" s="2" t="s">
-        <v>681</v>
+        <v>1197</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>680</v>
+        <v>1196</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -16785,10 +16842,10 @@
     </row>
     <row r="63" spans="1:5" ht="51">
       <c r="A63" s="2" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -16796,10 +16853,10 @@
     </row>
     <row r="64" spans="1:5" ht="51">
       <c r="A64" s="2" t="s">
-        <v>1205</v>
+        <v>1095</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1204</v>
+        <v>1094</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -16807,10 +16864,10 @@
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="A65" s="2" t="s">
-        <v>1095</v>
+        <v>1109</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1094</v>
+        <v>1108</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -16818,10 +16875,10 @@
     </row>
     <row r="66" spans="1:5" ht="51">
       <c r="A66" s="2" t="s">
-        <v>1109</v>
+        <v>420</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1108</v>
+        <v>419</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -16829,10 +16886,10 @@
     </row>
     <row r="67" spans="1:5" ht="51">
       <c r="A67" s="2" t="s">
-        <v>420</v>
+        <v>1081</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>419</v>
+        <v>1080</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -16840,99 +16897,99 @@
     </row>
     <row r="68" spans="1:5" ht="51">
       <c r="A68" s="2" t="s">
-        <v>1081</v>
+        <v>539</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="51">
+        <v>538</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="34">
       <c r="A69" s="2" t="s">
-        <v>539</v>
+        <v>1133</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="34">
+        <v>1132</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="51">
       <c r="A70" s="2" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="51">
+    <row r="71" spans="1:5" ht="34">
       <c r="A71" s="2" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="34">
+    <row r="72" spans="1:5" ht="51">
       <c r="A72" s="2" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="51">
+    <row r="73" spans="1:5" ht="85">
       <c r="A73" s="2" t="s">
-        <v>1117</v>
+        <v>819</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="85">
+        <v>818</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="34">
       <c r="A74" s="2" t="s">
-        <v>819</v>
+        <v>521</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="34">
+        <v>520</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="51">
       <c r="A75" s="2" t="s">
-        <v>521</v>
+        <v>1137</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>520</v>
+        <v>1136</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -16940,10 +16997,10 @@
     </row>
     <row r="76" spans="1:5" ht="51">
       <c r="A76" s="2" t="s">
-        <v>1137</v>
+        <v>1193</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1136</v>
+        <v>1192</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -16951,10 +17008,10 @@
     </row>
     <row r="77" spans="1:5" ht="51">
       <c r="A77" s="2" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -16962,10 +17019,10 @@
     </row>
     <row r="78" spans="1:5" ht="51">
       <c r="A78" s="2" t="s">
-        <v>1209</v>
+        <v>127</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1208</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -16973,43 +17030,43 @@
     </row>
     <row r="79" spans="1:5" ht="51">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>1107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>126</v>
+        <v>1106</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" ht="51">
+    <row r="80" spans="1:5" ht="68">
       <c r="A80" s="2" t="s">
-        <v>1107</v>
+        <v>1219</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1106</v>
+        <v>1218</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="68">
+    <row r="81" spans="1:5" ht="34">
       <c r="A81" s="2" t="s">
-        <v>1219</v>
+        <v>328</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1218</v>
+        <v>327</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="34">
+    <row r="82" spans="1:5" ht="51">
       <c r="A82" s="2" t="s">
-        <v>328</v>
+        <v>1171</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>327</v>
+        <v>1170</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -17017,66 +17074,66 @@
     </row>
     <row r="83" spans="1:5" ht="51">
       <c r="A83" s="2" t="s">
-        <v>1171</v>
+        <v>1129</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+        <v>1128</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="51">
       <c r="A84" s="2" t="s">
-        <v>1129</v>
+        <v>167</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1128</v>
+        <v>166</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1842</v>
+        <v>1881</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="51">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>825</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="51">
+        <v>824</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="68">
       <c r="A86" s="2" t="s">
-        <v>825</v>
+        <v>1105</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>824</v>
+        <v>1104</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="68">
+    <row r="87" spans="1:5" ht="51">
       <c r="A87" s="2" t="s">
-        <v>1105</v>
+        <v>813</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1104</v>
+        <v>812</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -17084,36 +17141,36 @@
     </row>
     <row r="88" spans="1:5" ht="51">
       <c r="A88" s="2" t="s">
-        <v>813</v>
+        <v>1175</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>1174</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>1835</v>
+      </c>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="51">
+      <c r="E88" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="34">
       <c r="A89" s="2" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>1835</v>
-      </c>
+        <v>1184</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="34">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="51">
       <c r="A90" s="2" t="s">
-        <v>1185</v>
+        <v>1097</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1184</v>
+        <v>1096</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -17121,33 +17178,29 @@
     </row>
     <row r="91" spans="1:5" ht="51">
       <c r="A91" s="2" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="51">
+    <row r="92" spans="1:5" ht="34">
       <c r="A92" s="2" t="s">
-        <v>1091</v>
+        <v>1181</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1090</v>
+        <v>1180</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="34">
-      <c r="A93" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>1180</v>
-      </c>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -17173,111 +17226,103 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E84A5F5F-0028-3045-A533-5E645F116769}"/>
-    <hyperlink ref="B81" r:id="rId2" xr:uid="{B66D2F96-F027-DB47-8D2F-4DD0CE76AB41}"/>
+    <hyperlink ref="B80" r:id="rId2" xr:uid="{B66D2F96-F027-DB47-8D2F-4DD0CE76AB41}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{A272FF23-3972-D845-9C1E-2A587CCD3848}"/>
-    <hyperlink ref="B45" r:id="rId4" xr:uid="{490718A0-B293-F94C-9043-D1A833C3D796}"/>
-    <hyperlink ref="B28" r:id="rId5" xr:uid="{4449E83B-C313-C949-9926-4B6AF833C22B}"/>
-    <hyperlink ref="B86" r:id="rId6" xr:uid="{DA7A7227-1A3A-3044-A917-7E71E6B79401}"/>
-    <hyperlink ref="B37" r:id="rId7" xr:uid="{1AC4EC8C-49C9-BE45-8A12-972D0DA3CD3D}"/>
-    <hyperlink ref="B74" r:id="rId8" xr:uid="{E9E9E097-E1DF-E14D-9DF2-F07B86E0D3BE}"/>
-    <hyperlink ref="B78" r:id="rId9" xr:uid="{F3FCAE50-AB96-084E-ACA8-61C061199CA3}"/>
-    <hyperlink ref="B30" r:id="rId10" xr:uid="{9DA9980A-564D-4E4B-8028-C6099B2998E1}"/>
-    <hyperlink ref="B64" r:id="rId11" xr:uid="{F3F2947B-0EE7-CF42-A413-A650D4877FF2}"/>
-    <hyperlink ref="B31" r:id="rId12" xr:uid="{9EA7DA55-7EB1-4C4B-8F50-8EEE6D08B2AE}"/>
-    <hyperlink ref="B88" r:id="rId13" xr:uid="{0DB3BE1B-5FF5-9642-8E25-EDF25CCD7B6A}"/>
+    <hyperlink ref="B44" r:id="rId4" xr:uid="{490718A0-B293-F94C-9043-D1A833C3D796}"/>
+    <hyperlink ref="B27" r:id="rId5" xr:uid="{4449E83B-C313-C949-9926-4B6AF833C22B}"/>
+    <hyperlink ref="B85" r:id="rId6" xr:uid="{DA7A7227-1A3A-3044-A917-7E71E6B79401}"/>
+    <hyperlink ref="B36" r:id="rId7" xr:uid="{1AC4EC8C-49C9-BE45-8A12-972D0DA3CD3D}"/>
+    <hyperlink ref="B73" r:id="rId8" xr:uid="{E9E9E097-E1DF-E14D-9DF2-F07B86E0D3BE}"/>
+    <hyperlink ref="B77" r:id="rId9" xr:uid="{F3FCAE50-AB96-084E-ACA8-61C061199CA3}"/>
+    <hyperlink ref="B29" r:id="rId10" xr:uid="{9DA9980A-564D-4E4B-8028-C6099B2998E1}"/>
+    <hyperlink ref="B63" r:id="rId11" xr:uid="{F3F2947B-0EE7-CF42-A413-A650D4877FF2}"/>
+    <hyperlink ref="B30" r:id="rId12" xr:uid="{9EA7DA55-7EB1-4C4B-8F50-8EEE6D08B2AE}"/>
+    <hyperlink ref="B87" r:id="rId13" xr:uid="{0DB3BE1B-5FF5-9642-8E25-EDF25CCD7B6A}"/>
     <hyperlink ref="B10" r:id="rId14" xr:uid="{D057BFD4-4DE3-9E44-B532-D946E1247EAF}"/>
-    <hyperlink ref="B44" r:id="rId15" xr:uid="{3335065B-7A00-9E46-9B8B-7E288FAA814F}"/>
-    <hyperlink ref="B63" r:id="rId16" xr:uid="{21FB827B-7124-D74C-A802-34CA23F62162}"/>
-    <hyperlink ref="B29" r:id="rId17" xr:uid="{762A62E3-86DA-6A4F-AE24-E73E217986AB}"/>
-    <hyperlink ref="B49" r:id="rId18" xr:uid="{99664847-B282-1B48-A1E4-9E2DA59D6C0F}"/>
-    <hyperlink ref="B77" r:id="rId19" xr:uid="{97D7BAC9-B6B7-5643-8F69-707CD956F333}"/>
-    <hyperlink ref="B53" r:id="rId20" xr:uid="{7AAEA996-D9A9-B544-A6CD-1D2717E50154}"/>
+    <hyperlink ref="B43" r:id="rId15" xr:uid="{3335065B-7A00-9E46-9B8B-7E288FAA814F}"/>
+    <hyperlink ref="B62" r:id="rId16" xr:uid="{21FB827B-7124-D74C-A802-34CA23F62162}"/>
+    <hyperlink ref="B28" r:id="rId17" xr:uid="{762A62E3-86DA-6A4F-AE24-E73E217986AB}"/>
+    <hyperlink ref="B48" r:id="rId18" xr:uid="{99664847-B282-1B48-A1E4-9E2DA59D6C0F}"/>
+    <hyperlink ref="B76" r:id="rId19" xr:uid="{97D7BAC9-B6B7-5643-8F69-707CD956F333}"/>
+    <hyperlink ref="B52" r:id="rId20" xr:uid="{7AAEA996-D9A9-B544-A6CD-1D2717E50154}"/>
     <hyperlink ref="B15" r:id="rId21" xr:uid="{82A49863-F073-C84A-A1EB-9896899EF78E}"/>
-    <hyperlink ref="B48" r:id="rId22" xr:uid="{714A8508-AAD5-7444-9257-1E74A5A59E7C}"/>
-    <hyperlink ref="B90" r:id="rId23" xr:uid="{738A3A9B-A787-AD47-80BF-CE9D55DDD2B0}"/>
+    <hyperlink ref="B47" r:id="rId22" xr:uid="{714A8508-AAD5-7444-9257-1E74A5A59E7C}"/>
+    <hyperlink ref="B89" r:id="rId23" xr:uid="{738A3A9B-A787-AD47-80BF-CE9D55DDD2B0}"/>
     <hyperlink ref="B8" r:id="rId24" xr:uid="{4F59B9DE-7FD5-DC4D-ACE7-35D69A825F4E}"/>
-    <hyperlink ref="B93" r:id="rId25" xr:uid="{CBE2BCD9-E4AC-D249-9690-18FDE1E95E6E}"/>
-    <hyperlink ref="B32" r:id="rId26" xr:uid="{5E012491-2DE2-1940-86A0-C27094CAA40A}"/>
+    <hyperlink ref="B92" r:id="rId25" xr:uid="{CBE2BCD9-E4AC-D249-9690-18FDE1E95E6E}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{5E012491-2DE2-1940-86A0-C27094CAA40A}"/>
     <hyperlink ref="B14" r:id="rId27" xr:uid="{35DDD992-CBF7-624F-B5FF-C359A1F27AFD}"/>
-    <hyperlink ref="B89" r:id="rId28" xr:uid="{BB785BE5-06C5-0647-825B-94F527E4BAA9}"/>
-    <hyperlink ref="B46" r:id="rId29" xr:uid="{E3B6E16D-DAF8-1D4E-A914-539774768B5E}"/>
-    <hyperlink ref="B75" r:id="rId30" xr:uid="{767A6AFF-9FBB-1042-8171-51E10931EF7A}"/>
+    <hyperlink ref="B88" r:id="rId28" xr:uid="{BB785BE5-06C5-0647-825B-94F527E4BAA9}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{E3B6E16D-DAF8-1D4E-A914-539774768B5E}"/>
+    <hyperlink ref="B74" r:id="rId30" xr:uid="{767A6AFF-9FBB-1042-8171-51E10931EF7A}"/>
     <hyperlink ref="B12" r:id="rId31" xr:uid="{5B476CFD-2066-F14A-AEF3-79A08846C2C7}"/>
     <hyperlink ref="B11" r:id="rId32" xr:uid="{9E5E89C7-6487-0547-814B-8BC1E0C9FC8A}"/>
-    <hyperlink ref="B85" r:id="rId33" xr:uid="{15558B97-C4C3-E24F-B14D-5368E869B406}"/>
-    <hyperlink ref="B83" r:id="rId34" xr:uid="{767E2392-CB88-3847-8D7C-3109378AA0EF}"/>
-    <hyperlink ref="B19" r:id="rId35" xr:uid="{B380F834-F80D-CC40-8617-331D4A03108F}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{BE3B534E-4B7F-5D41-9384-9D248CE292C8}"/>
-    <hyperlink ref="B68" r:id="rId37" xr:uid="{6667C8DE-3A0C-5B43-AC48-8093AC1CF382}"/>
-    <hyperlink ref="B41" r:id="rId38" xr:uid="{EEB6C91B-EFA6-484D-8953-38EF7E8299E4}"/>
-    <hyperlink ref="B34" r:id="rId39" xr:uid="{56F22103-F662-C14B-A99F-878980211EB4}"/>
-    <hyperlink ref="B35" r:id="rId40" xr:uid="{8656E25C-9961-CE41-88E4-2A1DE4B2AF19}"/>
-    <hyperlink ref="B26" r:id="rId41" xr:uid="{BC24434D-A0D7-7243-913C-304F516982A4}"/>
-    <hyperlink ref="B82" r:id="rId42" xr:uid="{89CB7333-322A-B646-8117-FDD40A914A34}"/>
-    <hyperlink ref="B43" r:id="rId43" xr:uid="{AA37C072-3775-3341-B041-A40E39E873EC}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{4181D682-73C9-FF42-A742-40EC7ED41F04}"/>
-    <hyperlink ref="B23" r:id="rId45" xr:uid="{24EF38CC-01BE-5946-97BF-B79B4B7EA69E}"/>
-    <hyperlink ref="B60" r:id="rId46" xr:uid="{E0C89FF2-B3BE-4042-99F0-46E3A99556D3}"/>
+    <hyperlink ref="B84" r:id="rId33" xr:uid="{15558B97-C4C3-E24F-B14D-5368E869B406}"/>
+    <hyperlink ref="B82" r:id="rId34" xr:uid="{767E2392-CB88-3847-8D7C-3109378AA0EF}"/>
+    <hyperlink ref="B18" r:id="rId35" xr:uid="{B380F834-F80D-CC40-8617-331D4A03108F}"/>
+    <hyperlink ref="B39" r:id="rId36" xr:uid="{BE3B534E-4B7F-5D41-9384-9D248CE292C8}"/>
+    <hyperlink ref="B67" r:id="rId37" xr:uid="{6667C8DE-3A0C-5B43-AC48-8093AC1CF382}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{EEB6C91B-EFA6-484D-8953-38EF7E8299E4}"/>
+    <hyperlink ref="B33" r:id="rId39" xr:uid="{56F22103-F662-C14B-A99F-878980211EB4}"/>
+    <hyperlink ref="B34" r:id="rId40" xr:uid="{8656E25C-9961-CE41-88E4-2A1DE4B2AF19}"/>
+    <hyperlink ref="B25" r:id="rId41" xr:uid="{BC24434D-A0D7-7243-913C-304F516982A4}"/>
+    <hyperlink ref="B81" r:id="rId42" xr:uid="{89CB7333-322A-B646-8117-FDD40A914A34}"/>
+    <hyperlink ref="B42" r:id="rId43" xr:uid="{AA37C072-3775-3341-B041-A40E39E873EC}"/>
+    <hyperlink ref="B55" r:id="rId44" xr:uid="{4181D682-73C9-FF42-A742-40EC7ED41F04}"/>
+    <hyperlink ref="B22" r:id="rId45" xr:uid="{24EF38CC-01BE-5946-97BF-B79B4B7EA69E}"/>
+    <hyperlink ref="B59" r:id="rId46" xr:uid="{E0C89FF2-B3BE-4042-99F0-46E3A99556D3}"/>
     <hyperlink ref="B3" r:id="rId47" xr:uid="{6F44CFDF-4143-8A4F-9B72-F6C14335D692}"/>
-    <hyperlink ref="B36" r:id="rId48" xr:uid="{4BD4AA4A-829A-4C4F-81FE-80D96084FAD7}"/>
-    <hyperlink ref="B39" r:id="rId49" xr:uid="{D1906D8D-1F41-2E4E-B876-446FAD33C7BA}"/>
-    <hyperlink ref="B57" r:id="rId50" xr:uid="{56D84650-3D61-E84D-847F-72D7C187C1CA}"/>
+    <hyperlink ref="B35" r:id="rId48" xr:uid="{4BD4AA4A-829A-4C4F-81FE-80D96084FAD7}"/>
+    <hyperlink ref="B38" r:id="rId49" xr:uid="{D1906D8D-1F41-2E4E-B876-446FAD33C7BA}"/>
+    <hyperlink ref="B56" r:id="rId50" xr:uid="{56D84650-3D61-E84D-847F-72D7C187C1CA}"/>
     <hyperlink ref="B13" r:id="rId51" xr:uid="{FEC4F73C-FC94-004A-BD96-55B9F233FD7E}"/>
-    <hyperlink ref="B22" r:id="rId52" xr:uid="{EB1B7A63-22DE-B448-8BBD-9248D04A6451}"/>
+    <hyperlink ref="B21" r:id="rId52" xr:uid="{EB1B7A63-22DE-B448-8BBD-9248D04A6451}"/>
     <hyperlink ref="B9" r:id="rId53" xr:uid="{D1C087EA-598D-174A-BDF2-C7F2A557C997}"/>
-    <hyperlink ref="B20" r:id="rId54" xr:uid="{05D3BA87-68C6-8E40-A370-98E213035D71}"/>
-    <hyperlink ref="B42" r:id="rId55" xr:uid="{FC37779A-5008-F24E-BFB7-8DEF76FA76DA}"/>
-    <hyperlink ref="B55" r:id="rId56" xr:uid="{E6DB67AA-DFD1-3942-A9C9-446E061B3746}"/>
-    <hyperlink ref="B25" r:id="rId57" xr:uid="{9B005717-5C0B-8649-9596-DE3A47F7423E}"/>
-    <hyperlink ref="B50" r:id="rId58" xr:uid="{B3B5275E-E4DF-EB43-AC80-36E113E65DC4}"/>
-    <hyperlink ref="B76" r:id="rId59" xr:uid="{3179C41C-C303-D945-B3DE-FD29898A727C}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{9F0962B3-139E-F141-907E-56C433290757}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{48E606A9-38E7-6740-9B92-5B36659BB226}"/>
-    <hyperlink ref="B33" r:id="rId62" xr:uid="{3AF75B7E-3CD7-9047-BA53-4A8BF9373564}"/>
-    <hyperlink ref="B21" r:id="rId63" xr:uid="{838DB0A1-5D64-2040-914F-3CE800D0054A}"/>
-    <hyperlink ref="B61" r:id="rId64" xr:uid="{56A18411-BE20-9446-8938-B842DE6B52AD}"/>
-    <hyperlink ref="B84" r:id="rId65" xr:uid="{561DA6DB-9B76-AE45-8ABD-11A7BC457197}"/>
-    <hyperlink ref="B62" r:id="rId66" xr:uid="{11D7933F-8DE4-CA4F-ADF5-C2F739D6086B}"/>
-    <hyperlink ref="B52" r:id="rId67" xr:uid="{409EE10D-8072-FF46-80FF-9CB3FA4EFE4D}"/>
-    <hyperlink ref="B47" r:id="rId68" xr:uid="{FF804F66-652C-E643-BEB9-AD28A5C03837}"/>
-    <hyperlink ref="B59" r:id="rId69" xr:uid="{44DC8E6A-2A5F-2C49-9CE5-F15AA347D662}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{B823159A-95C6-1E40-8FC2-AE28E9FB9C09}"/>
+    <hyperlink ref="B19" r:id="rId54" xr:uid="{05D3BA87-68C6-8E40-A370-98E213035D71}"/>
+    <hyperlink ref="B41" r:id="rId55" xr:uid="{FC37779A-5008-F24E-BFB7-8DEF76FA76DA}"/>
+    <hyperlink ref="B54" r:id="rId56" xr:uid="{E6DB67AA-DFD1-3942-A9C9-446E061B3746}"/>
+    <hyperlink ref="B24" r:id="rId57" xr:uid="{9B005717-5C0B-8649-9596-DE3A47F7423E}"/>
+    <hyperlink ref="B49" r:id="rId58" xr:uid="{B3B5275E-E4DF-EB43-AC80-36E113E65DC4}"/>
+    <hyperlink ref="B75" r:id="rId59" xr:uid="{3179C41C-C303-D945-B3DE-FD29898A727C}"/>
+    <hyperlink ref="B71" r:id="rId60" xr:uid="{9F0962B3-139E-F141-907E-56C433290757}"/>
+    <hyperlink ref="B69" r:id="rId61" xr:uid="{48E606A9-38E7-6740-9B92-5B36659BB226}"/>
+    <hyperlink ref="B32" r:id="rId62" xr:uid="{3AF75B7E-3CD7-9047-BA53-4A8BF9373564}"/>
+    <hyperlink ref="B20" r:id="rId63" xr:uid="{838DB0A1-5D64-2040-914F-3CE800D0054A}"/>
+    <hyperlink ref="B60" r:id="rId64" xr:uid="{56A18411-BE20-9446-8938-B842DE6B52AD}"/>
+    <hyperlink ref="B83" r:id="rId65" xr:uid="{561DA6DB-9B76-AE45-8ABD-11A7BC457197}"/>
+    <hyperlink ref="B61" r:id="rId66" xr:uid="{11D7933F-8DE4-CA4F-ADF5-C2F739D6086B}"/>
+    <hyperlink ref="B51" r:id="rId67" xr:uid="{409EE10D-8072-FF46-80FF-9CB3FA4EFE4D}"/>
+    <hyperlink ref="B46" r:id="rId68" xr:uid="{FF804F66-652C-E643-BEB9-AD28A5C03837}"/>
+    <hyperlink ref="B58" r:id="rId69" xr:uid="{44DC8E6A-2A5F-2C49-9CE5-F15AA347D662}"/>
+    <hyperlink ref="B70" r:id="rId70" xr:uid="{B823159A-95C6-1E40-8FC2-AE28E9FB9C09}"/>
     <hyperlink ref="B16" r:id="rId71" xr:uid="{6FEE86CB-2C81-ED47-A69F-0926ECBFF48E}"/>
-    <hyperlink ref="B27" r:id="rId72" xr:uid="{1EE8EBE7-C944-B74F-8369-5FCC86017A67}"/>
-    <hyperlink ref="B73" r:id="rId73" xr:uid="{ED4D3A1E-FD9F-FA4A-99D5-59C979F8DA33}"/>
-    <hyperlink ref="B24" r:id="rId74" xr:uid="{5C853949-EBBA-4F44-8B62-F22C1167F750}"/>
+    <hyperlink ref="B26" r:id="rId72" xr:uid="{1EE8EBE7-C944-B74F-8369-5FCC86017A67}"/>
+    <hyperlink ref="B72" r:id="rId73" xr:uid="{ED4D3A1E-FD9F-FA4A-99D5-59C979F8DA33}"/>
+    <hyperlink ref="B23" r:id="rId74" xr:uid="{5C853949-EBBA-4F44-8B62-F22C1167F750}"/>
     <hyperlink ref="B5" r:id="rId75" xr:uid="{02E31A09-F837-2549-A551-680626AAE48D}"/>
-    <hyperlink ref="B38" r:id="rId76" xr:uid="{865E4DCF-CFFE-0E44-B2ED-DE2F8FB2BD75}"/>
-    <hyperlink ref="B79" r:id="rId77" xr:uid="{057246F8-DC5B-8D40-A338-0B1A526095B7}"/>
-    <hyperlink ref="B66" r:id="rId78" xr:uid="{8AAF4266-27D4-1948-98F8-997BE7459A66}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{F8341839-E748-984C-ACFF-F2F152D2F5D3}"/>
-    <hyperlink ref="B67" r:id="rId80" xr:uid="{59DFBAE7-7E1B-7D47-8212-F7979D90C2D1}"/>
-    <hyperlink ref="B18" r:id="rId81" xr:uid="{D4AC630C-820D-054F-8302-049AD2F28384}"/>
-    <hyperlink ref="B17" r:id="rId82" xr:uid="{BD68AFA7-367C-8F40-A4A5-D4BF8D2BFB11}"/>
-    <hyperlink ref="B87" r:id="rId83" xr:uid="{78464788-FA5D-0342-8C8C-7E1A46702F4C}"/>
-    <hyperlink ref="B51" r:id="rId84" xr:uid="{18B7977D-F971-7C49-BD94-4C69C610617C}"/>
-    <hyperlink ref="B6" r:id="rId85" xr:uid="{63BF238A-B263-734A-A2BD-D51E0418C710}"/>
-    <hyperlink ref="B54" r:id="rId86" xr:uid="{247D98F6-8130-8446-AF1B-56737B35B288}"/>
-    <hyperlink ref="B91" r:id="rId87" xr:uid="{71915A69-0AFE-3A45-AB4C-AE73BA856BB5}"/>
-    <hyperlink ref="B4" r:id="rId88" xr:uid="{C76427D4-C9D7-C447-A535-13291021F1E9}"/>
-    <hyperlink ref="B65" r:id="rId89" xr:uid="{7CCC268D-6261-1A4B-B883-5B3D19F50BB5}"/>
-    <hyperlink ref="B58" r:id="rId90" xr:uid="{2B71A2E7-43BC-0243-970A-B854B76A88EE}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{CD2CF7EE-7106-2A40-BA2B-7CC6012CED6B}"/>
-    <hyperlink ref="B69" r:id="rId92" xr:uid="{774D855B-3C54-6F46-8F89-F65BAC600D3E}"/>
+    <hyperlink ref="B37" r:id="rId76" xr:uid="{865E4DCF-CFFE-0E44-B2ED-DE2F8FB2BD75}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{057246F8-DC5B-8D40-A338-0B1A526095B7}"/>
+    <hyperlink ref="B65" r:id="rId78" xr:uid="{8AAF4266-27D4-1948-98F8-997BE7459A66}"/>
+    <hyperlink ref="B79" r:id="rId79" xr:uid="{F8341839-E748-984C-ACFF-F2F152D2F5D3}"/>
+    <hyperlink ref="B66" r:id="rId80" xr:uid="{59DFBAE7-7E1B-7D47-8212-F7979D90C2D1}"/>
+    <hyperlink ref="B17" r:id="rId81" xr:uid="{D4AC630C-820D-054F-8302-049AD2F28384}"/>
+    <hyperlink ref="B86" r:id="rId82" xr:uid="{78464788-FA5D-0342-8C8C-7E1A46702F4C}"/>
+    <hyperlink ref="B50" r:id="rId83" xr:uid="{18B7977D-F971-7C49-BD94-4C69C610617C}"/>
+    <hyperlink ref="B6" r:id="rId84" xr:uid="{63BF238A-B263-734A-A2BD-D51E0418C710}"/>
+    <hyperlink ref="B53" r:id="rId85" xr:uid="{247D98F6-8130-8446-AF1B-56737B35B288}"/>
+    <hyperlink ref="B90" r:id="rId86" xr:uid="{71915A69-0AFE-3A45-AB4C-AE73BA856BB5}"/>
+    <hyperlink ref="B4" r:id="rId87" xr:uid="{C76427D4-C9D7-C447-A535-13291021F1E9}"/>
+    <hyperlink ref="B64" r:id="rId88" xr:uid="{7CCC268D-6261-1A4B-B883-5B3D19F50BB5}"/>
+    <hyperlink ref="B57" r:id="rId89" xr:uid="{2B71A2E7-43BC-0243-970A-B854B76A88EE}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{CD2CF7EE-7106-2A40-BA2B-7CC6012CED6B}"/>
+    <hyperlink ref="B68" r:id="rId91" xr:uid="{774D855B-3C54-6F46-8F89-F65BAC600D3E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId93"/>
+    <tablePart r:id="rId92"/>
   </tableParts>
 </worksheet>
 </file>
@@ -19145,10 +19190,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0623B-E62E-3B42-B379-97562A831E49}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20195,10 +20240,10 @@
     </row>
     <row r="105" spans="1:5" ht="51">
       <c r="A105" s="2" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -20206,48 +20251,48 @@
     </row>
     <row r="106" spans="1:5" ht="51">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" ht="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="34">
       <c r="A107" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="34">
       <c r="A108" s="2" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" ht="34">
       <c r="A109" s="2" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5" ht="34">
+    <row r="110" spans="1:5" ht="51">
       <c r="A110" s="2" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -20255,10 +20300,10 @@
     </row>
     <row r="111" spans="1:5" ht="51">
       <c r="A111" s="2" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -20266,10 +20311,10 @@
     </row>
     <row r="112" spans="1:5" ht="51">
       <c r="A112" s="2" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -20277,10 +20322,10 @@
     </row>
     <row r="113" spans="1:5" ht="51">
       <c r="A113" s="2" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -20288,102 +20333,102 @@
     </row>
     <row r="114" spans="1:5" ht="51">
       <c r="A114" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5" ht="51">
+    <row r="115" spans="1:5" ht="68">
       <c r="A115" s="2" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" ht="68">
+    <row r="116" spans="1:5" ht="51">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" ht="51">
+      <c r="D116" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="85">
       <c r="A117" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1832</v>
+      </c>
       <c r="D117" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="85">
+    <row r="118" spans="1:5" ht="51">
       <c r="A118" s="2" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>1805</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="51">
       <c r="A119" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="34">
       <c r="A120" s="2" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" ht="34">
       <c r="A121" s="2" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5" ht="34">
+    <row r="122" spans="1:5" ht="51">
       <c r="A122" s="2" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -20391,10 +20436,10 @@
     </row>
     <row r="123" spans="1:5" ht="51">
       <c r="A123" s="2" t="s">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -20402,29 +20447,29 @@
     </row>
     <row r="124" spans="1:5" ht="51">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="125" spans="1:5" ht="51">
       <c r="A125" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="51">
+        <v>126</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" ht="34">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -20432,59 +20477,59 @@
     </row>
     <row r="127" spans="1:5" ht="34">
       <c r="A127" s="2" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5" ht="34">
+    <row r="128" spans="1:5" ht="51">
       <c r="A128" s="2" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="129" spans="1:5" ht="51">
       <c r="A129" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="51">
       <c r="A130" s="2" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="51">
+        <v>240</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" ht="34">
       <c r="A131" s="2" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" ht="34">
+    <row r="132" spans="1:5" ht="51">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -20492,10 +20537,10 @@
     </row>
     <row r="133" spans="1:5" ht="51">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -20503,45 +20548,45 @@
     </row>
     <row r="134" spans="1:5" ht="51">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="51">
       <c r="A135" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="51">
       <c r="A136" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="51">
       <c r="A137" s="2" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="51">
+        <v>186</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" ht="34">
       <c r="A138" s="2" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -20549,43 +20594,43 @@
     </row>
     <row r="139" spans="1:5" ht="34">
       <c r="A139" s="2" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" ht="34">
+    <row r="140" spans="1:5" ht="51">
       <c r="A140" s="2" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" ht="51">
+    <row r="141" spans="1:5" ht="34">
       <c r="A141" s="2" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" ht="34">
+    <row r="142" spans="1:5" ht="51">
       <c r="A142" s="2" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -20593,29 +20638,29 @@
     </row>
     <row r="143" spans="1:5" ht="51">
       <c r="A143" s="2" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="144" spans="1:5" ht="51">
       <c r="A144" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="51">
+        <v>118</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" ht="34">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -20623,10 +20668,10 @@
     </row>
     <row r="146" spans="1:5" ht="34">
       <c r="A146" s="2" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -20634,31 +20679,20 @@
     </row>
     <row r="147" spans="1:5" ht="34">
       <c r="A147" s="2" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" ht="34">
+    <row r="148" spans="1:5" ht="51">
       <c r="A148" s="2" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="51">
-      <c r="A149" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B149" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -20667,155 +20701,154 @@
     <hyperlink ref="B23" r:id="rId1" xr:uid="{C2AAC02D-DC19-6E4F-971B-93E7F37EA900}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{8337563B-4B3E-3E49-B132-EAD139832647}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{905CA439-9B6B-D34B-838F-ECEB2C3862C3}"/>
-    <hyperlink ref="B114" r:id="rId4" xr:uid="{00810A04-6CB6-C145-B455-1AEF84431738}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{00810A04-6CB6-C145-B455-1AEF84431738}"/>
     <hyperlink ref="B36" r:id="rId5" xr:uid="{3F927600-5D49-DE44-9327-B5EFBAA4939E}"/>
     <hyperlink ref="B47" r:id="rId6" xr:uid="{E975448C-2F50-AB48-835C-ABC21A7C1A2D}"/>
     <hyperlink ref="B46" r:id="rId7" xr:uid="{217D1D9D-9CF6-7D4B-967D-AAC215B34EC8}"/>
-    <hyperlink ref="B123" r:id="rId8" xr:uid="{EBDD7172-49FE-C447-BF1A-E50BD9BD9E11}"/>
-    <hyperlink ref="B143" r:id="rId9" xr:uid="{DB902742-0834-A34B-829E-9949935C7817}"/>
+    <hyperlink ref="B122" r:id="rId8" xr:uid="{EBDD7172-49FE-C447-BF1A-E50BD9BD9E11}"/>
+    <hyperlink ref="B142" r:id="rId9" xr:uid="{DB902742-0834-A34B-829E-9949935C7817}"/>
     <hyperlink ref="B83" r:id="rId10" xr:uid="{E465A72D-9B7D-5740-8522-8F2F3B9FF7B3}"/>
     <hyperlink ref="B97" r:id="rId11" xr:uid="{40FD8F35-4BF7-2048-80F6-EE17F1EFB2D7}"/>
-    <hyperlink ref="B115" r:id="rId12" xr:uid="{589D8352-3CD0-6946-B286-716476626E3D}"/>
-    <hyperlink ref="B111" r:id="rId13" xr:uid="{D085B727-C3E3-AA4B-BBC6-8B23BA055B7F}"/>
-    <hyperlink ref="B127" r:id="rId14" xr:uid="{55051BD2-12AC-994F-BCAA-B1E96006C5F2}"/>
-    <hyperlink ref="B148" r:id="rId15" xr:uid="{8DE15EDE-C57F-5D4F-9269-E73157FD4F4C}"/>
+    <hyperlink ref="B114" r:id="rId12" xr:uid="{589D8352-3CD0-6946-B286-716476626E3D}"/>
+    <hyperlink ref="B110" r:id="rId13" xr:uid="{D085B727-C3E3-AA4B-BBC6-8B23BA055B7F}"/>
+    <hyperlink ref="B126" r:id="rId14" xr:uid="{55051BD2-12AC-994F-BCAA-B1E96006C5F2}"/>
+    <hyperlink ref="B147" r:id="rId15" xr:uid="{8DE15EDE-C57F-5D4F-9269-E73157FD4F4C}"/>
     <hyperlink ref="B104" r:id="rId16" xr:uid="{41FB5783-315A-234F-B343-38C4DA675281}"/>
-    <hyperlink ref="B113" r:id="rId17" xr:uid="{C6387FBE-AF13-3146-903E-FC081833902C}"/>
+    <hyperlink ref="B112" r:id="rId17" xr:uid="{C6387FBE-AF13-3146-903E-FC081833902C}"/>
     <hyperlink ref="B51" r:id="rId18" xr:uid="{EA90135C-E13E-784F-A89A-1E4F397A0C09}"/>
     <hyperlink ref="B22" r:id="rId19" xr:uid="{FBCE4B19-59F1-C64C-806A-21178990185C}"/>
     <hyperlink ref="B21" r:id="rId20" xr:uid="{60374BD5-C8F7-8043-9A92-64BDB5447A39}"/>
     <hyperlink ref="B96" r:id="rId21" xr:uid="{FF45E500-8F31-5740-84F2-AA5D801BFD94}"/>
-    <hyperlink ref="B139" r:id="rId22" xr:uid="{9F1126AC-DAEC-9243-B2C4-6F1C8E540CC2}"/>
+    <hyperlink ref="B138" r:id="rId22" xr:uid="{9F1126AC-DAEC-9243-B2C4-6F1C8E540CC2}"/>
     <hyperlink ref="B14" r:id="rId23" xr:uid="{2F01770E-D20A-A44A-8D7A-0FBA3D2E72F2}"/>
     <hyperlink ref="B72" r:id="rId24" xr:uid="{C3C13EF7-C413-F947-9521-868AC93A2666}"/>
     <hyperlink ref="B30" r:id="rId25" xr:uid="{F6A856AD-BB02-F345-920A-A589A828849E}"/>
     <hyperlink ref="B31" r:id="rId26" xr:uid="{DC7AC8AD-1E48-4947-B2F4-D315229571FC}"/>
     <hyperlink ref="B85" r:id="rId27" xr:uid="{6FD15A6A-DAD0-CB46-A64C-B322DB72B988}"/>
-    <hyperlink ref="B141" r:id="rId28" xr:uid="{6FD09F40-E945-9641-B670-E1AA462AE32A}"/>
-    <hyperlink ref="B109" r:id="rId29" xr:uid="{553CCD79-7D27-6149-8DFC-261EE63BBB3A}"/>
+    <hyperlink ref="B140" r:id="rId28" xr:uid="{6FD09F40-E945-9641-B670-E1AA462AE32A}"/>
+    <hyperlink ref="B108" r:id="rId29" xr:uid="{553CCD79-7D27-6149-8DFC-261EE63BBB3A}"/>
     <hyperlink ref="B84" r:id="rId30" xr:uid="{1F1CDC37-9304-264F-B39E-A78E947118EE}"/>
     <hyperlink ref="B20" r:id="rId31" xr:uid="{BD0FBAFA-16EA-FE47-B2D5-E9D68F65F64D}"/>
-    <hyperlink ref="B131" r:id="rId32" xr:uid="{5804B982-242B-DA4E-A1C6-FCABCB031DC0}"/>
+    <hyperlink ref="B130" r:id="rId32" xr:uid="{5804B982-242B-DA4E-A1C6-FCABCB031DC0}"/>
     <hyperlink ref="B60" r:id="rId33" xr:uid="{37C678D3-A4D6-DE48-BB3C-453D10E3ED12}"/>
-    <hyperlink ref="B117" r:id="rId34" xr:uid="{B4C07438-DF92-1042-9B55-3EEEA989407F}"/>
-    <hyperlink ref="B118" r:id="rId35" xr:uid="{AF894543-1886-1E44-A4A6-94647420E9A9}"/>
+    <hyperlink ref="B116" r:id="rId34" xr:uid="{B4C07438-DF92-1042-9B55-3EEEA989407F}"/>
+    <hyperlink ref="B117" r:id="rId35" xr:uid="{AF894543-1886-1E44-A4A6-94647420E9A9}"/>
     <hyperlink ref="B5" r:id="rId36" xr:uid="{1E514237-0231-584F-B01D-799460C4C062}"/>
-    <hyperlink ref="B146" r:id="rId37" xr:uid="{02DA0516-2C13-D548-B47B-8530C6BD91C9}"/>
+    <hyperlink ref="B145" r:id="rId37" xr:uid="{02DA0516-2C13-D548-B47B-8530C6BD91C9}"/>
     <hyperlink ref="B87" r:id="rId38" xr:uid="{8829DB7C-C193-6A4A-980C-6A593E562DE2}"/>
-    <hyperlink ref="B105" r:id="rId39" xr:uid="{2D8903F1-04FF-FA4E-8FD4-467DC3512B75}"/>
-    <hyperlink ref="B65" r:id="rId40" xr:uid="{39BE4BF4-C14F-F14C-A5BD-DB15143986DB}"/>
-    <hyperlink ref="B90" r:id="rId41" xr:uid="{5B226B39-E383-B34E-BD47-D28AFB432DEE}"/>
-    <hyperlink ref="B45" r:id="rId42" xr:uid="{26296D71-768D-104A-84BF-DF528EB9832E}"/>
-    <hyperlink ref="B34" r:id="rId43" xr:uid="{B6114F36-FE15-8E4E-967E-221FE4142B2D}"/>
-    <hyperlink ref="B128" r:id="rId44" xr:uid="{6452CF47-2D85-B64C-9033-264C61B3405D}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{26789BEC-00CA-6447-AEB3-09ACB2166723}"/>
-    <hyperlink ref="B28" r:id="rId46" xr:uid="{FA8465E8-1CE1-F349-975E-510EFB788D08}"/>
-    <hyperlink ref="B122" r:id="rId47" xr:uid="{6B53878E-617B-5D44-9F8A-E8A267B89296}"/>
-    <hyperlink ref="B110" r:id="rId48" xr:uid="{9407E7D0-539C-7346-BF1B-F1511B809F1D}"/>
-    <hyperlink ref="B12" r:id="rId49" xr:uid="{96AAE011-1921-5540-B172-86B2029E9E98}"/>
-    <hyperlink ref="B103" r:id="rId50" xr:uid="{B0255F0F-C681-CC45-9670-C1B19218B527}"/>
-    <hyperlink ref="B80" r:id="rId51" xr:uid="{70AC56C5-D137-D04D-BBB0-F53470CBBD2B}"/>
-    <hyperlink ref="B100" r:id="rId52" xr:uid="{23B9CC41-F218-1642-A655-0BBFC00A1B6C}"/>
-    <hyperlink ref="B112" r:id="rId53" xr:uid="{34002492-FF7A-2F44-BEC0-73424414ECFA}"/>
-    <hyperlink ref="B95" r:id="rId54" xr:uid="{F0D91D20-E413-C04D-BF4E-7806E934B437}"/>
-    <hyperlink ref="B18" r:id="rId55" xr:uid="{022992BF-8D6C-384B-BDEC-1EEB165D395B}"/>
-    <hyperlink ref="B142" r:id="rId56" xr:uid="{567F6CE7-596B-7748-AC55-5D37C1C520CA}"/>
-    <hyperlink ref="B73" r:id="rId57" xr:uid="{32EC7377-367E-AA49-843C-6803EB939A67}"/>
-    <hyperlink ref="B138" r:id="rId58" xr:uid="{2C0EB88C-08A9-7E41-82C5-4169F857796A}"/>
-    <hyperlink ref="B13" r:id="rId59" xr:uid="{CC15577F-1A57-3A4F-AFCB-65EA07D1F632}"/>
-    <hyperlink ref="B79" r:id="rId60" xr:uid="{4E3D0DF7-7D26-8042-8D02-6203954E09C5}"/>
-    <hyperlink ref="B147" r:id="rId61" xr:uid="{B86A6D21-A559-F248-ADA8-ED4A3763EF38}"/>
-    <hyperlink ref="B121" r:id="rId62" xr:uid="{1C150FBA-A9C6-2C43-83B6-27F006E4A184}"/>
-    <hyperlink ref="B3" r:id="rId63" xr:uid="{40585DEC-A140-9649-87E9-784154D9B0F8}"/>
-    <hyperlink ref="B59" r:id="rId64" xr:uid="{5EA3A6A5-680E-8F42-9BD0-4A1AFF186A5B}"/>
-    <hyperlink ref="B35" r:id="rId65" xr:uid="{66A4996E-25C6-0548-AEA6-44980E555E7C}"/>
-    <hyperlink ref="B140" r:id="rId66" xr:uid="{1493932F-2990-0941-8F91-BD584AF77826}"/>
-    <hyperlink ref="B78" r:id="rId67" xr:uid="{D3164D01-BCC5-5D45-A728-77B2128A1C44}"/>
-    <hyperlink ref="B32" r:id="rId68" xr:uid="{F182D8C2-069E-B645-AA30-AA20C4BB46F6}"/>
-    <hyperlink ref="B101" r:id="rId69" xr:uid="{683708C2-008E-F548-93E2-07E253006914}"/>
-    <hyperlink ref="B43" r:id="rId70" xr:uid="{C6985457-1B53-2449-8464-F764FE8AD216}"/>
-    <hyperlink ref="B44" r:id="rId71" xr:uid="{8917DB16-F574-C742-9D4E-715061C27AFE}"/>
-    <hyperlink ref="B19" r:id="rId72" xr:uid="{DE4A69AF-2F18-F646-9434-5E07EEB36C62}"/>
-    <hyperlink ref="B40" r:id="rId73" xr:uid="{1954E2C6-7988-DA47-BF32-7C8A96F3D0DC}"/>
-    <hyperlink ref="B134" r:id="rId74" xr:uid="{470B9032-BCAB-244E-8C41-415D2FF7E4DB}"/>
-    <hyperlink ref="B27" r:id="rId75" xr:uid="{7E939423-CB8E-F44C-99E6-441DA331D5E0}"/>
-    <hyperlink ref="B26" r:id="rId76" xr:uid="{B620B53C-39C9-CF4D-8FBF-1C26B7A79E8D}"/>
-    <hyperlink ref="B64" r:id="rId77" xr:uid="{0112B004-64BB-C942-B638-C074434553C6}"/>
-    <hyperlink ref="B133" r:id="rId78" xr:uid="{4422172F-4C9E-3C41-B3F7-4750F48828AC}"/>
-    <hyperlink ref="B53" r:id="rId79" xr:uid="{194EFB3F-9659-BF44-A924-EC8FBA72A089}"/>
-    <hyperlink ref="B54" r:id="rId80" xr:uid="{9561B947-9389-714C-8ACE-D0F3A37D9555}"/>
-    <hyperlink ref="B49" r:id="rId81" xr:uid="{A51FD758-8698-3D4F-85EB-4DB8A243DD31}"/>
-    <hyperlink ref="B124" r:id="rId82" xr:uid="{F2982806-6FDB-EE4F-B9C2-F411A3C5322E}"/>
-    <hyperlink ref="B10" r:id="rId83" xr:uid="{4D46A99F-60EC-B84D-8F1A-4EE6DF44B9DA}"/>
-    <hyperlink ref="B57" r:id="rId84" xr:uid="{B5D17F78-3EB7-B744-9E19-C49259E74A1A}"/>
-    <hyperlink ref="B106" r:id="rId85" xr:uid="{03A6DFCB-D758-C04C-B7E5-2F5ACDFD7467}"/>
-    <hyperlink ref="B126" r:id="rId86" xr:uid="{3C315ED3-874C-FB46-866F-4713CB4DD9B1}"/>
-    <hyperlink ref="B116" r:id="rId87" xr:uid="{8CB17C4D-1B4F-BC4C-BBAA-5D947797CF59}"/>
-    <hyperlink ref="B8" r:id="rId88" xr:uid="{CA00C2EB-6E37-A647-AAF0-E253B5A59837}"/>
-    <hyperlink ref="B16" r:id="rId89" xr:uid="{98AB462B-DCBC-4F42-942A-46402E960030}"/>
-    <hyperlink ref="B145" r:id="rId90" xr:uid="{B1734414-BD98-5A4D-BC5B-02166D206157}"/>
-    <hyperlink ref="B69" r:id="rId91" xr:uid="{34BEBC5F-DA57-BF49-9327-44F90F5D2156}"/>
-    <hyperlink ref="B132" r:id="rId92" xr:uid="{9BE3E0E7-6480-2846-88DA-B0DA386C783E}"/>
-    <hyperlink ref="B71" r:id="rId93" xr:uid="{FE16A253-1001-A44A-A1EB-7191DAACA0D5}"/>
-    <hyperlink ref="B67" r:id="rId94" xr:uid="{82CA1914-3E4E-674E-9F60-B4760AD9AABD}"/>
-    <hyperlink ref="B68" r:id="rId95" xr:uid="{2375434C-0CFF-FD4A-944A-9DFA6B84F4B3}"/>
-    <hyperlink ref="B42" r:id="rId96" xr:uid="{F26B8D9C-81AF-7E40-8F27-7A6AA596A286}"/>
-    <hyperlink ref="B91" r:id="rId97" xr:uid="{6556E378-851A-9946-B9B0-B5440B0A5D33}"/>
-    <hyperlink ref="B11" r:id="rId98" xr:uid="{224002D3-60F3-3A4C-A0A9-580ED696AB21}"/>
-    <hyperlink ref="B76" r:id="rId99" xr:uid="{188F9D56-5C80-DC40-B981-C8D30FD4C1FE}"/>
-    <hyperlink ref="B56" r:id="rId100" xr:uid="{7160BBC9-7F5F-C444-AE36-FDCC9707B1DD}"/>
-    <hyperlink ref="B48" r:id="rId101" xr:uid="{C54F30F6-DAAF-4343-A46D-4948FD4B3273}"/>
-    <hyperlink ref="B75" r:id="rId102" xr:uid="{71274984-8993-484F-BE48-473C365566ED}"/>
-    <hyperlink ref="B61" r:id="rId103" xr:uid="{F40D981A-9713-1C42-A683-3439E3E2B5C2}"/>
-    <hyperlink ref="B24" r:id="rId104" xr:uid="{4222299C-5DDF-B044-8D4D-5FFDBDA1984F}"/>
-    <hyperlink ref="B15" r:id="rId105" xr:uid="{775F90E5-4BC4-CC41-BDDC-545579DD5AA1}"/>
-    <hyperlink ref="B125" r:id="rId106" xr:uid="{3F0014F1-69CF-AE4B-B16A-2DC170F19DFE}"/>
-    <hyperlink ref="B102" r:id="rId107" xr:uid="{16B24011-226E-EC4D-B7E4-037E49DCD973}"/>
-    <hyperlink ref="B2" r:id="rId108" xr:uid="{32D74EF5-25F3-654A-8F6E-97AF14EE1A84}"/>
-    <hyperlink ref="B70" r:id="rId109" xr:uid="{F461A805-B489-2841-AD2A-ECEC55BDBA4F}"/>
-    <hyperlink ref="B29" r:id="rId110" xr:uid="{B4AAD3B3-7576-1948-9681-9DCDE5122B03}"/>
-    <hyperlink ref="B17" r:id="rId111" xr:uid="{1DB527F0-3D16-3044-9E54-603F963D2B8C}"/>
-    <hyperlink ref="B33" r:id="rId112" xr:uid="{AC52BD4B-0E91-C349-833C-8016ACCB5346}"/>
-    <hyperlink ref="B89" r:id="rId113" xr:uid="{C2C42E66-157E-6E47-A084-AEF89116EBC1}"/>
-    <hyperlink ref="B88" r:id="rId114" xr:uid="{04D2CAD0-10EC-474F-AB41-B84A876B906F}"/>
-    <hyperlink ref="B81" r:id="rId115" xr:uid="{51282052-410A-4148-AB92-E38F392F7CB0}"/>
-    <hyperlink ref="B50" r:id="rId116" xr:uid="{26F85C1E-6B4D-2B4F-85A5-EDEBDBBB358C}"/>
-    <hyperlink ref="B99" r:id="rId117" xr:uid="{A1E1A0DC-5260-3C47-9D19-6E1086166D4D}"/>
-    <hyperlink ref="B135" r:id="rId118" xr:uid="{D7A4F151-D122-CA45-ADAE-D1F2C9338821}"/>
-    <hyperlink ref="B62" r:id="rId119" xr:uid="{274F4C0B-433A-E24A-A277-C12505DDB005}"/>
-    <hyperlink ref="B63" r:id="rId120" xr:uid="{3CDA0B6C-F2A8-1240-AEC8-134931154584}"/>
-    <hyperlink ref="B136" r:id="rId121" xr:uid="{3EA93E09-36A9-264D-B9B5-6D62B63F7BAA}"/>
-    <hyperlink ref="B92" r:id="rId122" xr:uid="{71E54464-9137-4D49-A9AC-4F4ABC112467}"/>
-    <hyperlink ref="B93" r:id="rId123" xr:uid="{E408C9F4-9EFC-3545-9D14-361E0C8F2092}"/>
-    <hyperlink ref="B39" r:id="rId124" xr:uid="{D6D6DCD7-B624-2F49-A0B6-574F98FB4AF9}"/>
-    <hyperlink ref="B98" r:id="rId125" xr:uid="{296EE09B-AE33-C14D-BCE7-2C5A52313396}"/>
-    <hyperlink ref="B38" r:id="rId126" xr:uid="{CE26DB80-B98B-7647-B924-672B6D853470}"/>
-    <hyperlink ref="B41" r:id="rId127" xr:uid="{9233C241-02EB-6E48-8758-A9D6C0127438}"/>
-    <hyperlink ref="B58" r:id="rId128" xr:uid="{587A7437-A894-7C40-B3AC-B80688C920C4}"/>
-    <hyperlink ref="B66" r:id="rId129" xr:uid="{D54D4AA4-E715-2243-9068-B3F8C903CE21}"/>
-    <hyperlink ref="B137" r:id="rId130" xr:uid="{0EB58137-441E-8B4C-978B-78186060B3A5}"/>
-    <hyperlink ref="B7" r:id="rId131" xr:uid="{4FD906C9-F682-4248-9D4A-1F247EF40E07}"/>
-    <hyperlink ref="B52" r:id="rId132" xr:uid="{9081822A-626E-DC45-B0DF-900E6F0707B2}"/>
-    <hyperlink ref="B25" r:id="rId133" xr:uid="{576B5CA8-2EB0-6744-B903-B4AAB5DF4A31}"/>
-    <hyperlink ref="B130" r:id="rId134" xr:uid="{6DE1D2DD-06EE-7B42-B379-3D5385BAF68F}"/>
-    <hyperlink ref="B86" r:id="rId135" xr:uid="{DC6F2EA3-BE2E-304C-BC18-032C330CADDB}"/>
-    <hyperlink ref="B108" r:id="rId136" xr:uid="{518BD4D5-E830-6944-BCC0-D5F09F18E021}"/>
-    <hyperlink ref="B119" r:id="rId137" xr:uid="{821D620C-10A4-DB41-8F30-5B46BB3E256D}"/>
-    <hyperlink ref="B129" r:id="rId138" xr:uid="{FADFADC4-837D-8A4F-BDEC-B0EA8C258EA0}"/>
-    <hyperlink ref="B149" r:id="rId139" xr:uid="{95648F4E-78F9-3C4E-AB5A-129EA44BAFF8}"/>
-    <hyperlink ref="B94" r:id="rId140" xr:uid="{2307C642-97EF-C545-8EA6-634834DA124C}"/>
-    <hyperlink ref="B144" r:id="rId141" xr:uid="{109B19A8-2C91-8E45-847B-C2F208D75FAB}"/>
-    <hyperlink ref="B74" r:id="rId142" xr:uid="{D484A0A5-8DE0-954E-9B1A-A4CA30CACAC8}"/>
-    <hyperlink ref="B120" r:id="rId143" xr:uid="{09CEBAA8-C839-254A-AE41-1FC2DCAF4690}"/>
-    <hyperlink ref="B37" r:id="rId144" xr:uid="{84049D22-82E0-1F48-A77C-98E0C1BCBBFA}"/>
-    <hyperlink ref="B82" r:id="rId145" xr:uid="{AC946D5D-560C-6640-9500-723394B900E4}"/>
-    <hyperlink ref="B107" r:id="rId146" xr:uid="{43EBE9A0-490E-8640-86B7-4B25B7B18CB6}"/>
-    <hyperlink ref="B9" r:id="rId147" xr:uid="{15A8FBA4-60D9-D341-87B3-7BDEA9C12447}"/>
-    <hyperlink ref="B77" r:id="rId148" xr:uid="{1EEBAEF7-0957-AA42-AD23-9610CBAABD6E}"/>
+    <hyperlink ref="B65" r:id="rId39" xr:uid="{39BE4BF4-C14F-F14C-A5BD-DB15143986DB}"/>
+    <hyperlink ref="B90" r:id="rId40" xr:uid="{5B226B39-E383-B34E-BD47-D28AFB432DEE}"/>
+    <hyperlink ref="B45" r:id="rId41" xr:uid="{26296D71-768D-104A-84BF-DF528EB9832E}"/>
+    <hyperlink ref="B34" r:id="rId42" xr:uid="{B6114F36-FE15-8E4E-967E-221FE4142B2D}"/>
+    <hyperlink ref="B127" r:id="rId43" xr:uid="{6452CF47-2D85-B64C-9033-264C61B3405D}"/>
+    <hyperlink ref="B55" r:id="rId44" xr:uid="{26789BEC-00CA-6447-AEB3-09ACB2166723}"/>
+    <hyperlink ref="B28" r:id="rId45" xr:uid="{FA8465E8-1CE1-F349-975E-510EFB788D08}"/>
+    <hyperlink ref="B121" r:id="rId46" xr:uid="{6B53878E-617B-5D44-9F8A-E8A267B89296}"/>
+    <hyperlink ref="B109" r:id="rId47" xr:uid="{9407E7D0-539C-7346-BF1B-F1511B809F1D}"/>
+    <hyperlink ref="B12" r:id="rId48" xr:uid="{96AAE011-1921-5540-B172-86B2029E9E98}"/>
+    <hyperlink ref="B103" r:id="rId49" xr:uid="{B0255F0F-C681-CC45-9670-C1B19218B527}"/>
+    <hyperlink ref="B80" r:id="rId50" xr:uid="{70AC56C5-D137-D04D-BBB0-F53470CBBD2B}"/>
+    <hyperlink ref="B100" r:id="rId51" xr:uid="{23B9CC41-F218-1642-A655-0BBFC00A1B6C}"/>
+    <hyperlink ref="B111" r:id="rId52" xr:uid="{34002492-FF7A-2F44-BEC0-73424414ECFA}"/>
+    <hyperlink ref="B95" r:id="rId53" xr:uid="{F0D91D20-E413-C04D-BF4E-7806E934B437}"/>
+    <hyperlink ref="B18" r:id="rId54" xr:uid="{022992BF-8D6C-384B-BDEC-1EEB165D395B}"/>
+    <hyperlink ref="B141" r:id="rId55" xr:uid="{567F6CE7-596B-7748-AC55-5D37C1C520CA}"/>
+    <hyperlink ref="B73" r:id="rId56" xr:uid="{32EC7377-367E-AA49-843C-6803EB939A67}"/>
+    <hyperlink ref="B137" r:id="rId57" xr:uid="{2C0EB88C-08A9-7E41-82C5-4169F857796A}"/>
+    <hyperlink ref="B13" r:id="rId58" xr:uid="{CC15577F-1A57-3A4F-AFCB-65EA07D1F632}"/>
+    <hyperlink ref="B79" r:id="rId59" xr:uid="{4E3D0DF7-7D26-8042-8D02-6203954E09C5}"/>
+    <hyperlink ref="B146" r:id="rId60" xr:uid="{B86A6D21-A559-F248-ADA8-ED4A3763EF38}"/>
+    <hyperlink ref="B120" r:id="rId61" xr:uid="{1C150FBA-A9C6-2C43-83B6-27F006E4A184}"/>
+    <hyperlink ref="B3" r:id="rId62" xr:uid="{40585DEC-A140-9649-87E9-784154D9B0F8}"/>
+    <hyperlink ref="B59" r:id="rId63" xr:uid="{5EA3A6A5-680E-8F42-9BD0-4A1AFF186A5B}"/>
+    <hyperlink ref="B35" r:id="rId64" xr:uid="{66A4996E-25C6-0548-AEA6-44980E555E7C}"/>
+    <hyperlink ref="B139" r:id="rId65" xr:uid="{1493932F-2990-0941-8F91-BD584AF77826}"/>
+    <hyperlink ref="B78" r:id="rId66" xr:uid="{D3164D01-BCC5-5D45-A728-77B2128A1C44}"/>
+    <hyperlink ref="B32" r:id="rId67" xr:uid="{F182D8C2-069E-B645-AA30-AA20C4BB46F6}"/>
+    <hyperlink ref="B101" r:id="rId68" xr:uid="{683708C2-008E-F548-93E2-07E253006914}"/>
+    <hyperlink ref="B43" r:id="rId69" xr:uid="{C6985457-1B53-2449-8464-F764FE8AD216}"/>
+    <hyperlink ref="B44" r:id="rId70" xr:uid="{8917DB16-F574-C742-9D4E-715061C27AFE}"/>
+    <hyperlink ref="B19" r:id="rId71" xr:uid="{DE4A69AF-2F18-F646-9434-5E07EEB36C62}"/>
+    <hyperlink ref="B40" r:id="rId72" xr:uid="{1954E2C6-7988-DA47-BF32-7C8A96F3D0DC}"/>
+    <hyperlink ref="B133" r:id="rId73" xr:uid="{470B9032-BCAB-244E-8C41-415D2FF7E4DB}"/>
+    <hyperlink ref="B27" r:id="rId74" xr:uid="{7E939423-CB8E-F44C-99E6-441DA331D5E0}"/>
+    <hyperlink ref="B26" r:id="rId75" xr:uid="{B620B53C-39C9-CF4D-8FBF-1C26B7A79E8D}"/>
+    <hyperlink ref="B64" r:id="rId76" xr:uid="{0112B004-64BB-C942-B638-C074434553C6}"/>
+    <hyperlink ref="B132" r:id="rId77" xr:uid="{4422172F-4C9E-3C41-B3F7-4750F48828AC}"/>
+    <hyperlink ref="B53" r:id="rId78" xr:uid="{194EFB3F-9659-BF44-A924-EC8FBA72A089}"/>
+    <hyperlink ref="B54" r:id="rId79" xr:uid="{9561B947-9389-714C-8ACE-D0F3A37D9555}"/>
+    <hyperlink ref="B49" r:id="rId80" xr:uid="{A51FD758-8698-3D4F-85EB-4DB8A243DD31}"/>
+    <hyperlink ref="B123" r:id="rId81" xr:uid="{F2982806-6FDB-EE4F-B9C2-F411A3C5322E}"/>
+    <hyperlink ref="B10" r:id="rId82" xr:uid="{4D46A99F-60EC-B84D-8F1A-4EE6DF44B9DA}"/>
+    <hyperlink ref="B57" r:id="rId83" xr:uid="{B5D17F78-3EB7-B744-9E19-C49259E74A1A}"/>
+    <hyperlink ref="B105" r:id="rId84" xr:uid="{03A6DFCB-D758-C04C-B7E5-2F5ACDFD7467}"/>
+    <hyperlink ref="B125" r:id="rId85" xr:uid="{3C315ED3-874C-FB46-866F-4713CB4DD9B1}"/>
+    <hyperlink ref="B115" r:id="rId86" xr:uid="{8CB17C4D-1B4F-BC4C-BBAA-5D947797CF59}"/>
+    <hyperlink ref="B8" r:id="rId87" xr:uid="{CA00C2EB-6E37-A647-AAF0-E253B5A59837}"/>
+    <hyperlink ref="B16" r:id="rId88" xr:uid="{98AB462B-DCBC-4F42-942A-46402E960030}"/>
+    <hyperlink ref="B144" r:id="rId89" xr:uid="{B1734414-BD98-5A4D-BC5B-02166D206157}"/>
+    <hyperlink ref="B69" r:id="rId90" xr:uid="{34BEBC5F-DA57-BF49-9327-44F90F5D2156}"/>
+    <hyperlink ref="B131" r:id="rId91" xr:uid="{9BE3E0E7-6480-2846-88DA-B0DA386C783E}"/>
+    <hyperlink ref="B71" r:id="rId92" xr:uid="{FE16A253-1001-A44A-A1EB-7191DAACA0D5}"/>
+    <hyperlink ref="B67" r:id="rId93" xr:uid="{82CA1914-3E4E-674E-9F60-B4760AD9AABD}"/>
+    <hyperlink ref="B68" r:id="rId94" xr:uid="{2375434C-0CFF-FD4A-944A-9DFA6B84F4B3}"/>
+    <hyperlink ref="B42" r:id="rId95" xr:uid="{F26B8D9C-81AF-7E40-8F27-7A6AA596A286}"/>
+    <hyperlink ref="B91" r:id="rId96" xr:uid="{6556E378-851A-9946-B9B0-B5440B0A5D33}"/>
+    <hyperlink ref="B11" r:id="rId97" xr:uid="{224002D3-60F3-3A4C-A0A9-580ED696AB21}"/>
+    <hyperlink ref="B76" r:id="rId98" xr:uid="{188F9D56-5C80-DC40-B981-C8D30FD4C1FE}"/>
+    <hyperlink ref="B56" r:id="rId99" xr:uid="{7160BBC9-7F5F-C444-AE36-FDCC9707B1DD}"/>
+    <hyperlink ref="B48" r:id="rId100" xr:uid="{C54F30F6-DAAF-4343-A46D-4948FD4B3273}"/>
+    <hyperlink ref="B75" r:id="rId101" xr:uid="{71274984-8993-484F-BE48-473C365566ED}"/>
+    <hyperlink ref="B61" r:id="rId102" xr:uid="{F40D981A-9713-1C42-A683-3439E3E2B5C2}"/>
+    <hyperlink ref="B24" r:id="rId103" xr:uid="{4222299C-5DDF-B044-8D4D-5FFDBDA1984F}"/>
+    <hyperlink ref="B15" r:id="rId104" xr:uid="{775F90E5-4BC4-CC41-BDDC-545579DD5AA1}"/>
+    <hyperlink ref="B124" r:id="rId105" xr:uid="{3F0014F1-69CF-AE4B-B16A-2DC170F19DFE}"/>
+    <hyperlink ref="B102" r:id="rId106" xr:uid="{16B24011-226E-EC4D-B7E4-037E49DCD973}"/>
+    <hyperlink ref="B2" r:id="rId107" xr:uid="{32D74EF5-25F3-654A-8F6E-97AF14EE1A84}"/>
+    <hyperlink ref="B70" r:id="rId108" xr:uid="{F461A805-B489-2841-AD2A-ECEC55BDBA4F}"/>
+    <hyperlink ref="B29" r:id="rId109" xr:uid="{B4AAD3B3-7576-1948-9681-9DCDE5122B03}"/>
+    <hyperlink ref="B17" r:id="rId110" xr:uid="{1DB527F0-3D16-3044-9E54-603F963D2B8C}"/>
+    <hyperlink ref="B33" r:id="rId111" xr:uid="{AC52BD4B-0E91-C349-833C-8016ACCB5346}"/>
+    <hyperlink ref="B89" r:id="rId112" xr:uid="{C2C42E66-157E-6E47-A084-AEF89116EBC1}"/>
+    <hyperlink ref="B88" r:id="rId113" xr:uid="{04D2CAD0-10EC-474F-AB41-B84A876B906F}"/>
+    <hyperlink ref="B81" r:id="rId114" xr:uid="{51282052-410A-4148-AB92-E38F392F7CB0}"/>
+    <hyperlink ref="B50" r:id="rId115" xr:uid="{26F85C1E-6B4D-2B4F-85A5-EDEBDBBB358C}"/>
+    <hyperlink ref="B99" r:id="rId116" xr:uid="{A1E1A0DC-5260-3C47-9D19-6E1086166D4D}"/>
+    <hyperlink ref="B134" r:id="rId117" xr:uid="{D7A4F151-D122-CA45-ADAE-D1F2C9338821}"/>
+    <hyperlink ref="B62" r:id="rId118" xr:uid="{274F4C0B-433A-E24A-A277-C12505DDB005}"/>
+    <hyperlink ref="B63" r:id="rId119" xr:uid="{3CDA0B6C-F2A8-1240-AEC8-134931154584}"/>
+    <hyperlink ref="B135" r:id="rId120" xr:uid="{3EA93E09-36A9-264D-B9B5-6D62B63F7BAA}"/>
+    <hyperlink ref="B92" r:id="rId121" xr:uid="{71E54464-9137-4D49-A9AC-4F4ABC112467}"/>
+    <hyperlink ref="B93" r:id="rId122" xr:uid="{E408C9F4-9EFC-3545-9D14-361E0C8F2092}"/>
+    <hyperlink ref="B39" r:id="rId123" xr:uid="{D6D6DCD7-B624-2F49-A0B6-574F98FB4AF9}"/>
+    <hyperlink ref="B98" r:id="rId124" xr:uid="{296EE09B-AE33-C14D-BCE7-2C5A52313396}"/>
+    <hyperlink ref="B38" r:id="rId125" xr:uid="{CE26DB80-B98B-7647-B924-672B6D853470}"/>
+    <hyperlink ref="B41" r:id="rId126" xr:uid="{9233C241-02EB-6E48-8758-A9D6C0127438}"/>
+    <hyperlink ref="B58" r:id="rId127" xr:uid="{587A7437-A894-7C40-B3AC-B80688C920C4}"/>
+    <hyperlink ref="B66" r:id="rId128" xr:uid="{D54D4AA4-E715-2243-9068-B3F8C903CE21}"/>
+    <hyperlink ref="B136" r:id="rId129" xr:uid="{0EB58137-441E-8B4C-978B-78186060B3A5}"/>
+    <hyperlink ref="B7" r:id="rId130" xr:uid="{4FD906C9-F682-4248-9D4A-1F247EF40E07}"/>
+    <hyperlink ref="B52" r:id="rId131" xr:uid="{9081822A-626E-DC45-B0DF-900E6F0707B2}"/>
+    <hyperlink ref="B25" r:id="rId132" xr:uid="{576B5CA8-2EB0-6744-B903-B4AAB5DF4A31}"/>
+    <hyperlink ref="B129" r:id="rId133" xr:uid="{6DE1D2DD-06EE-7B42-B379-3D5385BAF68F}"/>
+    <hyperlink ref="B86" r:id="rId134" xr:uid="{DC6F2EA3-BE2E-304C-BC18-032C330CADDB}"/>
+    <hyperlink ref="B107" r:id="rId135" xr:uid="{518BD4D5-E830-6944-BCC0-D5F09F18E021}"/>
+    <hyperlink ref="B118" r:id="rId136" xr:uid="{821D620C-10A4-DB41-8F30-5B46BB3E256D}"/>
+    <hyperlink ref="B128" r:id="rId137" xr:uid="{FADFADC4-837D-8A4F-BDEC-B0EA8C258EA0}"/>
+    <hyperlink ref="B148" r:id="rId138" xr:uid="{95648F4E-78F9-3C4E-AB5A-129EA44BAFF8}"/>
+    <hyperlink ref="B94" r:id="rId139" xr:uid="{2307C642-97EF-C545-8EA6-634834DA124C}"/>
+    <hyperlink ref="B143" r:id="rId140" xr:uid="{109B19A8-2C91-8E45-847B-C2F208D75FAB}"/>
+    <hyperlink ref="B74" r:id="rId141" xr:uid="{D484A0A5-8DE0-954E-9B1A-A4CA30CACAC8}"/>
+    <hyperlink ref="B119" r:id="rId142" xr:uid="{09CEBAA8-C839-254A-AE41-1FC2DCAF4690}"/>
+    <hyperlink ref="B37" r:id="rId143" xr:uid="{84049D22-82E0-1F48-A77C-98E0C1BCBBFA}"/>
+    <hyperlink ref="B82" r:id="rId144" xr:uid="{AC946D5D-560C-6640-9500-723394B900E4}"/>
+    <hyperlink ref="B106" r:id="rId145" xr:uid="{43EBE9A0-490E-8640-86B7-4B25B7B18CB6}"/>
+    <hyperlink ref="B9" r:id="rId146" xr:uid="{15A8FBA4-60D9-D341-87B3-7BDEA9C12447}"/>
+    <hyperlink ref="B77" r:id="rId147" xr:uid="{1EEBAEF7-0957-AA42-AD23-9610CBAABD6E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId149"/>
+    <tablePart r:id="rId148"/>
   </tableParts>
 </worksheet>
 </file>
@@ -25997,8 +26030,8 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28279,7 +28312,9 @@
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -29057,8 +29092,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30069,8 +30104,8 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35413,7 +35448,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36217,9 +36252,7 @@
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -36247,16 +36280,20 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34">
+    <row r="2" spans="1:6" ht="68">
       <c r="A2" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>1889</v>
+      </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>1807</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="34">
@@ -36295,16 +36332,20 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="34">
+    <row r="6" spans="1:6" ht="68">
       <c r="A6" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1889</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>1807</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="51">
@@ -36711,7 +36752,9 @@
       <c r="C38" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>1890</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>1805</v>
       </c>
@@ -38130,7 +38173,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -38888,8 +38933,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39699,7 +39744,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
